--- a/scan_skipped.xlsx
+++ b/scan_skipped.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A478"/>
+  <dimension ref="A1:A496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,476 +620,476 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RY</t>
+          <t>TMO</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>CRM</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CRM</t>
+          <t>TMUS</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>TMUS</t>
+          <t>WFC-PY</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>WFC-PY</t>
+          <t>DIS</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>BA</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>WFC-PL</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>WFC-PL</t>
+          <t>ISRG</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ISRG</t>
+          <t>ABT</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>BX</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BX</t>
+          <t>APP</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>SHOP</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SHOP</t>
+          <t>ACN</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>UBER</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>DHR</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>DHR</t>
+          <t>TJX</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>TJX</t>
+          <t>BKNG</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>QCOM</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>HDB</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HDB</t>
+          <t>SPGI</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SPGI</t>
+          <t>INTU</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>PDD</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PDD</t>
+          <t>NOW</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>COF</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>COF</t>
+          <t>BSX</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BSX</t>
+          <t>SONY</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SONY</t>
+          <t>SYK</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SYK</t>
+          <t>PANW</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>ADBE</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>WELL</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>WELL</t>
+          <t>PGR</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PGR</t>
+          <t>ARM</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>CRWD</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>SNY</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SNY</t>
+          <t>KKR</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>CVS</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>BN</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BN</t>
+          <t>SPOT</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SPOT</t>
+          <t>ADP</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>IBN</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>IBN</t>
+          <t>CEG</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>CVNA</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CVNA</t>
+          <t>GD</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>SNPS</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SNPS</t>
+          <t>HOOD</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>NKE</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>MCO</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>DASH</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>CDNS</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>HWM</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>HWM</t>
+          <t>NTES</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>NTES</t>
+          <t>ELV</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ELV</t>
+          <t>MMM</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>MS-PK</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MS-PK</t>
+          <t>BAM</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BAM</t>
+          <t>MS-PI</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>MS-PI</t>
+          <t>CRH</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>CRH</t>
+          <t>ABNB</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ABNB</t>
+          <t>REGN</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>REGN</t>
+          <t>MS-PF</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>MS-PF</t>
+          <t>MS-PE</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>MS-PE</t>
+          <t>CTAS</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CTAS</t>
+          <t>DELL</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>APO</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>APO</t>
+          <t>INFY</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>CI</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>SE</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>AON</t>
         </is>
       </c>
     </row>
@@ -1103,378 +1103,378 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>RELX</t>
+          <t>GS-PD</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>RELX</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>MRVL</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>WBD</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>TEL</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>AJG</t>
+          <t>NET</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>DUK-PA</t>
+          <t>AJG</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ROST</t>
+          <t>DUK-PA</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>RACE</t>
+          <t>ROST</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>RKT</t>
+          <t>RACE</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CTA-PB</t>
+          <t>RKT</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>URI</t>
+          <t>CTA-PB</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>APD</t>
+          <t>URI</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>NXPI</t>
+          <t>APD</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BDX</t>
+          <t>NXPI</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ADSK</t>
+          <t>BDX</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>COIN</t>
+          <t>ADSK</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>COIN</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>IDXX</t>
+          <t>SRE</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>TRI</t>
+          <t>IDXX</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ZTS</t>
+          <t>TRI</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>ZTS</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>PYPL</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>CMG</t>
+          <t>VST</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>RBLX</t>
+          <t>CMG</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ALL</t>
+          <t>RBLX</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>MET</t>
+          <t>ALL</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>MET</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SCHW-PD</t>
+          <t>EA</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>WDAY</t>
+          <t>SCHW-PD</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>EW</t>
+          <t>WDAY</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ARES</t>
+          <t>EW</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>PSA</t>
+          <t>ARES</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>AXON</t>
+          <t>PSA</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>AXON</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ALNY</t>
+          <t>DDOG</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>TGT</t>
+          <t>ALNY</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>CTA-PA</t>
+          <t>TGT</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>HEI</t>
+          <t>CTA-PA</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>HEI</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>TTWO</t>
+          <t>MSTR</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>SPG-PJ</t>
+          <t>TTWO</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>SPG-PJ</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>DAL</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ROP</t>
+          <t>WCN</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>JD</t>
+          <t>ROP</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>DHI</t>
+          <t>JD</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DHI</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>MET-PA</t>
+          <t>KR</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>MET-PA</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>TCOM</t>
+          <t>CTSH</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>LVS</t>
+          <t>TCOM</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>AIG</t>
+          <t>LVS</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>IQV</t>
+          <t>AIG</t>
         </is>
       </c>
     </row>
@@ -1705,28 +1705,28 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>MDB</t>
+          <t>RJF</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>PCG</t>
+          <t>MDB</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>EXPE</t>
+          <t>PCG</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>UI</t>
+          <t>EXPE</t>
         </is>
       </c>
     </row>
@@ -1866,1902 +1866,2028 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>HPE</t>
+          <t>LPLA</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>TME</t>
+          <t>HPE</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>STZ</t>
+          <t>TME</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>STLA</t>
+          <t>DOV</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>KHC</t>
+          <t>STLA</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>CSGP</t>
+          <t>KHC</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ALAB</t>
+          <t>CSGP</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>WIT</t>
+          <t>ALAB</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>LEN</t>
+          <t>WIT</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>HBAN</t>
+          <t>LEN</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ATO</t>
+          <t>HBAN</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>BRO</t>
+          <t>ATO</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>CHTR</t>
+          <t>BRO</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>LEN-B</t>
+          <t>CHTR</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>EFX</t>
+          <t>LEN-B</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EFX</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>TPR</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>TPR</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>STE</t>
+          <t>FSLR</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>MKL</t>
+          <t>STE</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>MKL</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>AWK</t>
+          <t>DLTR</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>OMC</t>
+          <t>AWK</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>WRB</t>
+          <t>OMC</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>AVB</t>
+          <t>WRB</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>VLTO</t>
+          <t>AVB</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>DLR-PK</t>
+          <t>VLTO</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>CINF</t>
+          <t>DLR-PK</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>FCNCA</t>
+          <t>CINF</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FCNCA</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>LDOS</t>
+          <t>BR</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>GIS</t>
+          <t>LDOS</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>AXIA-PC</t>
+          <t>GIS</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>VRSN</t>
+          <t>AXIA-PC</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>TPG</t>
+          <t>VRSN</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>TROW</t>
+          <t>TPG</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>TROW</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>WAT</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>CRDO</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>NBIS</t>
+          <t>CRDO</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>NBIS</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>DRI</t>
+          <t>CPAY</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>OWL</t>
+          <t>LULU</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>CNC</t>
+          <t>DRI</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>OWL</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>FUTU</t>
+          <t>CNC</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>AFRM</t>
+          <t>IP</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>DLR-PJ</t>
+          <t>FUTU</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>TLK</t>
+          <t>AFRM</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>CYBR</t>
+          <t>DLR-PJ</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>FWONK</t>
+          <t>TLK</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>FWONA</t>
+          <t>CYBR</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>FWONK</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>RL</t>
+          <t>FWONA</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>UTHR</t>
+          <t>CG</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>GPN</t>
+          <t>RL</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>UTHR</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>SSNC</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>TWLO</t>
+          <t>GPN</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>IHG</t>
+          <t>AS</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>SSNC</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>INCY</t>
+          <t>TWLO</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>SBAC</t>
+          <t>IHG</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>WWD</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>CHKP</t>
+          <t>INCY</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>SBAC</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>NTAP</t>
+          <t>WWD</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>TOST</t>
+          <t>CHKP</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>SGI</t>
+          <t>PTC</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>GIB</t>
+          <t>NTAP</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>RIVN</t>
+          <t>TOST</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>PODD</t>
+          <t>SGI</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>TYL</t>
+          <t>GIB</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>IFF</t>
+          <t>RIVN</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>RVMD</t>
+          <t>PODD</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>HIG-PG</t>
+          <t>TYL</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>GRAB</t>
+          <t>IFF</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>RVMD</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>FTV</t>
+          <t>HIG-PG</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>BURL</t>
+          <t>GRAB</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>IOT</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>SMCI</t>
+          <t>FTV</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>DKS</t>
+          <t>BURL</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>HPQ</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>CRCL</t>
+          <t>SMCI</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>LII</t>
+          <t>DKS</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>FITBI</t>
+          <t>HPQ</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>XPEV</t>
+          <t>CRCL</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>LII</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>PSNYW</t>
+          <t>FITBI</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>ALLY</t>
+          <t>XPEV</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>IT</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>PINS</t>
+          <t>PSNYW</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>ESS</t>
+          <t>ALLY</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>PNR</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>CRS</t>
+          <t>PINS</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>ESS</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>HUBS</t>
+          <t>SN</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>ZBH</t>
+          <t>CRS</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>LNT</t>
+          <t>WST</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>HUBS</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>ZBH</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>MEDP</t>
+          <t>LNT</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>QXO</t>
+          <t>ZG</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>TRMB</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>MEDP</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>THC</t>
+          <t>QXO</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>APTV</t>
+          <t>TXT</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>TKO</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>THC</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>APTV</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>TKO</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>INVH</t>
+          <t>CDW</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>MKC</t>
+          <t>TRU</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>TTD</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>MKC-V</t>
+          <t>INVH</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>MAA</t>
+          <t>MKC</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>OKTA</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>COO</t>
+          <t>MKC-V</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>TLN</t>
+          <t>MAA</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>WMG</t>
+          <t>OKTA</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>ROKU</t>
+          <t>COO</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ROIV</t>
+          <t>TLN</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>GEN</t>
+          <t>GFL</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>WMG</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>HTHT</t>
+          <t>ROKU</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>ROIV</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>ONON</t>
+          <t>GEN</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>DKNG</t>
+          <t>NWSA</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>AVAV</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>MGA</t>
+          <t>HTHT</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>KEY-PI</t>
+          <t>IONQ</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>DECK</t>
+          <t>ONON</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>CSL</t>
+          <t>DKNG</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>GH</t>
+          <t>AVAV</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>ULS</t>
+          <t>MGA</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>GDDY</t>
+          <t>KEY-PI</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>ARCC</t>
+          <t>DECK</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>ICLR</t>
+          <t>CSL</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>FIG</t>
+          <t>GH</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>RGC</t>
+          <t>FNF</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>PNFP</t>
+          <t>ULS</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>MAS</t>
+          <t>GDDY</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>ERIE</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>EVR</t>
+          <t>ARCC</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>BBY</t>
+          <t>ICLR</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>LOGI</t>
+          <t>AVY</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>EQH</t>
+          <t>FIG</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>RPM</t>
+          <t>RGC</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>GWRE</t>
+          <t>PNFP</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>SOLV</t>
+          <t>MAS</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>RBRK</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>FIGR</t>
+          <t>KIM</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>NLY-PG</t>
+          <t>EVR</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>NLY-PF</t>
+          <t>DPZ</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>AMH</t>
+          <t>BBY</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>NBIX</t>
+          <t>UDR</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>OHI</t>
+          <t>LOGI</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>RVTY</t>
+          <t>EQH</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>JKHY</t>
+          <t>RPM</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>RYAN</t>
+          <t>GWRE</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>SOLV</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>RBRK</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>RGA</t>
+          <t>FIGR</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>PSKY</t>
+          <t>NLY-PG</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>UHS</t>
+          <t>NLY-PF</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>CHWY</t>
+          <t>AMH</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>LAMR</t>
+          <t>NBIX</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>UNM</t>
+          <t>OHI</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>SNAP</t>
+          <t>RVTY</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>JEF</t>
+          <t>JKHY</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>FMS</t>
+          <t>RYAN</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>BNT</t>
+          <t>BLDR</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>BJ</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>OKLO</t>
+          <t>RGA</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>HLI</t>
+          <t>PSKY</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>BF-A</t>
+          <t>UHS</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>IVZ</t>
+          <t>CHWY</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>LAMR</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>BF-B</t>
+          <t>UNM</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>SWK</t>
+          <t>SNAP</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>BMNR</t>
+          <t>JEF</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>GMED</t>
+          <t>FMS</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>BNT</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>ZBRA</t>
+          <t>BJ</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>TXRH</t>
+          <t>OKLO</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>HLI</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>SMMT</t>
+          <t>BF-A</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>IVZ</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>ALGN</t>
+          <t>ACM</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>JOBY</t>
+          <t>BF-B</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>SWK</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>TEM</t>
+          <t>BMNR</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>WMS</t>
+          <t>GMED</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>WYNN</t>
+          <t>DT</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>EXEL</t>
+          <t>ZBRA</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>NTNX</t>
+          <t>TXRH</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>BSY</t>
+          <t>DOC</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>RDY</t>
+          <t>SMMT</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>DOCU</t>
+          <t>EPAM</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>BXP</t>
+          <t>ALGN</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>LSCC</t>
+          <t>JOBY</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>MDGL</t>
+          <t>SUZ</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>CR</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>SCI</t>
+          <t>TEM</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>MICC</t>
+          <t>WMS</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>CNM</t>
+          <t>WYNN</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>MP</t>
+          <t>AIZ</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>WTRG</t>
+          <t>EXEL</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>DAY</t>
+          <t>NTNX</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>SARO</t>
+          <t>BSY</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>RDY</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>BMRN</t>
+          <t>DOCU</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>WLK</t>
+          <t>BXP</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>SPXC</t>
+          <t>LSCC</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>MANH</t>
+          <t>MDGL</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>FDS</t>
+          <t>BAH</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>SCI</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>CART</t>
+          <t>MICC</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>AIT</t>
+          <t>CNM</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>PAG</t>
+          <t>MP</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>TECH</t>
+          <t>GL</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>YMM</t>
+          <t>WTRG</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>DAY</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>ENSG</t>
+          <t>SARO</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>CRL</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>PCOR</t>
+          <t>BMRN</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>KLAR</t>
+          <t>MOH</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>JAZZ</t>
+          <t>WLK</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>BAX</t>
+          <t>SPXC</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>CHYM</t>
+          <t>MANH</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>FDS</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>SANM</t>
+          <t>AFG</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>COKE</t>
+          <t>CART</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>OSK</t>
+          <t>AIT</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>EHC</t>
+          <t>PAG</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>SOLS</t>
+          <t>TECH</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>YMM</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>TAP</t>
+          <t>FIVE</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>DDS</t>
+          <t>ENSG</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>BROS</t>
+          <t>OC</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>REXR</t>
+          <t>PCOR</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>AAL</t>
+          <t>KLAR</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>ORI</t>
+          <t>ARMK</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>AYI</t>
+          <t>JAZZ</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>ABVX</t>
+          <t>BAX</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>EGP</t>
+          <t>CHYM</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>ACI</t>
+          <t>SAIL</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>HSIC</t>
+          <t>SANM</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>KNSL</t>
+          <t>COKE</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>POOL</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>GS-PC</t>
+          <t>OSK</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>SAIA</t>
+          <t>EHC</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>RGEN</t>
+          <t>SOLS</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>DOX</t>
+          <t>ARE</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>KNX</t>
+          <t>TAP</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>SWKS</t>
+          <t>DDS</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>MORN</t>
+          <t>BROS</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>QBTS</t>
+          <t>REXR</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>TTAN</t>
+          <t>AAL</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>RZB</t>
+          <t>ORI</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>FRT</t>
+          <t>AYI</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>AGNCM</t>
+          <t>ABVX</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>AGNCN</t>
+          <t>EGP</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>ZION</t>
+          <t>ACI</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>PEGA</t>
+          <t>HSIC</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>COLB</t>
+          <t>KNSL</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>CUBE</t>
+          <t>MGM</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>VIPS</t>
+          <t>GS-PC</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>AUR</t>
+          <t>SAIA</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>LEVI</t>
+          <t>RGEN</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
+        <is>
+          <t>DOX</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>KNX</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>SWKS</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>OGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>MORN</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>QBTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>TTAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>RZB</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>FRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>AGNCM</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>AGNCN</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>ZION</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>PEGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>COLB</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>CUBE</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>VIPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>AUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>LEVI</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
         <is>
           <t>ADC</t>
         </is>

--- a/scan_skipped.xlsx
+++ b/scan_skipped.xlsx
@@ -578,903 +578,903 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AZN</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SAP</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>WFC</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>WFC</t>
+          <t>BAC-PB</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BAC-PB</t>
+          <t>AXP</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>TMO</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>CRM</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CRM</t>
+          <t>TMUS</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TMUS</t>
+          <t>WFC-PY</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>WFC-PY</t>
+          <t>DIS</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>BA</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>WFC-PL</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>WFC-PL</t>
+          <t>ISRG</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ISRG</t>
+          <t>ABT</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>BX</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BX</t>
+          <t>APP</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>SHOP</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SHOP</t>
+          <t>ACN</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>UBER</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>DHR</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>DHR</t>
+          <t>TJX</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>TJX</t>
+          <t>BKNG</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>QCOM</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>HDB</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HDB</t>
+          <t>SPGI</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SPGI</t>
+          <t>INTU</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>PDD</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PDD</t>
+          <t>NOW</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>COF</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>COF</t>
+          <t>BSX</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BSX</t>
+          <t>SONY</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SONY</t>
+          <t>SYK</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SYK</t>
+          <t>PANW</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>ADBE</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>PGR</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>WELL</t>
+          <t>ARM</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PGR</t>
+          <t>CRWD</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>SNY</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>KKR</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SNY</t>
+          <t>CVS</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>BN</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>SPOT</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BN</t>
+          <t>ADP</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SPOT</t>
+          <t>IBN</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>CEG</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>IBN</t>
+          <t>CVNA</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>GD</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CVNA</t>
+          <t>SNPS</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>HOOD</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SNPS</t>
+          <t>NKE</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>MCO</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>WM</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>DASH</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>CDNS</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>HWM</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>HWM</t>
+          <t>NTES</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>NTES</t>
+          <t>ELV</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ELV</t>
+          <t>MMM</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>MS-PK</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MS-PK</t>
+          <t>BAM</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BAM</t>
+          <t>MS-PI</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MS-PI</t>
+          <t>CRH</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CRH</t>
+          <t>ABNB</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ABNB</t>
+          <t>REGN</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>REGN</t>
+          <t>MS-PF</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>MS-PF</t>
+          <t>MS-PE</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>MS-PE</t>
+          <t>CTAS</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>CTAS</t>
+          <t>DELL</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>APO</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>APO</t>
+          <t>INFY</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>CI</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>SE</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>AON</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>AON</t>
+          <t>SNOW</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SNOW</t>
+          <t>RELX</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>GS-PD</t>
+          <t>MRVL</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>RELX</t>
+          <t>WBD</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>TEL</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>NET</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>AJG</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>DUK-PA</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>AJG</t>
+          <t>ROST</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>DUK-PA</t>
+          <t>RACE</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ROST</t>
+          <t>RKT</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>RACE</t>
+          <t>CTA-PB</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>RKT</t>
+          <t>URI</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>CTA-PB</t>
+          <t>APD</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>URI</t>
+          <t>NXPI</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>APD</t>
+          <t>BDX</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>NXPI</t>
+          <t>ADSK</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BDX</t>
+          <t>COIN</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ADSK</t>
+          <t>NDAQ</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>COIN</t>
+          <t>SRE</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>IDXX</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>IDXX</t>
+          <t>TRI</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>TRI</t>
+          <t>ZTS</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ZTS</t>
+          <t>PYPL</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>VST</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>CMG</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>CMG</t>
+          <t>RBLX</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>RBLX</t>
+          <t>ALL</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ALL</t>
+          <t>MET</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>MET</t>
+          <t>EA</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SCHW-PD</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SCHW-PD</t>
+          <t>WDAY</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>WDAY</t>
+          <t>EW</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>EW</t>
+          <t>ARES</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ARES</t>
+          <t>PSA</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>PSA</t>
+          <t>AXON</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>AXON</t>
+          <t>DDOG</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>ALNY</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ALNY</t>
+          <t>TGT</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>TGT</t>
+          <t>CTA-PA</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>CTA-PA</t>
+          <t>HEI</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>HEI</t>
+          <t>MSTR</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>TTWO</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>TTWO</t>
+          <t>SPG-PJ</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SPG-PJ</t>
+          <t>DAL</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>WCN</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>ROP</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ROP</t>
+          <t>JD</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>JD</t>
+          <t>DHI</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>DHI</t>
+          <t>KR</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>MET-PA</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>MET-PA</t>
+          <t>CTSH</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>TCOM</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>TCOM</t>
+          <t>LVS</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>LVS</t>
+          <t>AIG</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>AIG</t>
+          <t>IQV</t>
         </is>
       </c>
     </row>
@@ -1859,301 +1859,301 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>SYF</t>
+          <t>NRG</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>LPLA</t>
+          <t>SYF</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>HPE</t>
+          <t>LPLA</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>TME</t>
+          <t>HPE</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>DOV</t>
+          <t>TME</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>STLA</t>
+          <t>DOV</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>KHC</t>
+          <t>STLA</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>CSGP</t>
+          <t>KHC</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>ALAB</t>
+          <t>CSGP</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>WIT</t>
+          <t>ALAB</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>LEN</t>
+          <t>WIT</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>HBAN</t>
+          <t>LEN</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ATO</t>
+          <t>HBAN</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>BRO</t>
+          <t>ATO</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>CHTR</t>
+          <t>BRO</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>LEN-B</t>
+          <t>CHTR</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>EFX</t>
+          <t>LEN-B</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EFX</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>TPR</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>TPR</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>STE</t>
+          <t>FSLR</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>MKL</t>
+          <t>STE</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>MKL</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>AWK</t>
+          <t>DLTR</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>OMC</t>
+          <t>AWK</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>WRB</t>
+          <t>OMC</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>AVB</t>
+          <t>WRB</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>VLTO</t>
+          <t>AVB</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>DLR-PK</t>
+          <t>VLTO</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>CINF</t>
+          <t>DLR-PK</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>FCNCA</t>
+          <t>CINF</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FCNCA</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>LDOS</t>
+          <t>BR</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>GIS</t>
+          <t>LDOS</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>AXIA-PC</t>
+          <t>GIS</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>VRSN</t>
+          <t>AXIA-PC</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>TPG</t>
+          <t>VRSN</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>TROW</t>
+          <t>TPG</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>TROW</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>WAT</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>CRDO</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>NBIS</t>
+          <t>CRDO</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>CPAY</t>
+          <t>NBIS</t>
         </is>
       </c>
     </row>
@@ -2167,91 +2167,91 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>DRI</t>
+          <t>OWL</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>OWL</t>
+          <t>CNC</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>CNC</t>
+          <t>IP</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>FUTU</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>FUTU</t>
+          <t>AFRM</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>AFRM</t>
+          <t>DLR-PJ</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>DLR-PJ</t>
+          <t>TLK</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>TLK</t>
+          <t>CYBR</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>CYBR</t>
+          <t>FWONK</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>FWONK</t>
+          <t>FWONA</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>FWONA</t>
+          <t>CG</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>RL</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>RL</t>
+          <t>CMS</t>
         </is>
       </c>
     </row>
@@ -2265,651 +2265,651 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>GPN</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>GPN</t>
+          <t>AS</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>SSNC</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>SSNC</t>
+          <t>TWLO</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>TWLO</t>
+          <t>IHG</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>IHG</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>INCY</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>INCY</t>
+          <t>SBAC</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>SBAC</t>
+          <t>WWD</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>WWD</t>
+          <t>CHKP</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>CHKP</t>
+          <t>PTC</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>NTAP</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>NTAP</t>
+          <t>TOST</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>TOST</t>
+          <t>SGI</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>SGI</t>
+          <t>GIB</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>GIB</t>
+          <t>RIVN</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>RIVN</t>
+          <t>PODD</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>PODD</t>
+          <t>TYL</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>TYL</t>
+          <t>IFF</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>IFF</t>
+          <t>RVMD</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>RVMD</t>
+          <t>HIG-PG</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>HIG-PG</t>
+          <t>GRAB</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>GRAB</t>
+          <t>IOT</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>FTV</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>FTV</t>
+          <t>BURL</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>BURL</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>SMCI</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>SMCI</t>
+          <t>DKS</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>DKS</t>
+          <t>HPQ</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>HPQ</t>
+          <t>CRCL</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>CRCL</t>
+          <t>LII</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>LII</t>
+          <t>FITBI</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>FITBI</t>
+          <t>XPEV</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>XPEV</t>
+          <t>IT</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>PSNYW</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>PSNYW</t>
+          <t>ALLY</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>ALLY</t>
+          <t>PNR</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>PINS</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>PINS</t>
+          <t>ESS</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>ESS</t>
+          <t>SN</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>CRS</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>CRS</t>
+          <t>WST</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>HUBS</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>HUBS</t>
+          <t>ZBH</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ZBH</t>
+          <t>LNT</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>LNT</t>
+          <t>ZG</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>TRMB</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>MEDP</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>MEDP</t>
+          <t>QXO</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>QXO</t>
+          <t>TXT</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>THC</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>THC</t>
+          <t>APTV</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>APTV</t>
+          <t>TKO</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>TKO</t>
+          <t>CDW</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>TRU</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>TTD</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>INVH</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>INVH</t>
+          <t>MKC</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>MKC</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>MKC-V</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>MKC-V</t>
+          <t>MAA</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>MAA</t>
+          <t>OKTA</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>OKTA</t>
+          <t>COO</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>COO</t>
+          <t>TLN</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>TLN</t>
+          <t>GFL</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>GFL</t>
+          <t>WMG</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>WMG</t>
+          <t>ROKU</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>ROKU</t>
+          <t>ROIV</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>ROIV</t>
+          <t>GEN</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>GEN</t>
+          <t>EWBC</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>NWSA</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>HTHT</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>HTHT</t>
+          <t>IONQ</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>ONON</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>ONON</t>
+          <t>DKNG</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>DKNG</t>
+          <t>AVAV</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>AVAV</t>
+          <t>MGA</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>MGA</t>
+          <t>KEY-PI</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>KEY-PI</t>
+          <t>DECK</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>DECK</t>
+          <t>CSL</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>CSL</t>
+          <t>GH</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>GH</t>
+          <t>FNF</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>FNF</t>
+          <t>ULS</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ULS</t>
+          <t>GDDY</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>GDDY</t>
+          <t>ERIE</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ERIE</t>
+          <t>ARCC</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ARCC</t>
+          <t>ICLR</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ICLR</t>
+          <t>AVY</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>AVY</t>
+          <t>FIG</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>FIG</t>
+          <t>RGC</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>RGC</t>
+          <t>PNFP</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>PNFP</t>
+          <t>ALLE</t>
         </is>
       </c>
     </row>
@@ -2930,917 +2930,917 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>KIM</t>
+          <t>EVR</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>EVR</t>
+          <t>DPZ</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>DPZ</t>
+          <t>BBY</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>BBY</t>
+          <t>UDR</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>LOGI</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>LOGI</t>
+          <t>EQH</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>EQH</t>
+          <t>RPM</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>RPM</t>
+          <t>GWRE</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>GWRE</t>
+          <t>SOLV</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>SOLV</t>
+          <t>RBRK</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>RBRK</t>
+          <t>FIGR</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>FIGR</t>
+          <t>NLY-PG</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>NLY-PG</t>
+          <t>NLY-PF</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>NLY-PF</t>
+          <t>AMH</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>AMH</t>
+          <t>NBIX</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>NBIX</t>
+          <t>OHI</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>OHI</t>
+          <t>RVTY</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>RVTY</t>
+          <t>JKHY</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>JKHY</t>
+          <t>RYAN</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>RYAN</t>
+          <t>BLDR</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>RGA</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>RGA</t>
+          <t>PSKY</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>PSKY</t>
+          <t>UHS</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>UHS</t>
+          <t>CHWY</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>CHWY</t>
+          <t>LAMR</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>LAMR</t>
+          <t>UNM</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>UNM</t>
+          <t>SNAP</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>SNAP</t>
+          <t>JEF</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>JEF</t>
+          <t>FMS</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>FMS</t>
+          <t>BNT</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>BNT</t>
+          <t>BJ</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>BJ</t>
+          <t>OKLO</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>OKLO</t>
+          <t>HLI</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>HLI</t>
+          <t>BF-A</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>BF-A</t>
+          <t>IVZ</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>IVZ</t>
+          <t>ACM</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>BF-B</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>BF-B</t>
+          <t>SWK</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>SWK</t>
+          <t>BMNR</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>BMNR</t>
+          <t>GMED</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>GMED</t>
+          <t>DT</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>ZBRA</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>ZBRA</t>
+          <t>DOC</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>TXRH</t>
+          <t>SMMT</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>EPAM</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>SMMT</t>
+          <t>ALGN</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>JOBY</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>ALGN</t>
+          <t>SUZ</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>JOBY</t>
+          <t>CR</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>SUZ</t>
+          <t>TEM</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>WMS</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>TEM</t>
+          <t>WYNN</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>WMS</t>
+          <t>AIZ</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>WYNN</t>
+          <t>EXEL</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>AIZ</t>
+          <t>NTNX</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>EXEL</t>
+          <t>BSY</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>NTNX</t>
+          <t>RDY</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>BSY</t>
+          <t>DOCU</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>RDY</t>
+          <t>BXP</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>DOCU</t>
+          <t>LSCC</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>BXP</t>
+          <t>MDGL</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>LSCC</t>
+          <t>BAH</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>MDGL</t>
+          <t>SCI</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>MICC</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>SCI</t>
+          <t>CNM</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>MICC</t>
+          <t>MP</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>CNM</t>
+          <t>GL</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>MP</t>
+          <t>WTRG</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>GL</t>
+          <t>DAY</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>WTRG</t>
+          <t>SARO</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>DAY</t>
+          <t>CRL</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>SARO</t>
+          <t>BMRN</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>WLK</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>BMRN</t>
+          <t>SPXC</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>MOH</t>
+          <t>MANH</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>WLK</t>
+          <t>FDS</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>SPXC</t>
+          <t>AFG</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>MANH</t>
+          <t>CART</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>FDS</t>
+          <t>AIT</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>PAG</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>CART</t>
+          <t>TECH</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>AIT</t>
+          <t>YMM</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>PAG</t>
+          <t>FIVE</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>TECH</t>
+          <t>ENSG</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>YMM</t>
+          <t>OC</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>PCOR</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>ENSG</t>
+          <t>KLAR</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>ARMK</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>PCOR</t>
+          <t>JAZZ</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>KLAR</t>
+          <t>BAX</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>ARMK</t>
+          <t>CHYM</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>JAZZ</t>
+          <t>SAIL</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>BAX</t>
+          <t>SANM</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>CHYM</t>
+          <t>COKE</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>POOL</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>SANM</t>
+          <t>VNO-PM</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>COKE</t>
+          <t>OSK</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>POOL</t>
+          <t>EHC</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>OSK</t>
+          <t>SOLS</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>EHC</t>
+          <t>ARE</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>SOLS</t>
+          <t>TAP</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>DDS</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>TAP</t>
+          <t>BROS</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>DDS</t>
+          <t>REXR</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>BROS</t>
+          <t>AAL</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>REXR</t>
+          <t>ORI</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>AAL</t>
+          <t>AYI</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>ORI</t>
+          <t>ABVX</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>AYI</t>
+          <t>EGP</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>ABVX</t>
+          <t>ACI</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>EGP</t>
+          <t>HSIC</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>ACI</t>
+          <t>KNSL</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>HSIC</t>
+          <t>MGM</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>KNSL</t>
+          <t>GS-PC</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>SAIA</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>GS-PC</t>
+          <t>RGEN</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>SAIA</t>
+          <t>DOX</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>RGEN</t>
+          <t>KNX</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>DOX</t>
+          <t>STEP</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>KNX</t>
+          <t>SWKS</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>SWKS</t>
+          <t>OGE</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>OGE</t>
+          <t>MORN</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>MORN</t>
+          <t>QBTS</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>QBTS</t>
+          <t>TTAN</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>TTAN</t>
+          <t>RZB</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>RZB</t>
+          <t>FRT</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>FRT</t>
+          <t>AGNCM</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>AGNCM</t>
+          <t>AGNCN</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>AGNCN</t>
+          <t>ZION</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>ZION</t>
+          <t>LKQ</t>
         </is>
       </c>
     </row>

--- a/scan_skipped.xlsx
+++ b/scan_skipped.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A496"/>
+  <dimension ref="A1:A486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,1050 +578,1050 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>AZN</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>WFC</t>
+          <t>SAP</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BAC-PB</t>
+          <t>WFC</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>BAC-PB</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>AXP</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CRM</t>
+          <t>TMO</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TMUS</t>
+          <t>CRM</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>WFC-PY</t>
+          <t>TMUS</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>WFC-PY</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>DIS</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>WFC-PL</t>
+          <t>BA</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ISRG</t>
+          <t>WFC-PL</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>ISRG</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BX</t>
+          <t>ABT</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>BX</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SHOP</t>
+          <t>APP</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>SHOP</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>ACN</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>DHR</t>
+          <t>UBER</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TJX</t>
+          <t>DHR</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>TJX</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>BKNG</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HDB</t>
+          <t>QCOM</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SPGI</t>
+          <t>HDB</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>SPGI</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PDD</t>
+          <t>INTU</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>PDD</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>COF</t>
+          <t>NOW</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BSX</t>
+          <t>COF</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SONY</t>
+          <t>BSX</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SYK</t>
+          <t>SONY</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>SYK</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>PANW</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PGR</t>
+          <t>ADBE</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>PGR</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>ARM</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SNY</t>
+          <t>CRWD</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>SNY</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>KKR</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BN</t>
+          <t>CVS</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SPOT</t>
+          <t>BN</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>SPOT</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>IBN</t>
+          <t>ADP</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>IBN</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CVNA</t>
+          <t>CEG</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>CVNA</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SNPS</t>
+          <t>GD</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>SNPS</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>HOOD</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>NKE</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>WM</t>
+          <t>MCO</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>WM</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>DASH</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>HWM</t>
+          <t>CDNS</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>NTES</t>
+          <t>HWM</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ELV</t>
+          <t>NTES</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>ELV</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MS-PK</t>
+          <t>MMM</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BAM</t>
+          <t>MS-PK</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MS-PI</t>
+          <t>BAM</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>CRH</t>
+          <t>MS-PI</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ABNB</t>
+          <t>CRH</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>REGN</t>
+          <t>ABNB</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>MS-PF</t>
+          <t>REGN</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>MS-PE</t>
+          <t>MS-PF</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>CTAS</t>
+          <t>MS-PE</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>CTAS</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>APO</t>
+          <t>DELL</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>APO</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>INFY</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>CI</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>AON</t>
+          <t>SE</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SNOW</t>
+          <t>AON</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>RELX</t>
+          <t>SNOW</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>RELX</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>MRVL</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>WBD</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>TEL</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>AJG</t>
+          <t>NET</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>DUK-PA</t>
+          <t>AJG</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ROST</t>
+          <t>DUK-PA</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>RACE</t>
+          <t>ROST</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>RKT</t>
+          <t>RACE</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CTA-PB</t>
+          <t>RKT</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>URI</t>
+          <t>CTA-PB</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>APD</t>
+          <t>URI</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>NXPI</t>
+          <t>APD</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BDX</t>
+          <t>NXPI</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ADSK</t>
+          <t>BDX</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>COIN</t>
+          <t>ADSK</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>NDAQ</t>
+          <t>COIN</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>NDAQ</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>IDXX</t>
+          <t>SRE</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>TRI</t>
+          <t>IDXX</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ZTS</t>
+          <t>TRI</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>ZTS</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>PYPL</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>CMG</t>
+          <t>VST</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>RBLX</t>
+          <t>CMG</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ALL</t>
+          <t>RBLX</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>MET</t>
+          <t>ALL</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>MET</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SCHW-PD</t>
+          <t>EA</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>WDAY</t>
+          <t>SCHW-PD</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>EW</t>
+          <t>WDAY</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ARES</t>
+          <t>EW</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>PSA</t>
+          <t>ARES</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>AXON</t>
+          <t>PSA</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>AXON</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ALNY</t>
+          <t>DDOG</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>TGT</t>
+          <t>ALNY</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>CTA-PA</t>
+          <t>TGT</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>HEI</t>
+          <t>CTA-PA</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>HEI</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>TTWO</t>
+          <t>MSTR</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>SPG-PJ</t>
+          <t>TTWO</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>SPG-PJ</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>DAL</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ROP</t>
+          <t>WCN</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>JD</t>
+          <t>ROP</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>DHI</t>
+          <t>JD</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DHI</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>MET-PA</t>
+          <t>KR</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>MET-PA</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>TCOM</t>
+          <t>CTSH</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>LVS</t>
+          <t>TCOM</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>AIG</t>
+          <t>LVS</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>IQV</t>
+          <t>AIG</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>RDDT</t>
+          <t>IQV</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>CPRT</t>
+          <t>RDDT</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>XYZ</t>
+          <t>CPRT</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>HEI-A</t>
+          <t>XYZ</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>GRMN</t>
+          <t>HEI-A</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>VMC</t>
+          <t>GRMN</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>VMC</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>HMC</t>
+          <t>NOK</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>HMC</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>PRU</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>PRU</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>CCI</t>
+          <t>PAYX</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>KDP</t>
+          <t>CCI</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>MDLN</t>
+          <t>KDP</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>FICO</t>
+          <t>MDLN</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>VEEV</t>
+          <t>FICO</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>GEHC</t>
+          <t>VEEV</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>FISV</t>
+          <t>GEHC</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>HIG</t>
+          <t>FISV</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>TEAM</t>
+          <t>HIG</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>VTR</t>
+          <t>TEAM</t>
         </is>
       </c>
     </row>
@@ -1677,217 +1677,217 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>SATS</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>INSM</t>
+          <t>ZS</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>NTRA</t>
+          <t>INSM</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>NTRA</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>RJF</t>
+          <t>KMB</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>MDB</t>
+          <t>RJF</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>PCG</t>
+          <t>MDB</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>EXPE</t>
+          <t>PCG</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>DG</t>
+          <t>EXPE</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>PSA-PK</t>
+          <t>DG</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>SOFI</t>
+          <t>PSA-PK</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ALL-PB</t>
+          <t>SOFI</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>FOXA</t>
+          <t>ALL-PB</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>HUM</t>
+          <t>FOXA</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>WTW</t>
+          <t>HUM</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>EXR</t>
+          <t>WTW</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>FIS</t>
+          <t>EXR</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>FOX</t>
+          <t>FIS</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>FOX</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>QSR</t>
+          <t>VRSK</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>FLUT</t>
+          <t>QSR</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>VICI</t>
+          <t>FLUT</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>AMRZ</t>
+          <t>VICI</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>ULTA</t>
+          <t>AMRZ</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>MTD</t>
+          <t>ULTA</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>TSCO</t>
+          <t>MTD</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>TSCO</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>SYF</t>
+          <t>NRG</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>LPLA</t>
+          <t>SYF</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>HPE</t>
+          <t>LPLA</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>TME</t>
+          <t>HPE</t>
         </is>
       </c>
     </row>
@@ -1985,749 +1985,749 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>TPR</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>TPR</t>
+          <t>FSLR</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>STE</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>STE</t>
+          <t>MKL</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>MKL</t>
+          <t>DLTR</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>AWK</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>AWK</t>
+          <t>OMC</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>OMC</t>
+          <t>WRB</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>WRB</t>
+          <t>AVB</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>AVB</t>
+          <t>VLTO</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>VLTO</t>
+          <t>DLR-PK</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>DLR-PK</t>
+          <t>CINF</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>CINF</t>
+          <t>FCNCA</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>FCNCA</t>
+          <t>BR</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>LDOS</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>LDOS</t>
+          <t>GIS</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>GIS</t>
+          <t>AXIA-PC</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>AXIA-PC</t>
+          <t>VRSN</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>VRSN</t>
+          <t>TPG</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>TPG</t>
+          <t>TROW</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>TROW</t>
+          <t>WAT</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>CRDO</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>CRDO</t>
+          <t>NBIS</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>NBIS</t>
+          <t>LULU</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>OWL</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>OWL</t>
+          <t>CNC</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>CNC</t>
+          <t>IP</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>FUTU</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>FUTU</t>
+          <t>AFRM</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>AFRM</t>
+          <t>DLR-PJ</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>DLR-PJ</t>
+          <t>TLK</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>TLK</t>
+          <t>CYBR</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>CYBR</t>
+          <t>FWONK</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>FWONK</t>
+          <t>FWONA</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>FWONA</t>
+          <t>CG</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>RL</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>RL</t>
+          <t>CMS</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>CMS</t>
+          <t>UTHR</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>UTHR</t>
+          <t>GPN</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>GPN</t>
+          <t>AS</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>SSNC</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>SSNC</t>
+          <t>TWLO</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>TWLO</t>
+          <t>IHG</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>IHG</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>INCY</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>INCY</t>
+          <t>SBAC</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>SBAC</t>
+          <t>WWD</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>WWD</t>
+          <t>CHKP</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>CHKP</t>
+          <t>PTC</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>NTAP</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>NTAP</t>
+          <t>TOST</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>TOST</t>
+          <t>SGI</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>SGI</t>
+          <t>GIB</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>GIB</t>
+          <t>RIVN</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>RIVN</t>
+          <t>PODD</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>PODD</t>
+          <t>TYL</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>TYL</t>
+          <t>IFF</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>IFF</t>
+          <t>RVMD</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>RVMD</t>
+          <t>HIG-PG</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>HIG-PG</t>
+          <t>GRAB</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>GRAB</t>
+          <t>IOT</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>FTV</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>FTV</t>
+          <t>BURL</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>BURL</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>SMCI</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>SMCI</t>
+          <t>DKS</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>DKS</t>
+          <t>HPQ</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>HPQ</t>
+          <t>CRCL</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>CRCL</t>
+          <t>LII</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>LII</t>
+          <t>FITBI</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>FITBI</t>
+          <t>XPEV</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>XPEV</t>
+          <t>IT</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>PSNYW</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>PSNYW</t>
+          <t>ALLY</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>ALLY</t>
+          <t>PNR</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>PINS</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>PINS</t>
+          <t>ESS</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>ESS</t>
+          <t>SN</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>CRS</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>CRS</t>
+          <t>WST</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>HUBS</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>HUBS</t>
+          <t>ZBH</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ZBH</t>
+          <t>LNT</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>LNT</t>
+          <t>ZG</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>TRMB</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>MEDP</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>MEDP</t>
+          <t>QXO</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>QXO</t>
+          <t>TXT</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>THC</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>THC</t>
+          <t>APTV</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>APTV</t>
+          <t>TKO</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>TKO</t>
+          <t>CDW</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>TRU</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>TTD</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>INVH</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>INVH</t>
+          <t>MKC</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>MKC</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>MKC-V</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>MKC-V</t>
+          <t>MAA</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>MAA</t>
+          <t>OKTA</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>OKTA</t>
+          <t>COO</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>COO</t>
+          <t>TLN</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>TLN</t>
+          <t>GFL</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>GFL</t>
+          <t>WMG</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>WMG</t>
+          <t>KSPI</t>
         </is>
       </c>
     </row>
@@ -2755,1139 +2755,1069 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>EWBC</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>HTHT</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>HTHT</t>
+          <t>IONQ</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>ONON</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>ONON</t>
+          <t>DKNG</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>DKNG</t>
+          <t>AVAV</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>AVAV</t>
+          <t>MGA</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>MGA</t>
+          <t>KEY-PI</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>KEY-PI</t>
+          <t>DECK</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>DECK</t>
+          <t>CSL</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>CSL</t>
+          <t>GH</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>GH</t>
+          <t>FNF</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>FNF</t>
+          <t>ULS</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>ULS</t>
+          <t>GDDY</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>GDDY</t>
+          <t>ARCC</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ERIE</t>
+          <t>ICLR</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ARCC</t>
+          <t>AVY</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ICLR</t>
+          <t>FIG</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>AVY</t>
+          <t>RGC</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>FIG</t>
+          <t>PNFP</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>RGC</t>
+          <t>MAS</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>PNFP</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ALLE</t>
+          <t>EVR</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>MAS</t>
+          <t>DPZ</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>BBY</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>EVR</t>
+          <t>LOGI</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>DPZ</t>
+          <t>EQH</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>BBY</t>
+          <t>RPM</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>GWRE</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>LOGI</t>
+          <t>SOLV</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>EQH</t>
+          <t>RBRK</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>RPM</t>
+          <t>FIGR</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>GWRE</t>
+          <t>NLY-PG</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>SOLV</t>
+          <t>NLY-PF</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>RBRK</t>
+          <t>AMH</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>FIGR</t>
+          <t>NBIX</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>NLY-PG</t>
+          <t>OHI</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>NLY-PF</t>
+          <t>RVTY</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>AMH</t>
+          <t>JKHY</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>NBIX</t>
+          <t>RYAN</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>OHI</t>
+          <t>BLDR</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>RVTY</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>JKHY</t>
+          <t>RGA</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>RYAN</t>
+          <t>PSKY</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>UHS</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>CHWY</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>RGA</t>
+          <t>LAMR</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>PSKY</t>
+          <t>UNM</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>UHS</t>
+          <t>SNAP</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>CHWY</t>
+          <t>JEF</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>LAMR</t>
+          <t>FMS</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>UNM</t>
+          <t>BNT</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>SNAP</t>
+          <t>BJ</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>JEF</t>
+          <t>OKLO</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>FMS</t>
+          <t>HLI</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>BNT</t>
+          <t>BF-A</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>BJ</t>
+          <t>IVZ</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>OKLO</t>
+          <t>ACM</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>HLI</t>
+          <t>BF-B</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>BF-A</t>
+          <t>SWK</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>IVZ</t>
+          <t>BMNR</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>GMED</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>BF-B</t>
+          <t>DT</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>SWK</t>
+          <t>ZBRA</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>BMNR</t>
+          <t>DOC</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>GMED</t>
+          <t>SMMT</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>EPAM</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>ZBRA</t>
+          <t>ALGN</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>JOBY</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>SMMT</t>
+          <t>SUZ</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>CR</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>ALGN</t>
+          <t>TEM</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>JOBY</t>
+          <t>WMS</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>SUZ</t>
+          <t>WYNN</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>EXEL</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>TEM</t>
+          <t>NTNX</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>WMS</t>
+          <t>BSY</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>WYNN</t>
+          <t>RDY</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>AIZ</t>
+          <t>DOCU</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>EXEL</t>
+          <t>BXP</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>NTNX</t>
+          <t>LSCC</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>BSY</t>
+          <t>MDGL</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>RDY</t>
+          <t>BAH</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>DOCU</t>
+          <t>SCI</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>BXP</t>
+          <t>MICC</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>LSCC</t>
+          <t>CNM</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>MDGL</t>
+          <t>MP</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>GL</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>SCI</t>
+          <t>WTRG</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>MICC</t>
+          <t>DAY</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>CNM</t>
+          <t>CRL</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>MP</t>
+          <t>BMRN</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>GL</t>
+          <t>WLK</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>WTRG</t>
+          <t>SPXC</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>DAY</t>
+          <t>MANH</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>SARO</t>
+          <t>FDS</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>AFG</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>BMRN</t>
+          <t>CART</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>WLK</t>
+          <t>AIT</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>SPXC</t>
+          <t>PAG</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>MANH</t>
+          <t>TECH</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>FDS</t>
+          <t>YMM</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>FIVE</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>CART</t>
+          <t>ENSG</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>AIT</t>
+          <t>OC</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>PAG</t>
+          <t>PCOR</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>TECH</t>
+          <t>KLAR</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>YMM</t>
+          <t>ARMK</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>JAZZ</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>ENSG</t>
+          <t>BAX</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>CHYM</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>PCOR</t>
+          <t>SAIL</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>KLAR</t>
+          <t>SANM</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>ARMK</t>
+          <t>COKE</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>JAZZ</t>
+          <t>POOL</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>BAX</t>
+          <t>VNO-PM</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>CHYM</t>
+          <t>OSK</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>EHC</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>SANM</t>
+          <t>SOLS</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>COKE</t>
+          <t>ARE</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>POOL</t>
+          <t>TAP</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>VNO-PM</t>
+          <t>DDS</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>OSK</t>
+          <t>BROS</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>EHC</t>
+          <t>AAL</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>SOLS</t>
+          <t>ORI</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>AYI</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>TAP</t>
+          <t>ABVX</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>DDS</t>
+          <t>EGP</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>BROS</t>
+          <t>ACI</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>REXR</t>
+          <t>HSIC</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>AAL</t>
+          <t>KNSL</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>ORI</t>
+          <t>MGM</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>AYI</t>
+          <t>GS-PC</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>ABVX</t>
+          <t>SAIA</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>EGP</t>
+          <t>RGEN</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>ACI</t>
+          <t>DOX</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>HSIC</t>
+          <t>KNX</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>KNSL</t>
+          <t>STEP</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>SWKS</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>GS-PC</t>
+          <t>MORN</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>SAIA</t>
+          <t>QBTS</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>RGEN</t>
+          <t>TTAN</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>DOX</t>
+          <t>RZB</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>KNX</t>
+          <t>FRT</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>STEP</t>
+          <t>AGNCM</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>SWKS</t>
+          <t>AGNCN</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>OGE</t>
+          <t>ZION</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>MORN</t>
+          <t>PEGA</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>QBTS</t>
+          <t>CUBE</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>TTAN</t>
+          <t>VIPS</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>RZB</t>
+          <t>AUR</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>FRT</t>
+          <t>LEVI</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
-        <is>
-          <t>AGNCM</t>
-        </is>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>AGNCN</t>
-        </is>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>ZION</t>
-        </is>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="inlineStr">
-        <is>
-          <t>LKQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>PEGA</t>
-        </is>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="inlineStr">
-        <is>
-          <t>COLB</t>
-        </is>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>CUBE</t>
-        </is>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="inlineStr">
-        <is>
-          <t>VIPS</t>
-        </is>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="inlineStr">
-        <is>
-          <t>AUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" t="inlineStr">
-        <is>
-          <t>LEVI</t>
-        </is>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="inlineStr">
         <is>
           <t>ADC</t>
         </is>

--- a/scan_skipped.xlsx
+++ b/scan_skipped.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A486"/>
+  <dimension ref="A1:A487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -851,2863 +851,2863 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>BMY</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>KKR</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BN</t>
+          <t>CVS</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SPOT</t>
+          <t>MO</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>BN</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>IBN</t>
+          <t>SPOT</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>ADP</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CVNA</t>
+          <t>IBN</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>CEG</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SNPS</t>
+          <t>CVNA</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>GD</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>SNPS</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>HOOD</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>WM</t>
+          <t>NKE</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>MCO</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>WM</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>HWM</t>
+          <t>DASH</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>NTES</t>
+          <t>CDNS</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ELV</t>
+          <t>HWM</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>NTES</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MS-PK</t>
+          <t>ELV</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BAM</t>
+          <t>MMM</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MS-PI</t>
+          <t>MS-PK</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CRH</t>
+          <t>BAM</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ABNB</t>
+          <t>MS-PI</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>REGN</t>
+          <t>CRH</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>MS-PF</t>
+          <t>ABNB</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>MS-PE</t>
+          <t>REGN</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>CTAS</t>
+          <t>MS-PF</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>MS-PE</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>APO</t>
+          <t>CTAS</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>DELL</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>APO</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>INFY</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>AON</t>
+          <t>CI</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SNOW</t>
+          <t>SE</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>RELX</t>
+          <t>SNOW</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>RELX</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>MRVL</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>WBD</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>TEL</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>AJG</t>
+          <t>NET</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>DUK-PA</t>
+          <t>AJG</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ROST</t>
+          <t>DUK-PA</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>RACE</t>
+          <t>ROST</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>RKT</t>
+          <t>RACE</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CTA-PB</t>
+          <t>RKT</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>URI</t>
+          <t>CTA-PB</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>APD</t>
+          <t>URI</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>NXPI</t>
+          <t>APD</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BDX</t>
+          <t>NXPI</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ADSK</t>
+          <t>BDX</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>COIN</t>
+          <t>ADSK</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>NDAQ</t>
+          <t>COIN</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>NDAQ</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>IDXX</t>
+          <t>SRE</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>TRI</t>
+          <t>IDXX</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ZTS</t>
+          <t>TRI</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>ZTS</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>PYPL</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>CMG</t>
+          <t>VST</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>RBLX</t>
+          <t>CMG</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ALL</t>
+          <t>RBLX</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>MET</t>
+          <t>ALL</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>MET</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SCHW-PD</t>
+          <t>EA</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>WDAY</t>
+          <t>SCHW-PD</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>EW</t>
+          <t>WDAY</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ARES</t>
+          <t>EW</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>PSA</t>
+          <t>ARES</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>AXON</t>
+          <t>PSA</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>AXON</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ALNY</t>
+          <t>DDOG</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>TGT</t>
+          <t>ALNY</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>CTA-PA</t>
+          <t>TGT</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>HEI</t>
+          <t>CTA-PA</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>HEI</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>TTWO</t>
+          <t>MSTR</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SPG-PJ</t>
+          <t>TTWO</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>SPG-PJ</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>DAL</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ROP</t>
+          <t>WCN</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>JD</t>
+          <t>ROP</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>DHI</t>
+          <t>JD</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DHI</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>MET-PA</t>
+          <t>KR</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>MET-PA</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>TCOM</t>
+          <t>CTSH</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>LVS</t>
+          <t>TCOM</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>AIG</t>
+          <t>LVS</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>IQV</t>
+          <t>AIG</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>RDDT</t>
+          <t>IQV</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>CPRT</t>
+          <t>RDDT</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>XYZ</t>
+          <t>CPRT</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>HEI-A</t>
+          <t>XYZ</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>GRMN</t>
+          <t>HEI-A</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>VMC</t>
+          <t>GRMN</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>VMC</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>HMC</t>
+          <t>NOK</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>HMC</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>PRU</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>PRU</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>CCI</t>
+          <t>PAYX</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>KDP</t>
+          <t>CCI</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>MDLN</t>
+          <t>KDP</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>FICO</t>
+          <t>MDLN</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>VEEV</t>
+          <t>FICO</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>GEHC</t>
+          <t>VEEV</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>FISV</t>
+          <t>GEHC</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>HIG</t>
+          <t>FISV</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>TEAM</t>
+          <t>HIG</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>CPNG</t>
+          <t>TEAM</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>OTIS</t>
+          <t>VTR</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>CLS</t>
+          <t>CPNG</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>SYM</t>
+          <t>OTIS</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>APO-PA</t>
+          <t>CLS</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>XYL</t>
+          <t>SYM</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>UAL</t>
+          <t>APO-PA</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>SATS</t>
+          <t>XYL</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>UAL</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>INSM</t>
+          <t>SATS</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>NTRA</t>
+          <t>ZS</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>INSM</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>RJF</t>
+          <t>KVUE</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>MDB</t>
+          <t>NTRA</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>PCG</t>
+          <t>KMB</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>EXPE</t>
+          <t>RJF</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>DG</t>
+          <t>MDB</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>PSA-PK</t>
+          <t>PCG</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>SOFI</t>
+          <t>EXPE</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ALL-PB</t>
+          <t>DG</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>FOXA</t>
+          <t>PSA-PK</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>HUM</t>
+          <t>SOFI</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>WTW</t>
+          <t>ALL-PB</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>EXR</t>
+          <t>FOXA</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>FIS</t>
+          <t>HUM</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>FOX</t>
+          <t>WTW</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>EXR</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>QSR</t>
+          <t>FIS</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>FLUT</t>
+          <t>FOX</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>VICI</t>
+          <t>VRSK</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>AMRZ</t>
+          <t>QSR</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ULTA</t>
+          <t>FLUT</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>MTD</t>
+          <t>VICI</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>TSCO</t>
+          <t>AMRZ</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>ULTA</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>SYF</t>
+          <t>MTD</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>LPLA</t>
+          <t>TSCO</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>HPE</t>
+          <t>NRG</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>DOV</t>
+          <t>SYF</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>STLA</t>
+          <t>LPLA</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>KHC</t>
+          <t>HPE</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>CSGP</t>
+          <t>DOV</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ALAB</t>
+          <t>STLA</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>WIT</t>
+          <t>KHC</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>LEN</t>
+          <t>CSGP</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>HBAN</t>
+          <t>ALAB</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>ATO</t>
+          <t>WIT</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>BRO</t>
+          <t>LEN</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>CHTR</t>
+          <t>HBAN</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>LEN-B</t>
+          <t>ATO</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>EFX</t>
+          <t>BRO</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>TPR</t>
+          <t>CHTR</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>LEN-B</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>STE</t>
+          <t>EFX</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>MKL</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>TPR</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>AWK</t>
+          <t>FSLR</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>OMC</t>
+          <t>MKL</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>WRB</t>
+          <t>DLTR</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>AVB</t>
+          <t>AWK</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>VLTO</t>
+          <t>OMC</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>DLR-PK</t>
+          <t>WRB</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>CINF</t>
+          <t>AVB</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>FCNCA</t>
+          <t>VLTO</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>DLR-PK</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>LDOS</t>
+          <t>CINF</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>GIS</t>
+          <t>FCNCA</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>AXIA-PC</t>
+          <t>BR</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>VRSN</t>
+          <t>LDOS</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>TPG</t>
+          <t>GIS</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>TROW</t>
+          <t>AXIA-PC</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>VRSN</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>TPG</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>CRDO</t>
+          <t>TROW</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>NBIS</t>
+          <t>WAT</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>OWL</t>
+          <t>CRDO</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>CNC</t>
+          <t>NBIS</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>LULU</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>FUTU</t>
+          <t>OWL</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>AFRM</t>
+          <t>CNC</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>DLR-PJ</t>
+          <t>IP</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>TLK</t>
+          <t>FUTU</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>CYBR</t>
+          <t>AFRM</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>FWONK</t>
+          <t>DLR-PJ</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>FWONA</t>
+          <t>TLK</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>CYBR</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>RL</t>
+          <t>FWONK</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>CMS</t>
+          <t>FWONA</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>UTHR</t>
+          <t>CG</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>GPN</t>
+          <t>RL</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>CMS</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>SSNC</t>
+          <t>UTHR</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>TWLO</t>
+          <t>GPN</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>IHG</t>
+          <t>AS</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>SSNC</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>INCY</t>
+          <t>TWLO</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>SBAC</t>
+          <t>IHG</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>WWD</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>CHKP</t>
+          <t>INCY</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>SBAC</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>NTAP</t>
+          <t>WWD</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>TOST</t>
+          <t>CHKP</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>SGI</t>
+          <t>PTC</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>GIB</t>
+          <t>NTAP</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>RIVN</t>
+          <t>TOST</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>PODD</t>
+          <t>SGI</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>TYL</t>
+          <t>GIB</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>IFF</t>
+          <t>RIVN</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>RVMD</t>
+          <t>PODD</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>HIG-PG</t>
+          <t>TYL</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>GRAB</t>
+          <t>IFF</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>RVMD</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>FTV</t>
+          <t>KTOS</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>BURL</t>
+          <t>HIG-PG</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>GRAB</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>SMCI</t>
+          <t>IOT</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>DKS</t>
+          <t>FTV</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>HPQ</t>
+          <t>BURL</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>CRCL</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>LII</t>
+          <t>SMCI</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>FITBI</t>
+          <t>DKS</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>XPEV</t>
+          <t>HPQ</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>CRCL</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>PSNYW</t>
+          <t>LII</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>ALLY</t>
+          <t>FITBI</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>XPEV</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>PINS</t>
+          <t>IT</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>ESS</t>
+          <t>PSNYW</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>AGI</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>CRS</t>
+          <t>ALLY</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>PNR</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>HUBS</t>
+          <t>PINS</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>ZBH</t>
+          <t>ESS</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>LNT</t>
+          <t>SN</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>CRS</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>WST</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>MEDP</t>
+          <t>HUBS</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>QXO</t>
+          <t>ZBH</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>LNT</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>ZG</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>THC</t>
+          <t>ATI</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>APTV</t>
+          <t>TRMB</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>TKO</t>
+          <t>MEDP</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>QXO</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>TXT</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>INVH</t>
+          <t>THC</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>MKC</t>
+          <t>APTV</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>TKO</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>MKC-V</t>
+          <t>CDW</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>MAA</t>
+          <t>TRU</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>OKTA</t>
+          <t>TTD</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>COO</t>
+          <t>INVH</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>TLN</t>
+          <t>MKC</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>GFL</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>WMG</t>
+          <t>MKC-V</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>KSPI</t>
+          <t>MAA</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>ROKU</t>
+          <t>OKTA</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>ROIV</t>
+          <t>COO</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>GEN</t>
+          <t>TLN</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>GFL</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>HTHT</t>
+          <t>WMG</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>KSPI</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>ONON</t>
+          <t>ROKU</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>DKNG</t>
+          <t>ROIV</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>AVAV</t>
+          <t>GEN</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>MGA</t>
+          <t>EWBC</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>KEY-PI</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>DECK</t>
+          <t>HTHT</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>CSL</t>
+          <t>IONQ</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>GH</t>
+          <t>ONON</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>FNF</t>
+          <t>DKNG</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>ULS</t>
+          <t>AVAV</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>GDDY</t>
+          <t>MGA</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ARCC</t>
+          <t>KEY-PI</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ICLR</t>
+          <t>DECK</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>AVY</t>
+          <t>CSL</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>FIG</t>
+          <t>GH</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>RGC</t>
+          <t>ULS</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>PNFP</t>
+          <t>GDDY</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>MAS</t>
+          <t>ARCC</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>ICLR</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>EVR</t>
+          <t>FIG</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>DPZ</t>
+          <t>RGC</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>BBY</t>
+          <t>PNFP</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>LOGI</t>
+          <t>MAS</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>EQH</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>RPM</t>
+          <t>EVR</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>GWRE</t>
+          <t>DPZ</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>SOLV</t>
+          <t>BBY</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>RBRK</t>
+          <t>LOGI</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>FIGR</t>
+          <t>EQH</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>NLY-PG</t>
+          <t>RPM</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>NLY-PF</t>
+          <t>GWRE</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>AMH</t>
+          <t>SOLV</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>NBIX</t>
+          <t>RBRK</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>OHI</t>
+          <t>FIGR</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>RVTY</t>
+          <t>NLY-PG</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>JKHY</t>
+          <t>NLY-PF</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>RYAN</t>
+          <t>AMH</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>OHI</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>RVTY</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>RGA</t>
+          <t>JKHY</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>PSKY</t>
+          <t>RYAN</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>UHS</t>
+          <t>BLDR</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>CHWY</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>LAMR</t>
+          <t>PSKY</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>UNM</t>
+          <t>UHS</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>SNAP</t>
+          <t>CHWY</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>JEF</t>
+          <t>LAMR</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>FMS</t>
+          <t>UNM</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>BNT</t>
+          <t>SNAP</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>BJ</t>
+          <t>JEF</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>OKLO</t>
+          <t>FMS</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>HLI</t>
+          <t>BNT</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>BF-A</t>
+          <t>BJ</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>IVZ</t>
+          <t>OKLO</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>HLI</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>BF-B</t>
+          <t>IVZ</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>SWK</t>
+          <t>ACM</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>BMNR</t>
+          <t>BF-B</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>GMED</t>
+          <t>SWK</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>BMNR</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>ZBRA</t>
+          <t>GMED</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>DT</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>SMMT</t>
+          <t>ZBRA</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>TXRH</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>ALGN</t>
+          <t>DOC</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>JOBY</t>
+          <t>SMMT</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>SUZ</t>
+          <t>EPAM</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>ALGN</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>TEM</t>
+          <t>JOBY</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>WMS</t>
+          <t>SUZ</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>WYNN</t>
+          <t>CR</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>EXEL</t>
+          <t>TEM</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>NTNX</t>
+          <t>WMS</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>BSY</t>
+          <t>WYNN</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>RDY</t>
+          <t>EXEL</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>DOCU</t>
+          <t>NTNX</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>BXP</t>
+          <t>BSY</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>LSCC</t>
+          <t>RDY</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>MDGL</t>
+          <t>DOCU</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>BXP</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>SCI</t>
+          <t>MDGL</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>MICC</t>
+          <t>BAH</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>CNM</t>
+          <t>SCI</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>MP</t>
+          <t>MICC</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>GL</t>
+          <t>CNM</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>WTRG</t>
+          <t>MP</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>DAY</t>
+          <t>WTRG</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>DAY</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>BMRN</t>
+          <t>SARO</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>WLK</t>
+          <t>CRL</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>SPXC</t>
+          <t>BMRN</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>MANH</t>
+          <t>MOH</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>FDS</t>
+          <t>WLK</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>SPXC</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>CART</t>
+          <t>MANH</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>AIT</t>
+          <t>FDS</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>PAG</t>
+          <t>AFG</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>TECH</t>
+          <t>CART</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>YMM</t>
+          <t>AIT</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>PAG</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>ENSG</t>
+          <t>TECH</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>YMM</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>PCOR</t>
+          <t>FIVE</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>KLAR</t>
+          <t>ENSG</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>ARMK</t>
+          <t>OC</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>JAZZ</t>
+          <t>PCOR</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>BAX</t>
+          <t>KLAR</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>CHYM</t>
+          <t>ARMK</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>JAZZ</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>SANM</t>
+          <t>BAX</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>COKE</t>
+          <t>CHYM</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>POOL</t>
+          <t>SAIL</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>VNO-PM</t>
+          <t>SANM</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>OSK</t>
+          <t>COKE</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>EHC</t>
+          <t>POOL</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>SOLS</t>
+          <t>OSK</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>EHC</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>TAP</t>
+          <t>SOLS</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>DDS</t>
+          <t>ARE</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>BROS</t>
+          <t>TAP</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>AAL</t>
+          <t>DDS</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>ORI</t>
+          <t>BROS</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>AYI</t>
+          <t>AAL</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>ABVX</t>
+          <t>ORI</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>EGP</t>
+          <t>AYI</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>ACI</t>
+          <t>ABVX</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>HSIC</t>
+          <t>EGP</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>KNSL</t>
+          <t>ACI</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>HSIC</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>GS-PC</t>
+          <t>KNSL</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>SAIA</t>
+          <t>MGM</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>RGEN</t>
+          <t>SAIA</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>DOX</t>
+          <t>RGEN</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>KNX</t>
+          <t>DOX</t>
         </is>
       </c>
     </row>
@@ -3784,40 +3784,47 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>PEGA</t>
+          <t>LKQ</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>CUBE</t>
+          <t>PEGA</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>VIPS</t>
+          <t>CUBE</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>AUR</t>
+          <t>VIPS</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>LEVI</t>
+          <t>AUR</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
+        <is>
+          <t>LEVI</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
         <is>
           <t>ADC</t>
         </is>

--- a/scan_skipped.xlsx
+++ b/scan_skipped.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A487"/>
+  <dimension ref="A1:A480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,98 +508,98 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>PLTR</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>ABBV</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>HD</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>JPM-PD</t>
+          <t>NFLX</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>JPM-PC</t>
+          <t>JPM-PD</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>JPM-PC</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>UNH</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BAC-PK</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>BAC-PK</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BAC-PL</t>
+          <t>GE</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AZN</t>
+          <t>BAC-PL</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>AZN</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>WFC</t>
+          <t>SAP</t>
         </is>
       </c>
     </row>
@@ -823,483 +823,483 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PGR</t>
+          <t>WELL</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>PGR</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>ARM</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SNY</t>
+          <t>CRWD</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BMY</t>
+          <t>SNY</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>BMY</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>KKR</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>CVS</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BN</t>
+          <t>MO</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SPOT</t>
+          <t>BN</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>SPOT</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>IBN</t>
+          <t>ADP</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>IBN</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CVNA</t>
+          <t>CEG</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>MCK</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SNPS</t>
+          <t>CVNA</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>GD</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>SNPS</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>HOOD</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>WM</t>
+          <t>NKE</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>MCO</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>WM</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>HWM</t>
+          <t>DASH</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>NTES</t>
+          <t>CDNS</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ELV</t>
+          <t>HWM</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>NTES</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MS-PK</t>
+          <t>ELV</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BAM</t>
+          <t>MMM</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MS-PI</t>
+          <t>MS-PK</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CRH</t>
+          <t>BAM</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ABNB</t>
+          <t>MS-PI</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>REGN</t>
+          <t>CRH</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>MS-PF</t>
+          <t>ABNB</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>MS-PE</t>
+          <t>REGN</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>CTAS</t>
+          <t>MS-PF</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>MS-PE</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>APO</t>
+          <t>CTAS</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>DELL</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>APO</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>INFY</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SNOW</t>
+          <t>CI</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>RELX</t>
+          <t>SE</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>SNOW</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>RELX</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>MRVL</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>WBD</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>AJG</t>
+          <t>TEL</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>DUK-PA</t>
+          <t>NET</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ROST</t>
+          <t>AJG</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>RACE</t>
+          <t>DUK-PA</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>RKT</t>
+          <t>ROST</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>CTA-PB</t>
+          <t>RACE</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>URI</t>
+          <t>RKT</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>APD</t>
+          <t>CTA-PB</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>NXPI</t>
+          <t>URI</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BDX</t>
+          <t>APD</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ADSK</t>
+          <t>BDX</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>COIN</t>
+          <t>ADSK</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>NDAQ</t>
+          <t>COIN</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>NDAQ</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>IDXX</t>
+          <t>SRE</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>TRI</t>
+          <t>IDXX</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ZTS</t>
+          <t>TRI</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>ZTS</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>PYPL</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>CMG</t>
+          <t>VST</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>RBLX</t>
+          <t>CMG</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ALL</t>
+          <t>RBLX</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>MET</t>
+          <t>ALL</t>
         </is>
       </c>
     </row>
@@ -1530,651 +1530,651 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>VMC</t>
+          <t>NOK</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>HSY</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>HMC</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>PRU</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>PRU</t>
+          <t>PAYX</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>CCI</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>CCI</t>
+          <t>KDP</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>KDP</t>
+          <t>MDLN</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>MDLN</t>
+          <t>FICO</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>FICO</t>
+          <t>VEEV</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>VEEV</t>
+          <t>GEHC</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>GEHC</t>
+          <t>FISV</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>FISV</t>
+          <t>TEAM</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>HIG</t>
+          <t>VTR</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>TEAM</t>
+          <t>CPNG</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>VTR</t>
+          <t>OTIS</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>CPNG</t>
+          <t>CLS</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>OTIS</t>
+          <t>SYM</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>CLS</t>
+          <t>APO-PA</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>SYM</t>
+          <t>XYL</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>APO-PA</t>
+          <t>UAL</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>XYL</t>
+          <t>SATS</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>UAL</t>
+          <t>ZS</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>SATS</t>
+          <t>INSM</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>KVUE</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>INSM</t>
+          <t>NTRA</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>KVUE</t>
+          <t>KMB</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>NTRA</t>
+          <t>RJF</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>MDB</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>RJF</t>
+          <t>PCG</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>MDB</t>
+          <t>EXPE</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>PCG</t>
+          <t>DG</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>EXPE</t>
+          <t>PSA-PK</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>DG</t>
+          <t>SOFI</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>PSA-PK</t>
+          <t>ALL-PB</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>SOFI</t>
+          <t>FOXA</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ALL-PB</t>
+          <t>HUM</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>FOXA</t>
+          <t>WTW</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>HUM</t>
+          <t>EXR</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>WTW</t>
+          <t>FIS</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>EXR</t>
+          <t>FOX</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>FIS</t>
+          <t>VRSK</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>FOX</t>
+          <t>QSR</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>FLUT</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>QSR</t>
+          <t>VICI</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>FLUT</t>
+          <t>AMRZ</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>VICI</t>
+          <t>ULTA</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>AMRZ</t>
+          <t>MTD</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ULTA</t>
+          <t>TSCO</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>MTD</t>
+          <t>NRG</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>TSCO</t>
+          <t>SYF</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>LPLA</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>SYF</t>
+          <t>HPE</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>LPLA</t>
+          <t>DOV</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>HPE</t>
+          <t>CBOE</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>DOV</t>
+          <t>STLA</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>STLA</t>
+          <t>KHC</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>KHC</t>
+          <t>CSGP</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>CSGP</t>
+          <t>ALAB</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ALAB</t>
+          <t>WIT</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>WIT</t>
+          <t>LEN</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>LEN</t>
+          <t>HBAN</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>HBAN</t>
+          <t>ATO</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ATO</t>
+          <t>BRO</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>BRO</t>
+          <t>CHTR</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>CHTR</t>
+          <t>LEN-B</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>LEN-B</t>
+          <t>EFX</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>EFX</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>TPR</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>TPR</t>
+          <t>FSLR</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>MKL</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>MKL</t>
+          <t>DLTR</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>AWK</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>AWK</t>
+          <t>OMC</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>OMC</t>
+          <t>WRB</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>WRB</t>
+          <t>AVB</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>AVB</t>
+          <t>VLTO</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>VLTO</t>
+          <t>DLR-PK</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>DLR-PK</t>
+          <t>CINF</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>CINF</t>
+          <t>FCNCA</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>FCNCA</t>
+          <t>BR</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>LDOS</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>LDOS</t>
+          <t>GIS</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>GIS</t>
+          <t>AXIA-PC</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>AXIA-PC</t>
+          <t>VRSN</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>VRSN</t>
+          <t>TPG</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>TPG</t>
+          <t>TROW</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>TROW</t>
+          <t>WAT</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>CRDO</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>CRDO</t>
+          <t>NBIS</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>NBIS</t>
+          <t>LULU</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>DRI</t>
         </is>
       </c>
     </row>
@@ -2531,1300 +2531,1251 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>AGI</t>
+          <t>ALLY</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>ALLY</t>
+          <t>PINS</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>ESS</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>PINS</t>
+          <t>SN</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>ESS</t>
+          <t>CRS</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>WST</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>CRS</t>
+          <t>HUBS</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>ZBH</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>HUBS</t>
+          <t>LNT</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ZBH</t>
+          <t>ZG</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>LNT</t>
+          <t>TRMB</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>MEDP</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ATI</t>
+          <t>QXO</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>TXT</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>MEDP</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>QXO</t>
+          <t>HOLX</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>THC</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>APTV</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>THC</t>
+          <t>TKO</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>APTV</t>
+          <t>CDW</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>TKO</t>
+          <t>TRU</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>TTD</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>INVH</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>MKC</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>INVH</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>MKC</t>
+          <t>MKC-V</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>MAA</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>MKC-V</t>
+          <t>OKTA</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>MAA</t>
+          <t>COO</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>OKTA</t>
+          <t>TLN</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>COO</t>
+          <t>GFL</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>TLN</t>
+          <t>WMG</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>GFL</t>
+          <t>KSPI</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>WMG</t>
+          <t>ROKU</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>KSPI</t>
+          <t>ROIV</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>ROKU</t>
+          <t>GEN</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>ROIV</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>GEN</t>
+          <t>HTHT</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>EWBC</t>
+          <t>IONQ</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>ONON</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>HTHT</t>
+          <t>DKNG</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>AVAV</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>ONON</t>
+          <t>MGA</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>DKNG</t>
+          <t>KEY-PI</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>AVAV</t>
+          <t>DECK</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>MGA</t>
+          <t>CSL</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>KEY-PI</t>
+          <t>ULS</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>DECK</t>
+          <t>GDDY</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>CSL</t>
+          <t>ARCC</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>GH</t>
+          <t>FIG</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ULS</t>
+          <t>RGC</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>GDDY</t>
+          <t>PNFP</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>ARCC</t>
+          <t>MAS</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>ICLR</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>FIG</t>
+          <t>EVR</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>RGC</t>
+          <t>DPZ</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>PNFP</t>
+          <t>BBY</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>MAS</t>
+          <t>LOGI</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>EQH</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>EVR</t>
+          <t>RPM</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>DPZ</t>
+          <t>GWRE</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>BBY</t>
+          <t>SOLV</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>LOGI</t>
+          <t>RBRK</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>EQH</t>
+          <t>FIGR</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>RPM</t>
+          <t>NLY-PG</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>GWRE</t>
+          <t>NLY-PF</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>SOLV</t>
+          <t>AMH</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>RBRK</t>
+          <t>OHI</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>FIGR</t>
+          <t>RVTY</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>NLY-PG</t>
+          <t>JKHY</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>NLY-PF</t>
+          <t>RYAN</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>AMH</t>
+          <t>BLDR</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>OHI</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>RVTY</t>
+          <t>PSKY</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>JKHY</t>
+          <t>UHS</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>RYAN</t>
+          <t>CHWY</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>LAMR</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>UNM</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>PSKY</t>
+          <t>SNAP</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>UHS</t>
+          <t>JEF</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>CHWY</t>
+          <t>FMS</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>LAMR</t>
+          <t>BNT</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>UNM</t>
+          <t>BJ</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>SNAP</t>
+          <t>OKLO</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>JEF</t>
+          <t>HLI</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>FMS</t>
+          <t>IVZ</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>BNT</t>
+          <t>ACM</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>BJ</t>
+          <t>BF-B</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>OKLO</t>
+          <t>SWK</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>HLI</t>
+          <t>BMNR</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>IVZ</t>
+          <t>GMED</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>DT</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>BF-B</t>
+          <t>ZBRA</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>SWK</t>
+          <t>TXRH</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>BMNR</t>
+          <t>DOC</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>GMED</t>
+          <t>SMMT</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>EPAM</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>ZBRA</t>
+          <t>ALGN</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>TXRH</t>
+          <t>JOBY</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>SUZ</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>SMMT</t>
+          <t>CR</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>TEM</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>ALGN</t>
+          <t>WMS</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>JOBY</t>
+          <t>WYNN</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>SUZ</t>
+          <t>EXEL</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>NTNX</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>TEM</t>
+          <t>BSY</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>WMS</t>
+          <t>RDY</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>WYNN</t>
+          <t>DOCU</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>EXEL</t>
+          <t>BXP</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>NTNX</t>
+          <t>MDGL</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>BSY</t>
+          <t>BAH</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>RDY</t>
+          <t>SCI</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>DOCU</t>
+          <t>MICC</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>BXP</t>
+          <t>CNM</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>MDGL</t>
+          <t>MP</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>WTRG</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>SCI</t>
+          <t>DAY</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>MICC</t>
+          <t>SARO</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>CNM</t>
+          <t>CRL</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>MP</t>
+          <t>MOH</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>WTRG</t>
+          <t>WLK</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>DAY</t>
+          <t>SPXC</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>SARO</t>
+          <t>MANH</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>FDS</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>BMRN</t>
+          <t>AFG</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>MOH</t>
+          <t>CART</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>WLK</t>
+          <t>AIT</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>SPXC</t>
+          <t>PAG</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>MANH</t>
+          <t>TECH</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>FDS</t>
+          <t>YMM</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>FIVE</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>CART</t>
+          <t>ENSG</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>AIT</t>
+          <t>OC</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>PAG</t>
+          <t>PCOR</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>TECH</t>
+          <t>KLAR</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>YMM</t>
+          <t>ARMK</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>JAZZ</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>ENSG</t>
+          <t>BAX</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>CHYM</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>PCOR</t>
+          <t>SAIL</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>KLAR</t>
+          <t>SANM</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>ARMK</t>
+          <t>COKE</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>JAZZ</t>
+          <t>POOL</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>BAX</t>
+          <t>OSK</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>CHYM</t>
+          <t>EHC</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>SOLS</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>SANM</t>
+          <t>ARE</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>COKE</t>
+          <t>TAP</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>POOL</t>
+          <t>DDS</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>OSK</t>
+          <t>BROS</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>EHC</t>
+          <t>AAL</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>SOLS</t>
+          <t>ORI</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>AYI</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>TAP</t>
+          <t>ABVX</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>DDS</t>
+          <t>EGP</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>BROS</t>
+          <t>ACI</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>AAL</t>
+          <t>HSIC</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>ORI</t>
+          <t>KNSL</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>AYI</t>
+          <t>MGM</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>ABVX</t>
+          <t>GS-PC</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>EGP</t>
+          <t>SAIA</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>ACI</t>
+          <t>RGEN</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>HSIC</t>
+          <t>DOX</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>KNSL</t>
+          <t>STEP</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>SWKS</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>SAIA</t>
+          <t>MORN</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>RGEN</t>
+          <t>QBTS</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>DOX</t>
+          <t>TTAN</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>STEP</t>
+          <t>RZB</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>SWKS</t>
+          <t>FRT</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>MORN</t>
+          <t>AGNCM</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>QBTS</t>
+          <t>AGNCN</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>TTAN</t>
+          <t>LKQ</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>RZB</t>
+          <t>PEGA</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>FRT</t>
+          <t>CUBE</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>AGNCM</t>
+          <t>VIPS</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>AGNCN</t>
+          <t>LEVI</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
-        <is>
-          <t>ZION</t>
-        </is>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>LKQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>PEGA</t>
-        </is>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>CUBE</t>
-        </is>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>VIPS</t>
-        </is>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>AUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>LEVI</t>
-        </is>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="inlineStr">
         <is>
           <t>ADC</t>
         </is>

--- a/scan_skipped.xlsx
+++ b/scan_skipped.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A480"/>
+  <dimension ref="A1:A508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,938 +508,938 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>MA</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ABBV</t>
+          <t>PLTR</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>NFLX</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>JPM-PD</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>JPM-PD</t>
+          <t>JPM-PC</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>JPM-PC</t>
+          <t>UNH</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>BAC-PK</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BAC-PK</t>
+          <t>GE</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>BAC-PL</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BAC-PL</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AZN</t>
+          <t>SAP</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>BAC-PB</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>AXP</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BAC-PB</t>
+          <t>RY</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>TMO</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>CRM</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CRM</t>
+          <t>WFC-PY</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TMUS</t>
+          <t>BA</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>WFC-PY</t>
+          <t>WFC-PL</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>APH</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>ISRG</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>WFC-PL</t>
+          <t>ABT</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ISRG</t>
+          <t>BX</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>APP</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BX</t>
+          <t>SHOP</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>ACN</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SHOP</t>
+          <t>UBER</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>DHR</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>TJX</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>DHR</t>
+          <t>BKNG</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>TJX</t>
+          <t>QCOM</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>HDB</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>SPGI</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HDB</t>
+          <t>INTU</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SPGI</t>
+          <t>LOW</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>PDD</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PDD</t>
+          <t>NOW</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>COF</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>COF</t>
+          <t>BSX</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BSX</t>
+          <t>SONY</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SONY</t>
+          <t>PANW</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SYK</t>
+          <t>ADBE</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>PGR</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>ARM</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>WELL</t>
+          <t>CRWD</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PGR</t>
+          <t>SNY</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>BMY</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>KKR</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SNY</t>
+          <t>SBUX</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BMY</t>
+          <t>CVS</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>MO</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>BN</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>SPOT</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BN</t>
+          <t>ADP</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SPOT</t>
+          <t>IBN</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>CEG</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>IBN</t>
+          <t>CVNA</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>GD</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MCK</t>
+          <t>SNPS</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CVNA</t>
+          <t>HOOD</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>NKE</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SNPS</t>
+          <t>MCO</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>WM</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>DASH</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>CDNS</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>WM</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>HWM</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>NTES</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>HWM</t>
+          <t>ELV</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>NTES</t>
+          <t>MMM</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ELV</t>
+          <t>MS-PK</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>BAM</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MS-PK</t>
+          <t>MS-PI</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BAM</t>
+          <t>CRH</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>MS-PI</t>
+          <t>ABNB</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>CRH</t>
+          <t>MS-PF</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ABNB</t>
+          <t>MS-PE</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>REGN</t>
+          <t>CTAS</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>MS-PF</t>
+          <t>DELL</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>MS-PE</t>
+          <t>APO</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CTAS</t>
+          <t>INFY</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>CI</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>APO</t>
+          <t>SE</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>SNOW</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>RELX</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>MRVL</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SNOW</t>
+          <t>WBD</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>RELX</t>
+          <t>RSG</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>TEL</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>NET</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>DUK-PA</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>ROST</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>AJG</t>
+          <t>RACE</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>DUK-PA</t>
+          <t>RKT</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ROST</t>
+          <t>CTA-PB</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>RACE</t>
+          <t>URI</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>RKT</t>
+          <t>NXPI</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>CTA-PB</t>
+          <t>BDX</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>URI</t>
+          <t>ADSK</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>APD</t>
+          <t>COIN</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BDX</t>
+          <t>VLO</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ADSK</t>
+          <t>SRE</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>COIN</t>
+          <t>IDXX</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>NDAQ</t>
+          <t>TRI</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>ZTS</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>IDXX</t>
+          <t>AU</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>TRI</t>
+          <t>PYPL</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ZTS</t>
+          <t>VST</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>CMG</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>RBLX</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>CMG</t>
+          <t>ALL</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>RBLX</t>
+          <t>EA</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ALL</t>
+          <t>SCHW-PD</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>WDAY</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SCHW-PD</t>
+          <t>EW</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>WDAY</t>
+          <t>ARES</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>EW</t>
+          <t>PSA</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ARES</t>
+          <t>AXON</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>PSA</t>
+          <t>DDOG</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>AXON</t>
+          <t>ALNY</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>TGT</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ALNY</t>
+          <t>CTA-PA</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>TGT</t>
+          <t>HEI</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>CTA-PA</t>
+          <t>MSTR</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>HEI</t>
+          <t>KGC</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>TTWO</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>TTWO</t>
+          <t>SPG-PJ</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SPG-PJ</t>
+          <t>DAL</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>WCN</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>ROP</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ROP</t>
+          <t>JD</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>JD</t>
+          <t>DHI</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>DHI</t>
+          <t>EBAY</t>
         </is>
       </c>
     </row>
@@ -1530,385 +1530,385 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>VMC</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>HSY</t>
+          <t>NOK</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>HSY</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>PRU</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>PRU</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>CCI</t>
+          <t>PAYX</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>KDP</t>
+          <t>CCI</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>MDLN</t>
+          <t>KDP</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>FICO</t>
+          <t>MDLN</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>VEEV</t>
+          <t>RMD</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>GEHC</t>
+          <t>FICO</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>FISV</t>
+          <t>VEEV</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>TEAM</t>
+          <t>GEHC</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>VTR</t>
+          <t>FISV</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>CPNG</t>
+          <t>TEAM</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>OTIS</t>
+          <t>VTR</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>CLS</t>
+          <t>CPNG</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>SYM</t>
+          <t>OTIS</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>APO-PA</t>
+          <t>CLS</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>XYL</t>
+          <t>SYM</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>UAL</t>
+          <t>APO-PA</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>SATS</t>
+          <t>XYL</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>UAL</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>INSM</t>
+          <t>SATS</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>KVUE</t>
+          <t>ZS</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>NTRA</t>
+          <t>INSM</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>KVUE</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>RJF</t>
+          <t>NTRA</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>MDB</t>
+          <t>KMB</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>PCG</t>
+          <t>RJF</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>EXPE</t>
+          <t>MDB</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>DG</t>
+          <t>PCG</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>PSA-PK</t>
+          <t>EXPE</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>SOFI</t>
+          <t>DG</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ALL-PB</t>
+          <t>PSA-PK</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>FOXA</t>
+          <t>SOFI</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>HUM</t>
+          <t>ALL-PB</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>WTW</t>
+          <t>FOXA</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>EXR</t>
+          <t>HUM</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>FIS</t>
+          <t>WTW</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>FOX</t>
+          <t>EXR</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>FIS</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>QSR</t>
+          <t>FOX</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>FLUT</t>
+          <t>VRSK</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>VICI</t>
+          <t>QSR</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>AMRZ</t>
+          <t>FLUT</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ULTA</t>
+          <t>VICI</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>MTD</t>
+          <t>AMRZ</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>TSCO</t>
+          <t>ULTA</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>MTD</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>SYF</t>
+          <t>TSCO</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>LPLA</t>
+          <t>SYF</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>HPE</t>
+          <t>LPLA</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>DOV</t>
+          <t>HPE</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>TME</t>
         </is>
       </c>
     </row>
@@ -1936,49 +1936,49 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ALAB</t>
+          <t>PHG</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>WIT</t>
+          <t>ALAB</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>LEN</t>
+          <t>WIT</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>HBAN</t>
+          <t>LEN</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ATO</t>
+          <t>HBAN</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>BRO</t>
+          <t>ATO</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>CHTR</t>
+          <t>BRO</t>
         </is>
       </c>
     </row>
@@ -2090,1692 +2090,1888 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>PHM</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>LDOS</t>
+          <t>EQR</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>GIS</t>
+          <t>BR</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>AXIA-PC</t>
+          <t>LDOS</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>VRSN</t>
+          <t>SQM</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>TPG</t>
+          <t>GIS</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>TROW</t>
+          <t>AXIA-PC</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>VRSN</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>TPG</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>CRDO</t>
+          <t>TROW</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>NBIS</t>
+          <t>WAT</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>DRI</t>
+          <t>CRDO</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>OWL</t>
+          <t>NBIS</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>CNC</t>
+          <t>CPAY</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>LULU</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>FUTU</t>
+          <t>DRI</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>AFRM</t>
+          <t>OWL</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>DLR-PJ</t>
+          <t>CNC</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>TLK</t>
+          <t>IP</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>CYBR</t>
+          <t>FUTU</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>FWONK</t>
+          <t>AFRM</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>FWONA</t>
+          <t>SW</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>DLR-PJ</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>RL</t>
+          <t>TLK</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>CMS</t>
+          <t>CYBR</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>UTHR</t>
+          <t>FWONK</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>GPN</t>
+          <t>ALB</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>FWONA</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>SSNC</t>
+          <t>CG</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>TWLO</t>
+          <t>RL</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>IHG</t>
+          <t>CMS</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>UTHR</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>INCY</t>
+          <t>NVR</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>SBAC</t>
+          <t>GPN</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>WWD</t>
+          <t>AS</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>CHKP</t>
+          <t>SSNC</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>GMAB</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>NTAP</t>
+          <t>TWLO</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>TOST</t>
+          <t>IHG</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>SGI</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>GIB</t>
+          <t>INCY</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>RIVN</t>
+          <t>HL</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>PODD</t>
+          <t>SBAC</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>TYL</t>
+          <t>WWD</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>IFF</t>
+          <t>CHKP</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>RVMD</t>
+          <t>PTC</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>KTOS</t>
+          <t>NTAP</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>HIG-PG</t>
+          <t>TOST</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>GRAB</t>
+          <t>JBHT</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>SGI</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>FTV</t>
+          <t>GIB</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>BURL</t>
+          <t>RIVN</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>WY</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>SMCI</t>
+          <t>PODD</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>DKS</t>
+          <t>TYL</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>HPQ</t>
+          <t>IFF</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>CRCL</t>
+          <t>RVMD</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>LII</t>
+          <t>KTOS</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>FITBI</t>
+          <t>HIG-PG</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>XPEV</t>
+          <t>GRAB</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>IOT</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>PSNYW</t>
+          <t>FTV</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>ALLY</t>
+          <t>BURL</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>PINS</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ESS</t>
+          <t>SMCI</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>DKS</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>CRS</t>
+          <t>HPQ</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>CRCL</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>HUBS</t>
+          <t>LII</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ZBH</t>
+          <t>FITBI</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>LNT</t>
+          <t>XPEV</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>IT</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>PSNYW</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>MEDP</t>
+          <t>AGI</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>QXO</t>
+          <t>ALLY</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>PNR</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>PINS</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>HOLX</t>
+          <t>ESS</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>THC</t>
+          <t>SN</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>APTV</t>
+          <t>CRS</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>TKO</t>
+          <t>WST</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>HUBS</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>ZBH</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>LNT</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>INVH</t>
+          <t>ZG</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>MKC</t>
+          <t>TRMB</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>MEDP</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>MKC-V</t>
+          <t>QXO</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>MAA</t>
+          <t>TXT</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>OKTA</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>COO</t>
+          <t>HOLX</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>TLN</t>
+          <t>THC</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>GFL</t>
+          <t>APTV</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>WMG</t>
+          <t>CDW</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>KSPI</t>
+          <t>RTO</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>ROKU</t>
+          <t>TRU</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>ROIV</t>
+          <t>TTD</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>GEN</t>
+          <t>INVH</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>LYB</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>HTHT</t>
+          <t>MKC</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>NLY</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>ONON</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>DKNG</t>
+          <t>MKC-V</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>AVAV</t>
+          <t>MAA</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>MGA</t>
+          <t>OKTA</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>KEY-PI</t>
+          <t>COO</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>DECK</t>
+          <t>TLN</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>CSL</t>
+          <t>GFL</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ULS</t>
+          <t>WMG</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>GDDY</t>
+          <t>ROKU</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ARCC</t>
+          <t>ROIV</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>FIG</t>
+          <t>GEN</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>RGC</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>PNFP</t>
+          <t>HTHT</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>MAS</t>
+          <t>IONQ</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>ONON</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>EVR</t>
+          <t>DKNG</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>DPZ</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>BBY</t>
+          <t>AVAV</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>LOGI</t>
+          <t>MGA</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>EQH</t>
+          <t>KEY-PI</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>RPM</t>
+          <t>CSL</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>GWRE</t>
+          <t>ULS</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>SOLV</t>
+          <t>GDDY</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>RBRK</t>
+          <t>ARCC</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>FIGR</t>
+          <t>ICLR</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>NLY-PG</t>
+          <t>AVY</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>NLY-PF</t>
+          <t>FIG</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>AMH</t>
+          <t>RGC</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>OHI</t>
+          <t>PNFP</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>RVTY</t>
+          <t>ALLE</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>JKHY</t>
+          <t>MAS</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>RYAN</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>KIM</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>EVR</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>PSKY</t>
+          <t>DPZ</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>UHS</t>
+          <t>BBY</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>CHWY</t>
+          <t>UDR</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>LAMR</t>
+          <t>LOGI</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>UNM</t>
+          <t>EQH</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>SNAP</t>
+          <t>RPM</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>JEF</t>
+          <t>GWRE</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>FMS</t>
+          <t>SOLV</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>BNT</t>
+          <t>RBRK</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>BJ</t>
+          <t>FIGR</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>OKLO</t>
+          <t>PAA</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>HLI</t>
+          <t>NLY-PG</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>IVZ</t>
+          <t>BLD</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>NLY-PF</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>BF-B</t>
+          <t>AMH</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>SWK</t>
+          <t>NBIX</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>BMNR</t>
+          <t>OHI</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>GMED</t>
+          <t>RVTY</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>JKHY</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>ZBRA</t>
+          <t>RYAN</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>TXRH</t>
+          <t>BLDR</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>SMMT</t>
+          <t>PSKY</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>UHS</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>ALGN</t>
+          <t>CHWY</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>JOBY</t>
+          <t>LAMR</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>SUZ</t>
+          <t>UNM</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>SNAP</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>TEM</t>
+          <t>JEF</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>WMS</t>
+          <t>BNT</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>WYNN</t>
+          <t>BJ</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>EXEL</t>
+          <t>OKLO</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>NTNX</t>
+          <t>HLI</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>BSY</t>
+          <t>BF-A</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>RDY</t>
+          <t>GLPI</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>DOCU</t>
+          <t>EQX</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>BXP</t>
+          <t>IVZ</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>MDGL</t>
+          <t>ACM</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>BF-B</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>SCI</t>
+          <t>SWK</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>MICC</t>
+          <t>BMNR</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>CNM</t>
+          <t>GLXY</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>MP</t>
+          <t>DT</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>WTRG</t>
+          <t>ZBRA</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>DAY</t>
+          <t>TXRH</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>SARO</t>
+          <t>DOC</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>SMMT</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>MOH</t>
+          <t>EPAM</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>WLK</t>
+          <t>ALGN</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>SPXC</t>
+          <t>CCK</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>MANH</t>
+          <t>JOBY</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>FDS</t>
+          <t>SUZ</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>CR</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>CART</t>
+          <t>TEM</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>AIT</t>
+          <t>WMS</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>PAG</t>
+          <t>WYNN</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>TECH</t>
+          <t>EXEL</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>YMM</t>
+          <t>NTNX</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>BSY</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>ENSG</t>
+          <t>RDY</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>DOCU</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>PCOR</t>
+          <t>BXP</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>KLAR</t>
+          <t>MDGL</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>ARMK</t>
+          <t>BAH</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>JAZZ</t>
+          <t>SCI</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>BAX</t>
+          <t>MICC</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>CHYM</t>
+          <t>CNM</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>MP</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>SANM</t>
+          <t>WTRG</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>COKE</t>
+          <t>DAY</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>POOL</t>
+          <t>SARO</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>OSK</t>
+          <t>CRL</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>EHC</t>
+          <t>BMRN</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>SOLS</t>
+          <t>MOH</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>WLK</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>TAP</t>
+          <t>MANH</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>DDS</t>
+          <t>FDS</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>BROS</t>
+          <t>AFG</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>AAL</t>
+          <t>CART</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>ORI</t>
+          <t>AIT</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>AYI</t>
+          <t>PAG</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>ABVX</t>
+          <t>TECH</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>EGP</t>
+          <t>YMM</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>ACI</t>
+          <t>FIVE</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>HSIC</t>
+          <t>ENSG</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>KNSL</t>
+          <t>OC</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>PCOR</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>GS-PC</t>
+          <t>KLAR</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>SAIA</t>
+          <t>JAZZ</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>RGEN</t>
+          <t>CHYM</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>DOX</t>
+          <t>SAIL</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>STEP</t>
+          <t>SANM</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>SWKS</t>
+          <t>COKE</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>MORN</t>
+          <t>POOL</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>QBTS</t>
+          <t>OSK</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>TTAN</t>
+          <t>EHC</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>RZB</t>
+          <t>ALV</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>FRT</t>
+          <t>SOLS</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>AGNCM</t>
+          <t>ARE</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>AGNCN</t>
+          <t>TAP</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>LKQ</t>
+          <t>DDS</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>PEGA</t>
+          <t>BROS</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>CUBE</t>
+          <t>REXR</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>VIPS</t>
+          <t>AAL</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>LEVI</t>
+          <t>ORI</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
+        <is>
+          <t>AYI</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>ABVX</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>ACI</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>HSIC</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>IESC</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>MGM</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>UWMC</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>SAIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>RGEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>DOX</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>KNX</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>SWKS</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>OGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>MORN</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>QBTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>TTAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>RZB</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>FRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>AGNCM</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>AGNCN</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>LKQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>PEGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>CUBE</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>VIPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>AUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>LEVI</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
         <is>
           <t>ADC</t>
         </is>

--- a/scan_skipped.xlsx
+++ b/scan_skipped.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A508"/>
+  <dimension ref="A1:A529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,3463 +515,3610 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>COST</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>PLTR</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>JPM-PD</t>
+          <t>ABBV</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>JPM-PC</t>
+          <t>HD</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>NFLX</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>JPM-PD</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BAC-PK</t>
+          <t>JPM-PC</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>UNH</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BAC-PL</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>BAC-PK</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>GE</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BAC-PB</t>
+          <t>BAC-PL</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>AZN</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RY</t>
+          <t>SAP</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>BML-PL</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CRM</t>
+          <t>BAC-PB</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>WFC-PY</t>
+          <t>AXP</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>RY</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>WFC-PL</t>
+          <t>TMO</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>CRM</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ISRG</t>
+          <t>WFC-PY</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>BA</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BX</t>
+          <t>WFC-PL</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>APH</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SHOP</t>
+          <t>ISRG</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>ABT</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>BX</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>DHR</t>
+          <t>APP</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>TJX</t>
+          <t>SHOP</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>ACN</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>UBER</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HDB</t>
+          <t>DHR</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SPGI</t>
+          <t>TJX</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>BKNG</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>QCOM</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PDD</t>
+          <t>HDB</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>INTU</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>COF</t>
+          <t>LOW</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BSX</t>
+          <t>UBS</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SONY</t>
+          <t>PDD</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>NOW</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>COF</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PGR</t>
+          <t>BSX</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>SONY</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>PANW</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SNY</t>
+          <t>ADBE</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BMY</t>
+          <t>PGR</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>ARM</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SBUX</t>
+          <t>CRWD</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>SNY</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>BMY</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BN</t>
+          <t>KKR</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SPOT</t>
+          <t>SBUX</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>CVS</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>IBN</t>
+          <t>BN</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>SPOT</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CVNA</t>
+          <t>ADP</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>IBN</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SNPS</t>
+          <t>CEG</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>MCK</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>CVNA</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>GD</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>WM</t>
+          <t>SNPS</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>HOOD</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>NKE</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>MCO</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>HWM</t>
+          <t>WM</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>NTES</t>
+          <t>DASH</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ELV</t>
+          <t>CDNS</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MS-PK</t>
+          <t>HWM</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BAM</t>
+          <t>MAR</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MS-PI</t>
+          <t>NTES</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CRH</t>
+          <t>ELV</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ABNB</t>
+          <t>MMM</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>MS-PF</t>
+          <t>MS-PK</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>MS-PE</t>
+          <t>BAM</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CTAS</t>
+          <t>MS-PI</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>CRH</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>APO</t>
+          <t>ABNB</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>REGN</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>MS-PF</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>MS-PE</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SNOW</t>
+          <t>CTAS</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>RELX</t>
+          <t>DELL</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>APO</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>INFY</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>RSG</t>
+          <t>CI</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>SE</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>SNOW</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>DUK-PA</t>
+          <t>RELX</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ROST</t>
+          <t>MRVL</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>RACE</t>
+          <t>WBD</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>RKT</t>
+          <t>RSG</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CTA-PB</t>
+          <t>TEL</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>URI</t>
+          <t>NET</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>NXPI</t>
+          <t>AJG</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BDX</t>
+          <t>NSC</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ADSK</t>
+          <t>CNI</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>COIN</t>
+          <t>DUK-PA</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>ROST</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>RACE</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>IDXX</t>
+          <t>RKT</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>TRI</t>
+          <t>CTA-PB</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ZTS</t>
+          <t>URI</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>NXPI</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>ADSK</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>COIN</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>CMG</t>
+          <t>VLO</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>RBLX</t>
+          <t>NDAQ</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ALL</t>
+          <t>SRE</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>IDXX</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SCHW-PD</t>
+          <t>TRI</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>WDAY</t>
+          <t>ZTS</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>EW</t>
+          <t>AU</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ARES</t>
+          <t>PYPL</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>PSA</t>
+          <t>VST</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>AXON</t>
+          <t>CMG</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>RBLX</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ALNY</t>
+          <t>ALL</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>TGT</t>
+          <t>EA</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>CTA-PA</t>
+          <t>SCHW-PD</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>HEI</t>
+          <t>WDAY</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>EW</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>KGC</t>
+          <t>ARES</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>TTWO</t>
+          <t>PSA</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SPG-PJ</t>
+          <t>AXON</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>DDOG</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>ALNY</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ROP</t>
+          <t>CTA-PA</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>JD</t>
+          <t>HEI</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>DHI</t>
+          <t>MSTR</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>EBAY</t>
+          <t>KGC</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TTWO</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>MET-PA</t>
+          <t>SPG-PJ</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>EXC</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>TCOM</t>
+          <t>DAL</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>LVS</t>
+          <t>WCN</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>AIG</t>
+          <t>ROP</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>IQV</t>
+          <t>JD</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>RDDT</t>
+          <t>DHI</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>CPRT</t>
+          <t>RKLB</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>XYZ</t>
+          <t>KR</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>HEI-A</t>
+          <t>MET-PA</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>GRMN</t>
+          <t>CTSH</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>VMC</t>
+          <t>TCOM</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>LVS</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>HSY</t>
+          <t>AIG</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>IQV</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>PRU</t>
+          <t>RDDT</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>CPRT</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>CCI</t>
+          <t>XYZ</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>KDP</t>
+          <t>HEI-A</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>MDLN</t>
+          <t>GRMN</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>RMD</t>
+          <t>VMC</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>FICO</t>
+          <t>NOK</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>VEEV</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>GEHC</t>
+          <t>PRU</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>FISV</t>
+          <t>PAYX</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>TEAM</t>
+          <t>CCI</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>VTR</t>
+          <t>KDP</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>CPNG</t>
+          <t>MDLN</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>OTIS</t>
+          <t>RMD</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>CLS</t>
+          <t>FICO</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>SYM</t>
+          <t>FMX</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>APO-PA</t>
+          <t>VEEV</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>XYL</t>
+          <t>GEHC</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>UAL</t>
+          <t>FISV</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>SATS</t>
+          <t>TEAM</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>VTR</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>INSM</t>
+          <t>CPNG</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>KVUE</t>
+          <t>OTIS</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>NTRA</t>
+          <t>CLS</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>SYM</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>RJF</t>
+          <t>APO-PA</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>MDB</t>
+          <t>XYL</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>PCG</t>
+          <t>UAL</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>EXPE</t>
+          <t>SATS</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>DG</t>
+          <t>ZS</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>PSA-PK</t>
+          <t>INSM</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>SOFI</t>
+          <t>KVUE</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ALL-PB</t>
+          <t>NTRA</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>FOXA</t>
+          <t>KMB</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>HUM</t>
+          <t>RJF</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>WTW</t>
+          <t>MDB</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>EXR</t>
+          <t>PCG</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>FIS</t>
+          <t>EXPE</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>FOX</t>
+          <t>DG</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>PSA-PK</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>QSR</t>
+          <t>SOFI</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>FLUT</t>
+          <t>ALL-PB</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>VICI</t>
+          <t>FOXA</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>AMRZ</t>
+          <t>HUM</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ULTA</t>
+          <t>WTW</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>MTD</t>
+          <t>EXR</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>TSCO</t>
+          <t>FIS</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>SYF</t>
+          <t>FOX</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>LPLA</t>
+          <t>VRSK</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>HPE</t>
+          <t>QSR</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>TME</t>
+          <t>FLUT</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>STLA</t>
+          <t>VICI</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>KHC</t>
+          <t>AMRZ</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>CSGP</t>
+          <t>ULTA</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>PHG</t>
+          <t>MTD</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ALAB</t>
+          <t>TSCO</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>WIT</t>
+          <t>SYF</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>LEN</t>
+          <t>LPLA</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>HBAN</t>
+          <t>HPE</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ATO</t>
+          <t>TME</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>BRO</t>
+          <t>DOV</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>LEN-B</t>
+          <t>CBOE</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>EFX</t>
+          <t>DTE</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>STLA</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>TPR</t>
+          <t>KHC</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>CSGP</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>MKL</t>
+          <t>PHG</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>ALAB</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>AWK</t>
+          <t>WIT</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>OMC</t>
+          <t>LEN</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>WRB</t>
+          <t>HBAN</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>AVB</t>
+          <t>ATO</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>VLTO</t>
+          <t>BRO</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>DLR-PK</t>
+          <t>NMR</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>CINF</t>
+          <t>LEN-B</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>FCNCA</t>
+          <t>EFX</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>PHM</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>EQR</t>
+          <t>TPR</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FSLR</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>LDOS</t>
+          <t>MKL</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>SQM</t>
+          <t>DLTR</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>GIS</t>
+          <t>AWK</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>AXIA-PC</t>
+          <t>OMC</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>VRSN</t>
+          <t>WRB</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>TPG</t>
+          <t>AVB</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>TROW</t>
+          <t>VLTO</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>DLR-PK</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>CINF</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>CRDO</t>
+          <t>FCNCA</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>NBIS</t>
+          <t>PHM</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>CPAY</t>
+          <t>BR</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>LDOS</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>DRI</t>
+          <t>PSTG</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>OWL</t>
+          <t>FLEX</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>CNC</t>
+          <t>AXIA-PC</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>VRSN</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>FUTU</t>
+          <t>TPG</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>AFRM</t>
+          <t>TROW</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>WAT</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>DLR-PJ</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>TLK</t>
+          <t>CRDO</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>CYBR</t>
+          <t>NBIS</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>FWONK</t>
+          <t>CPAY</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ALB</t>
+          <t>LULU</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>FWONA</t>
+          <t>DRI</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>OWL</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>RL</t>
+          <t>CNC</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>CMS</t>
+          <t>IP</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>UTHR</t>
+          <t>FUTU</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>NVR</t>
+          <t>AFRM</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>GPN</t>
+          <t>SW</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>DLR-PJ</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>SSNC</t>
+          <t>TLK</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>GMAB</t>
+          <t>CYBR</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>TWLO</t>
+          <t>FWONK</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>IHG</t>
+          <t>ALB</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>FWONA</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>INCY</t>
+          <t>CG</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>RL</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>SBAC</t>
+          <t>CMS</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>WWD</t>
+          <t>UTHR</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>CHKP</t>
+          <t>NVR</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>GPN</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>NTAP</t>
+          <t>AS</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>TOST</t>
+          <t>SSNC</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>JBHT</t>
+          <t>GMAB</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>SGI</t>
+          <t>TWLO</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>GIB</t>
+          <t>IHG</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>RIVN</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>WY</t>
+          <t>INCY</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>PODD</t>
+          <t>HL</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>TYL</t>
+          <t>SBAC</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>IFF</t>
+          <t>WWD</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>RVMD</t>
+          <t>CHKP</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>KTOS</t>
+          <t>PTC</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>HIG-PG</t>
+          <t>NTAP</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>GRAB</t>
+          <t>TOST</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>JBHT</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>FTV</t>
+          <t>SGI</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>BURL</t>
+          <t>GIB</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>RIVN</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>SMCI</t>
+          <t>PODD</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>DKS</t>
+          <t>TYL</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>HPQ</t>
+          <t>IFF</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>CRCL</t>
+          <t>RVMD</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>LII</t>
+          <t>KTOS</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>FITBI</t>
+          <t>HIG-PG</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>XPEV</t>
+          <t>GRAB</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>IOT</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>PSNYW</t>
+          <t>FTV</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>AGI</t>
+          <t>BURL</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ALLY</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>SMCI</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>PINS</t>
+          <t>DKS</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>ESS</t>
+          <t>HPQ</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>CRCL</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>CRS</t>
+          <t>LII</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>FITBI</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>HUBS</t>
+          <t>XPEV</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>ZBH</t>
+          <t>IT</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>LNT</t>
+          <t>PSNYW</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>AGI</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>ALLY</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>MEDP</t>
+          <t>PNR</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>QXO</t>
+          <t>PINS</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>ESS</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>SN</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>HOLX</t>
+          <t>CRS</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>THC</t>
+          <t>WST</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>APTV</t>
+          <t>HUBS</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>ZBH</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>RTO</t>
+          <t>LNT</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>ZG</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>TRMB</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>INVH</t>
+          <t>MEDP</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>LYB</t>
+          <t>QXO</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>MKC</t>
+          <t>TXT</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>NLY</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>HOLX</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>MKC-V</t>
+          <t>THC</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>MAA</t>
+          <t>APTV</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>OKTA</t>
+          <t>TKO</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>COO</t>
+          <t>CDW</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>TLN</t>
+          <t>RTO</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>GFL</t>
+          <t>TRU</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>WMG</t>
+          <t>TTD</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ROKU</t>
+          <t>INVH</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ROIV</t>
+          <t>MKC</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>GEN</t>
+          <t>NLY</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>HTHT</t>
+          <t>MKC-V</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>MAA</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>ONON</t>
+          <t>OKTA</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>DKNG</t>
+          <t>COO</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>TLN</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>AVAV</t>
+          <t>GFL</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>MGA</t>
+          <t>WMG</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>KEY-PI</t>
+          <t>ROKU</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>CSL</t>
+          <t>ROIV</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>ULS</t>
+          <t>GEN</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>GDDY</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>ARCC</t>
+          <t>HTHT</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>ICLR</t>
+          <t>IONQ</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>AVY</t>
+          <t>ONON</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>FIG</t>
+          <t>DKNG</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>RGC</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>PNFP</t>
+          <t>AVAV</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>ALLE</t>
+          <t>MGA</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>MAS</t>
+          <t>KEY-PI</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>EMA</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>KIM</t>
+          <t>CSL</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>EVR</t>
+          <t>FNF</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>DPZ</t>
+          <t>ULS</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>BBY</t>
+          <t>GDDY</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>ERIE</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>LOGI</t>
+          <t>ARCC</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>EQH</t>
+          <t>ICLR</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>RPM</t>
+          <t>AVY</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>GWRE</t>
+          <t>FIG</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>SOLV</t>
+          <t>RGC</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>RBRK</t>
+          <t>PNFP</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>FIGR</t>
+          <t>ALLE</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>PAA</t>
+          <t>MAS</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>NLY-PG</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>EVR</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>NLY-PF</t>
+          <t>DPZ</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>AMH</t>
+          <t>BBY</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>NBIX</t>
+          <t>UDR</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>OHI</t>
+          <t>LOGI</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>RVTY</t>
+          <t>EQH</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>JKHY</t>
+          <t>RPM</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>RYAN</t>
+          <t>GWRE</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>SOLV</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>RBRK</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>PSKY</t>
+          <t>FIGR</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>UHS</t>
+          <t>NLY-PG</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>CHWY</t>
+          <t>BLD</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>LAMR</t>
+          <t>NLY-PF</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>UNM</t>
+          <t>AMH</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>SNAP</t>
+          <t>NBIX</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>JEF</t>
+          <t>OHI</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>BNT</t>
+          <t>RVTY</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>BJ</t>
+          <t>JKHY</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>OKLO</t>
+          <t>RYAN</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>HLI</t>
+          <t>BLDR</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>BF-A</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>GLPI</t>
+          <t>PSKY</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>EQX</t>
+          <t>UHS</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>IVZ</t>
+          <t>CHWY</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>LAMR</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>BF-B</t>
+          <t>UNM</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>SWK</t>
+          <t>SNAP</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>BMNR</t>
+          <t>JEF</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>GLXY</t>
+          <t>BNT</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>BJ</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>ZBRA</t>
+          <t>OKLO</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>TXRH</t>
+          <t>HLI</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>GLPI</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>SMMT</t>
+          <t>EQX</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>IVZ</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>ALGN</t>
+          <t>ACM</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>CCK</t>
+          <t>SWK</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>JOBY</t>
+          <t>AGNC</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>SUZ</t>
+          <t>BMNR</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>GLXY</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>TEM</t>
+          <t>GMED</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>WMS</t>
+          <t>DT</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>WYNN</t>
+          <t>ZBRA</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>EXEL</t>
+          <t>TXRH</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>NTNX</t>
+          <t>DOC</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>BSY</t>
+          <t>SMMT</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>RDY</t>
+          <t>EPAM</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>DOCU</t>
+          <t>ALGN</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>BXP</t>
+          <t>CCK</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>MDGL</t>
+          <t>JOBY</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>SUZ</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>SCI</t>
+          <t>CR</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>MICC</t>
+          <t>TEM</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>CNM</t>
+          <t>WMS</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>MP</t>
+          <t>WYNN</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>WTRG</t>
+          <t>EXEL</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>DAY</t>
+          <t>NTNX</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>SARO</t>
+          <t>BSY</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>RDY</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>BMRN</t>
+          <t>DOCU</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>MOH</t>
+          <t>BXP</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>WLK</t>
+          <t>LSCC</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>MANH</t>
+          <t>MDGL</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>FDS</t>
+          <t>BAH</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>SCI</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>CART</t>
+          <t>MICC</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>AIT</t>
+          <t>CNM</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>PAG</t>
+          <t>MP</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>TECH</t>
+          <t>WTRG</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>YMM</t>
+          <t>DAY</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>SARO</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>ENSG</t>
+          <t>CRL</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>BMRN</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>PCOR</t>
+          <t>MOH</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>KLAR</t>
+          <t>WLK</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>JAZZ</t>
+          <t>SPXC</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>CHYM</t>
+          <t>MANH</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>FDS</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>SANM</t>
+          <t>AFG</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>COKE</t>
+          <t>CART</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>POOL</t>
+          <t>AIT</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>OSK</t>
+          <t>PAG</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>EHC</t>
+          <t>TECH</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>ALV</t>
+          <t>CAE</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>SOLS</t>
+          <t>YMM</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>BWA</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>TAP</t>
+          <t>ENSG</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>DDS</t>
+          <t>OC</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>BROS</t>
+          <t>PCOR</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>REXR</t>
+          <t>KLAR</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>AAL</t>
+          <t>JAZZ</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>ORI</t>
+          <t>CHYM</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>AYI</t>
+          <t>SAIL</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>ABVX</t>
+          <t>SANM</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>EGP</t>
+          <t>COKE</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>ACI</t>
+          <t>POOL</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>HSIC</t>
+          <t>COMP</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>IESC</t>
+          <t>OSK</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>EHC</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>UWMC</t>
+          <t>ALV</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>SAIA</t>
+          <t>SOLS</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>RGEN</t>
+          <t>ARE</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>DOX</t>
+          <t>TAP</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>KNX</t>
+          <t>DDS</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>STEP</t>
+          <t>BROS</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>SWKS</t>
+          <t>REXR</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>OGE</t>
+          <t>AAL</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>MORN</t>
+          <t>ORI</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>QBTS</t>
+          <t>AYI</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>TTAN</t>
+          <t>ABVX</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>RZB</t>
+          <t>EGP</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>FRT</t>
+          <t>ACI</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>AGNCM</t>
+          <t>HSIC</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>AGNCN</t>
+          <t>KNSL</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>LKQ</t>
+          <t>IESC</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>PEGA</t>
+          <t>MGM</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>CUBE</t>
+          <t>UWMC</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>VIPS</t>
+          <t>SAIA</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>AUR</t>
+          <t>RGEN</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>LEVI</t>
+          <t>DOX</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
+        <is>
+          <t>KNX</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>SWKS</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>OGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>MORN</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>GDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>QBTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>TTAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>RZB</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>FRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>AGNCM</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>AGNCN</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>ZION</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>LKQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>PEGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>CUBE</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>AHR</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>VIPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>AUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>LEVI</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
         <is>
           <t>ADC</t>
         </is>

--- a/scan_skipped.xlsx
+++ b/scan_skipped.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A529"/>
+  <dimension ref="A1:A570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,98 +452,98 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>BRK-A</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BRK-A</t>
+          <t>BRK-B</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BRK-B</t>
+          <t>JPM</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>LLY</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LLY</t>
+          <t>V</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>ORCL</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>BAC</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BAC</t>
+          <t>MA</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>COST</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>PLTR</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>ABBV</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ABBV</t>
+          <t>HD</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>NFLX</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>GS</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>AZN</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -613,3512 +613,3799 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BML-PL</t>
+          <t>BAC-PE</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BAC-PB</t>
+          <t>BML-PL</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>BAC-PB</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RY</t>
+          <t>AXP</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>RY</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CRM</t>
+          <t>TMO</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>WFC-PY</t>
+          <t>CRM</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>KLAC</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>WFC-PL</t>
+          <t>WFC-PY</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>DIS</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ISRG</t>
+          <t>BA</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>WFC-PL</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BX</t>
+          <t>APH</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>ISRG</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SHOP</t>
+          <t>ABT</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>BX</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>APP</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>DHR</t>
+          <t>SHOP</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>TJX</t>
+          <t>ACN</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>BLK</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>UBER</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HDB</t>
+          <t>DHR</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>TJX</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>BKNG</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>UBS</t>
+          <t>QCOM</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PDD</t>
+          <t>HDB</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>SPGI</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>COF</t>
+          <t>INTU</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BSX</t>
+          <t>LOW</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SONY</t>
+          <t>UBS</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>PDD</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>NOW</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PGR</t>
+          <t>COF</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>BSX</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>NEM</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SNY</t>
+          <t>SONY</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BMY</t>
+          <t>PANW</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>ADBE</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SBUX</t>
+          <t>PGR</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>ARM</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BN</t>
+          <t>CRWD</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SPOT</t>
+          <t>SNY</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>KKR</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>IBN</t>
+          <t>SBUX</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>AEM</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MCK</t>
+          <t>CVS</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>CVNA</t>
+          <t>BN</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>SPOT</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SNPS</t>
+          <t>ADP</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>IBN</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>CEG</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>CVNA</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>WM</t>
+          <t>GD</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>SNPS</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>HOOD</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>NKE</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>HWM</t>
+          <t>MCO</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>WM</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>NTES</t>
+          <t>DASH</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ELV</t>
+          <t>CDNS</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>MS-PK</t>
+          <t>HWM</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BAM</t>
+          <t>MAR</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>MS-PI</t>
+          <t>NTES</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>CRH</t>
+          <t>ELV</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ABNB</t>
+          <t>MMM</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>REGN</t>
+          <t>MS-PK</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>MS-PF</t>
+          <t>AMT</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>MS-PE</t>
+          <t>BK</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>CTAS</t>
+          <t>BAM</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>MS-PI</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>APO</t>
+          <t>CRH</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>ABNB</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>REGN</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>MS-PF</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SNOW</t>
+          <t>MS-PE</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>RELX</t>
+          <t>CTAS</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>DELL</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>APO</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>RSG</t>
+          <t>INFY</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>CI</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>SE</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>AJG</t>
+          <t>SNOW</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>NSC</t>
+          <t>RELX</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>CNI</t>
+          <t>MRVL</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>DUK-PA</t>
+          <t>WBD</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ROST</t>
+          <t>RSG</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>RACE</t>
+          <t>WPM</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>RKT</t>
+          <t>TEL</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>CTA-PB</t>
+          <t>NET</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>URI</t>
+          <t>AJG</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>NXPI</t>
+          <t>NSC</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ADSK</t>
+          <t>CNI</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>COIN</t>
+          <t>AMX</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>DUK-PA</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>NDAQ</t>
+          <t>ROST</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>RACE</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>IDXX</t>
+          <t>RKT</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>TRI</t>
+          <t>CTA-PB</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ZTS</t>
+          <t>URI</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>NXPI</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>BDX</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>ADSK</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>CMG</t>
+          <t>COIN</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>RBLX</t>
+          <t>NDAQ</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ALL</t>
+          <t>SRE</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>IDXX</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SCHW-PD</t>
+          <t>TRI</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>WDAY</t>
+          <t>ZTS</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>EW</t>
+          <t>AU</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ARES</t>
+          <t>PYPL</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>PSA</t>
+          <t>VST</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>AXON</t>
+          <t>CMG</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>RBLX</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ALNY</t>
+          <t>ALL</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>CTA-PA</t>
+          <t>EA</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>HEI</t>
+          <t>SCHW-PD</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>WDAY</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>KGC</t>
+          <t>FNV</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>TTWO</t>
+          <t>EW</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SPG-PJ</t>
+          <t>GFI</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>ARES</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>PSA</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>AXON</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ROP</t>
+          <t>DDOG</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>JD</t>
+          <t>ALNY</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>DHI</t>
+          <t>CTA-PA</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>RKLB</t>
+          <t>HEI</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>MSTR</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>MET-PA</t>
+          <t>KGC</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>TTWO</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>TCOM</t>
+          <t>SPG-PJ</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>LVS</t>
+          <t>EXC</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>AIG</t>
+          <t>XEL</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>IQV</t>
+          <t>DAL</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>RDDT</t>
+          <t>WCN</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>CPRT</t>
+          <t>ROP</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>XYZ</t>
+          <t>JD</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>HEI-A</t>
+          <t>DHI</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>GRMN</t>
+          <t>RKLB</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>VMC</t>
+          <t>KR</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>MET-PA</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CTSH</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>PRU</t>
+          <t>TCOM</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>LVS</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>CCI</t>
+          <t>AIG</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>KDP</t>
+          <t>IQV</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>MDLN</t>
+          <t>RDDT</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>RMD</t>
+          <t>CPRT</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>FICO</t>
+          <t>XYZ</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>FMX</t>
+          <t>HEI-A</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>VEEV</t>
+          <t>GRMN</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>GEHC</t>
+          <t>VMC</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>FISV</t>
+          <t>NOK</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>TEAM</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>VTR</t>
+          <t>PRU</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>CPNG</t>
+          <t>PAYX</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>OTIS</t>
+          <t>CCI</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>CLS</t>
+          <t>KDP</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>SYM</t>
+          <t>MDLN</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>APO-PA</t>
+          <t>RMD</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>XYL</t>
+          <t>FICO</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>UAL</t>
+          <t>VEEV</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>SATS</t>
+          <t>GEHC</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>FISV</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>INSM</t>
+          <t>TEAM</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>KVUE</t>
+          <t>VTR</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>NTRA</t>
+          <t>CPNG</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>OTIS</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>RJF</t>
+          <t>CLS</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>MDB</t>
+          <t>SYM</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>PCG</t>
+          <t>APO-PA</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>EXPE</t>
+          <t>XYL</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>DG</t>
+          <t>UAL</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>PSA-PK</t>
+          <t>SATS</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>SOFI</t>
+          <t>LYV</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ALL-PB</t>
+          <t>ZS</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>FOXA</t>
+          <t>INSM</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>HUM</t>
+          <t>KVUE</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>WTW</t>
+          <t>NTRA</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>EXR</t>
+          <t>KMB</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>FIS</t>
+          <t>RJF</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>FOX</t>
+          <t>MDB</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>PCG</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>QSR</t>
+          <t>FITB</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>FLUT</t>
+          <t>EXPE</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>VICI</t>
+          <t>CHT</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>AMRZ</t>
+          <t>DG</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ULTA</t>
+          <t>PSA-PK</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>MTD</t>
+          <t>SOFI</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>TSCO</t>
+          <t>ALL-PB</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>SYF</t>
+          <t>FOXA</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>LPLA</t>
+          <t>HUM</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>HPE</t>
+          <t>WTW</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>TME</t>
+          <t>EXR</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>DOV</t>
+          <t>FIS</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>FOX</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>DTE</t>
+          <t>VRSK</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>STLA</t>
+          <t>QSR</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>KHC</t>
+          <t>FLUT</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>CSGP</t>
+          <t>VICI</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>PHG</t>
+          <t>AMRZ</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ALAB</t>
+          <t>ULTA</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>WIT</t>
+          <t>MTD</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>LEN</t>
+          <t>TSCO</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>HBAN</t>
+          <t>SYF</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ATO</t>
+          <t>LPLA</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>BRO</t>
+          <t>HPE</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>NMR</t>
+          <t>TME</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>LEN-B</t>
+          <t>DOV</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>EFX</t>
+          <t>CBOE</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>DTE</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>TPR</t>
+          <t>STLA</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>KHC</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>MKL</t>
+          <t>CSGP</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>PHG</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>AWK</t>
+          <t>IRM</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>OMC</t>
+          <t>ALAB</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>WRB</t>
+          <t>PAAS</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>AVB</t>
+          <t>WIT</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>VLTO</t>
+          <t>LEN</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>DLR-PK</t>
+          <t>HBAN</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>CINF</t>
+          <t>ATO</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>FCNCA</t>
+          <t>BRO</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>PHM</t>
+          <t>NMR</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>LEN-B</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>LDOS</t>
+          <t>EFX</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>PSTG</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>FLEX</t>
+          <t>TPR</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>AXIA-PC</t>
+          <t>FSLR</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>VRSN</t>
+          <t>MKL</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>TPG</t>
+          <t>AER</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>TROW</t>
+          <t>DLTR</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>AWK</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>OMC</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>CRDO</t>
+          <t>WRB</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>NBIS</t>
+          <t>AVB</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>CPAY</t>
+          <t>VLTO</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>DLR-PK</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>DRI</t>
+          <t>CINF</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>OWL</t>
+          <t>FCNCA</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>CNC</t>
+          <t>PHM</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>EQR</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>FUTU</t>
+          <t>BR</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>AFRM</t>
+          <t>LDOS</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>SQM</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>DLR-PJ</t>
+          <t>FLEX</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>TLK</t>
+          <t>AXIA-PC</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>CYBR</t>
+          <t>ILMN</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>FWONK</t>
+          <t>VRSN</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ALB</t>
+          <t>TPG</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>FWONA</t>
+          <t>TROW</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>WAT</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>RL</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>CMS</t>
+          <t>CRDO</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>UTHR</t>
+          <t>NBIS</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>NVR</t>
+          <t>CPAY</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>GPN</t>
+          <t>LULU</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>DRI</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>SSNC</t>
+          <t>OWL</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>GMAB</t>
+          <t>CNC</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>TWLO</t>
+          <t>IP</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>IHG</t>
+          <t>FUTU</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>AFRM</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>INCY</t>
+          <t>DLR-PJ</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>TLK</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>SBAC</t>
+          <t>CYBR</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>WWD</t>
+          <t>FWONK</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>CHKP</t>
+          <t>ALB</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>PSLV</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>NTAP</t>
+          <t>FWONA</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>TOST</t>
+          <t>CG</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>JBHT</t>
+          <t>RL</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>SGI</t>
+          <t>CMS</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>GIB</t>
+          <t>UTHR</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>RIVN</t>
+          <t>NVR</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>PODD</t>
+          <t>GPN</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>TYL</t>
+          <t>AS</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>IFF</t>
+          <t>SSNC</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>RVMD</t>
+          <t>GMAB</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>KTOS</t>
+          <t>TWLO</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>HIG-PG</t>
+          <t>IHG</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>GRAB</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>INCY</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>FTV</t>
+          <t>HL</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>BURL</t>
+          <t>SBAC</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>WWD</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>SMCI</t>
+          <t>CHKP</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>DKS</t>
+          <t>PTC</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>HPQ</t>
+          <t>NTAP</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>CRCL</t>
+          <t>TOST</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>LII</t>
+          <t>JBHT</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>FITBI</t>
+          <t>SGI</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>XPEV</t>
+          <t>GIB</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>RIVN</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>PSNYW</t>
+          <t>SNA</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>AGI</t>
+          <t>PODD</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>ALLY</t>
+          <t>TYL</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>IFF</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>PINS</t>
+          <t>RVMD</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>ESS</t>
+          <t>KTOS</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>HIG-PG</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>CRS</t>
+          <t>GRAB</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>IOT</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>HUBS</t>
+          <t>FTV</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>ZBH</t>
+          <t>BURL</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>LNT</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>SMCI</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>DKS</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>MEDP</t>
+          <t>APG</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>QXO</t>
+          <t>HPQ</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CRCL</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>LII</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>HOLX</t>
+          <t>FITBI</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>THC</t>
+          <t>XPEV</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>APTV</t>
+          <t>IT</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>TKO</t>
+          <t>PSNYW</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>AGI</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>RTO</t>
+          <t>ALLY</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>PNR</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>PINS</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>INVH</t>
+          <t>ESS</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>MKC</t>
+          <t>SN</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>NLY</t>
+          <t>CRS</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>WST</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>MKC-V</t>
+          <t>HUBS</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>MAA</t>
+          <t>ZBH</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>OKTA</t>
+          <t>LNT</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>COO</t>
+          <t>LI</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>TLN</t>
+          <t>ZG</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>GFL</t>
+          <t>ATI</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>WMG</t>
+          <t>TRMB</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>ROKU</t>
+          <t>MEDP</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>ROIV</t>
+          <t>QXO</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>GEN</t>
+          <t>TXT</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>HTHT</t>
+          <t>HOLX</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>THC</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>ONON</t>
+          <t>APTV</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>DKNG</t>
+          <t>TKO</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>CDW</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>AVAV</t>
+          <t>RTO</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>MGA</t>
+          <t>TRU</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>KEY-PI</t>
+          <t>TTD</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>EMA</t>
+          <t>INVH</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>CSL</t>
+          <t>LYB</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>FNF</t>
+          <t>MKC</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>ULS</t>
+          <t>CDE</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>GDDY</t>
+          <t>NLY</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>ERIE</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>ARCC</t>
+          <t>MKC-V</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>ICLR</t>
+          <t>MAA</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>AVY</t>
+          <t>OKTA</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>FIG</t>
+          <t>COO</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>RGC</t>
+          <t>TLN</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>PNFP</t>
+          <t>GFL</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>ALLE</t>
+          <t>WMG</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>MAS</t>
+          <t>KSPI</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>ITT</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>EVR</t>
+          <t>ROKU</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>DPZ</t>
+          <t>ROIV</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>BBY</t>
+          <t>GEN</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>EWBC</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>LOGI</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>EQH</t>
+          <t>HTHT</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>RPM</t>
+          <t>IONQ</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>GWRE</t>
+          <t>ONON</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>SOLV</t>
+          <t>DKNG</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>RBRK</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>FIGR</t>
+          <t>AVAV</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>NLY-PG</t>
+          <t>MGA</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>KEY-PI</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>NLY-PF</t>
+          <t>EMA</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>AMH</t>
+          <t>CSL</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>NBIX</t>
+          <t>FNF</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>OHI</t>
+          <t>HMY</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>RVTY</t>
+          <t>ULS</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>JKHY</t>
+          <t>GDDY</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>RYAN</t>
+          <t>ERIE</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>ARCC</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>ICLR</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>PSKY</t>
+          <t>AVY</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>UHS</t>
+          <t>FIG</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>CHWY</t>
+          <t>RGC</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>LAMR</t>
+          <t>PNFP</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>UNM</t>
+          <t>ALLE</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>SNAP</t>
+          <t>MAS</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>JEF</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>BNT</t>
+          <t>CACI</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>BJ</t>
+          <t>JHX</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>OKLO</t>
+          <t>EVR</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>HLI</t>
+          <t>DPZ</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>GLPI</t>
+          <t>BBY</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>EQX</t>
+          <t>UDR</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>IVZ</t>
+          <t>SBSW</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>LOGI</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>SWK</t>
+          <t>EQH</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>AGNC</t>
+          <t>RPM</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>BMNR</t>
+          <t>GWRE</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>GLXY</t>
+          <t>SOLV</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>GMED</t>
+          <t>RBRK</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>FIGR</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>ZBRA</t>
+          <t>NLY-PG</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>TXRH</t>
+          <t>BLD</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>AMH</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>SMMT</t>
+          <t>NBIX</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>OHI</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>ALGN</t>
+          <t>RVTY</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>CCK</t>
+          <t>JKHY</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>JOBY</t>
+          <t>RYAN</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>SUZ</t>
+          <t>BLDR</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>TEM</t>
+          <t>PSKY</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>WMS</t>
+          <t>UHS</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>WYNN</t>
+          <t>CHWY</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>EXEL</t>
+          <t>LAMR</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>NTNX</t>
+          <t>UNM</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>BSY</t>
+          <t>SNAP</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>RDY</t>
+          <t>JEF</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>DOCU</t>
+          <t>BNT</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>BXP</t>
+          <t>BJ</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>LSCC</t>
+          <t>OKLO</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>MDGL</t>
+          <t>HLI</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>GLPI</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>SCI</t>
+          <t>EQX</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>MICC</t>
+          <t>IVZ</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>CNM</t>
+          <t>ACM</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>MP</t>
+          <t>SWK</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>WTRG</t>
+          <t>BMNR</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>DAY</t>
+          <t>GLXY</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>SARO</t>
+          <t>GMED</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>IAG</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>BMRN</t>
+          <t>DT</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>MOH</t>
+          <t>ZBRA</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>WLK</t>
+          <t>TXRH</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>SPXC</t>
+          <t>DOC</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>MANH</t>
+          <t>SMMT</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>FDS</t>
+          <t>EPAM</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ALGN</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>CART</t>
+          <t>CCK</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>AIT</t>
+          <t>JOBY</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>PAG</t>
+          <t>SUZ</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>TECH</t>
+          <t>CR</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>CAE</t>
+          <t>TEM</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>YMM</t>
+          <t>WMS</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>BWA</t>
+          <t>WYNN</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>ENSG</t>
+          <t>EXEL</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>NTNX</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>PCOR</t>
+          <t>BSY</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>KLAR</t>
+          <t>RDY</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>JAZZ</t>
+          <t>DOCU</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>CHYM</t>
+          <t>CPT</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>BXP</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>SANM</t>
+          <t>LSCC</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>COKE</t>
+          <t>STN</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>POOL</t>
+          <t>CEF</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>COMP</t>
+          <t>MDGL</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>OSK</t>
+          <t>BAH</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>EHC</t>
+          <t>SCI</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>ALV</t>
+          <t>MICC</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>SOLS</t>
+          <t>CNM</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>MP</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>TAP</t>
+          <t>WTRG</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>DDS</t>
+          <t>DAY</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>BROS</t>
+          <t>SARO</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>REXR</t>
+          <t>CRL</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>AAL</t>
+          <t>BMRN</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>ORI</t>
+          <t>MOH</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>AYI</t>
+          <t>WLK</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>ABVX</t>
+          <t>SPXC</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>EGP</t>
+          <t>MANH</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>ACI</t>
+          <t>FDS</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>HSIC</t>
+          <t>AFG</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>KNSL</t>
+          <t>CART</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>IESC</t>
+          <t>AIT</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>PAG</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>UWMC</t>
+          <t>TECH</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>SAIA</t>
+          <t>CAE</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>RGEN</t>
+          <t>YMM</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>DOX</t>
+          <t>FIVE</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>KNX</t>
+          <t>BWA</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>STEP</t>
+          <t>ENSG</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>OC</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>SWKS</t>
+          <t>PCOR</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>OGE</t>
+          <t>KLAR</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>MORN</t>
+          <t>ARMK</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>GDS</t>
+          <t>JAZZ</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>QBTS</t>
+          <t>CHYM</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>TTAN</t>
+          <t>UHAL-B</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>RZB</t>
+          <t>SAIL</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>FRT</t>
+          <t>SANM</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>AGNCM</t>
+          <t>COKE</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>AGNCN</t>
+          <t>NGD</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>ZION</t>
+          <t>POOL</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>LKQ</t>
+          <t>COMP</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>PEGA</t>
+          <t>OSK</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>CUBE</t>
+          <t>EHC</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>AHR</t>
+          <t>ALV</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>VIPS</t>
+          <t>SOLS</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>AUR</t>
+          <t>ARE</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>LEVI</t>
+          <t>TAP</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
+        <is>
+          <t>DDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>BROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>REXR</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>AAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>ORI</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>AYI</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>ABVX</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>NCLH</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>ACI</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>HSIC</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>KNSL</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>IESC</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>MGM</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>UWMC</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>SAIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>RGEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>DOX</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>KNX</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>SWKS</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>TFII</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>OGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>MORN</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>QBTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>TTAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>RZB</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>FRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>AGNCM</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>AGNCN</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>ZION</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>LKQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>PEGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>CUBE</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>AHR</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>VIPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>AUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>LEVI</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
         <is>
           <t>ADC</t>
         </is>

--- a/scan_skipped.xlsx
+++ b/scan_skipped.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A570"/>
+  <dimension ref="A1:A571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,77 +452,77 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BRK-A</t>
+          <t>TSLA</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BRK-B</t>
+          <t>BRK-A</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>BRK-B</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LLY</t>
+          <t>JPM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>LLY</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>V</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BAC</t>
+          <t>ORCL</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>BAC</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>MA</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>COST</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ABBV</t>
+          <t>PLTR</t>
         </is>
       </c>
     </row>
@@ -543,1736 +543,1736 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>JPM-PD</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>JPM-PD</t>
+          <t>JPM-PC</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>JPM-PC</t>
+          <t>UNH</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>BAC-PK</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BAC-PK</t>
+          <t>GE</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>BAC-PL</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BAC-PL</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SAP</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>BML-PL</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BAC-PE</t>
+          <t>BAC-PB</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BML-PL</t>
+          <t>AXP</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BAC-PB</t>
+          <t>RY</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>TMO</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RY</t>
+          <t>CRM</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>KLAC</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CRM</t>
+          <t>WFC-PY</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>KLAC</t>
+          <t>BA</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>WFC-PY</t>
+          <t>WFC-PL</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>ISRG</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>ABT</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>WFC-PL</t>
+          <t>BX</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>APP</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ISRG</t>
+          <t>SHOP</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>TD</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BX</t>
+          <t>ACN</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>BLK</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SHOP</t>
+          <t>UBER</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>DHR</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BLK</t>
+          <t>TJX</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>BKNG</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>DHR</t>
+          <t>QCOM</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TJX</t>
+          <t>HDB</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>SPGI</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>INTU</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>HDB</t>
+          <t>LOW</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SPGI</t>
+          <t>UBS</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>PDD</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>NOW</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>UBS</t>
+          <t>COF</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PDD</t>
+          <t>BSX</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>NEM</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>COF</t>
+          <t>SONY</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BSX</t>
+          <t>PANW</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>NEM</t>
+          <t>ADBE</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SONY</t>
+          <t>PGR</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>ARM</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>CRWD</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PGR</t>
+          <t>SNY</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>KKR</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>SBUX</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SNY</t>
+          <t>AEM</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>CVS</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SBUX</t>
+          <t>BN</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>AEM</t>
+          <t>SPOT</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>ADP</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BN</t>
+          <t>IBN</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SPOT</t>
+          <t>CEG</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>CVNA</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>IBN</t>
+          <t>GD</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>SNPS</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>CVNA</t>
+          <t>HOOD</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>NKE</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SNPS</t>
+          <t>MCO</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>WM</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>UPS</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>DASH</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>WM</t>
+          <t>CDNS</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>HWM</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>MAR</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>HWM</t>
+          <t>NTES</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>ELV</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>NTES</t>
+          <t>MMM</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ELV</t>
+          <t>MS-PK</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>AMT</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MS-PK</t>
+          <t>BAM</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>AMT</t>
+          <t>MS-PI</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BK</t>
+          <t>CRH</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BAM</t>
+          <t>ABNB</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>MS-PI</t>
+          <t>REGN</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CRH</t>
+          <t>MS-PF</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ABNB</t>
+          <t>MS-PE</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>REGN</t>
+          <t>CTAS</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>MS-PF</t>
+          <t>DELL</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>MS-PE</t>
+          <t>APO</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CTAS</t>
+          <t>INFY</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>CI</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>APO</t>
+          <t>SE</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>SNOW</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>RELX</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>MRVL</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SNOW</t>
+          <t>WBD</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>RELX</t>
+          <t>RSG</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>WPM</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>TEL</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>RSG</t>
+          <t>NET</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>WPM</t>
+          <t>AJG</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>NSC</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>CNI</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>AJG</t>
+          <t>AMX</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>NSC</t>
+          <t>DUK-PA</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>CNI</t>
+          <t>RACE</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>AMX</t>
+          <t>RKT</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>DUK-PA</t>
+          <t>CTA-PB</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ROST</t>
+          <t>URI</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>RACE</t>
+          <t>NXPI</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>RKT</t>
+          <t>ADSK</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>CTA-PB</t>
+          <t>COIN</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>URI</t>
+          <t>VLO</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>NXPI</t>
+          <t>NDAQ</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BDX</t>
+          <t>SRE</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ADSK</t>
+          <t>IDXX</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>COIN</t>
+          <t>TRI</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>NDAQ</t>
+          <t>ZTS</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>AU</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>IDXX</t>
+          <t>PYPL</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>TRI</t>
+          <t>VST</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ZTS</t>
+          <t>CMG</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>MPC</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>RBLX</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>ALL</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>CMG</t>
+          <t>EA</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>RBLX</t>
+          <t>SCHW-PD</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ALL</t>
+          <t>WDAY</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FAST</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SCHW-PD</t>
+          <t>FNV</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>WDAY</t>
+          <t>EW</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>FNV</t>
+          <t>GFI</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>EW</t>
+          <t>ARES</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>GFI</t>
+          <t>PSA</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ARES</t>
+          <t>AXON</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>PSA</t>
+          <t>DDOG</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>AXON</t>
+          <t>ALNY</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>TGT</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ALNY</t>
+          <t>CTA-PA</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>CTA-PA</t>
+          <t>HEI</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>HEI</t>
+          <t>MSTR</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>KGC</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>KGC</t>
+          <t>TTWO</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>TTWO</t>
+          <t>SPG-PJ</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>SPG-PJ</t>
+          <t>XEL</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>DAL</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>XEL</t>
+          <t>WCN</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ROP</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>JD</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ROP</t>
+          <t>DHI</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>JD</t>
+          <t>RKLB</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>DHI</t>
+          <t>KR</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>RKLB</t>
+          <t>MET-PA</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CTSH</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>MET-PA</t>
+          <t>TCOM</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>LVS</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>TCOM</t>
+          <t>AIG</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>LVS</t>
+          <t>IQV</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>AIG</t>
+          <t>RDDT</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>IQV</t>
+          <t>CPRT</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>RDDT</t>
+          <t>XYZ</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>CPRT</t>
+          <t>HEI-A</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>XYZ</t>
+          <t>GRMN</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>HEI-A</t>
+          <t>VMC</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>GRMN</t>
+          <t>NOK</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>VMC</t>
+          <t>HMC</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>PRU</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>PRU</t>
+          <t>PAYX</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>CCI</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>CCI</t>
+          <t>KDP</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>KDP</t>
+          <t>MDLN</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>MDLN</t>
+          <t>RMD</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>RMD</t>
+          <t>FICO</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>FICO</t>
+          <t>VEEV</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>VEEV</t>
+          <t>GEHC</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>GEHC</t>
+          <t>FISV</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>FISV</t>
+          <t>TEAM</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>TEAM</t>
+          <t>VTR</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>VTR</t>
+          <t>CPNG</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>CPNG</t>
+          <t>OTIS</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>OTIS</t>
+          <t>CLS</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>CLS</t>
+          <t>SYM</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>SYM</t>
+          <t>APO-PA</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>APO-PA</t>
+          <t>XYL</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>XYL</t>
+          <t>UAL</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>UAL</t>
+          <t>SATS</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>SATS</t>
+          <t>LYV</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>LYV</t>
+          <t>ZS</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>INSM</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>INSM</t>
+          <t>KVUE</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>KVUE</t>
+          <t>NTRA</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>NTRA</t>
+          <t>KMB</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>RJF</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>RJF</t>
+          <t>MDB</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>MDB</t>
+          <t>PCG</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>PCG</t>
+          <t>FITB</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>FITB</t>
+          <t>EXPE</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>EXPE</t>
+          <t>CHT</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>CHT</t>
+          <t>DG</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>DG</t>
+          <t>PSA-PK</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>PSA-PK</t>
+          <t>SOFI</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>SOFI</t>
+          <t>ALL-PB</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ALL-PB</t>
+          <t>FOXA</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>FOXA</t>
+          <t>HUM</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>HUM</t>
+          <t>WTW</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>WTW</t>
+          <t>EXR</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>EXR</t>
+          <t>FIS</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>FIS</t>
+          <t>FOX</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>FOX</t>
+          <t>VRSK</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>QSR</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>QSR</t>
+          <t>FLUT</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>FLUT</t>
+          <t>VICI</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>VICI</t>
+          <t>AMRZ</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>AMRZ</t>
+          <t>ULTA</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ULTA</t>
+          <t>MTD</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>MTD</t>
+          <t>TSCO</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>TSCO</t>
+          <t>SYF</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>SYF</t>
+          <t>LPLA</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>LPLA</t>
+          <t>HPE</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>HPE</t>
+          <t>TME</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>TME</t>
+          <t>DOV</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>DOV</t>
+          <t>CBOE</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>DTE</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>DTE</t>
+          <t>STLA</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>STLA</t>
+          <t>KHC</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>KHC</t>
+          <t>CSGP</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>CSGP</t>
+          <t>PHG</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>PHG</t>
+          <t>ALAB</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>IRM</t>
+          <t>PAAS</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ALAB</t>
+          <t>WIT</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>PAAS</t>
+          <t>LEN</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>WIT</t>
+          <t>HBAN</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>LEN</t>
+          <t>ATO</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>HBAN</t>
+          <t>BRO</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ATO</t>
+          <t>NMR</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>BRO</t>
+          <t>LEN-B</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>NMR</t>
+          <t>EFX</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>LEN-B</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>EFX</t>
+          <t>TPR</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FSLR</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>TPR</t>
+          <t>MKL</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>AER</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>MKL</t>
+          <t>DLTR</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>AER</t>
+          <t>AWK</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>OMC</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>AWK</t>
+          <t>STM</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>OMC</t>
+          <t>WRB</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>WRB</t>
+          <t>AVB</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>AVB</t>
+          <t>VLTO</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>VLTO</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -2307,7 +2307,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>EQR</t>
+          <t>RGLD</t>
         </is>
       </c>
     </row>
@@ -2328,217 +2328,217 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>SQM</t>
+          <t>PSTG</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>FLEX</t>
+          <t>SQM</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>AXIA-PC</t>
+          <t>FLEX</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>ILMN</t>
+          <t>AXIA-PC</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>VRSN</t>
+          <t>ILMN</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>TPG</t>
+          <t>VRSN</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>TROW</t>
+          <t>TPG</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>TROW</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>WAT</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>CRDO</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>NBIS</t>
+          <t>CRDO</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>CPAY</t>
+          <t>NBIS</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>CPAY</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>DRI</t>
+          <t>LULU</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>OWL</t>
+          <t>DRI</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>CNC</t>
+          <t>OWL</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>CNC</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>FUTU</t>
+          <t>IP</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>AFRM</t>
+          <t>FUTU</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>DLR-PJ</t>
+          <t>AFRM</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>TLK</t>
+          <t>SW</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>CYBR</t>
+          <t>DLR-PJ</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>FWONK</t>
+          <t>TLK</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ALB</t>
+          <t>CYBR</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>PSLV</t>
+          <t>FWONK</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>FWONA</t>
+          <t>ALB</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>FWONA</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>RL</t>
+          <t>CG</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>CMS</t>
+          <t>RL</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>UTHR</t>
+          <t>CMS</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>NVR</t>
+          <t>UTHR</t>
         </is>
       </c>
     </row>
@@ -2678,945 +2678,945 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>SNA</t>
+          <t>PODD</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>PODD</t>
+          <t>TYL</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>TYL</t>
+          <t>IFF</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>IFF</t>
+          <t>RVMD</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>RVMD</t>
+          <t>KTOS</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>KTOS</t>
+          <t>HIG-PG</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>HIG-PG</t>
+          <t>GRAB</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>GRAB</t>
+          <t>IOT</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>FTV</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>FTV</t>
+          <t>BURL</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>BURL</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>SMCI</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>SMCI</t>
+          <t>DKS</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>DKS</t>
+          <t>APG</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>APG</t>
+          <t>HPQ</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>HPQ</t>
+          <t>CRCL</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>CRCL</t>
+          <t>LII</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>LII</t>
+          <t>FITBI</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>FITBI</t>
+          <t>XPEV</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>XPEV</t>
+          <t>IT</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>PSNYW</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>PSNYW</t>
+          <t>AGI</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>AGI</t>
+          <t>ALLY</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>ALLY</t>
+          <t>PNR</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>PINS</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>PINS</t>
+          <t>ESS</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ESS</t>
+          <t>SN</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>CRS</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>CRS</t>
+          <t>WST</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>HUBS</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>HUBS</t>
+          <t>ZBH</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>ZBH</t>
+          <t>LNT</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>LNT</t>
+          <t>LI</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>LI</t>
+          <t>ZG</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>ATI</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>ATI</t>
+          <t>TRMB</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>MEDP</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>MEDP</t>
+          <t>QXO</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>QXO</t>
+          <t>TXT</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>HOLX</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>HOLX</t>
+          <t>THC</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>THC</t>
+          <t>APTV</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>APTV</t>
+          <t>TKO</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>TKO</t>
+          <t>CDW</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>RTO</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>RTO</t>
+          <t>TRU</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>TTD</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>INVH</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>INVH</t>
+          <t>LYB</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>LYB</t>
+          <t>MKC</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>MKC</t>
+          <t>CDE</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>CDE</t>
+          <t>NLY</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>NLY</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>MKC-V</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>MKC-V</t>
+          <t>MAA</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>MAA</t>
+          <t>OKTA</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>OKTA</t>
+          <t>COO</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>COO</t>
+          <t>TLN</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>TLN</t>
+          <t>GFL</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>GFL</t>
+          <t>WMG</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>WMG</t>
+          <t>KSPI</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>KSPI</t>
+          <t>ITT</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>ITT</t>
+          <t>ROKU</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>ROKU</t>
+          <t>ROIV</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>ROIV</t>
+          <t>GEN</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>GEN</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>EWBC</t>
+          <t>HTHT</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>IONQ</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>HTHT</t>
+          <t>ONON</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>DKNG</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>ONON</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>DKNG</t>
+          <t>AVAV</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>MGA</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>AVAV</t>
+          <t>KEY-PI</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>MGA</t>
+          <t>EMA</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>KEY-PI</t>
+          <t>CSL</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>EMA</t>
+          <t>FNF</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>CSL</t>
+          <t>HMY</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>FNF</t>
+          <t>ULS</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>HMY</t>
+          <t>GDDY</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>ULS</t>
+          <t>ERIE</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>GDDY</t>
+          <t>ARCC</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>ERIE</t>
+          <t>ICLR</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>ARCC</t>
+          <t>AVY</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>ICLR</t>
+          <t>FIG</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>AVY</t>
+          <t>RGC</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>FIG</t>
+          <t>PNFP</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>RGC</t>
+          <t>ALLE</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>PNFP</t>
+          <t>MAS</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>ALLE</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>MAS</t>
+          <t>JHX</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>EVR</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>CACI</t>
+          <t>DPZ</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>JHX</t>
+          <t>BBY</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>EVR</t>
+          <t>UDR</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>DPZ</t>
+          <t>SBSW</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>BBY</t>
+          <t>LOGI</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>EQH</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>SBSW</t>
+          <t>RPM</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>LOGI</t>
+          <t>GWRE</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>EQH</t>
+          <t>SOLV</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>RPM</t>
+          <t>RBRK</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>GWRE</t>
+          <t>FIGR</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>SOLV</t>
+          <t>NLY-PG</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>RBRK</t>
+          <t>BLD</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>FIGR</t>
+          <t>AMH</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>NLY-PG</t>
+          <t>NBIX</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>OHI</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>AMH</t>
+          <t>RVTY</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>NBIX</t>
+          <t>JKHY</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>OHI</t>
+          <t>RYAN</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>RVTY</t>
+          <t>BLDR</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>JKHY</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>RYAN</t>
+          <t>PSKY</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>UHS</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>HST</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>PSKY</t>
+          <t>CHWY</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>UHS</t>
+          <t>LAMR</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>CHWY</t>
+          <t>UNM</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>LAMR</t>
+          <t>SNAP</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>UNM</t>
+          <t>JEF</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>SNAP</t>
+          <t>BNT</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>JEF</t>
+          <t>BJ</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>BNT</t>
+          <t>OKLO</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>BJ</t>
+          <t>HLI</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>OKLO</t>
+          <t>GLPI</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>HLI</t>
+          <t>EQX</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>GLPI</t>
+          <t>IVZ</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>EQX</t>
+          <t>ACM</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>IVZ</t>
+          <t>SWK</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>AGNC</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>SWK</t>
+          <t>BMNR</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>BMNR</t>
+          <t>GLXY</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>GLXY</t>
+          <t>AG</t>
         </is>
       </c>
     </row>
@@ -3714,91 +3714,91 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>TEM</t>
+          <t>CMA</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>WMS</t>
+          <t>TEM</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>WYNN</t>
+          <t>WMS</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>EXEL</t>
+          <t>WYNN</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>NTNX</t>
+          <t>EXEL</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>BSY</t>
+          <t>NTNX</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>RDY</t>
+          <t>BSY</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>DOCU</t>
+          <t>RDY</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>CPT</t>
+          <t>DOCU</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>BXP</t>
+          <t>CPT</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>LSCC</t>
+          <t>BXP</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>STN</t>
+          <t>LSCC</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>CEF</t>
+          <t>STN</t>
         </is>
       </c>
     </row>
@@ -3847,14 +3847,14 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>WTRG</t>
+          <t>GL</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>DAY</t>
+          <t>WTRG</t>
         </is>
       </c>
     </row>
@@ -3966,371 +3966,371 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>BWA</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>BWA</t>
+          <t>ENSG</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>ENSG</t>
+          <t>OC</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>PCOR</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>PCOR</t>
+          <t>KLAR</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>KLAR</t>
+          <t>JAZZ</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>ARMK</t>
+          <t>CHYM</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>JAZZ</t>
+          <t>UHAL-B</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>CHYM</t>
+          <t>SAIL</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>UHAL-B</t>
+          <t>SANM</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>BVN</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>SANM</t>
+          <t>COKE</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>COKE</t>
+          <t>NGD</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>NGD</t>
+          <t>POOL</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>POOL</t>
+          <t>COMP</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>COMP</t>
+          <t>OSK</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>OSK</t>
+          <t>EHC</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>EHC</t>
+          <t>ALV</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>ALV</t>
+          <t>SOLS</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>SOLS</t>
+          <t>ARE</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>TAP</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>TAP</t>
+          <t>DDS</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>DDS</t>
+          <t>BROS</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>BROS</t>
+          <t>REXR</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>REXR</t>
+          <t>AAL</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>AAL</t>
+          <t>ORI</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>ORI</t>
+          <t>AYI</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>AYI</t>
+          <t>ABVX</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>ABVX</t>
+          <t>EGP</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>EGP</t>
+          <t>NCLH</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>NCLH</t>
+          <t>ACI</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>ACI</t>
+          <t>HSIC</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>HSIC</t>
+          <t>KNSL</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>KNSL</t>
+          <t>IESC</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>IESC</t>
+          <t>MGM</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>UWMC</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>UWMC</t>
+          <t>GTLS</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>SAIA</t>
+          <t>GS-PC</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>RGEN</t>
+          <t>SAIA</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>DOX</t>
+          <t>RGEN</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>KNX</t>
+          <t>DOX</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>STEP</t>
+          <t>KNX</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>STEP</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>SWKS</t>
+          <t>LINE</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>TFII</t>
+          <t>SWKS</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>OGE</t>
+          <t>TFII</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>MORN</t>
+          <t>OGE</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>QBTS</t>
+          <t>MORN</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>TTAN</t>
+          <t>QBTS</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>RZB</t>
+          <t>TTAN</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>FRT</t>
+          <t>RZB</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>AGNCM</t>
+          <t>FRT</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>CFR</t>
+          <t>AGNCM</t>
         </is>
       </c>
     </row>
@@ -4400,12 +4400,19 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>LEVI</t>
+          <t>PL</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
+        <is>
+          <t>LEVI</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
         <is>
           <t>ADC</t>
         </is>

--- a/scan_skipped.xlsx
+++ b/scan_skipped.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A571"/>
+  <dimension ref="A1:A582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,3876 +543,3953 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>JPM-PD</t>
+          <t>GS</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>JPM-PC</t>
+          <t>JPM-PD</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>JPM-PC</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>UNH</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BAC-PK</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>BAC-PK</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BAC-PL</t>
+          <t>GE</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>BAC-PL</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BML-PL</t>
+          <t>SAP</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BAC-PB</t>
+          <t>WFC</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>BAC-PE</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RY</t>
+          <t>BML-PL</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>BAC-PB</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CRM</t>
+          <t>AXP</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>KLAC</t>
+          <t>RY</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>WFC-PY</t>
+          <t>TMO</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>CRM</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>WFC-PL</t>
+          <t>KLAC</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ISRG</t>
+          <t>WFC-PY</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>BA</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BX</t>
+          <t>WFC-PL</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>APH</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SHOP</t>
+          <t>ISRG</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>TD</t>
+          <t>ABT</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>BX</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BLK</t>
+          <t>APP</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>SHOP</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>DHR</t>
+          <t>TD</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>TJX</t>
+          <t>ACN</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>BLK</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>UBER</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>HDB</t>
+          <t>DHR</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SPGI</t>
+          <t>TJX</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>BKNG</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>QCOM</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>UBS</t>
+          <t>HDB</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PDD</t>
+          <t>SPGI</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>INTU</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>COF</t>
+          <t>LOW</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BSX</t>
+          <t>UBS</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>NEM</t>
+          <t>PDD</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SONY</t>
+          <t>NOW</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>COF</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>BSX</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PGR</t>
+          <t>NEM</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>SONY</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>PANW</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SNY</t>
+          <t>ADBE</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>PGR</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SBUX</t>
+          <t>ARM</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>AEM</t>
+          <t>CRWD</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>SNY</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BN</t>
+          <t>BMY</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SPOT</t>
+          <t>KKR</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>SBUX</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>IBN</t>
+          <t>AEM</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>CVS</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>CVNA</t>
+          <t>BN</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>SPOT</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SNPS</t>
+          <t>ADP</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>IBN</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>CEG</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>CVNA</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>WM</t>
+          <t>GD</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>UPS</t>
+          <t>SNPS</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>HOOD</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>NKE</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>MCO</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>HWM</t>
+          <t>WM</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>UPS</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>NTES</t>
+          <t>DASH</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ELV</t>
+          <t>BMO</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>CDNS</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>MS-PK</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>AMT</t>
+          <t>HWM</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BAM</t>
+          <t>MAR</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>MS-PI</t>
+          <t>NTES</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CRH</t>
+          <t>ELV</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ABNB</t>
+          <t>MMM</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>REGN</t>
+          <t>MS-PK</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>MS-PF</t>
+          <t>AMT</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>MS-PE</t>
+          <t>BAM</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CTAS</t>
+          <t>MS-PI</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>CRH</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>APO</t>
+          <t>ABNB</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>REGN</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>MS-PF</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>MS-PE</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SNOW</t>
+          <t>CTAS</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>RELX</t>
+          <t>DELL</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>APO</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>INFY</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>RSG</t>
+          <t>CI</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>WPM</t>
+          <t>SE</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>SNOW</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>RELX</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>AJG</t>
+          <t>MRVL</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>NSC</t>
+          <t>WBD</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>CNI</t>
+          <t>RSG</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>AMX</t>
+          <t>WPM</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>DUK-PA</t>
+          <t>TEL</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>RACE</t>
+          <t>NET</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>RKT</t>
+          <t>AJG</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>CTA-PB</t>
+          <t>CNI</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>URI</t>
+          <t>AMX</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>NXPI</t>
+          <t>DUK-PA</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ADSK</t>
+          <t>RACE</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>COIN</t>
+          <t>RKT</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>CTA-PB</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>NDAQ</t>
+          <t>URI</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>NXPI</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>IDXX</t>
+          <t>ADSK</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>TRI</t>
+          <t>COIN</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ZTS</t>
+          <t>VLO</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>NDAQ</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>SRE</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>IDXX</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>CMG</t>
+          <t>TRI</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>MPC</t>
+          <t>ZTS</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>RBLX</t>
+          <t>AU</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ALL</t>
+          <t>PYPL</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>VST</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SCHW-PD</t>
+          <t>CMG</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>WDAY</t>
+          <t>MPC</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>FAST</t>
+          <t>RBLX</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>FNV</t>
+          <t>ALL</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>EW</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>GFI</t>
+          <t>EA</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ARES</t>
+          <t>SCHW-PD</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>PSA</t>
+          <t>WDAY</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>AXON</t>
+          <t>FNV</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>EW</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ALNY</t>
+          <t>GFI</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>TGT</t>
+          <t>ARES</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>CTA-PA</t>
+          <t>PSA</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>HEI</t>
+          <t>AXON</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>DDOG</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>KGC</t>
+          <t>ALNY</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>TTWO</t>
+          <t>CTA-PA</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>SPG-PJ</t>
+          <t>HEI</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>XEL</t>
+          <t>MSTR</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>KGC</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>TTWO</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ROP</t>
+          <t>SPG-PJ</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>JD</t>
+          <t>XEL</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>DHI</t>
+          <t>DAL</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>RKLB</t>
+          <t>WCN</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ROP</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>MET-PA</t>
+          <t>JD</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>DHI</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>TCOM</t>
+          <t>EBAY</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>LVS</t>
+          <t>RKLB</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>AIG</t>
+          <t>MET-PA</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>IQV</t>
+          <t>CTSH</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>RDDT</t>
+          <t>TCOM</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>CPRT</t>
+          <t>LVS</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>XYZ</t>
+          <t>AIG</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>HEI-A</t>
+          <t>CM</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>GRMN</t>
+          <t>IQV</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>VMC</t>
+          <t>RDDT</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>CPRT</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>HMC</t>
+          <t>XYZ</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>HEI-A</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>PRU</t>
+          <t>GRMN</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>VMC</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>CCI</t>
+          <t>NOK</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>KDP</t>
+          <t>HMC</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>MDLN</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>RMD</t>
+          <t>PRU</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>FICO</t>
+          <t>PSA-PH</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>VEEV</t>
+          <t>PAYX</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>GEHC</t>
+          <t>CCI</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>FISV</t>
+          <t>KDP</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>TEAM</t>
+          <t>MDLN</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>VTR</t>
+          <t>RMD</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>CPNG</t>
+          <t>FICO</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>OTIS</t>
+          <t>VEEV</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>CLS</t>
+          <t>GEHC</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>SYM</t>
+          <t>FISV</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>APO-PA</t>
+          <t>TEAM</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>XYL</t>
+          <t>CPNG</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>UAL</t>
+          <t>OTIS</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>SATS</t>
+          <t>CLS</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>LYV</t>
+          <t>SYM</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>SLF</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>INSM</t>
+          <t>APO-PA</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>KVUE</t>
+          <t>XYL</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>NTRA</t>
+          <t>UAL</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>SATS</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>RJF</t>
+          <t>LYV</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>MDB</t>
+          <t>ZS</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>PCG</t>
+          <t>INSM</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>FITB</t>
+          <t>NTRA</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>EXPE</t>
+          <t>KMB</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>CHT</t>
+          <t>RJF</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>DG</t>
+          <t>MDB</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>PSA-PK</t>
+          <t>PCG</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>SOFI</t>
+          <t>FITB</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ALL-PB</t>
+          <t>EXPE</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>FOXA</t>
+          <t>UI</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>HUM</t>
+          <t>DG</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>WTW</t>
+          <t>PSA-PK</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>EXR</t>
+          <t>ALL-PH</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>FIS</t>
+          <t>SOFI</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>FOX</t>
+          <t>ALL-PB</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>FOXA</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>QSR</t>
+          <t>HUM</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>FLUT</t>
+          <t>WTW</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>VICI</t>
+          <t>EXR</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>AMRZ</t>
+          <t>FIS</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ULTA</t>
+          <t>FOX</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>MTD</t>
+          <t>VRSK</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>TSCO</t>
+          <t>QSR</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>SYF</t>
+          <t>FLUT</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>LPLA</t>
+          <t>VICI</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>HPE</t>
+          <t>AMRZ</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>TME</t>
+          <t>ULTA</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>DOV</t>
+          <t>MTD</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>TSCO</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>DTE</t>
+          <t>NRG</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>STLA</t>
+          <t>SYF</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>KHC</t>
+          <t>LPLA</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>CSGP</t>
+          <t>HPE</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>PHG</t>
+          <t>TME</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ALAB</t>
+          <t>DOV</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>PAAS</t>
+          <t>CBOE</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>WIT</t>
+          <t>DTE</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>LEN</t>
+          <t>STLA</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>HBAN</t>
+          <t>KHC</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ATO</t>
+          <t>CSGP</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>BRO</t>
+          <t>PHG</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>NMR</t>
+          <t>IRM</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>LEN-B</t>
+          <t>ALAB</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>EFX</t>
+          <t>PAAS</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>WIT</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>TPR</t>
+          <t>LEN</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>HBAN</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>MKL</t>
+          <t>ATO</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>AER</t>
+          <t>BRO</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>NMR</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>AWK</t>
+          <t>LEN-B</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>OMC</t>
+          <t>EFX</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>STM</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>WRB</t>
+          <t>TPR</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>AVB</t>
+          <t>FSLR</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>VLTO</t>
+          <t>JBL</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>MKL</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>DLR-PK</t>
+          <t>AER</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>CINF</t>
+          <t>DLTR</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>FCNCA</t>
+          <t>AWK</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>PHM</t>
+          <t>OMC</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>RGLD</t>
+          <t>STM</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>WRB</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>LDOS</t>
+          <t>AVB</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>PSTG</t>
+          <t>VLTO</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>SQM</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>FLEX</t>
+          <t>DLR-PK</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>AXIA-PC</t>
+          <t>CINF</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>ILMN</t>
+          <t>FCNCA</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>VRSN</t>
+          <t>PHM</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>TPG</t>
+          <t>RGLD</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>TROW</t>
+          <t>BR</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>LDOS</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>PSTG</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>CRDO</t>
+          <t>SQM</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>NBIS</t>
+          <t>FLEX</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>CPAY</t>
+          <t>AXIA-PC</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>ILMN</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>DRI</t>
+          <t>VRSN</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>OWL</t>
+          <t>TPG</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>CNC</t>
+          <t>TROW</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>WAT</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>FUTU</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>AFRM</t>
+          <t>CRDO</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>NBIS</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>DLR-PJ</t>
+          <t>CPAY</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>TLK</t>
+          <t>LULU</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>CYBR</t>
+          <t>DRI</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>FWONK</t>
+          <t>OWL</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>ALB</t>
+          <t>CNC</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>FWONA</t>
+          <t>IP</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>FUTU</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>RL</t>
+          <t>AFRM</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>CMS</t>
+          <t>SW</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>UTHR</t>
+          <t>DLR-PJ</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>GPN</t>
+          <t>TLK</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>CYBR</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>SSNC</t>
+          <t>FWONK</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>GMAB</t>
+          <t>ALB</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>TWLO</t>
+          <t>PSLV</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>IHG</t>
+          <t>FWONA</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>CG</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>INCY</t>
+          <t>RL</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>CMS</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>SBAC</t>
+          <t>UTHR</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>WWD</t>
+          <t>GPN</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>CHKP</t>
+          <t>AS</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>SSNC</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>NTAP</t>
+          <t>GMAB</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>TOST</t>
+          <t>TWLO</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>JBHT</t>
+          <t>IHG</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>SGI</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>GIB</t>
+          <t>INCY</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>RIVN</t>
+          <t>HL</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>PODD</t>
+          <t>SBAC</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>TYL</t>
+          <t>WWD</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>IFF</t>
+          <t>CHKP</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>RVMD</t>
+          <t>PTC</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>KTOS</t>
+          <t>NTAP</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>HIG-PG</t>
+          <t>TOST</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>GRAB</t>
+          <t>JBHT</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>SGI</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>FTV</t>
+          <t>GIB</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>BURL</t>
+          <t>RIVN</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>PODD</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>SMCI</t>
+          <t>TYL</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>DKS</t>
+          <t>IFF</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>APG</t>
+          <t>RVMD</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>HPQ</t>
+          <t>PKX</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>CRCL</t>
+          <t>KTOS</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>LII</t>
+          <t>HIG-PG</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>FITBI</t>
+          <t>GRAB</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>XPEV</t>
+          <t>IOT</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>FTV</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>PSNYW</t>
+          <t>BURL</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>AGI</t>
+          <t>PHYS</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>ALLY</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>SMCI</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>PINS</t>
+          <t>DKS</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ESS</t>
+          <t>APG</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>HPQ</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>CRS</t>
+          <t>CRCL</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>LII</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>HUBS</t>
+          <t>FITBI</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ZBH</t>
+          <t>XPEV</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>LNT</t>
+          <t>IT</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>LI</t>
+          <t>PSNYW</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>AGI</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>ATI</t>
+          <t>ALLY</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>PNR</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>MEDP</t>
+          <t>PINS</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>QXO</t>
+          <t>ESS</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>SN</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>CRS</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>HOLX</t>
+          <t>WST</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>THC</t>
+          <t>HUBS</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>APTV</t>
+          <t>ZBH</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>TKO</t>
+          <t>LNT</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>LI</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>RTO</t>
+          <t>ZG</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>ATI</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>TRMB</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>INVH</t>
+          <t>MEDP</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>LYB</t>
+          <t>QXO</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>MKC</t>
+          <t>TXT</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>CDE</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>NLY</t>
+          <t>HOLX</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>THC</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>MKC-V</t>
+          <t>APTV</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>MAA</t>
+          <t>TKO</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>OKTA</t>
+          <t>CDW</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>COO</t>
+          <t>RTO</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>TLN</t>
+          <t>TRU</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>GFL</t>
+          <t>TTD</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>WMG</t>
+          <t>INVH</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>KSPI</t>
+          <t>LYB</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>ITT</t>
+          <t>MKC</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>ROKU</t>
+          <t>CDE</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>ROIV</t>
+          <t>NLY</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>GEN</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>MKC-V</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>HTHT</t>
+          <t>MAA</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>OKTA</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>ONON</t>
+          <t>COO</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>DKNG</t>
+          <t>TLN</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>GFL</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>AVAV</t>
+          <t>WMG</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>MGA</t>
+          <t>KSPI</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>KEY-PI</t>
+          <t>ROKU</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>EMA</t>
+          <t>ROIV</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>CSL</t>
+          <t>GEN</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>FNF</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>HMY</t>
+          <t>HTHT</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>ULS</t>
+          <t>IONQ</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>GDDY</t>
+          <t>ONON</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>ERIE</t>
+          <t>DKNG</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>ARCC</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>ICLR</t>
+          <t>AVAV</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>AVY</t>
+          <t>MGA</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>FIG</t>
+          <t>KEY-PI</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>RGC</t>
+          <t>EMA</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>PNFP</t>
+          <t>CSL</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>ALLE</t>
+          <t>FNF</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>MAS</t>
+          <t>HMY</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>ULS</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>JHX</t>
+          <t>GDDY</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>EVR</t>
+          <t>ARCC</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>DPZ</t>
+          <t>AVY</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>BBY</t>
+          <t>FIG</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>RGC</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>SBSW</t>
+          <t>PNFP</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>LOGI</t>
+          <t>ALLE</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>EQH</t>
+          <t>MAS</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>RPM</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>GWRE</t>
+          <t>PAC</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>SOLV</t>
+          <t>CACI</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>RBRK</t>
+          <t>JHX</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>FIGR</t>
+          <t>EVR</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>NLY-PG</t>
+          <t>DPZ</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>BBY</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>AMH</t>
+          <t>UDR</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>NBIX</t>
+          <t>SBSW</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>OHI</t>
+          <t>LOGI</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>RVTY</t>
+          <t>EQH</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>JKHY</t>
+          <t>RPM</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>RYAN</t>
+          <t>GWRE</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>SOLV</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>RBRK</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>PSKY</t>
+          <t>FIGR</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>UHS</t>
+          <t>PAA</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>HST</t>
+          <t>NLY-PG</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>CHWY</t>
+          <t>BLD</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>LAMR</t>
+          <t>NLY-PF</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>UNM</t>
+          <t>AMH</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>SNAP</t>
+          <t>OHI</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>JEF</t>
+          <t>RVTY</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>BNT</t>
+          <t>JKHY</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>BJ</t>
+          <t>RYAN</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>OKLO</t>
+          <t>BLDR</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>HLI</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>GLPI</t>
+          <t>PSKY</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>EQX</t>
+          <t>UHS</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>IVZ</t>
+          <t>CHWY</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>LAMR</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>SWK</t>
+          <t>UNM</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>AGNC</t>
+          <t>SNAP</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>BMNR</t>
+          <t>JEF</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>GLXY</t>
+          <t>BNT</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>AG</t>
+          <t>BJ</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>GMED</t>
+          <t>OKLO</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>IAG</t>
+          <t>HLI</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>GLPI</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>ZBRA</t>
+          <t>EQX</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>TXRH</t>
+          <t>IVZ</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>ACM</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>SMMT</t>
+          <t>BF-B</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>SWK</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>ALGN</t>
+          <t>AGNC</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>CCK</t>
+          <t>BMNR</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>JOBY</t>
+          <t>GLXY</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>SUZ</t>
+          <t>AG</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>GMED</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>CMA</t>
+          <t>AMKR</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>TEM</t>
+          <t>IAG</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>WMS</t>
+          <t>DT</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>WYNN</t>
+          <t>ZBRA</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>EXEL</t>
+          <t>TXRH</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>NTNX</t>
+          <t>DOC</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>BSY</t>
+          <t>SMMT</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>RDY</t>
+          <t>EPAM</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>DOCU</t>
+          <t>ALGN</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>CPT</t>
+          <t>CCK</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>BXP</t>
+          <t>JOBY</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>LSCC</t>
+          <t>SUZ</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>STN</t>
+          <t>CR</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>MDGL</t>
+          <t>CMA</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>TEM</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>SCI</t>
+          <t>WMS</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>MICC</t>
+          <t>WYNN</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>CNM</t>
+          <t>EXEL</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>MP</t>
+          <t>NTNX</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>GL</t>
+          <t>BSY</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>WTRG</t>
+          <t>NIO</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>SARO</t>
+          <t>RDY</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>DOCU</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>BMRN</t>
+          <t>BXP</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>MOH</t>
+          <t>LSCC</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>WLK</t>
+          <t>STN</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>SPXC</t>
+          <t>CEF</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>MANH</t>
+          <t>MDGL</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>FDS</t>
+          <t>BAH</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>SCI</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>CART</t>
+          <t>MICC</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>AIT</t>
+          <t>CNM</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>PAG</t>
+          <t>MP</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>TECH</t>
+          <t>WTRG</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>CAE</t>
+          <t>SARO</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>YMM</t>
+          <t>CRL</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>BWA</t>
+          <t>BMRN</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>ENSG</t>
+          <t>MOH</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>WLK</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>PCOR</t>
+          <t>SPXC</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>KLAR</t>
+          <t>MANH</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>JAZZ</t>
+          <t>FDS</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>CHYM</t>
+          <t>AFG</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>UHAL-B</t>
+          <t>CART</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>AIT</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>SANM</t>
+          <t>PAG</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>BVN</t>
+          <t>TECH</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>COKE</t>
+          <t>CAE</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>NGD</t>
+          <t>YMM</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>POOL</t>
+          <t>BWA</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>COMP</t>
+          <t>ENSG</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>OSK</t>
+          <t>OC</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>EHC</t>
+          <t>PCOR</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>ALV</t>
+          <t>KLAR</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>SOLS</t>
+          <t>ARMK</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>APLD</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>TAP</t>
+          <t>JAZZ</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>DDS</t>
+          <t>CHYM</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>BROS</t>
+          <t>UHAL-B</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>REXR</t>
+          <t>SAIL</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>AAL</t>
+          <t>SANM</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>ORI</t>
+          <t>BVN</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>AYI</t>
+          <t>COKE</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>ABVX</t>
+          <t>NGD</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>EGP</t>
+          <t>POOL</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>NCLH</t>
+          <t>COMP</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>ACI</t>
+          <t>OSK</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>HSIC</t>
+          <t>EHC</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>KNSL</t>
+          <t>ALV</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>IESC</t>
+          <t>SOLS</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>ARE</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>UWMC</t>
+          <t>TAP</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>GTLS</t>
+          <t>DDS</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>GS-PC</t>
+          <t>BROS</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>SAIA</t>
+          <t>AAL</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>RGEN</t>
+          <t>ORI</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>DOX</t>
+          <t>AYI</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>KNX</t>
+          <t>ABVX</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>STEP</t>
+          <t>EGP</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>NCLH</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>SWKS</t>
+          <t>ACI</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>TFII</t>
+          <t>HSIC</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>OGE</t>
+          <t>IESC</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>MORN</t>
+          <t>MGM</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>QBTS</t>
+          <t>UWMC</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>TTAN</t>
+          <t>GS-PC</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>RZB</t>
+          <t>SAIA</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>FRT</t>
+          <t>RGEN</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>AGNCM</t>
+          <t>DOX</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>AGNCN</t>
+          <t>KNX</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>ZION</t>
+          <t>STEP</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>LKQ</t>
+          <t>LINE</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>PEGA</t>
+          <t>SWKS</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>CUBE</t>
+          <t>TFII</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>AHR</t>
+          <t>OGE</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>VIPS</t>
+          <t>MORN</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>UEC</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>AUR</t>
+          <t>QBTS</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>TTAN</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>LEVI</t>
+          <t>RZB</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
+        <is>
+          <t>FRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>AGNCM</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>AGNCN</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>PEGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>CUBE</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>AHR</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>VIPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>AUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>LEVI</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
         <is>
           <t>ADC</t>
         </is>

--- a/scan_skipped.xlsx
+++ b/scan_skipped.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A582"/>
+  <dimension ref="A1:A547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,3967 +529,3722 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>NFLX</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>GS</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>JPM-PD</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>JPM-PD</t>
+          <t>JPM-PC</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>JPM-PC</t>
+          <t>UNH</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>BAC-PK</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BAC-PK</t>
+          <t>GE</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>BAC-PL</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BAC-PL</t>
+          <t>SAP</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>BML-PL</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>BAC-PB</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>WFC</t>
+          <t>AXP</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BAC-PE</t>
+          <t>RY</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BML-PL</t>
+          <t>TMO</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BAC-PB</t>
+          <t>CRM</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>KLAC</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>RY</t>
+          <t>WFC-PY</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>BA</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CRM</t>
+          <t>WFC-PL</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>KLAC</t>
+          <t>APH</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>WFC-PY</t>
+          <t>ISRG</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>ABT</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>WFC-PL</t>
+          <t>BX</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>APP</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ISRG</t>
+          <t>SHOP</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>TD</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BX</t>
+          <t>ACN</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>BLK</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SHOP</t>
+          <t>UBER</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>TD</t>
+          <t>DHR</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>TJX</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BLK</t>
+          <t>BKNG</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>QCOM</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>DHR</t>
+          <t>HDB</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TJX</t>
+          <t>SPGI</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>INTU</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>LOW</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>HDB</t>
+          <t>UBS</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SPGI</t>
+          <t>PDD</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>NOW</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>COF</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>UBS</t>
+          <t>NEM</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PDD</t>
+          <t>SONY</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>PANW</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>COF</t>
+          <t>ADBE</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BSX</t>
+          <t>PGR</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>NEM</t>
+          <t>ARM</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SONY</t>
+          <t>CRWD</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>SNY</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>KKR</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PGR</t>
+          <t>SBUX</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>AEM</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>CVS</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SNY</t>
+          <t>BN</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BMY</t>
+          <t>SPOT</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>ADP</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SBUX</t>
+          <t>IBN</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>AEM</t>
+          <t>CEG</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>CVNA</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BN</t>
+          <t>GD</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SPOT</t>
+          <t>SNPS</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>HOOD</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>IBN</t>
+          <t>NKE</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>MCO</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>CVNA</t>
+          <t>WM</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>DASH</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SNPS</t>
+          <t>CDNS</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>HWM</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>MAR</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>WM</t>
+          <t>NTES</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>UPS</t>
+          <t>ELV</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>MMM</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BMO</t>
+          <t>MS-PK</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>BAM</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>MS-PI</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>HWM</t>
+          <t>CRH</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>ABNB</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>NTES</t>
+          <t>REGN</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ELV</t>
+          <t>MS-PF</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>MS-PE</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>MS-PK</t>
+          <t>CTAS</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>AMT</t>
+          <t>DELL</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BAM</t>
+          <t>APO</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>MS-PI</t>
+          <t>INFY</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CRH</t>
+          <t>CI</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ABNB</t>
+          <t>SE</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>REGN</t>
+          <t>SNOW</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>MS-PF</t>
+          <t>RELX</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>MS-PE</t>
+          <t>MRVL</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CTAS</t>
+          <t>WBD</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>RSG</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>APO</t>
+          <t>WPM</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>TEL</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>NET</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>AJG</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SNOW</t>
+          <t>CNI</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>RELX</t>
+          <t>AMX</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>DUK-PA</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>RACE</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>RSG</t>
+          <t>RKT</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>WPM</t>
+          <t>CTA-PB</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>URI</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>NXPI</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>AJG</t>
+          <t>ADSK</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>CNI</t>
+          <t>COIN</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>AMX</t>
+          <t>VLO</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>DUK-PA</t>
+          <t>NDAQ</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>RACE</t>
+          <t>SRE</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>RKT</t>
+          <t>IDXX</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>CTA-PB</t>
+          <t>TRI</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>URI</t>
+          <t>ZTS</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>NXPI</t>
+          <t>AU</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ADSK</t>
+          <t>PYPL</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>COIN</t>
+          <t>VST</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>CMG</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>NDAQ</t>
+          <t>MPC</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>RBLX</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>IDXX</t>
+          <t>ALL</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>TRI</t>
+          <t>EA</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ZTS</t>
+          <t>SCHW-PD</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>WDAY</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>FNV</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>EW</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>CMG</t>
+          <t>GFI</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>MPC</t>
+          <t>ARES</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>RBLX</t>
+          <t>PSA</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ALL</t>
+          <t>AXON</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>DDOG</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ALNY</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SCHW-PD</t>
+          <t>CTA-PA</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>WDAY</t>
+          <t>HEI</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>FNV</t>
+          <t>MSTR</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>EW</t>
+          <t>KGC</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>GFI</t>
+          <t>TTWO</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ARES</t>
+          <t>SPG-PJ</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>PSA</t>
+          <t>DAL</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>AXON</t>
+          <t>WCN</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>ROP</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ALNY</t>
+          <t>JD</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>CTA-PA</t>
+          <t>DHI</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>HEI</t>
+          <t>EBAY</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>RKLB</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>KGC</t>
+          <t>MET-PA</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>TTWO</t>
+          <t>CTSH</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>SPG-PJ</t>
+          <t>TCOM</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>XEL</t>
+          <t>LVS</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>AIG</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>IQV</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ROP</t>
+          <t>RDDT</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>JD</t>
+          <t>XYZ</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>DHI</t>
+          <t>HEI-A</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>EBAY</t>
+          <t>GRMN</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>RKLB</t>
+          <t>VMC</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>MET-PA</t>
+          <t>NOK</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>TCOM</t>
+          <t>PRU</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>LVS</t>
+          <t>PAYX</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>AIG</t>
+          <t>CCI</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>KDP</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>IQV</t>
+          <t>MDLN</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>RDDT</t>
+          <t>FICO</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>CPRT</t>
+          <t>VEEV</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>XYZ</t>
+          <t>GEHC</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>HEI-A</t>
+          <t>FISV</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>GRMN</t>
+          <t>TEAM</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>VMC</t>
+          <t>CPNG</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>OTIS</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>HMC</t>
+          <t>CLS</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>SYM</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>PRU</t>
+          <t>APO-PA</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>PSA-PH</t>
+          <t>XYL</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>UAL</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>CCI</t>
+          <t>SATS</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>KDP</t>
+          <t>ZS</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>MDLN</t>
+          <t>INSM</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>RMD</t>
+          <t>KVUE</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>FICO</t>
+          <t>NTRA</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>VEEV</t>
+          <t>KMB</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>GEHC</t>
+          <t>RJF</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>FISV</t>
+          <t>MDB</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>TEAM</t>
+          <t>PCG</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>CPNG</t>
+          <t>EXPE</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>OTIS</t>
+          <t>UI</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>CLS</t>
+          <t>DG</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>SYM</t>
+          <t>PSA-PK</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>SLF</t>
+          <t>ALL-PH</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>APO-PA</t>
+          <t>SOFI</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>XYL</t>
+          <t>ALL-PB</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>UAL</t>
+          <t>FOXA</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>SATS</t>
+          <t>HUM</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>LYV</t>
+          <t>WTW</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>EXR</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>INSM</t>
+          <t>FIS</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>NTRA</t>
+          <t>FOX</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>VRSK</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>RJF</t>
+          <t>QSR</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>MDB</t>
+          <t>FLUT</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>PCG</t>
+          <t>VICI</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>FITB</t>
+          <t>AMRZ</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>EXPE</t>
+          <t>ULTA</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>UI</t>
+          <t>MTD</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>DG</t>
+          <t>TSCO</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>PSA-PK</t>
+          <t>NRG</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ALL-PH</t>
+          <t>SYF</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>SOFI</t>
+          <t>LPLA</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ALL-PB</t>
+          <t>HPE</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>FOXA</t>
+          <t>TME</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>HUM</t>
+          <t>DOV</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>WTW</t>
+          <t>CBOE</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>EXR</t>
+          <t>DTE</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>FIS</t>
+          <t>STLA</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>FOX</t>
+          <t>KHC</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>CSGP</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>QSR</t>
+          <t>PHG</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>FLUT</t>
+          <t>ALAB</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>VICI</t>
+          <t>PAAS</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>AMRZ</t>
+          <t>WIT</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>ULTA</t>
+          <t>LEN</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>MTD</t>
+          <t>HBAN</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>TSCO</t>
+          <t>ATO</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>BRO</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>SYF</t>
+          <t>NMR</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>LPLA</t>
+          <t>LEN-B</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>HPE</t>
+          <t>EFX</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>TME</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>DOV</t>
+          <t>TPR</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>FSLR</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>DTE</t>
+          <t>JBL</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>STLA</t>
+          <t>MKL</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>KHC</t>
+          <t>AER</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>CSGP</t>
+          <t>DLTR</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>PHG</t>
+          <t>AWK</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>IRM</t>
+          <t>OMC</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ALAB</t>
+          <t>STM</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>PAAS</t>
+          <t>WRB</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>WIT</t>
+          <t>AVB</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>LEN</t>
+          <t>VLTO</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>HBAN</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ATO</t>
+          <t>DLR-PK</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>BRO</t>
+          <t>CINF</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>NMR</t>
+          <t>FCNCA</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>LEN-B</t>
+          <t>PHM</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>EFX</t>
+          <t>RGLD</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>TPR</t>
+          <t>LDOS</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>PSTG</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>JBL</t>
+          <t>SQM</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>MKL</t>
+          <t>FLEX</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>AER</t>
+          <t>AXIA-PC</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>ILMN</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>AWK</t>
+          <t>VRSN</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>OMC</t>
+          <t>TPG</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>STM</t>
+          <t>TROW</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>WRB</t>
+          <t>WAT</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>AVB</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>VLTO</t>
+          <t>CRDO</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>NBIS</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>DLR-PK</t>
+          <t>CPAY</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>CINF</t>
+          <t>LULU</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>FCNCA</t>
+          <t>DRI</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>PHM</t>
+          <t>OWL</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>RGLD</t>
+          <t>CNC</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>IP</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>LDOS</t>
+          <t>FUTU</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>PSTG</t>
+          <t>AFRM</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>SQM</t>
+          <t>SW</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>FLEX</t>
+          <t>DLR-PJ</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>AXIA-PC</t>
+          <t>TLK</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ILMN</t>
+          <t>CYBR</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>VRSN</t>
+          <t>FWONK</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>TPG</t>
+          <t>ALB</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>TROW</t>
+          <t>FWONA</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>CG</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>RL</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>CRDO</t>
+          <t>CMS</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>NBIS</t>
+          <t>UTHR</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>CPAY</t>
+          <t>GPN</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>AS</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>DRI</t>
+          <t>SSNC</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>OWL</t>
+          <t>GMAB</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>CNC</t>
+          <t>TWLO</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>IHG</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>FUTU</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>AFRM</t>
+          <t>INCY</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>HL</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>DLR-PJ</t>
+          <t>SBAC</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>TLK</t>
+          <t>WWD</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>CYBR</t>
+          <t>CHKP</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>FWONK</t>
+          <t>PTC</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ALB</t>
+          <t>NTAP</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>PSLV</t>
+          <t>TOST</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>FWONA</t>
+          <t>JBHT</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>SGI</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>RL</t>
+          <t>GIB</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>CMS</t>
+          <t>RIVN</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>UTHR</t>
+          <t>PODD</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>GPN</t>
+          <t>TYL</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>IFF</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>SSNC</t>
+          <t>RVMD</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>GMAB</t>
+          <t>KTOS</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>TWLO</t>
+          <t>HIG-PG</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>IHG</t>
+          <t>GRAB</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>IOT</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>INCY</t>
+          <t>FTV</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>SBAC</t>
+          <t>SMCI</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>WWD</t>
+          <t>DKS</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>CHKP</t>
+          <t>APG</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>HPQ</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>NTAP</t>
+          <t>CRCL</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>TOST</t>
+          <t>LII</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>JBHT</t>
+          <t>FITBI</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>SGI</t>
+          <t>XPEV</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>GIB</t>
+          <t>IT</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>RIVN</t>
+          <t>PSNYW</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>PODD</t>
+          <t>AGI</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>TYL</t>
+          <t>ALLY</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>IFF</t>
+          <t>PNR</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>RVMD</t>
+          <t>PINS</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>PKX</t>
+          <t>ESS</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>KTOS</t>
+          <t>SN</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>HIG-PG</t>
+          <t>CRS</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>GRAB</t>
+          <t>WST</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>HUBS</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>FTV</t>
+          <t>ZBH</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>BURL</t>
+          <t>LNT</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>PHYS</t>
+          <t>LI</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>ZG</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>SMCI</t>
+          <t>ATI</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>DKS</t>
+          <t>TRMB</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>APG</t>
+          <t>MEDP</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>HPQ</t>
+          <t>QXO</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>CRCL</t>
+          <t>TXT</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>LII</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>FITBI</t>
+          <t>HOLX</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>XPEV</t>
+          <t>THC</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>APTV</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>PSNYW</t>
+          <t>TKO</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>AGI</t>
+          <t>CDW</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>ALLY</t>
+          <t>RTO</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>TRU</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>PINS</t>
+          <t>TTD</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>ESS</t>
+          <t>INVH</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>LYB</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>CRS</t>
+          <t>MKC</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>CDE</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>HUBS</t>
+          <t>NLY</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>ZBH</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>LNT</t>
+          <t>MKC-V</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>LI</t>
+          <t>MAA</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>OKTA</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>ATI</t>
+          <t>COO</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>TLN</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>MEDP</t>
+          <t>GFL</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>QXO</t>
+          <t>WMG</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>KSPI</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>ROKU</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>HOLX</t>
+          <t>ROIV</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>THC</t>
+          <t>GEN</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>APTV</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>TKO</t>
+          <t>HTHT</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>IONQ</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>RTO</t>
+          <t>ONON</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>DKNG</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>INVH</t>
+          <t>AVAV</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>LYB</t>
+          <t>MGA</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>MKC</t>
+          <t>KEY-PI</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>CDE</t>
+          <t>EMA</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>NLY</t>
+          <t>CSL</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>FNF</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>MKC-V</t>
+          <t>HMY</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>MAA</t>
+          <t>ULS</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>OKTA</t>
+          <t>GDDY</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>COO</t>
+          <t>ERIE</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>TLN</t>
+          <t>ARCC</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>GFL</t>
+          <t>ICLR</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>WMG</t>
+          <t>AVY</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>KSPI</t>
+          <t>FIG</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>ROKU</t>
+          <t>RGC</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>ROIV</t>
+          <t>PNFP</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>GEN</t>
+          <t>MAS</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>HTHT</t>
+          <t>JHX</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>EVR</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>ONON</t>
+          <t>DPZ</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>DKNG</t>
+          <t>BBY</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>SBSW</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>AVAV</t>
+          <t>LOGI</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>MGA</t>
+          <t>EQH</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>KEY-PI</t>
+          <t>RPM</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>EMA</t>
+          <t>GWRE</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>CSL</t>
+          <t>SOLV</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>FNF</t>
+          <t>RBRK</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>HMY</t>
+          <t>FIGR</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>ULS</t>
+          <t>NLY-PG</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>GDDY</t>
+          <t>BLD</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>ARCC</t>
+          <t>AMH</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>AVY</t>
+          <t>NBIX</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>FIG</t>
+          <t>OHI</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>RGC</t>
+          <t>RVTY</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>PNFP</t>
+          <t>JKHY</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>ALLE</t>
+          <t>RYAN</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>MAS</t>
+          <t>BLDR</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>PAC</t>
+          <t>PSKY</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>CACI</t>
+          <t>UHS</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>JHX</t>
+          <t>CHWY</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>EVR</t>
+          <t>LAMR</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>DPZ</t>
+          <t>UNM</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>BBY</t>
+          <t>SNAP</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>JEF</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>SBSW</t>
+          <t>BNT</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>LOGI</t>
+          <t>BJ</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>EQH</t>
+          <t>OKLO</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>RPM</t>
+          <t>HLI</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>GWRE</t>
+          <t>GLPI</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>SOLV</t>
+          <t>EQX</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>RBRK</t>
+          <t>IVZ</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>FIGR</t>
+          <t>ACM</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>PAA</t>
+          <t>SWK</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>NLY-PG</t>
+          <t>AGNC</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>BMNR</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>NLY-PF</t>
+          <t>GLXY</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>AMH</t>
+          <t>AG</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>OHI</t>
+          <t>GMED</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>RVTY</t>
+          <t>AMKR</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>JKHY</t>
+          <t>IAG</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>RYAN</t>
+          <t>DT</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>ZBRA</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>TXRH</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>PSKY</t>
+          <t>DOC</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>UHS</t>
+          <t>SMMT</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>CHWY</t>
+          <t>EPAM</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>LAMR</t>
+          <t>ALGN</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>UNM</t>
+          <t>JOBY</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>SNAP</t>
+          <t>SUZ</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>JEF</t>
+          <t>CR</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>BNT</t>
+          <t>TEM</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>BJ</t>
+          <t>WMS</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>OKLO</t>
+          <t>WYNN</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>HLI</t>
+          <t>EXEL</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>GLPI</t>
+          <t>NTNX</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>EQX</t>
+          <t>BSY</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>IVZ</t>
+          <t>RDY</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>DOCU</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>BF-B</t>
+          <t>BXP</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>SWK</t>
+          <t>LSCC</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>AGNC</t>
+          <t>STN</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>BMNR</t>
+          <t>MDGL</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>GLXY</t>
+          <t>BAH</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>AG</t>
+          <t>SCI</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>GMED</t>
+          <t>MICC</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>AMKR</t>
+          <t>CNM</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>IAG</t>
+          <t>MP</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>WTRG</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>ZBRA</t>
+          <t>SARO</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>TXRH</t>
+          <t>CRL</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>BMRN</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>SMMT</t>
+          <t>MOH</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>WLK</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>ALGN</t>
+          <t>SPXC</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>CCK</t>
+          <t>MANH</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>JOBY</t>
+          <t>FDS</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>SUZ</t>
+          <t>AFG</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>CART</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>CMA</t>
+          <t>AIT</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>TEM</t>
+          <t>PAG</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>WMS</t>
+          <t>TECH</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>WYNN</t>
+          <t>CAE</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>EXEL</t>
+          <t>YMM</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>NTNX</t>
+          <t>BWA</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>BSY</t>
+          <t>ENSG</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>NIO</t>
+          <t>OC</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>RDY</t>
+          <t>PCOR</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>DOCU</t>
+          <t>KLAR</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>BXP</t>
+          <t>ARMK</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>LSCC</t>
+          <t>APLD</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>STN</t>
+          <t>JAZZ</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>CEF</t>
+          <t>CHYM</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>MDGL</t>
+          <t>UHAL-B</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>SAIL</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>SCI</t>
+          <t>SANM</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>MICC</t>
+          <t>BVN</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>CNM</t>
+          <t>COKE</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>MP</t>
+          <t>NGD</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>WTRG</t>
+          <t>POOL</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>SARO</t>
+          <t>VNO-PM</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>OSK</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>BMRN</t>
+          <t>EHC</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>MOH</t>
+          <t>ALV</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>WLK</t>
+          <t>SOLS</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>SPXC</t>
+          <t>ARE</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>MANH</t>
+          <t>TAP</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>FDS</t>
+          <t>DDS</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>BROS</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>CART</t>
+          <t>AAL</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>AIT</t>
+          <t>ORI</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>PAG</t>
+          <t>AYI</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>TECH</t>
+          <t>ABVX</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>CAE</t>
+          <t>EGP</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>YMM</t>
+          <t>ACI</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>BWA</t>
+          <t>HSIC</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>ENSG</t>
+          <t>IESC</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>MGM</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>PCOR</t>
+          <t>UWMC</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>KLAR</t>
+          <t>GS-PC</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>ARMK</t>
+          <t>SAIA</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>APLD</t>
+          <t>RGEN</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>JAZZ</t>
+          <t>DOX</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>CHYM</t>
+          <t>KNX</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>UHAL-B</t>
+          <t>STEP</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>LINE</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>SANM</t>
+          <t>SWKS</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>BVN</t>
+          <t>TFII</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>COKE</t>
+          <t>MORN</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>NGD</t>
+          <t>QBTS</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>POOL</t>
+          <t>TTAN</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>COMP</t>
+          <t>RZB</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>OSK</t>
+          <t>FRT</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>EHC</t>
+          <t>AGNCM</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>ALV</t>
+          <t>AGNCN</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>SOLS</t>
+          <t>PEGA</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>CUBE</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>TAP</t>
+          <t>AHR</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>DDS</t>
+          <t>VIPS</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>BROS</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>AAL</t>
+          <t>AUR</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>ORI</t>
+          <t>LEVI</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
-        <is>
-          <t>AYI</t>
-        </is>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="inlineStr">
-        <is>
-          <t>ABVX</t>
-        </is>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" t="inlineStr">
-        <is>
-          <t>NCLH</t>
-        </is>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="inlineStr">
-        <is>
-          <t>ACI</t>
-        </is>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="inlineStr">
-        <is>
-          <t>HSIC</t>
-        </is>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="inlineStr">
-        <is>
-          <t>IESC</t>
-        </is>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" t="inlineStr">
-        <is>
-          <t>MGM</t>
-        </is>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" t="inlineStr">
-        <is>
-          <t>UWMC</t>
-        </is>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="inlineStr">
-        <is>
-          <t>GS-PC</t>
-        </is>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="inlineStr">
-        <is>
-          <t>SAIA</t>
-        </is>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="inlineStr">
-        <is>
-          <t>RGEN</t>
-        </is>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" t="inlineStr">
-        <is>
-          <t>DOX</t>
-        </is>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" t="inlineStr">
-        <is>
-          <t>KNX</t>
-        </is>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" t="inlineStr">
-        <is>
-          <t>LINE</t>
-        </is>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" t="inlineStr">
-        <is>
-          <t>SWKS</t>
-        </is>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>TFII</t>
-        </is>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" t="inlineStr">
-        <is>
-          <t>OGE</t>
-        </is>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" t="inlineStr">
-        <is>
-          <t>MORN</t>
-        </is>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" t="inlineStr">
-        <is>
-          <t>UEC</t>
-        </is>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" t="inlineStr">
-        <is>
-          <t>QBTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="inlineStr">
-        <is>
-          <t>TTAN</t>
-        </is>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="inlineStr">
-        <is>
-          <t>RZB</t>
-        </is>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>FRT</t>
-        </is>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="inlineStr">
-        <is>
-          <t>AGNCM</t>
-        </is>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="inlineStr">
-        <is>
-          <t>AGNCN</t>
-        </is>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="inlineStr">
-        <is>
-          <t>PEGA</t>
-        </is>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="inlineStr">
-        <is>
-          <t>CUBE</t>
-        </is>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="inlineStr">
-        <is>
-          <t>AHR</t>
-        </is>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>VIPS</t>
-        </is>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>OR</t>
-        </is>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="inlineStr">
-        <is>
-          <t>AUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="inlineStr">
-        <is>
-          <t>LEVI</t>
-        </is>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="inlineStr">
         <is>
           <t>ADC</t>
         </is>

--- a/scan_skipped.xlsx
+++ b/scan_skipped.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A547"/>
+  <dimension ref="A1:A543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,91 +431,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>MSFT</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>AVGO</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AVGO</t>
+          <t>TSLA</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>BRK-A</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BRK-A</t>
+          <t>BRK-B</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BRK-B</t>
+          <t>JPM</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>LLY</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LLY</t>
+          <t>V</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>ORCL</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>BAC</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BAC</t>
+          <t>MA</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>COST</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>AMD</t>
         </is>
       </c>
     </row>
@@ -536,105 +536,105 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>JPM-PD</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>JPM-PD</t>
+          <t>JPM-PC</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>JPM-PC</t>
+          <t>UNH</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>BAC-PK</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BAC-PK</t>
+          <t>GE</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>BAC-PL</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BAC-PL</t>
+          <t>SAP</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>BML-PL</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BML-PL</t>
+          <t>BAC-PB</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BAC-PB</t>
+          <t>AXP</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>RY</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RY</t>
+          <t>TMO</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>CRM</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CRM</t>
+          <t>LIN</t>
         </is>
       </c>
     </row>
@@ -725,3526 +725,3498 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BLK</t>
+          <t>UBER</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>DHR</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>DHR</t>
+          <t>TJX</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>TJX</t>
+          <t>BKNG</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>QCOM</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>HDB</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>HDB</t>
+          <t>SPGI</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SPGI</t>
+          <t>INTU</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>UBS</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>PDD</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>UBS</t>
+          <t>NOW</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PDD</t>
+          <t>COF</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>NEM</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>COF</t>
+          <t>SONY</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>NEM</t>
+          <t>PANW</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SONY</t>
+          <t>ADBE</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>PGR</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>ARM</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PGR</t>
+          <t>CRWD</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>SNY</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>KKR</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SNY</t>
+          <t>SBUX</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>AEM</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SBUX</t>
+          <t>CVS</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>AEM</t>
+          <t>BN</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>SPOT</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BN</t>
+          <t>ADP</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SPOT</t>
+          <t>IBN</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>CEG</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>IBN</t>
+          <t>CVNA</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>GD</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CVNA</t>
+          <t>SNPS</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>HOOD</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SNPS</t>
+          <t>NKE</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>MCO</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>WM</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>DASH</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>WM</t>
+          <t>CDNS</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>HWM</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>MAR</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>HWM</t>
+          <t>NTES</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>ELV</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>NTES</t>
+          <t>MMM</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ELV</t>
+          <t>MS-PK</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>BAM</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>MS-PK</t>
+          <t>MS-PI</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BAM</t>
+          <t>CRH</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>MS-PI</t>
+          <t>ABNB</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CRH</t>
+          <t>REGN</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ABNB</t>
+          <t>MS-PF</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>REGN</t>
+          <t>MS-PE</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>MS-PF</t>
+          <t>CTAS</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>MS-PE</t>
+          <t>DELL</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CTAS</t>
+          <t>APO</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>INFY</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>APO</t>
+          <t>CI</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>SE</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>SNOW</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>RELX</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SNOW</t>
+          <t>MRVL</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>RELX</t>
+          <t>WBD</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>RSG</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>WPM</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>RSG</t>
+          <t>TEL</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>WPM</t>
+          <t>NET</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>AJG</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>CNI</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>AJG</t>
+          <t>AMX</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>CNI</t>
+          <t>DUK-PA</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>AMX</t>
+          <t>RACE</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>DUK-PA</t>
+          <t>RKT</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>RACE</t>
+          <t>CTA-PB</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>RKT</t>
+          <t>URI</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>CTA-PB</t>
+          <t>NXPI</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>URI</t>
+          <t>ADSK</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>NXPI</t>
+          <t>COIN</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ADSK</t>
+          <t>VLO</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>COIN</t>
+          <t>NDAQ</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>SRE</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>NDAQ</t>
+          <t>IDXX</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>TRI</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>IDXX</t>
+          <t>AU</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>TRI</t>
+          <t>PYPL</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ZTS</t>
+          <t>VST</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>CMG</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>MPC</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>RBLX</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>CMG</t>
+          <t>ALL</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>MPC</t>
+          <t>EA</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>RBLX</t>
+          <t>SCHW-PD</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ALL</t>
+          <t>WDAY</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FNV</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>SCHW-PD</t>
+          <t>EW</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>WDAY</t>
+          <t>GFI</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>FNV</t>
+          <t>ARES</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>EW</t>
+          <t>PSA</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>GFI</t>
+          <t>AXON</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ARES</t>
+          <t>DDOG</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>PSA</t>
+          <t>ALNY</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>AXON</t>
+          <t>CTA-PA</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>HEI</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ALNY</t>
+          <t>MSTR</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>CTA-PA</t>
+          <t>KGC</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>HEI</t>
+          <t>TTWO</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>SPG-PJ</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>KGC</t>
+          <t>DAL</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>TTWO</t>
+          <t>WCN</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>SPG-PJ</t>
+          <t>ROP</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>JD</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>DHI</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ROP</t>
+          <t>EBAY</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>JD</t>
+          <t>RKLB</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>DHI</t>
+          <t>MET-PA</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>EBAY</t>
+          <t>EL</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>RKLB</t>
+          <t>CTSH</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>MET-PA</t>
+          <t>TCOM</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>LVS</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>TCOM</t>
+          <t>AIG</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>LVS</t>
+          <t>IQV</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>AIG</t>
+          <t>RDDT</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>IQV</t>
+          <t>XYZ</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>RDDT</t>
+          <t>HEI-A</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>XYZ</t>
+          <t>GRMN</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>HEI-A</t>
+          <t>NOK</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>GRMN</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>VMC</t>
+          <t>PRU</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>PAYX</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CCI</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>PRU</t>
+          <t>KDP</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>MDLN</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>CCI</t>
+          <t>FICO</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>KDP</t>
+          <t>VEEV</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>MDLN</t>
+          <t>GEHC</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>FICO</t>
+          <t>FISV</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>VEEV</t>
+          <t>TEAM</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>GEHC</t>
+          <t>CPNG</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>FISV</t>
+          <t>OTIS</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>TEAM</t>
+          <t>CLS</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>CPNG</t>
+          <t>SYM</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>OTIS</t>
+          <t>APO-PA</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>CLS</t>
+          <t>XYL</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>SYM</t>
+          <t>UAL</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>APO-PA</t>
+          <t>SATS</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>XYL</t>
+          <t>ZS</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>UAL</t>
+          <t>INSM</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>SATS</t>
+          <t>NTRA</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>KMB</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>INSM</t>
+          <t>RJF</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>KVUE</t>
+          <t>MDB</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>NTRA</t>
+          <t>PCG</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>FITB</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>RJF</t>
+          <t>EXPE</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>MDB</t>
+          <t>UI</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>PCG</t>
+          <t>DG</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>EXPE</t>
+          <t>PSA-PK</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>UI</t>
+          <t>SOFI</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>DG</t>
+          <t>ALL-PB</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>PSA-PK</t>
+          <t>FOXA</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>ALL-PH</t>
+          <t>HUM</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>SOFI</t>
+          <t>WTW</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ALL-PB</t>
+          <t>EXR</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>FOXA</t>
+          <t>FIS</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>HUM</t>
+          <t>FOX</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>WTW</t>
+          <t>VRSK</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>EXR</t>
+          <t>QSR</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>FIS</t>
+          <t>FLUT</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>FOX</t>
+          <t>VICI</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>AMRZ</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>QSR</t>
+          <t>ULTA</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>FLUT</t>
+          <t>MTD</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>VICI</t>
+          <t>TSCO</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>AMRZ</t>
+          <t>NRG</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ULTA</t>
+          <t>SYF</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>MTD</t>
+          <t>LPLA</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>TSCO</t>
+          <t>HPE</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>TME</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>SYF</t>
+          <t>DOV</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>LPLA</t>
+          <t>CBOE</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>HPE</t>
+          <t>STLA</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>TME</t>
+          <t>CSGP</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>DOV</t>
+          <t>PHG</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>ALAB</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>DTE</t>
+          <t>PAAS</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>STLA</t>
+          <t>WIT</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>KHC</t>
+          <t>LEN</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>CSGP</t>
+          <t>HBAN</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>PHG</t>
+          <t>ATO</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ALAB</t>
+          <t>BRO</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>PAAS</t>
+          <t>NMR</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>WIT</t>
+          <t>LEN-B</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>LEN</t>
+          <t>EFX</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>HBAN</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ATO</t>
+          <t>TPR</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>BRO</t>
+          <t>FSLR</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>NMR</t>
+          <t>JBL</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>LEN-B</t>
+          <t>MKL</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>EFX</t>
+          <t>AER</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>DLTR</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>TPR</t>
+          <t>AWK</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>OMC</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>JBL</t>
+          <t>STM</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>MKL</t>
+          <t>AVB</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>AER</t>
+          <t>VLTO</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>AWK</t>
+          <t>DLR-PK</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>OMC</t>
+          <t>CINF</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>STM</t>
+          <t>FCNCA</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>WRB</t>
+          <t>PHM</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>AVB</t>
+          <t>GFS</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>VLTO</t>
+          <t>RGLD</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>BR</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>DLR-PK</t>
+          <t>LDOS</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>CINF</t>
+          <t>PSTG</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>FCNCA</t>
+          <t>SQM</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>PHM</t>
+          <t>FLEX</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>RGLD</t>
+          <t>AXIA-PC</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>ILMN</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>LDOS</t>
+          <t>VRSN</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>PSTG</t>
+          <t>TPG</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>SQM</t>
+          <t>TROW</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>FLEX</t>
+          <t>WAT</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>AXIA-PC</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ILMN</t>
+          <t>CRDO</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>VRSN</t>
+          <t>NBIS</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>TPG</t>
+          <t>CPAY</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>TROW</t>
+          <t>LULU</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>DRI</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>OWL</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>CRDO</t>
+          <t>CNC</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>NBIS</t>
+          <t>IP</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>CPAY</t>
+          <t>FUTU</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>AFRM</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>DRI</t>
+          <t>SW</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>OWL</t>
+          <t>DLR-PJ</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>CNC</t>
+          <t>TLK</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>CYBR</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>FUTU</t>
+          <t>FWONK</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>AFRM</t>
+          <t>ALB</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>FWONA</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>DLR-PJ</t>
+          <t>CG</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>TLK</t>
+          <t>RL</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>CYBR</t>
+          <t>UTHR</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>FWONK</t>
+          <t>GPN</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>ALB</t>
+          <t>AS</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>FWONA</t>
+          <t>SSNC</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>GMAB</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>RL</t>
+          <t>TWLO</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>CMS</t>
+          <t>IHG</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>UTHR</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>GPN</t>
+          <t>INCY</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>HL</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>SSNC</t>
+          <t>SBAC</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>GMAB</t>
+          <t>WWD</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>TWLO</t>
+          <t>CHKP</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>IHG</t>
+          <t>PTC</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>NTAP</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>INCY</t>
+          <t>TOST</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>JBHT</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>SBAC</t>
+          <t>SGI</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>WWD</t>
+          <t>GIB</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>CHKP</t>
+          <t>RIVN</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>PODD</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>NTAP</t>
+          <t>TYL</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>TOST</t>
+          <t>IFF</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>JBHT</t>
+          <t>RVMD</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>SGI</t>
+          <t>PKX</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>GIB</t>
+          <t>KTOS</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>RIVN</t>
+          <t>HIG-PG</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>PODD</t>
+          <t>GRAB</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>TYL</t>
+          <t>IOT</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>IFF</t>
+          <t>FTV</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>RVMD</t>
+          <t>BURL</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>KTOS</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>HIG-PG</t>
+          <t>SMCI</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>GRAB</t>
+          <t>DKS</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>APG</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>FTV</t>
+          <t>HPQ</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>CRCL</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>SMCI</t>
+          <t>LII</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>DKS</t>
+          <t>FITBI</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>APG</t>
+          <t>XPEV</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>HPQ</t>
+          <t>IT</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>CRCL</t>
+          <t>PSNYW</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>LII</t>
+          <t>AGI</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>FITBI</t>
+          <t>ALLY</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>XPEV</t>
+          <t>PINS</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ESS</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>PSNYW</t>
+          <t>SN</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>AGI</t>
+          <t>CRS</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>ALLY</t>
+          <t>WST</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>HUBS</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>PINS</t>
+          <t>ZBH</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>ESS</t>
+          <t>LNT</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>LI</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>CRS</t>
+          <t>ZG</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>ATI</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>HUBS</t>
+          <t>TRMB</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>ZBH</t>
+          <t>MEDP</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>LNT</t>
+          <t>QXO</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>LI</t>
+          <t>TXT</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>ATI</t>
+          <t>HOLX</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>THC</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>MEDP</t>
+          <t>APTV</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>QXO</t>
+          <t>TKO</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CDW</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>RTO</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>HOLX</t>
+          <t>TRU</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>THC</t>
+          <t>TTD</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>APTV</t>
+          <t>INVH</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>TKO</t>
+          <t>LYB</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>MKC</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>RTO</t>
+          <t>CDE</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>NLY</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>INVH</t>
+          <t>MKC-V</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>LYB</t>
+          <t>MAA</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>MKC</t>
+          <t>OKTA</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>CDE</t>
+          <t>COO</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>NLY</t>
+          <t>TLN</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>GFL</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>MKC-V</t>
+          <t>WMG</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>MAA</t>
+          <t>KSPI</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>OKTA</t>
+          <t>ROKU</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>COO</t>
+          <t>ROIV</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>TLN</t>
+          <t>GEN</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>GFL</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>WMG</t>
+          <t>HTHT</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>KSPI</t>
+          <t>IONQ</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>ROKU</t>
+          <t>ONON</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>ROIV</t>
+          <t>DKNG</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>GEN</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>AVAV</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>HTHT</t>
+          <t>MGA</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>KEY-PI</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>ONON</t>
+          <t>EMA</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>DKNG</t>
+          <t>CSL</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>FNF</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>AVAV</t>
+          <t>HMY</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>MGA</t>
+          <t>ULS</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>KEY-PI</t>
+          <t>GDDY</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>EMA</t>
+          <t>ARCC</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>CSL</t>
+          <t>ICLR</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>FNF</t>
+          <t>AVY</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>HMY</t>
+          <t>FIG</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>ULS</t>
+          <t>RGC</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>GDDY</t>
+          <t>PNFP</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>ERIE</t>
+          <t>MAS</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>ARCC</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>ICLR</t>
+          <t>JHX</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>AVY</t>
+          <t>EVR</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>FIG</t>
+          <t>CELH</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>RGC</t>
+          <t>BBY</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>PNFP</t>
+          <t>SBSW</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>MAS</t>
+          <t>LOGI</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>EQH</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>JHX</t>
+          <t>RPM</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>EVR</t>
+          <t>GWRE</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>DPZ</t>
+          <t>SOLV</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>BBY</t>
+          <t>RBRK</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>SBSW</t>
+          <t>FIGR</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>LOGI</t>
+          <t>NLY-PG</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>EQH</t>
+          <t>BLD</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>RPM</t>
+          <t>NLY-PF</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>GWRE</t>
+          <t>AMH</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>SOLV</t>
+          <t>NBIX</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>RBRK</t>
+          <t>OHI</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>FIGR</t>
+          <t>RVTY</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>NLY-PG</t>
+          <t>JKHY</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>RYAN</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>AMH</t>
+          <t>BLDR</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>NBIX</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>OHI</t>
+          <t>PSKY</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>RVTY</t>
+          <t>UHS</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>JKHY</t>
+          <t>CHWY</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>RYAN</t>
+          <t>LAMR</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>UNM</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>SNAP</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>PSKY</t>
+          <t>JEF</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>UHS</t>
+          <t>BNT</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>CHWY</t>
+          <t>BJ</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>LAMR</t>
+          <t>OKLO</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>UNM</t>
+          <t>HLI</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>SNAP</t>
+          <t>GLPI</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>JEF</t>
+          <t>EQX</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>BNT</t>
+          <t>IVZ</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>BJ</t>
+          <t>ACM</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>OKLO</t>
+          <t>SWK</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>HLI</t>
+          <t>AGNC</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>GLPI</t>
+          <t>BMNR</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>EQX</t>
+          <t>GLXY</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>IVZ</t>
+          <t>AG</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>GMED</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>SWK</t>
+          <t>AMKR</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>AGNC</t>
+          <t>IAG</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>BMNR</t>
+          <t>DT</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>GLXY</t>
+          <t>ZBRA</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>AG</t>
+          <t>TXRH</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>GMED</t>
+          <t>DOC</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>AMKR</t>
+          <t>SMMT</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>IAG</t>
+          <t>EPAM</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>ALGN</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>ZBRA</t>
+          <t>JOBY</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>TXRH</t>
+          <t>SUZ</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>CR</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>SMMT</t>
+          <t>TEM</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>WMS</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>ALGN</t>
+          <t>WYNN</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>JOBY</t>
+          <t>EXEL</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>SUZ</t>
+          <t>NTNX</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>BSY</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>TEM</t>
+          <t>NIO</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>WMS</t>
+          <t>RDY</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>WYNN</t>
+          <t>DOCU</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>EXEL</t>
+          <t>BXP</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>NTNX</t>
+          <t>LSCC</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>BSY</t>
+          <t>STN</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>RDY</t>
+          <t>MDGL</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>DOCU</t>
+          <t>BAH</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>BXP</t>
+          <t>SCI</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>LSCC</t>
+          <t>MICC</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>STN</t>
+          <t>CNM</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>MDGL</t>
+          <t>MP</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>WTRG</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>SCI</t>
+          <t>SARO</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>MICC</t>
+          <t>CRL</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>CNM</t>
+          <t>BMRN</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>MP</t>
+          <t>MOH</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>WTRG</t>
+          <t>WLK</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>SARO</t>
+          <t>SPXC</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>MANH</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>BMRN</t>
+          <t>FDS</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>MOH</t>
+          <t>AFG</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>WLK</t>
+          <t>CART</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>SPXC</t>
+          <t>AIT</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>MANH</t>
+          <t>PAG</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>FDS</t>
+          <t>TECH</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>CAE</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>CART</t>
+          <t>YMM</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>AIT</t>
+          <t>BWA</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>PAG</t>
+          <t>ENSG</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>TECH</t>
+          <t>OC</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>CAE</t>
+          <t>PCOR</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>YMM</t>
+          <t>KLAR</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>BWA</t>
+          <t>ARMK</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>ENSG</t>
+          <t>APLD</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>JAZZ</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>PCOR</t>
+          <t>CHYM</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>KLAR</t>
+          <t>SAIL</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>ARMK</t>
+          <t>SANM</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>APLD</t>
+          <t>BVN</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>JAZZ</t>
+          <t>COKE</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>CHYM</t>
+          <t>NGD</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>UHAL-B</t>
+          <t>POOL</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>COMP</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>SANM</t>
+          <t>OSK</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>BVN</t>
+          <t>EHC</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>COKE</t>
+          <t>ALV</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>NGD</t>
+          <t>SOLS</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>POOL</t>
+          <t>ARE</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>VNO-PM</t>
+          <t>TAP</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>OSK</t>
+          <t>DDS</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>EHC</t>
+          <t>BROS</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>ALV</t>
+          <t>AAL</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>SOLS</t>
+          <t>ORI</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>AYI</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>TAP</t>
+          <t>ABVX</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>DDS</t>
+          <t>EGP</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>BROS</t>
+          <t>ACI</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>AAL</t>
+          <t>HSIC</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>ORI</t>
+          <t>KNSL</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>AYI</t>
+          <t>IESC</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>ABVX</t>
+          <t>MGM</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>EGP</t>
+          <t>UWMC</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>ACI</t>
+          <t>SAIA</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>HSIC</t>
+          <t>RGEN</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>IESC</t>
+          <t>DOX</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>KNX</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>UWMC</t>
+          <t>STEP</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>GS-PC</t>
+          <t>LINE</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>SAIA</t>
+          <t>SWKS</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>RGEN</t>
+          <t>TFII</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>DOX</t>
+          <t>MORN</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>KNX</t>
+          <t>QBTS</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>STEP</t>
+          <t>TTAN</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>RZB</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>SWKS</t>
+          <t>FRT</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>TFII</t>
+          <t>AGNCM</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>MORN</t>
+          <t>AGNCN</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>QBTS</t>
+          <t>PEGA</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>TTAN</t>
+          <t>CUBE</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>RZB</t>
+          <t>AHR</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>FRT</t>
+          <t>VIPS</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>AGNCM</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>AGNCN</t>
+          <t>AUR</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>PEGA</t>
+          <t>IDCC</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>CUBE</t>
+          <t>PL</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>AHR</t>
+          <t>LEVI</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
-        <is>
-          <t>VIPS</t>
-        </is>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="inlineStr">
-        <is>
-          <t>OR</t>
-        </is>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" t="inlineStr">
-        <is>
-          <t>AUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" t="inlineStr">
-        <is>
-          <t>LEVI</t>
-        </is>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" t="inlineStr">
         <is>
           <t>ADC</t>
         </is>

--- a/scan_skipped.xlsx
+++ b/scan_skipped.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A543"/>
+  <dimension ref="A1:A537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,91 +431,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>NVDA</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AVGO</t>
+          <t>MSFT</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>AVGO</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BRK-A</t>
+          <t>TSLA</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BRK-B</t>
+          <t>BRK-A</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>BRK-B</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LLY</t>
+          <t>JPM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>LLY</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>V</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BAC</t>
+          <t>ORCL</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>BAC</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>MA</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>COST</t>
         </is>
       </c>
     </row>
@@ -557,28 +557,28 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>BAC-PK</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BAC-PK</t>
+          <t>GE</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>BAC-PL</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BAC-PL</t>
+          <t>AZN</t>
         </is>
       </c>
     </row>
@@ -592,189 +592,189 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BML-PL</t>
+          <t>BAC-PB</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BAC-PB</t>
+          <t>AXP</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>RY</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RY</t>
+          <t>TMO</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>CRM</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CRM</t>
+          <t>KLAC</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LIN</t>
+          <t>WFC-PY</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>KLAC</t>
+          <t>BA</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>WFC-PY</t>
+          <t>WFC-PL</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>APH</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>WFC-PL</t>
+          <t>ISRG</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>ABT</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ISRG</t>
+          <t>BX</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>APP</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BX</t>
+          <t>SHOP</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>TD</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SHOP</t>
+          <t>ACN</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>TD</t>
+          <t>UBER</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>DHR</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>TJX</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>DHR</t>
+          <t>BKNG</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>TJX</t>
+          <t>QCOM</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>HDB</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>SPGI</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HDB</t>
+          <t>INTU</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SPGI</t>
+          <t>LOW</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>SCCO</t>
         </is>
       </c>
     </row>
@@ -795,476 +795,476 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>HON</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>COF</t>
+          <t>NOW</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>NEM</t>
+          <t>COF</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SONY</t>
+          <t>BSX</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>NEM</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>SONY</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PGR</t>
+          <t>PANW</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>ADBE</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>PGR</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SNY</t>
+          <t>ARM</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>CRWD</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SBUX</t>
+          <t>SNY</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>AEM</t>
+          <t>KKR</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>SBUX</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BN</t>
+          <t>AEM</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SPOT</t>
+          <t>CVS</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>BN</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>IBN</t>
+          <t>SPOT</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>ADP</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CVNA</t>
+          <t>IBN</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>CEG</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SNPS</t>
+          <t>CVNA</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>GD</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>SNPS</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>HOOD</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>WM</t>
+          <t>NKE</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>MCO</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>WM</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>DASH</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>HWM</t>
+          <t>CDNS</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>NTES</t>
+          <t>HWM</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ELV</t>
+          <t>MAR</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>NTES</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>MS-PK</t>
+          <t>ELV</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BAM</t>
+          <t>MMM</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>MS-PI</t>
+          <t>MS-PK</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CRH</t>
+          <t>BAM</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ABNB</t>
+          <t>MS-PI</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>REGN</t>
+          <t>CRH</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MS-PF</t>
+          <t>ABNB</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>MS-PE</t>
+          <t>REGN</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CTAS</t>
+          <t>MS-PF</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>MS-PE</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>APO</t>
+          <t>CTAS</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>DELL</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>APO</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>INFY</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SNOW</t>
+          <t>CI</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>RELX</t>
+          <t>SE</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>SNOW</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>RELX</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>RSG</t>
+          <t>MRVL</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>WPM</t>
+          <t>WBD</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>WPM</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>TEL</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>AJG</t>
+          <t>NET</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>CNI</t>
+          <t>AJG</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>AMX</t>
+          <t>CNI</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>DUK-PA</t>
+          <t>AMX</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>RACE</t>
+          <t>DUK-PA</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>RKT</t>
+          <t>RACE</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>CTA-PB</t>
+          <t>RKT</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>URI</t>
+          <t>CTA-PB</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>NXPI</t>
+          <t>URI</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ADSK</t>
+          <t>NXPI</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>COIN</t>
+          <t>ADSK</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>COIN</t>
         </is>
       </c>
     </row>
@@ -1327,322 +1327,322 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>MPC</t>
+          <t>RBLX</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>RBLX</t>
+          <t>ALL</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ALL</t>
+          <t>EA</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SCHW-PD</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SCHW-PD</t>
+          <t>WDAY</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>WDAY</t>
+          <t>FNV</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>FNV</t>
+          <t>EW</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>EW</t>
+          <t>GFI</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>GFI</t>
+          <t>ARES</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ARES</t>
+          <t>PSA</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>PSA</t>
+          <t>AXON</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>AXON</t>
+          <t>DDOG</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>ALNY</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ALNY</t>
+          <t>CTA-PA</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>CTA-PA</t>
+          <t>HEI</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>HEI</t>
+          <t>MSTR</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>KGC</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>KGC</t>
+          <t>TTWO</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>TTWO</t>
+          <t>SPG-PJ</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SPG-PJ</t>
+          <t>DAL</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>WCN</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>ROP</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ROP</t>
+          <t>JD</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>JD</t>
+          <t>DHI</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>DHI</t>
+          <t>EBAY</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>EBAY</t>
+          <t>RKLB</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>RKLB</t>
+          <t>MET-PA</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>MET-PA</t>
+          <t>CTSH</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>EL</t>
+          <t>TCOM</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>LVS</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>TCOM</t>
+          <t>AIG</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>LVS</t>
+          <t>IQV</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>AIG</t>
+          <t>RDDT</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>IQV</t>
+          <t>XYZ</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>RDDT</t>
+          <t>HEI-A</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>XYZ</t>
+          <t>GRMN</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>HEI-A</t>
+          <t>PEG</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>GRMN</t>
+          <t>NOK</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>PRU</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>PRU</t>
+          <t>PAYX</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>CCI</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>CCI</t>
+          <t>KDP</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>KDP</t>
+          <t>MDLN</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>MDLN</t>
+          <t>FICO</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>FICO</t>
+          <t>FMX</t>
         </is>
       </c>
     </row>
@@ -1775,861 +1775,861 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>PCG</t>
+          <t>EXPE</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>FITB</t>
+          <t>UI</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>EXPE</t>
+          <t>DG</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>UI</t>
+          <t>PSA-PK</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>DG</t>
+          <t>ALL-PH</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>PSA-PK</t>
+          <t>SOFI</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>SOFI</t>
+          <t>ALL-PB</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ALL-PB</t>
+          <t>HUM</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>FOXA</t>
+          <t>WTW</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>HUM</t>
+          <t>EXR</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>WTW</t>
+          <t>FIS</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>EXR</t>
+          <t>VRSK</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>FIS</t>
+          <t>QSR</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>FOX</t>
+          <t>FLUT</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>VICI</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>QSR</t>
+          <t>AMRZ</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>FLUT</t>
+          <t>ULTA</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>VICI</t>
+          <t>MTD</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>AMRZ</t>
+          <t>TSCO</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ULTA</t>
+          <t>NRG</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>MTD</t>
+          <t>SYF</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>TSCO</t>
+          <t>LPLA</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>HPE</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>SYF</t>
+          <t>TME</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>LPLA</t>
+          <t>DOV</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>HPE</t>
+          <t>CBOE</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>TME</t>
+          <t>STLA</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>DOV</t>
+          <t>CSGP</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>PHG</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>STLA</t>
+          <t>ALAB</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>CSGP</t>
+          <t>PAAS</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>PHG</t>
+          <t>WIT</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>ALAB</t>
+          <t>LEN</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>PAAS</t>
+          <t>HBAN</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>WIT</t>
+          <t>ATO</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>LEN</t>
+          <t>BRO</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>HBAN</t>
+          <t>NMR</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ATO</t>
+          <t>LEN-B</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>BRO</t>
+          <t>EFX</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>NMR</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>LEN-B</t>
+          <t>TPR</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>EFX</t>
+          <t>FSLR</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>JBL</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>TPR</t>
+          <t>MKL</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>AER</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>JBL</t>
+          <t>DLTR</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>MKL</t>
+          <t>AWK</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>AER</t>
+          <t>OMC</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>STM</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>AWK</t>
+          <t>WRB</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>OMC</t>
+          <t>AVB</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>STM</t>
+          <t>VLTO</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>AVB</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>VLTO</t>
+          <t>DLR-PK</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>FCNCA</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>DLR-PK</t>
+          <t>PHM</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>CINF</t>
+          <t>GFS</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>FCNCA</t>
+          <t>RGLD</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>PHM</t>
+          <t>BR</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>GFS</t>
+          <t>LDOS</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>RGLD</t>
+          <t>PSTG</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SQM</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>LDOS</t>
+          <t>FLEX</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>PSTG</t>
+          <t>AXIA-PC</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>SQM</t>
+          <t>ILMN</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>FLEX</t>
+          <t>VRSN</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>AXIA-PC</t>
+          <t>TPG</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ILMN</t>
+          <t>WAT</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>VRSN</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>TPG</t>
+          <t>CRDO</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>TROW</t>
+          <t>NBIS</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>CPAY</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>LULU</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>CRDO</t>
+          <t>DRI</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>NBIS</t>
+          <t>OWL</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>CPAY</t>
+          <t>CNC</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>IP</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>DRI</t>
+          <t>FUTU</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>OWL</t>
+          <t>AFRM</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>CNC</t>
+          <t>SW</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>DLR-PJ</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>FUTU</t>
+          <t>TLK</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>AFRM</t>
+          <t>CYBR</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>FWONK</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>DLR-PJ</t>
+          <t>ALB</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>TLK</t>
+          <t>PSLV</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>CYBR</t>
+          <t>FWONA</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>FWONK</t>
+          <t>KOF</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ALB</t>
+          <t>CG</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>FWONA</t>
+          <t>RL</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>UTHR</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>RL</t>
+          <t>GPN</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>UTHR</t>
+          <t>AS</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>GPN</t>
+          <t>SSNC</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>CTRA</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>SSNC</t>
+          <t>GMAB</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>GMAB</t>
+          <t>TWLO</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>TWLO</t>
+          <t>IHG</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>IHG</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>INCY</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>INCY</t>
+          <t>HL</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>SBAC</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>SBAC</t>
+          <t>WWD</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>WWD</t>
+          <t>CHKP</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>CHKP</t>
+          <t>PTC</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>NTAP</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>NTAP</t>
+          <t>TOST</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>TOST</t>
+          <t>JBHT</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>JBHT</t>
+          <t>SGI</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>SGI</t>
+          <t>GIB</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>GIB</t>
+          <t>RIVN</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>RIVN</t>
+          <t>PODD</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>PODD</t>
+          <t>TYL</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>TYL</t>
+          <t>IFF</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>IFF</t>
+          <t>RVMD</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>RVMD</t>
+          <t>KTOS</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>PKX</t>
+          <t>HIG-PG</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>KTOS</t>
+          <t>GRAB</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>HIG-PG</t>
+          <t>IOT</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>GRAB</t>
+          <t>FTV</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>CX</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>FTV</t>
+          <t>BURL</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>BURL</t>
+          <t>PHYS</t>
         </is>
       </c>
     </row>
@@ -2657,70 +2657,70 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>APG</t>
+          <t>HPQ</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>HPQ</t>
+          <t>CRCL</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>CRCL</t>
+          <t>LII</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>LII</t>
+          <t>FITBI</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>FITBI</t>
+          <t>XPEV</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>XPEV</t>
+          <t>IT</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>PSNYW</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>PSNYW</t>
+          <t>AGI</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>AGI</t>
+          <t>ALLY</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ALLY</t>
+          <t>PNR</t>
         </is>
       </c>
     </row>
@@ -2902,1321 +2902,1279 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>LYB</t>
+          <t>MKC</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>MKC</t>
+          <t>CDE</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>CDE</t>
+          <t>NLY</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>NLY</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>MKC-V</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>MKC-V</t>
+          <t>MAA</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>MAA</t>
+          <t>OKTA</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>OKTA</t>
+          <t>COO</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>COO</t>
+          <t>TLN</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>TLN</t>
+          <t>GFL</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>GFL</t>
+          <t>WMG</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>WMG</t>
+          <t>KSPI</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>KSPI</t>
+          <t>ROKU</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>ROKU</t>
+          <t>ROIV</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>ROIV</t>
+          <t>GEN</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>GEN</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>HTHT</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>HTHT</t>
+          <t>IONQ</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>ONON</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>ONON</t>
+          <t>DKNG</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>DKNG</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>AVAV</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>AVAV</t>
+          <t>MGA</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>MGA</t>
+          <t>KEY-PI</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>KEY-PI</t>
+          <t>CSL</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>EMA</t>
+          <t>HMY</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>CSL</t>
+          <t>ULS</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>FNF</t>
+          <t>GDDY</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>HMY</t>
+          <t>ARCC</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>ULS</t>
+          <t>ICLR</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>GDDY</t>
+          <t>FIG</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>ARCC</t>
+          <t>RGC</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>ICLR</t>
+          <t>PNFP</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>AVY</t>
+          <t>MAS</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>FIG</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>RGC</t>
+          <t>JHX</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>PNFP</t>
+          <t>EVR</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>MAS</t>
+          <t>CELH</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>BBY</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>JHX</t>
+          <t>SBSW</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>EVR</t>
+          <t>LOGI</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>CELH</t>
+          <t>EQH</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>BBY</t>
+          <t>RPM</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>SBSW</t>
+          <t>GWRE</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>LOGI</t>
+          <t>SOLV</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>EQH</t>
+          <t>RBRK</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>RPM</t>
+          <t>FIGR</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>GWRE</t>
+          <t>NLY-PG</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>SOLV</t>
+          <t>BLD</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>RBRK</t>
+          <t>NLY-PF</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>FIGR</t>
+          <t>AMH</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>NLY-PG</t>
+          <t>NBIX</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>OHI</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>NLY-PF</t>
+          <t>RVTY</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>AMH</t>
+          <t>JKHY</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>NBIX</t>
+          <t>RYAN</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>OHI</t>
+          <t>BLDR</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>RVTY</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>JKHY</t>
+          <t>PSKY</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>RYAN</t>
+          <t>UHS</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>CHWY</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>LAMR</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>PSKY</t>
+          <t>UNM</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>UHS</t>
+          <t>SNAP</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>CHWY</t>
+          <t>JEF</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>LAMR</t>
+          <t>BNT</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>UNM</t>
+          <t>BJ</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>SNAP</t>
+          <t>OKLO</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>JEF</t>
+          <t>HLI</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>BNT</t>
+          <t>GLPI</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>BJ</t>
+          <t>EQX</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>OKLO</t>
+          <t>IVZ</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>HLI</t>
+          <t>ACM</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>GLPI</t>
+          <t>SWK</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>EQX</t>
+          <t>AGNC</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>IVZ</t>
+          <t>BMNR</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>GLXY</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>SWK</t>
+          <t>AG</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>AGNC</t>
+          <t>GMED</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>BMNR</t>
+          <t>AMKR</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>GLXY</t>
+          <t>IAG</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>AG</t>
+          <t>DT</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>GMED</t>
+          <t>ZBRA</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>AMKR</t>
+          <t>TXRH</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>IAG</t>
+          <t>DOC</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>SMMT</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>ZBRA</t>
+          <t>EPAM</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>TXRH</t>
+          <t>ALGN</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>JOBY</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>SMMT</t>
+          <t>SUZ</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>CR</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>ALGN</t>
+          <t>CMA</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>JOBY</t>
+          <t>TEM</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>SUZ</t>
+          <t>WMS</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>WYNN</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>TEM</t>
+          <t>EXEL</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>WMS</t>
+          <t>NTNX</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>WYNN</t>
+          <t>BSY</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>EXEL</t>
+          <t>NIO</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>NTNX</t>
+          <t>RDY</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>BSY</t>
+          <t>DOCU</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>NIO</t>
+          <t>BXP</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>RDY</t>
+          <t>LSCC</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>DOCU</t>
+          <t>STN</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>BXP</t>
+          <t>CEF</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>LSCC</t>
+          <t>MDGL</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>STN</t>
+          <t>BAH</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>MDGL</t>
+          <t>MICC</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>CNM</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>SCI</t>
+          <t>MP</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>MICC</t>
+          <t>WTRG</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>CNM</t>
+          <t>SARO</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>MP</t>
+          <t>CRL</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>WTRG</t>
+          <t>BMRN</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>SARO</t>
+          <t>MOH</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>WLK</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>BMRN</t>
+          <t>SPXC</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>MOH</t>
+          <t>MANH</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>WLK</t>
+          <t>FDS</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>SPXC</t>
+          <t>AFG</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>MANH</t>
+          <t>CART</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>FDS</t>
+          <t>AIT</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>PAG</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>CART</t>
+          <t>TECH</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>AIT</t>
+          <t>CAE</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>PAG</t>
+          <t>YMM</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>TECH</t>
+          <t>BWA</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>CAE</t>
+          <t>ENSG</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>YMM</t>
+          <t>OC</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>BWA</t>
+          <t>PCOR</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>ENSG</t>
+          <t>KLAR</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>ARMK</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>PCOR</t>
+          <t>APLD</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>KLAR</t>
+          <t>JAZZ</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>ARMK</t>
+          <t>CHYM</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>APLD</t>
+          <t>SAIL</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>JAZZ</t>
+          <t>SANM</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>CHYM</t>
+          <t>BVN</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>NGD</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>SANM</t>
+          <t>POOL</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>BVN</t>
+          <t>OSK</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>COKE</t>
+          <t>EHC</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>NGD</t>
+          <t>ALV</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>POOL</t>
+          <t>SOLS</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>COMP</t>
+          <t>ARE</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>OSK</t>
+          <t>TAP</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>EHC</t>
+          <t>DDS</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>ALV</t>
+          <t>BROS</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>SOLS</t>
+          <t>AAL</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>ORI</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>TAP</t>
+          <t>AYI</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>DDS</t>
+          <t>ABVX</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>BROS</t>
+          <t>EGP</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>AAL</t>
+          <t>ACI</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>ORI</t>
+          <t>HSIC</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>AYI</t>
+          <t>KNSL</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>ABVX</t>
+          <t>IESC</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>EGP</t>
+          <t>MGM</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>ACI</t>
+          <t>UWMC</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>HSIC</t>
+          <t>SAIA</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>KNSL</t>
+          <t>RGEN</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>IESC</t>
+          <t>DOX</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>KNX</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>UWMC</t>
+          <t>STEP</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>SAIA</t>
+          <t>LINE</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>RGEN</t>
+          <t>SWKS</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>DOX</t>
+          <t>TFII</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>KNX</t>
+          <t>MORN</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>STEP</t>
+          <t>QBTS</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>TTAN</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>SWKS</t>
+          <t>RZB</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>TFII</t>
+          <t>FRT</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>MORN</t>
+          <t>AGNCM</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>QBTS</t>
+          <t>AGNCN</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>TTAN</t>
+          <t>PEGA</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>RZB</t>
+          <t>CUBE</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>FRT</t>
+          <t>AHR</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>AGNCM</t>
+          <t>VIPS</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>AGNCN</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>PEGA</t>
+          <t>AUR</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>CUBE</t>
+          <t>PL</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>AHR</t>
+          <t>LEVI</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
-        <is>
-          <t>VIPS</t>
-        </is>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>OR</t>
-        </is>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>AUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>IDCC</t>
-        </is>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>LEVI</t>
-        </is>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr">
         <is>
           <t>ADC</t>
         </is>

--- a/scan_skipped.xlsx
+++ b/scan_skipped.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A537"/>
+  <dimension ref="A1:A532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,3750 +431,3715 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>MSFT</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>AVGO</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AVGO</t>
+          <t>TSLA</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>BRK-A</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BRK-A</t>
+          <t>BRK-B</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BRK-B</t>
+          <t>JPM</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>LLY</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LLY</t>
+          <t>V</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>ORCL</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>BAC</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BAC</t>
+          <t>MA</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>COST</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>PLTR</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>NFLX</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>JPM-PD</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>JPM-PD</t>
+          <t>JPM-PC</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>JPM-PC</t>
+          <t>UNH</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>BAC-PK</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BAC-PK</t>
+          <t>GE</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>BAC-PL</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BAC-PL</t>
+          <t>AZN</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AZN</t>
+          <t>SAP</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>BAC-PB</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BAC-PB</t>
+          <t>AXP</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>RY</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RY</t>
+          <t>TMO</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>CRM</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CRM</t>
+          <t>KLAC</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>KLAC</t>
+          <t>WFC-PY</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>WFC-PY</t>
+          <t>BA</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>WFC-PL</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>WFC-PL</t>
+          <t>APH</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>ISRG</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ISRG</t>
+          <t>ABT</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>BX</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BX</t>
+          <t>APP</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>SHOP</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SHOP</t>
+          <t>TD</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TD</t>
+          <t>ACN</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>UBER</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>DHR</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>DHR</t>
+          <t>TJX</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>TJX</t>
+          <t>BKNG</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>QCOM</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>HDB</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HDB</t>
+          <t>SPGI</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SPGI</t>
+          <t>INTU</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>UBS</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>PDD</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SCCO</t>
+          <t>NOW</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>UBS</t>
+          <t>COF</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PDD</t>
+          <t>BSX</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>HON</t>
+          <t>NEM</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>SONY</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>COF</t>
+          <t>PANW</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BSX</t>
+          <t>ADBE</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>NEM</t>
+          <t>PGR</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SONY</t>
+          <t>ARM</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>CRWD</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>SNY</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PGR</t>
+          <t>KKR</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>SBUX</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>AEM</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SNY</t>
+          <t>CVS</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>BN</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SBUX</t>
+          <t>SPOT</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>AEM</t>
+          <t>ADP</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>IBN</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BN</t>
+          <t>CEG</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SPOT</t>
+          <t>CVNA</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>GD</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>IBN</t>
+          <t>SNPS</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>HOOD</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CVNA</t>
+          <t>NKE</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>MCO</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SNPS</t>
+          <t>WM</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>DASH</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>CDNS</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>WM</t>
+          <t>HWM</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>MAR</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>NTES</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>ELV</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>HWM</t>
+          <t>MMM</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>MS-PK</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>NTES</t>
+          <t>BAM</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ELV</t>
+          <t>MS-PI</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>CRH</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>MS-PK</t>
+          <t>ABNB</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BAM</t>
+          <t>REGN</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>MS-PI</t>
+          <t>MS-PF</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CRH</t>
+          <t>MS-PE</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ABNB</t>
+          <t>CTAS</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>REGN</t>
+          <t>DELL</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>MS-PF</t>
+          <t>APO</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>MS-PE</t>
+          <t>INFY</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CTAS</t>
+          <t>CI</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>SE</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>APO</t>
+          <t>SNOW</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>RELX</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>MRVL</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>WBD</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SNOW</t>
+          <t>WPM</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>RELX</t>
+          <t>TEL</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>NET</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>AJG</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>WPM</t>
+          <t>CNI</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>AMX</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>DUK-PA</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>AJG</t>
+          <t>RACE</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>CNI</t>
+          <t>RKT</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>AMX</t>
+          <t>CTA-PB</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>DUK-PA</t>
+          <t>URI</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>RACE</t>
+          <t>NXPI</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>RKT</t>
+          <t>ADSK</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>CTA-PB</t>
+          <t>COIN</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>URI</t>
+          <t>VLO</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>NXPI</t>
+          <t>NDAQ</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ADSK</t>
+          <t>SRE</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>COIN</t>
+          <t>IDXX</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>NDAQ</t>
+          <t>TRI</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>AU</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>IDXX</t>
+          <t>PYPL</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>TRI</t>
+          <t>VST</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>CMG</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>RBLX</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>ALL</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>CMG</t>
+          <t>EA</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>RBLX</t>
+          <t>SCHW-PD</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ALL</t>
+          <t>WDAY</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FNV</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SCHW-PD</t>
+          <t>EW</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>WDAY</t>
+          <t>GFI</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>FNV</t>
+          <t>ARES</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>EW</t>
+          <t>PSA</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>GFI</t>
+          <t>AXON</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ARES</t>
+          <t>DDOG</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>PSA</t>
+          <t>ALNY</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>AXON</t>
+          <t>CTA-PA</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>HEI</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ALNY</t>
+          <t>MSTR</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>CTA-PA</t>
+          <t>KGC</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>HEI</t>
+          <t>TTWO</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>SPG-PJ</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>KGC</t>
+          <t>DAL</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>TTWO</t>
+          <t>WCN</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SPG-PJ</t>
+          <t>ROP</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>JD</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>DHI</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ROP</t>
+          <t>EBAY</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>JD</t>
+          <t>MET-PE</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>DHI</t>
+          <t>RKLB</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>EBAY</t>
+          <t>MET-PA</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>RKLB</t>
+          <t>CTSH</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>MET-PA</t>
+          <t>TCOM</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>LVS</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>TCOM</t>
+          <t>AIG</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>LVS</t>
+          <t>IQV</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>AIG</t>
+          <t>RDDT</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>IQV</t>
+          <t>XYZ</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>RDDT</t>
+          <t>HEI-A</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>XYZ</t>
+          <t>GRMN</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>HEI-A</t>
+          <t>NOK</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>GRMN</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>PEG</t>
+          <t>PRU</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>PAYX</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CCI</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>PRU</t>
+          <t>KDP</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>MDLN</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>CCI</t>
+          <t>FICO</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>KDP</t>
+          <t>FMX</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>MDLN</t>
+          <t>VEEV</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>FICO</t>
+          <t>GEHC</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>FMX</t>
+          <t>FISV</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>VEEV</t>
+          <t>TEAM</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>GEHC</t>
+          <t>CPNG</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>FISV</t>
+          <t>OTIS</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>TEAM</t>
+          <t>CLS</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>CPNG</t>
+          <t>SYM</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>OTIS</t>
+          <t>APO-PA</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>CLS</t>
+          <t>XYL</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>SYM</t>
+          <t>UAL</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>APO-PA</t>
+          <t>SATS</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>XYL</t>
+          <t>ZS</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>UAL</t>
+          <t>INSM</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>SATS</t>
+          <t>NTRA</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>KMB</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>INSM</t>
+          <t>RJF</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>NTRA</t>
+          <t>MDB</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>EXPE</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>RJF</t>
+          <t>UI</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>MDB</t>
+          <t>DG</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>EXPE</t>
+          <t>PSA-PK</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>UI</t>
+          <t>ALL-PH</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>DG</t>
+          <t>SOFI</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>PSA-PK</t>
+          <t>ALL-PB</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ALL-PH</t>
+          <t>HUM</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>SOFI</t>
+          <t>WTW</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ALL-PB</t>
+          <t>EXR</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>HUM</t>
+          <t>FIS</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>WTW</t>
+          <t>VRSK</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>EXR</t>
+          <t>QSR</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>FIS</t>
+          <t>FLUT</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>VICI</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>QSR</t>
+          <t>AMRZ</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>FLUT</t>
+          <t>ULTA</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>VICI</t>
+          <t>MTD</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>AMRZ</t>
+          <t>TSCO</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>ULTA</t>
+          <t>NRG</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>MTD</t>
+          <t>SYF</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>TSCO</t>
+          <t>LPLA</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>HPE</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>SYF</t>
+          <t>TME</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>LPLA</t>
+          <t>DOV</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>HPE</t>
+          <t>CBOE</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>TME</t>
+          <t>STLA</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>DOV</t>
+          <t>CSGP</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>PHG</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>STLA</t>
+          <t>ALAB</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>CSGP</t>
+          <t>PAAS</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>PHG</t>
+          <t>WIT</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ALAB</t>
+          <t>LEN</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>PAAS</t>
+          <t>HBAN</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>WIT</t>
+          <t>ATO</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>LEN</t>
+          <t>BRO</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>HBAN</t>
+          <t>NMR</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ATO</t>
+          <t>LEN-B</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>BRO</t>
+          <t>EFX</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>NMR</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>LEN-B</t>
+          <t>TPR</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>EFX</t>
+          <t>FSLR</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>JBL</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>TPR</t>
+          <t>MKL</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>DLTR</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>JBL</t>
+          <t>AWK</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>MKL</t>
+          <t>OMC</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>AER</t>
+          <t>STM</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>WRB</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>AWK</t>
+          <t>AVB</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>OMC</t>
+          <t>VLTO</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>STM</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>WRB</t>
+          <t>DLR-PK</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>AVB</t>
+          <t>FCNCA</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>VLTO</t>
+          <t>PHM</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>GFS</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>DLR-PK</t>
+          <t>RGLD</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>FCNCA</t>
+          <t>BR</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>PHM</t>
+          <t>LDOS</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>GFS</t>
+          <t>PSTG</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>RGLD</t>
+          <t>SQM</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FLEX</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>LDOS</t>
+          <t>AXIA-PC</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>PSTG</t>
+          <t>ILMN</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>SQM</t>
+          <t>VRSN</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>FLEX</t>
+          <t>TPG</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>AXIA-PC</t>
+          <t>WAT</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ILMN</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>VRSN</t>
+          <t>CRDO</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>TPG</t>
+          <t>NBIS</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>CPAY</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>LULU</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>CRDO</t>
+          <t>DRI</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>NBIS</t>
+          <t>OWL</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>CPAY</t>
+          <t>CNC</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>IP</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>DRI</t>
+          <t>FUTU</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>OWL</t>
+          <t>AFRM</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>CNC</t>
+          <t>SW</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>DLR-PJ</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>FUTU</t>
+          <t>TLK</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>AFRM</t>
+          <t>CYBR</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>FWONK</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>DLR-PJ</t>
+          <t>ALB</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>TLK</t>
+          <t>PSLV</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>CYBR</t>
+          <t>FWONA</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>FWONK</t>
+          <t>CG</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ALB</t>
+          <t>RL</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>PSLV</t>
+          <t>UTHR</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>FWONA</t>
+          <t>GPN</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>KOF</t>
+          <t>AS</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>SSNC</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>RL</t>
+          <t>GMAB</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>UTHR</t>
+          <t>TWLO</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>GPN</t>
+          <t>IHG</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>SSNC</t>
+          <t>INCY</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>CTRA</t>
+          <t>HL</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>GMAB</t>
+          <t>SBAC</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>TWLO</t>
+          <t>WWD</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>IHG</t>
+          <t>CHKP</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>PTC</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>INCY</t>
+          <t>NTAP</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>TOST</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>SBAC</t>
+          <t>JBHT</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>WWD</t>
+          <t>SGI</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>CHKP</t>
+          <t>GIB</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>RIVN</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>NTAP</t>
+          <t>PODD</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>TOST</t>
+          <t>TYL</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>JBHT</t>
+          <t>IFF</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>SGI</t>
+          <t>RVMD</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>GIB</t>
+          <t>KTOS</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>RIVN</t>
+          <t>HIG-PG</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>PODD</t>
+          <t>GRAB</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>TYL</t>
+          <t>IOT</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>IFF</t>
+          <t>FTV</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>RVMD</t>
+          <t>BURL</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>KTOS</t>
+          <t>PHYS</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>HIG-PG</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>GRAB</t>
+          <t>SMCI</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>DKS</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>FTV</t>
+          <t>HPQ</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>CX</t>
+          <t>CRCL</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>BURL</t>
+          <t>LII</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>PHYS</t>
+          <t>FITBI</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>XPEV</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>SMCI</t>
+          <t>IT</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>DKS</t>
+          <t>PSNYW</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>HPQ</t>
+          <t>AGI</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>CRCL</t>
+          <t>ALLY</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>LII</t>
+          <t>PNR</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>FITBI</t>
+          <t>PINS</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>XPEV</t>
+          <t>ESS</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SN</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>PSNYW</t>
+          <t>CRS</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>AGI</t>
+          <t>WST</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>ALLY</t>
+          <t>HUBS</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>ZBH</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>PINS</t>
+          <t>LNT</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>ESS</t>
+          <t>LI</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>ZG</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>CRS</t>
+          <t>ATI</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>TRMB</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>HUBS</t>
+          <t>MEDP</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>ZBH</t>
+          <t>QXO</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>LNT</t>
+          <t>TXT</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>LI</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>HOLX</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>ATI</t>
+          <t>THC</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>APTV</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>MEDP</t>
+          <t>TKO</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>QXO</t>
+          <t>CDW</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>RTO</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>TRU</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>HOLX</t>
+          <t>TTD</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>THC</t>
+          <t>INVH</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>APTV</t>
+          <t>LYB</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>TKO</t>
+          <t>MKC</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>CDE</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>RTO</t>
+          <t>NLY</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>MKC-V</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>INVH</t>
+          <t>MAA</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>MKC</t>
+          <t>OKTA</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>CDE</t>
+          <t>COO</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>NLY</t>
+          <t>TLN</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>GFL</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>MKC-V</t>
+          <t>WMG</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>MAA</t>
+          <t>KSPI</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>OKTA</t>
+          <t>ROKU</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>COO</t>
+          <t>ROIV</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>TLN</t>
+          <t>GEN</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>GFL</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>WMG</t>
+          <t>HTHT</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>KSPI</t>
+          <t>IONQ</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>ROKU</t>
+          <t>ONON</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>ROIV</t>
+          <t>DKNG</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>GEN</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>AVAV</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>HTHT</t>
+          <t>MGA</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>KEY-PI</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>ONON</t>
+          <t>CSL</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>DKNG</t>
+          <t>HMY</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>ULS</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>AVAV</t>
+          <t>GDDY</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>MGA</t>
+          <t>ARCC</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>KEY-PI</t>
+          <t>ICLR</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>CSL</t>
+          <t>FIG</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>HMY</t>
+          <t>RGC</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>ULS</t>
+          <t>PNFP</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>GDDY</t>
+          <t>MAS</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>ARCC</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>ICLR</t>
+          <t>JHX</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>FIG</t>
+          <t>EVR</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>RGC</t>
+          <t>CELH</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>PNFP</t>
+          <t>BBY</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>MAS</t>
+          <t>SBSW</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>LOGI</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>JHX</t>
+          <t>EQH</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>EVR</t>
+          <t>RPM</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>CELH</t>
+          <t>GWRE</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>BBY</t>
+          <t>SOLV</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>SBSW</t>
+          <t>RBRK</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>LOGI</t>
+          <t>FIGR</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>EQH</t>
+          <t>NLY-PG</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>RPM</t>
+          <t>BLD</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>GWRE</t>
+          <t>NLY-PF</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>SOLV</t>
+          <t>AMH</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>RBRK</t>
+          <t>NBIX</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>FIGR</t>
+          <t>OHI</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>NLY-PG</t>
+          <t>RVTY</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>JKHY</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>NLY-PF</t>
+          <t>RYAN</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>AMH</t>
+          <t>BLDR</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>NBIX</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>OHI</t>
+          <t>PSKY</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>RVTY</t>
+          <t>UHS</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>JKHY</t>
+          <t>CHWY</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>RYAN</t>
+          <t>LAMR</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>UNM</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>SNAP</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>PSKY</t>
+          <t>JEF</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>UHS</t>
+          <t>BNT</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>CHWY</t>
+          <t>BJ</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>LAMR</t>
+          <t>OKLO</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>UNM</t>
+          <t>HLI</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>SNAP</t>
+          <t>GLPI</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>JEF</t>
+          <t>EQX</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>BNT</t>
+          <t>IVZ</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>BJ</t>
+          <t>ACM</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>OKLO</t>
+          <t>SWK</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>HLI</t>
+          <t>AGNC</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>GLPI</t>
+          <t>BMNR</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>EQX</t>
+          <t>GLXY</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>IVZ</t>
+          <t>AG</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>GMED</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>SWK</t>
+          <t>AMKR</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>AGNC</t>
+          <t>IAG</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>BMNR</t>
+          <t>DT</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>GLXY</t>
+          <t>ZBRA</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>AG</t>
+          <t>TXRH</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>GMED</t>
+          <t>DOC</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>AMKR</t>
+          <t>SMMT</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>IAG</t>
+          <t>EPAM</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>ALGN</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>ZBRA</t>
+          <t>JOBY</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>TXRH</t>
+          <t>SUZ</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>CR</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>SMMT</t>
+          <t>CMA</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>TEM</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>ALGN</t>
+          <t>WMS</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>JOBY</t>
+          <t>WYNN</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>SUZ</t>
+          <t>EXEL</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>NTNX</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>CMA</t>
+          <t>BSY</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>TEM</t>
+          <t>NIO</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>WMS</t>
+          <t>RDY</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>WYNN</t>
+          <t>DOCU</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>EXEL</t>
+          <t>BXP</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>NTNX</t>
+          <t>LSCC</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>BSY</t>
+          <t>STN</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>NIO</t>
+          <t>CEF</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>RDY</t>
+          <t>MDGL</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>DOCU</t>
+          <t>BAH</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>BXP</t>
+          <t>MICC</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>LSCC</t>
+          <t>CNM</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>STN</t>
+          <t>MP</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>CEF</t>
+          <t>WTRG</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>MDGL</t>
+          <t>DAY</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>SARO</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>MICC</t>
+          <t>CRL</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>CNM</t>
+          <t>BMRN</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>MP</t>
+          <t>MOH</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>WTRG</t>
+          <t>WLK</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>SARO</t>
+          <t>SPXC</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>MANH</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>BMRN</t>
+          <t>FDS</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>MOH</t>
+          <t>AFG</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>WLK</t>
+          <t>CART</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>SPXC</t>
+          <t>AIT</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>MANH</t>
+          <t>PAG</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>FDS</t>
+          <t>TECH</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>CAE</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>CART</t>
+          <t>YMM</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>AIT</t>
+          <t>BWA</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>PAG</t>
+          <t>ENSG</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>TECH</t>
+          <t>OC</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>CAE</t>
+          <t>PCOR</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>YMM</t>
+          <t>KLAR</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>BWA</t>
+          <t>ARMK</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>ENSG</t>
+          <t>APLD</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>JAZZ</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>PCOR</t>
+          <t>CHYM</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>KLAR</t>
+          <t>SAIL</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>ARMK</t>
+          <t>SANM</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>APLD</t>
+          <t>BVN</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>JAZZ</t>
+          <t>NGD</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>CHYM</t>
+          <t>POOL</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>OSK</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>SANM</t>
+          <t>EHC</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>BVN</t>
+          <t>ALV</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>NGD</t>
+          <t>SOLS</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>POOL</t>
+          <t>ARE</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>OSK</t>
+          <t>TAP</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>EHC</t>
+          <t>DDS</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>ALV</t>
+          <t>BROS</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>SOLS</t>
+          <t>AAL</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>ORI</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>TAP</t>
+          <t>AYI</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>DDS</t>
+          <t>ABVX</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>BROS</t>
+          <t>EGP</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>AAL</t>
+          <t>ACI</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>ORI</t>
+          <t>HSIC</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>AYI</t>
+          <t>KNSL</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>ABVX</t>
+          <t>IESC</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>EGP</t>
+          <t>MGM</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>ACI</t>
+          <t>UWMC</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>HSIC</t>
+          <t>SAIA</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>KNSL</t>
+          <t>RGEN</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>IESC</t>
+          <t>DOX</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>KNX</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>UWMC</t>
+          <t>STEP</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>SAIA</t>
+          <t>LINE</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>RGEN</t>
+          <t>SWKS</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>DOX</t>
+          <t>TFII</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>KNX</t>
+          <t>MORN</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>STEP</t>
+          <t>QBTS</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>TTAN</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>SWKS</t>
+          <t>RZB</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>TFII</t>
+          <t>FRT</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>MORN</t>
+          <t>AGNCM</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>QBTS</t>
+          <t>AGNCN</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>TTAN</t>
+          <t>PEGA</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>RZB</t>
+          <t>CUBE</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>FRT</t>
+          <t>AHR</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>AGNCM</t>
+          <t>VIPS</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>AGNCN</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>PEGA</t>
+          <t>AUR</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>CUBE</t>
+          <t>PL</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>AHR</t>
+          <t>LEVI</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
-        <is>
-          <t>VIPS</t>
-        </is>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>OR</t>
-        </is>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="inlineStr">
-        <is>
-          <t>AUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>LEVI</t>
-        </is>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="inlineStr">
         <is>
           <t>ADC</t>
         </is>

--- a/scan_skipped.xlsx
+++ b/scan_skipped.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A532"/>
+  <dimension ref="A1:A520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,3652 +494,3568 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BAC</t>
+          <t>PLTR</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>NFLX</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>JPM-PD</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>JPM-PC</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>UNH</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>JPM-PD</t>
+          <t>BAC-PK</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>JPM-PC</t>
+          <t>GE</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>BAC-PL</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BAC-PK</t>
+          <t>NVO</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>SAP</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BAC-PL</t>
+          <t>BML-PL</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AZN</t>
+          <t>BAC-PB</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>AXP</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BAC-PB</t>
+          <t>RY</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>TMO</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RY</t>
+          <t>CRM</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>KLAC</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CRM</t>
+          <t>WFC-PY</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>KLAC</t>
+          <t>DIS</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>WFC-PY</t>
+          <t>BA</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>WFC-PL</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>WFC-PL</t>
+          <t>APH</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>ISRG</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ISRG</t>
+          <t>ABT</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>BX</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BX</t>
+          <t>APP</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>SHOP</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SHOP</t>
+          <t>ACN</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TD</t>
+          <t>UBER</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>DHR</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>TJX</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>DHR</t>
+          <t>BKNG</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TJX</t>
+          <t>QCOM</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>HDB</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>SPGI</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HDB</t>
+          <t>INTU</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SPGI</t>
+          <t>PDD</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>NOW</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>UBS</t>
+          <t>COF</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PDD</t>
+          <t>BSX</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>NEM</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>COF</t>
+          <t>SONY</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BSX</t>
+          <t>PANW</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>NEM</t>
+          <t>ADBE</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SONY</t>
+          <t>PGR</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>ARM</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>CRWD</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PGR</t>
+          <t>KKR</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>SBUX</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>AEM</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SNY</t>
+          <t>CVS</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>BN</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SBUX</t>
+          <t>SPOT</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>AEM</t>
+          <t>ADP</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>IBN</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BN</t>
+          <t>CEG</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SPOT</t>
+          <t>CVNA</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>GD</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>IBN</t>
+          <t>SNPS</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>HOOD</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CVNA</t>
+          <t>NKE</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>MCO</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SNPS</t>
+          <t>WM</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>DASH</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>CDNS</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>WM</t>
+          <t>HWM</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>NTES</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>ELV</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>MMM</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>HWM</t>
+          <t>MS-PK</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>AMT</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>NTES</t>
+          <t>BAM</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ELV</t>
+          <t>MS-PI</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>ABNB</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MS-PK</t>
+          <t>MS-PF</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BAM</t>
+          <t>MS-PE</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>MS-PI</t>
+          <t>CTAS</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>CRH</t>
+          <t>DELL</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ABNB</t>
+          <t>APO</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>REGN</t>
+          <t>INFY</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>MS-PF</t>
+          <t>CI</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>MS-PE</t>
+          <t>SE</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CTAS</t>
+          <t>SNOW</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>RELX</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>APO</t>
+          <t>MRVL</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>WBD</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>WPM</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>TEL</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SNOW</t>
+          <t>NET</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>RELX</t>
+          <t>AJG</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>CNI</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>AMX</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>WPM</t>
+          <t>DUK-PA</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>RACE</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>RKT</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>AJG</t>
+          <t>CTA-PB</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CNI</t>
+          <t>URI</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>AMX</t>
+          <t>NXPI</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>DUK-PA</t>
+          <t>ADSK</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>RACE</t>
+          <t>COIN</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>RKT</t>
+          <t>VLO</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>CTA-PB</t>
+          <t>NDAQ</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>URI</t>
+          <t>SRE</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>NXPI</t>
+          <t>IDXX</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ADSK</t>
+          <t>TRI</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>COIN</t>
+          <t>AU</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>PYPL</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>NDAQ</t>
+          <t>VST</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>CMG</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>IDXX</t>
+          <t>RBLX</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>TRI</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>EA</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>SCHW-PD</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>WDAY</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>CMG</t>
+          <t>FNV</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>RBLX</t>
+          <t>EW</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ALL</t>
+          <t>GFI</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ARES</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SCHW-PD</t>
+          <t>CRWV</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>WDAY</t>
+          <t>PSA</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>FNV</t>
+          <t>OKE</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>EW</t>
+          <t>AXON</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>GFI</t>
+          <t>DDOG</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ARES</t>
+          <t>ALNY</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>PSA</t>
+          <t>CTA-PA</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>AXON</t>
+          <t>HEI</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>MSTR</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ALNY</t>
+          <t>KGC</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>CTA-PA</t>
+          <t>TTWO</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>HEI</t>
+          <t>SPG-PJ</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>EXC</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>KGC</t>
+          <t>XEL</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>TTWO</t>
+          <t>WCN</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SPG-PJ</t>
+          <t>ROP</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>JD</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>DHI</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ROP</t>
+          <t>RKLB</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>JD</t>
+          <t>MET-PA</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>DHI</t>
+          <t>CTSH</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>EBAY</t>
+          <t>TCOM</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>MET-PE</t>
+          <t>LVS</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>RKLB</t>
+          <t>AIG</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>MET-PA</t>
+          <t>IQV</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>RDDT</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>TCOM</t>
+          <t>CPRT</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>LVS</t>
+          <t>XYZ</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>AIG</t>
+          <t>HEI-A</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>IQV</t>
+          <t>ALC</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>RDDT</t>
+          <t>GRMN</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>XYZ</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>HEI-A</t>
+          <t>PRU</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>GRMN</t>
+          <t>PAYX</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>CCI</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>KDP</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>PRU</t>
+          <t>MDLN</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>RMD</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>CCI</t>
+          <t>FICO</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>KDP</t>
+          <t>VEEV</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>MDLN</t>
+          <t>GEHC</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>FICO</t>
+          <t>FISV</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>FMX</t>
+          <t>TEAM</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>VEEV</t>
+          <t>CPNG</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>GEHC</t>
+          <t>OTIS</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>FISV</t>
+          <t>CLS</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>TEAM</t>
+          <t>SYM</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>CPNG</t>
+          <t>APO-PA</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>OTIS</t>
+          <t>XYL</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>CLS</t>
+          <t>UAL</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>SYM</t>
+          <t>ZS</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>APO-PA</t>
+          <t>INSM</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>XYL</t>
+          <t>NTRA</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>UAL</t>
+          <t>KMB</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>SATS</t>
+          <t>RJF</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>MDB</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>INSM</t>
+          <t>PCG</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>NTRA</t>
+          <t>EXPE</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>CHT</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>RJF</t>
+          <t>UI</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>MDB</t>
+          <t>DG</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>EXPE</t>
+          <t>PSA-PK</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>UI</t>
+          <t>SOFI</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>DG</t>
+          <t>ALL-PB</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>PSA-PK</t>
+          <t>HUM</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ALL-PH</t>
+          <t>WTW</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>SOFI</t>
+          <t>EXR</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ALL-PB</t>
+          <t>FIS</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>HUM</t>
+          <t>VRSK</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>WTW</t>
+          <t>QSR</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>EXR</t>
+          <t>FLUT</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>FIS</t>
+          <t>VICI</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>AMRZ</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>QSR</t>
+          <t>BNTX</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>FLUT</t>
+          <t>MTD</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>VICI</t>
+          <t>TSCO</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>AMRZ</t>
+          <t>NRG</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ULTA</t>
+          <t>SYF</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>MTD</t>
+          <t>HPE</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>TSCO</t>
+          <t>TME</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>CBOE</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>SYF</t>
+          <t>DTE</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>LPLA</t>
+          <t>STLA</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>HPE</t>
+          <t>KHC</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>TME</t>
+          <t>CSGP</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>DOV</t>
+          <t>PHG</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>IRM</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>STLA</t>
+          <t>ALAB</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>CSGP</t>
+          <t>PAAS</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>PHG</t>
+          <t>WIT</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ALAB</t>
+          <t>LEN</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>PAAS</t>
+          <t>ATO</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>WIT</t>
+          <t>BRO</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>LEN</t>
+          <t>PPL</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>HBAN</t>
+          <t>NMR</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ATO</t>
+          <t>LEN-B</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>BRO</t>
+          <t>EFX</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>NMR</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>LEN-B</t>
+          <t>TPR</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>EFX</t>
+          <t>FSLR</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MKL</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>TPR</t>
+          <t>DLTR</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>AWK</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>JBL</t>
+          <t>OMC</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>MKL</t>
+          <t>WRB</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>AVB</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>AWK</t>
+          <t>VLTO</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>OMC</t>
+          <t>DLR-PK</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>STM</t>
+          <t>FCNCA</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>WRB</t>
+          <t>PHM</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>AVB</t>
+          <t>RGLD</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>VLTO</t>
+          <t>BR</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>LDOS</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>DLR-PK</t>
+          <t>PSTG</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>FCNCA</t>
+          <t>SQM</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>PHM</t>
+          <t>AXIA-PC</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>GFS</t>
+          <t>ILMN</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>RGLD</t>
+          <t>VRSN</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TPG</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>LDOS</t>
+          <t>WAT</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>PSTG</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>SQM</t>
+          <t>CRDO</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>FLEX</t>
+          <t>NBIS</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>AXIA-PC</t>
+          <t>CPAY</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ILMN</t>
+          <t>LULU</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>VRSN</t>
+          <t>DRI</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>TPG</t>
+          <t>OWL</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>CNC</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>IP</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>CRDO</t>
+          <t>FUTU</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>NBIS</t>
+          <t>AFRM</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>CPAY</t>
+          <t>SW</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>DLR-PJ</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>DRI</t>
+          <t>TLK</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>OWL</t>
+          <t>CYBR</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>CNC</t>
+          <t>FWONK</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>ALB</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>FUTU</t>
+          <t>PSLV</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>AFRM</t>
+          <t>FWONA</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>CG</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>DLR-PJ</t>
+          <t>RL</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>TLK</t>
+          <t>CMS</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>CYBR</t>
+          <t>UTHR</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>FWONK</t>
+          <t>GPN</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>ALB</t>
+          <t>AS</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>PSLV</t>
+          <t>SSNC</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>FWONA</t>
+          <t>GMAB</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>TWLO</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>RL</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>UTHR</t>
+          <t>INCY</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>GPN</t>
+          <t>HL</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>SBAC</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>SSNC</t>
+          <t>WWD</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>GMAB</t>
+          <t>CHKP</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>TWLO</t>
+          <t>PTC</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>IHG</t>
+          <t>NTAP</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>TOST</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>INCY</t>
+          <t>SGI</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>GIB</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>SBAC</t>
+          <t>RIVN</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>WWD</t>
+          <t>PODD</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>CHKP</t>
+          <t>TYL</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>IFF</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>NTAP</t>
+          <t>RVMD</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>TOST</t>
+          <t>KTOS</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>JBHT</t>
+          <t>HIG-PG</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>SGI</t>
+          <t>GRAB</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>GIB</t>
+          <t>IOT</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>RIVN</t>
+          <t>FTV</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>PODD</t>
+          <t>BURL</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>TYL</t>
+          <t>PHYS</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>IFF</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>RVMD</t>
+          <t>SMCI</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>KTOS</t>
+          <t>DKS</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>HIG-PG</t>
+          <t>HPQ</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>GRAB</t>
+          <t>CRCL</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>LII</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>FTV</t>
+          <t>FITBI</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>BURL</t>
+          <t>XPEV</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>PHYS</t>
+          <t>IT</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>PSNYW</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>SMCI</t>
+          <t>AGI</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>DKS</t>
+          <t>ALLY</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>HPQ</t>
+          <t>PINS</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>CRCL</t>
+          <t>ESS</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>LII</t>
+          <t>SN</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>FITBI</t>
+          <t>CRS</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>XPEV</t>
+          <t>WST</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>HUBS</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>PSNYW</t>
+          <t>ZBH</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>AGI</t>
+          <t>LNT</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>ALLY</t>
+          <t>IREN</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>LI</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>PINS</t>
+          <t>ZG</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>ESS</t>
+          <t>TRMB</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>MEDP</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>CRS</t>
+          <t>QXO</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>TXT</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>HUBS</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ZBH</t>
+          <t>HOLX</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>LNT</t>
+          <t>THC</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>LI</t>
+          <t>APTV</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>TKO</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>ATI</t>
+          <t>CDW</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>RTO</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>MEDP</t>
+          <t>WES</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>QXO</t>
+          <t>TRU</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>TTD</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>INVH</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>HOLX</t>
+          <t>MKC</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>THC</t>
+          <t>CDE</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>APTV</t>
+          <t>NLY</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>TKO</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>MKC-V</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>RTO</t>
+          <t>MAA</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>OKTA</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>COO</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>INVH</t>
+          <t>TLN</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>LYB</t>
+          <t>GFL</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>MKC</t>
+          <t>WMG</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>CDE</t>
+          <t>KSPI</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>NLY</t>
+          <t>ROKU</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>ROIV</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>MKC-V</t>
+          <t>GEN</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>MAA</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>OKTA</t>
+          <t>HTHT</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>COO</t>
+          <t>IONQ</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>TLN</t>
+          <t>ONON</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>GFL</t>
+          <t>DKNG</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>WMG</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>KSPI</t>
+          <t>AVAV</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>ROKU</t>
+          <t>MGA</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>ROIV</t>
+          <t>KEY-PI</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>GEN</t>
+          <t>EMA</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>CSL</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>HTHT</t>
+          <t>HMY</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>ULS</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>ONON</t>
+          <t>GDDY</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>DKNG</t>
+          <t>ARCC</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>ICLR</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>AVAV</t>
+          <t>FIG</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>MGA</t>
+          <t>RGC</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>KEY-PI</t>
+          <t>MAS</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>CSL</t>
+          <t>RF-PC</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>HMY</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>ULS</t>
+          <t>JHX</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>GDDY</t>
+          <t>EVR</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>ARCC</t>
+          <t>CELH</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>ICLR</t>
+          <t>DPZ</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>FIG</t>
+          <t>BBY</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>RGC</t>
+          <t>EMBJ</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>PNFP</t>
+          <t>SBSW</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>MAS</t>
+          <t>LOGI</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>EQH</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>JHX</t>
+          <t>GWRE</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>EVR</t>
+          <t>SOLV</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>CELH</t>
+          <t>RBRK</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>BBY</t>
+          <t>FIGR</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>SBSW</t>
+          <t>NLY-PG</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>LOGI</t>
+          <t>BLD</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>EQH</t>
+          <t>NLY-PF</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>RPM</t>
+          <t>AMH</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>GWRE</t>
+          <t>NBIX</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>SOLV</t>
+          <t>OHI</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>RBRK</t>
+          <t>RVTY</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>FIGR</t>
+          <t>JKHY</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>NLY-PG</t>
+          <t>RYAN</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>BLDR</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>NLY-PF</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>AMH</t>
+          <t>PSKY</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>NBIX</t>
+          <t>UHS</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>OHI</t>
+          <t>CHWY</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>RVTY</t>
+          <t>LAMR</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>JKHY</t>
+          <t>UNM</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>RYAN</t>
+          <t>SNAP</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>JEF</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>FMS</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>PSKY</t>
+          <t>BNT</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>UHS</t>
+          <t>BJ</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>CHWY</t>
+          <t>OKLO</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>LAMR</t>
+          <t>HLI</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>UNM</t>
+          <t>BF-A</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>SNAP</t>
+          <t>GLPI</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>JEF</t>
+          <t>EQX</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>BNT</t>
+          <t>IVZ</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>BJ</t>
+          <t>ACM</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>OKLO</t>
+          <t>BF-B</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>HLI</t>
+          <t>SWK</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>GLPI</t>
+          <t>AGNC</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>EQX</t>
+          <t>BMNR</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>IVZ</t>
+          <t>GLXY</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>AG</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>SWK</t>
+          <t>GMED</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>AGNC</t>
+          <t>IAG</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>BMNR</t>
+          <t>DT</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>GLXY</t>
+          <t>ZBRA</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>AG</t>
+          <t>TXRH</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>GMED</t>
+          <t>DOC</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>AMKR</t>
+          <t>SMMT</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>IAG</t>
+          <t>ALGN</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>JOBY</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>ZBRA</t>
+          <t>SUZ</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>TXRH</t>
+          <t>CR</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>CMA</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>SMMT</t>
+          <t>TEM</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>WMS</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>ALGN</t>
+          <t>WYNN</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>JOBY</t>
+          <t>EXEL</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>SUZ</t>
+          <t>NTNX</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>BSY</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>CMA</t>
+          <t>NIO</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>TEM</t>
+          <t>RDY</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>WMS</t>
+          <t>DOCU</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>WYNN</t>
+          <t>BXP</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>EXEL</t>
+          <t>CEF</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>NTNX</t>
+          <t>MDGL</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>BSY</t>
+          <t>BAH</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>NIO</t>
+          <t>SCI</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>RDY</t>
+          <t>MICC</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>DOCU</t>
+          <t>CNM</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>BXP</t>
+          <t>MP</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>LSCC</t>
+          <t>WTRG</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>STN</t>
+          <t>DAY</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>CEF</t>
+          <t>SARO</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>MDGL</t>
+          <t>CRL</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>AR</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>MICC</t>
+          <t>MOH</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>CNM</t>
+          <t>SPXC</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>MP</t>
+          <t>MANH</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>WTRG</t>
+          <t>FDS</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>DAY</t>
+          <t>AFG</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>SARO</t>
+          <t>CART</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>AIT</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>BMRN</t>
+          <t>PAG</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>MOH</t>
+          <t>TECH</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>WLK</t>
+          <t>CAE</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>SPXC</t>
+          <t>YMM</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>MANH</t>
+          <t>ENSG</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>FDS</t>
+          <t>PCOR</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>KLAR</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>CART</t>
+          <t>ARMK</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>AIT</t>
+          <t>APLD</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>PAG</t>
+          <t>CHYM</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>TECH</t>
+          <t>SAIL</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>CAE</t>
+          <t>SANM</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>YMM</t>
+          <t>BVN</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>BWA</t>
+          <t>NGD</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>ENSG</t>
+          <t>POOL</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>VNO-PM</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>PCOR</t>
+          <t>EHC</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>KLAR</t>
+          <t>ALV</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>ARMK</t>
+          <t>SOLS</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>APLD</t>
+          <t>ARE</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>JAZZ</t>
+          <t>EGO</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>CHYM</t>
+          <t>TAP</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>DDS</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>SANM</t>
+          <t>BROS</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>BVN</t>
+          <t>AAL</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>NGD</t>
+          <t>ORI</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>POOL</t>
+          <t>AYI</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>OSK</t>
+          <t>ABVX</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>EHC</t>
+          <t>ACI</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>ALV</t>
+          <t>HSIC</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>SOLS</t>
+          <t>KNSL</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>IESC</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>TAP</t>
+          <t>MGM</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>DDS</t>
+          <t>UWMC</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>BROS</t>
+          <t>RGEN</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>AAL</t>
+          <t>DOX</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>ORI</t>
+          <t>STEP</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>AYI</t>
+          <t>LINE</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>ABVX</t>
+          <t>SWKS</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>EGP</t>
+          <t>OGE</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>ACI</t>
+          <t>MORN</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>HSIC</t>
+          <t>UEC</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>KNSL</t>
+          <t>QBTS</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>IESC</t>
+          <t>TTAN</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>RZB</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>UWMC</t>
+          <t>FRT</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>SAIA</t>
+          <t>AGNCM</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>RGEN</t>
+          <t>AGNCN</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>DOX</t>
+          <t>LKQ</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>KNX</t>
+          <t>PEGA</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>STEP</t>
+          <t>CUBE</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>AHR</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>SWKS</t>
+          <t>VIPS</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>TFII</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>MORN</t>
+          <t>AUR</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>QBTS</t>
+          <t>PL</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>TTAN</t>
+          <t>LEVI</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
-        <is>
-          <t>RZB</t>
-        </is>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>FRT</t>
-        </is>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>AGNCM</t>
-        </is>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>AGNCN</t>
-        </is>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>PEGA</t>
-        </is>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>CUBE</t>
-        </is>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>AHR</t>
-        </is>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>VIPS</t>
-        </is>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>OR</t>
-        </is>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="inlineStr">
-        <is>
-          <t>AUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>LEVI</t>
-        </is>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="inlineStr">
         <is>
           <t>ADC</t>
         </is>

--- a/scan_skipped.xlsx
+++ b/scan_skipped.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A520"/>
+  <dimension ref="A1:A521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,462 +550,462 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NVO</t>
+          <t>SAP</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>BAC-PE</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BML-PL</t>
+          <t>BAC-PB</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BAC-PB</t>
+          <t>AXP</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>TMO</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>RY</t>
+          <t>CRM</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>KLAC</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CRM</t>
+          <t>WFC-PY</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>KLAC</t>
+          <t>DIS</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>WFC-PY</t>
+          <t>BA</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>WFC-PL</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>APH</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>WFC-PL</t>
+          <t>ISRG</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>ABT</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ISRG</t>
+          <t>BX</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>APP</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BX</t>
+          <t>SHOP</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>ACN</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SHOP</t>
+          <t>UBER</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>DHR</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>TJX</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>DHR</t>
+          <t>BKNG</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TJX</t>
+          <t>QCOM</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>HDB</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>SPGI</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HDB</t>
+          <t>INTU</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SPGI</t>
+          <t>LOW</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>PDD</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PDD</t>
+          <t>NOW</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>COF</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>COF</t>
+          <t>BSX</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BSX</t>
+          <t>NEM</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>NEM</t>
+          <t>SONY</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SONY</t>
+          <t>PANW</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>ADBE</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>PGR</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PGR</t>
+          <t>ARM</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>CRWD</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>KKR</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>SBUX</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SBUX</t>
+          <t>AEM</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>AEM</t>
+          <t>CVS</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>BN</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BN</t>
+          <t>SPOT</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SPOT</t>
+          <t>ADP</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>IBN</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>IBN</t>
+          <t>CEG</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>CVNA</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CVNA</t>
+          <t>GD</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>SNPS</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SNPS</t>
+          <t>HOOD</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>NKE</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>MCO</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>WM</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>WM</t>
+          <t>DASH</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>CDNS</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>HWM</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>HWM</t>
+          <t>NTES</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>NTES</t>
+          <t>ELV</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ELV</t>
+          <t>MMM</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>MS-PK</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MS-PK</t>
+          <t>AMT</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>AMT</t>
+          <t>BAM</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BAM</t>
+          <t>MS-PI</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MS-PI</t>
+          <t>CRH</t>
         </is>
       </c>
     </row>
@@ -1019,2282 +1019,2282 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MS-PF</t>
+          <t>REGN</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>MS-PE</t>
+          <t>MS-PF</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>CTAS</t>
+          <t>MS-PE</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>CTAS</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>APO</t>
+          <t>DELL</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>APO</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>INFY</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>CI</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SNOW</t>
+          <t>SE</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>RELX</t>
+          <t>SNOW</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>RELX</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>MRVL</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>WPM</t>
+          <t>WBD</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>WPM</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>TEL</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>AJG</t>
+          <t>NET</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CNI</t>
+          <t>LHX</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>AMX</t>
+          <t>AJG</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>DUK-PA</t>
+          <t>NSC</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>RACE</t>
+          <t>CNI</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>RKT</t>
+          <t>AMX</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CTA-PB</t>
+          <t>DUK-PA</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>URI</t>
+          <t>RACE</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>NXPI</t>
+          <t>RKT</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ADSK</t>
+          <t>CTA-PB</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>COIN</t>
+          <t>URI</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>NXPI</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>NDAQ</t>
+          <t>ADSK</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>COIN</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>IDXX</t>
+          <t>VLO</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>TRI</t>
+          <t>NDAQ</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>SRE</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>IDXX</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>TRI</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>CMG</t>
+          <t>ZTS</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>RBLX</t>
+          <t>AU</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>BIDU</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>PYPL</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SCHW-PD</t>
+          <t>VST</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>WDAY</t>
+          <t>CMG</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>FNV</t>
+          <t>RBLX</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>EW</t>
+          <t>EA</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>GFI</t>
+          <t>SCHW-PD</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ARES</t>
+          <t>WDAY</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>CRWV</t>
+          <t>FNV</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>PSA</t>
+          <t>EW</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>OKE</t>
+          <t>GFI</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>AXON</t>
+          <t>ARES</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>CRWV</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ALNY</t>
+          <t>PSA</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>CTA-PA</t>
+          <t>OKE</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>HEI</t>
+          <t>AXON</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>DDOG</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>KGC</t>
+          <t>ALNY</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>TTWO</t>
+          <t>CTA-PA</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SPG-PJ</t>
+          <t>HEI</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>MSTR</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>XEL</t>
+          <t>KGC</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>TTWO</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ROP</t>
+          <t>SPG-PJ</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>JD</t>
+          <t>EXC</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>DHI</t>
+          <t>XEL</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>RKLB</t>
+          <t>WCN</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>MET-PA</t>
+          <t>ROP</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>JD</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>TCOM</t>
+          <t>DHI</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>LVS</t>
+          <t>RKLB</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>AIG</t>
+          <t>KR</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>IQV</t>
+          <t>MET-PA</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>RDDT</t>
+          <t>CTSH</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>CPRT</t>
+          <t>TCOM</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>XYZ</t>
+          <t>LVS</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>HEI-A</t>
+          <t>AIG</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ALC</t>
+          <t>IQV</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>GRMN</t>
+          <t>RDDT</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CPRT</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>PRU</t>
+          <t>XYZ</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>HEI-A</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>CCI</t>
+          <t>ALC</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>KDP</t>
+          <t>GRMN</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>MDLN</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>RMD</t>
+          <t>PAYX</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>FICO</t>
+          <t>CCI</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>VEEV</t>
+          <t>KDP</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>GEHC</t>
+          <t>MDLN</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>FISV</t>
+          <t>RMD</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>TEAM</t>
+          <t>FICO</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>CPNG</t>
+          <t>VEEV</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>OTIS</t>
+          <t>GEHC</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>CLS</t>
+          <t>FISV</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>SYM</t>
+          <t>TEAM</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>APO-PA</t>
+          <t>CPNG</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>XYL</t>
+          <t>OTIS</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>UAL</t>
+          <t>CLS</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>SYM</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>INSM</t>
+          <t>APO-PA</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>NTRA</t>
+          <t>XYL</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>UAL</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>RJF</t>
+          <t>ZS</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>MDB</t>
+          <t>INSM</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>PCG</t>
+          <t>NTRA</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>EXPE</t>
+          <t>KMB</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>CHT</t>
+          <t>RJF</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>UI</t>
+          <t>MDB</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>DG</t>
+          <t>PCG</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>PSA-PK</t>
+          <t>EXPE</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>SOFI</t>
+          <t>CHT</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ALL-PB</t>
+          <t>UI</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>HUM</t>
+          <t>DG</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>WTW</t>
+          <t>PSA-PK</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>EXR</t>
+          <t>SOFI</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>FIS</t>
+          <t>ALL-PB</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>HUM</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>QSR</t>
+          <t>WTW</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>FLUT</t>
+          <t>EXR</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>VICI</t>
+          <t>FIS</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>AMRZ</t>
+          <t>VRSK</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>BNTX</t>
+          <t>QSR</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>MTD</t>
+          <t>FLUT</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>TSCO</t>
+          <t>VICI</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>AMRZ</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>SYF</t>
+          <t>MTD</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>HPE</t>
+          <t>TSCO</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>TME</t>
+          <t>NRG</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>SYF</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>DTE</t>
+          <t>HPE</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>STLA</t>
+          <t>TME</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>KHC</t>
+          <t>CBOE</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>CSGP</t>
+          <t>DTE</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>PHG</t>
+          <t>STLA</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>IRM</t>
+          <t>KHC</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ALAB</t>
+          <t>CSGP</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>PAAS</t>
+          <t>PHG</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>WIT</t>
+          <t>ALAB</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>LEN</t>
+          <t>PAAS</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ATO</t>
+          <t>WIT</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>BRO</t>
+          <t>LEN</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>PPL</t>
+          <t>ATO</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>NMR</t>
+          <t>BRO</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>LEN-B</t>
+          <t>PPL</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>EFX</t>
+          <t>EXE</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>NMR</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>TPR</t>
+          <t>LEN-B</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>EFX</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>MKL</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>TPR</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>AWK</t>
+          <t>FSLR</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>OMC</t>
+          <t>MKL</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>WRB</t>
+          <t>DLTR</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>AVB</t>
+          <t>AWK</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>VLTO</t>
+          <t>OMC</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>DLR-PK</t>
+          <t>WRB</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>FCNCA</t>
+          <t>AVB</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>PHM</t>
+          <t>VLTO</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>RGLD</t>
+          <t>DLR-PK</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>PHM</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>LDOS</t>
+          <t>RGLD</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>PSTG</t>
+          <t>BR</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>SQM</t>
+          <t>LDOS</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>AXIA-PC</t>
+          <t>PSTG</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ILMN</t>
+          <t>SQM</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>VRSN</t>
+          <t>AXIA-PC</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>TPG</t>
+          <t>ILMN</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>VRSN</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>TPG</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>CRDO</t>
+          <t>TROW</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>NBIS</t>
+          <t>WAT</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>CPAY</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>CRDO</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>DRI</t>
+          <t>NBIS</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>OWL</t>
+          <t>CPAY</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>CNC</t>
+          <t>LULU</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>DRI</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>FUTU</t>
+          <t>OWL</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>AFRM</t>
+          <t>CNC</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>IP</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>DLR-PJ</t>
+          <t>FUTU</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>TLK</t>
+          <t>AFRM</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>CYBR</t>
+          <t>DLR-PJ</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>FWONK</t>
+          <t>TLK</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ALB</t>
+          <t>CYBR</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>PSLV</t>
+          <t>FWONK</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>FWONA</t>
+          <t>ALB</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>PSLV</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>RL</t>
+          <t>FWONA</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>CMS</t>
+          <t>CG</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>UTHR</t>
+          <t>RL</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>GPN</t>
+          <t>CMS</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>UTHR</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>SSNC</t>
+          <t>GPN</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>GMAB</t>
+          <t>AS</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>TWLO</t>
+          <t>SSNC</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>GMAB</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>INCY</t>
+          <t>TWLO</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>SBAC</t>
+          <t>INCY</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>WWD</t>
+          <t>HL</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>CHKP</t>
+          <t>SBAC</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>WWD</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>NTAP</t>
+          <t>CHKP</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>TOST</t>
+          <t>PTC</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>SGI</t>
+          <t>NTAP</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>GIB</t>
+          <t>TOST</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>RIVN</t>
+          <t>SGI</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>PODD</t>
+          <t>GIB</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>TYL</t>
+          <t>RIVN</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>IFF</t>
+          <t>PODD</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>RVMD</t>
+          <t>TYL</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>KTOS</t>
+          <t>IFF</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>HIG-PG</t>
+          <t>RVMD</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>GRAB</t>
+          <t>KTOS</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>HIG-PG</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>FTV</t>
+          <t>GRAB</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>BURL</t>
+          <t>IOT</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>PHYS</t>
+          <t>FTV</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>PHYS</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>SMCI</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>DKS</t>
+          <t>SMCI</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>HPQ</t>
+          <t>DKS</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>CRCL</t>
+          <t>HPQ</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>LII</t>
+          <t>CRCL</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>FITBI</t>
+          <t>LII</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>XPEV</t>
+          <t>FITBI</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>XPEV</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>PSNYW</t>
+          <t>IT</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>AGI</t>
+          <t>PSNYW</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>ALLY</t>
+          <t>AGI</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>PINS</t>
+          <t>ALLY</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ESS</t>
+          <t>PNR</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>PINS</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>CRS</t>
+          <t>ESS</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>SN</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>HUBS</t>
+          <t>CRS</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>ZBH</t>
+          <t>WST</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>LNT</t>
+          <t>HUBS</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>IREN</t>
+          <t>ZBH</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>LI</t>
+          <t>LNT</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>IREN</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>LI</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>MEDP</t>
+          <t>ZG</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>QXO</t>
+          <t>ATI</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>TRMB</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>MEDP</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>HOLX</t>
+          <t>QXO</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>THC</t>
+          <t>TXT</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>APTV</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>TKO</t>
+          <t>HOLX</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>THC</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>RTO</t>
+          <t>APTV</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>WES</t>
+          <t>TKO</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>CDW</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>RTO</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>INVH</t>
+          <t>WES</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>MKC</t>
+          <t>TRU</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>CDE</t>
+          <t>TTD</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>NLY</t>
+          <t>INVH</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>MKC</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>MKC-V</t>
+          <t>CDE</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>MAA</t>
+          <t>NLY</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>OKTA</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>COO</t>
+          <t>MKC-V</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>TLN</t>
+          <t>MAA</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>GFL</t>
+          <t>OKTA</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>WMG</t>
+          <t>COO</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>KSPI</t>
+          <t>TLN</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ROKU</t>
+          <t>GFL</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ROIV</t>
+          <t>WMG</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>GEN</t>
+          <t>KSPI</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>ROKU</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>HTHT</t>
+          <t>ROIV</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>GEN</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>ONON</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>DKNG</t>
+          <t>HTHT</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>IONQ</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>AVAV</t>
+          <t>ONON</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>MGA</t>
+          <t>DKNG</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>KEY-PI</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>EMA</t>
+          <t>AVAV</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>CSL</t>
+          <t>MGA</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>HMY</t>
+          <t>KEY-PI</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>ULS</t>
+          <t>EMA</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>GDDY</t>
+          <t>CSL</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>ARCC</t>
+          <t>HMY</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>ICLR</t>
+          <t>ULS</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>FIG</t>
+          <t>GDDY</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>RGC</t>
+          <t>ARCC</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>MAS</t>
+          <t>ICLR</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>RF-PC</t>
+          <t>FIG</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>RGC</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>JHX</t>
+          <t>KRMN</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>EVR</t>
+          <t>MAS</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>CELH</t>
+          <t>RF-PC</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>DPZ</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>BBY</t>
+          <t>CACI</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>EMBJ</t>
+          <t>JHX</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>SBSW</t>
+          <t>EVR</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>LOGI</t>
+          <t>CELH</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>EQH</t>
+          <t>DPZ</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>GWRE</t>
+          <t>BBY</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>SOLV</t>
+          <t>SBSW</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>RBRK</t>
+          <t>LOGI</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>FIGR</t>
+          <t>GWRE</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>NLY-PG</t>
+          <t>SOLV</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>RBRK</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>NLY-PF</t>
+          <t>FIGR</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>AMH</t>
+          <t>NLY-PG</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>NBIX</t>
+          <t>BLD</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>OHI</t>
+          <t>NLY-PF</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>RVTY</t>
+          <t>AMH</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>JKHY</t>
+          <t>NBIX</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>RYAN</t>
+          <t>OHI</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>RVTY</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>JKHY</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>PSKY</t>
+          <t>RYAN</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>UHS</t>
+          <t>BLDR</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>CHWY</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>LAMR</t>
+          <t>PSKY</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>UNM</t>
+          <t>UHS</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>SNAP</t>
+          <t>CHWY</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>JEF</t>
+          <t>UNM</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>FMS</t>
+          <t>SNAP</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>BNT</t>
+          <t>JEF</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>BJ</t>
+          <t>BNT</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>OKLO</t>
+          <t>BJ</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>HLI</t>
+          <t>OKLO</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>BF-A</t>
+          <t>HLI</t>
         </is>
       </c>
     </row>
@@ -3378,684 +3378,691 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>IAG</t>
+          <t>AMKR</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>IAG</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>ZBRA</t>
+          <t>DT</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>TXRH</t>
+          <t>ZBRA</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>TXRH</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>SMMT</t>
+          <t>DOC</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>ALGN</t>
+          <t>SMMT</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>JOBY</t>
+          <t>EPAM</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>SUZ</t>
+          <t>ALGN</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>JOBY</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>CMA</t>
+          <t>SUZ</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>TEM</t>
+          <t>CR</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>WMS</t>
+          <t>CMA</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>WYNN</t>
+          <t>TEM</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>EXEL</t>
+          <t>WYNN</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>NTNX</t>
+          <t>EXEL</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>BSY</t>
+          <t>NTNX</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>NIO</t>
+          <t>BSY</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>RDY</t>
+          <t>NIO</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>DOCU</t>
+          <t>RDY</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>BXP</t>
+          <t>DOCU</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>CEF</t>
+          <t>BXP</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>MDGL</t>
+          <t>CEF</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>MDGL</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>SCI</t>
+          <t>BAH</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>MICC</t>
+          <t>SCI</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>CNM</t>
+          <t>MICC</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>MP</t>
+          <t>CNM</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>WTRG</t>
+          <t>MP</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>DAY</t>
+          <t>WTRG</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>SARO</t>
+          <t>DAY</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>SARO</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CRL</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>MOH</t>
+          <t>AR</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>SPXC</t>
+          <t>MOH</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>MANH</t>
+          <t>SPXC</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>FDS</t>
+          <t>MANH</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>FDS</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>CART</t>
+          <t>AFG</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>AIT</t>
+          <t>CART</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>PAG</t>
+          <t>AIT</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>TECH</t>
+          <t>PAG</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>CAE</t>
+          <t>TECH</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>YMM</t>
+          <t>CAE</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>ENSG</t>
+          <t>YMM</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>PCOR</t>
+          <t>ENSG</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>KLAR</t>
+          <t>PCOR</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>ARMK</t>
+          <t>KLAR</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>APLD</t>
+          <t>ARMK</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>CHYM</t>
+          <t>APLD</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>JAZZ</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>SANM</t>
+          <t>CHYM</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>BVN</t>
+          <t>SAIL</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>NGD</t>
+          <t>SANM</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>POOL</t>
+          <t>BVN</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>VNO-PM</t>
+          <t>NGD</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>EHC</t>
+          <t>POOL</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>ALV</t>
+          <t>VNO-PM</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>SOLS</t>
+          <t>EHC</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>ALV</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>EGO</t>
+          <t>SOLS</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>TAP</t>
+          <t>ARE</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>DDS</t>
+          <t>EGO</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>BROS</t>
+          <t>TAP</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>AAL</t>
+          <t>DDS</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>ORI</t>
+          <t>BROS</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>AYI</t>
+          <t>AAL</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>ABVX</t>
+          <t>ORI</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>ACI</t>
+          <t>AYI</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>HSIC</t>
+          <t>ABVX</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>KNSL</t>
+          <t>ACI</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>IESC</t>
+          <t>HSIC</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>KNSL</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>UWMC</t>
+          <t>IESC</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>RGEN</t>
+          <t>MGM</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>DOX</t>
+          <t>UWMC</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>STEP</t>
+          <t>RGEN</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>DOX</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>SWKS</t>
+          <t>STEP</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>OGE</t>
+          <t>LINE</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>MORN</t>
+          <t>SWKS</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>UEC</t>
+          <t>MORN</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>QBTS</t>
+          <t>UEC</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>TTAN</t>
+          <t>QBTS</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>RZB</t>
+          <t>TTAN</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>FRT</t>
+          <t>RZB</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>AGNCM</t>
+          <t>FRT</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>AGNCN</t>
+          <t>AGNCM</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>LKQ</t>
+          <t>AGNCN</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>PEGA</t>
+          <t>LKQ</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>CUBE</t>
+          <t>PEGA</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>AHR</t>
+          <t>CUBE</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>VIPS</t>
+          <t>AHR</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>VIPS</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>AUR</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>AUR</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>LEVI</t>
+          <t>PL</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
+        <is>
+          <t>LEVI</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
         <is>
           <t>ADC</t>
         </is>

--- a/scan_skipped.xlsx
+++ b/scan_skipped.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A521"/>
+  <dimension ref="A1:A501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,105 +473,105 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LLY</t>
+          <t>V</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>ORCL</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>PLTR</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>NFLX</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>JPM-PD</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>JPM-PD</t>
+          <t>JPM-PC</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>JPM-PC</t>
+          <t>UNH</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>BAC-PK</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BAC-PK</t>
+          <t>GE</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>BAC-PL</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BAC-PL</t>
+          <t>SAP</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>BAC-PE</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BAC-PE</t>
+          <t>BAC-PB</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BAC-PB</t>
+          <t>AXP</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>RY</t>
         </is>
       </c>
     </row>
@@ -711,3358 +711,3218 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HDB</t>
+          <t>SPGI</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SPGI</t>
+          <t>INTU</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>PDD</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>NOW</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PDD</t>
+          <t>COF</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>BSX</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>COF</t>
+          <t>NEM</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BSX</t>
+          <t>SONY</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>NEM</t>
+          <t>PANW</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SONY</t>
+          <t>ADBE</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>PGR</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>ARM</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PGR</t>
+          <t>CRWD</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>KKR</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>SBUX</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>AEM</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SBUX</t>
+          <t>CVS</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>AEM</t>
+          <t>BN</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>SPOT</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BN</t>
+          <t>ADP</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SPOT</t>
+          <t>CEG</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>CVNA</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>IBN</t>
+          <t>GD</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>SNPS</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CVNA</t>
+          <t>HOOD</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>NKE</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SNPS</t>
+          <t>MCO</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>WM</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>DASH</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>CDNS</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>WM</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>HWM</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>NTES</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>ELV</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>HWM</t>
+          <t>MMM</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>NTES</t>
+          <t>MS-PK</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ELV</t>
+          <t>AMT</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>BAM</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MS-PK</t>
+          <t>MS-PI</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>AMT</t>
+          <t>ABNB</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BAM</t>
+          <t>REGN</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MS-PI</t>
+          <t>MS-PF</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>CRH</t>
+          <t>MS-PE</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ABNB</t>
+          <t>CTAS</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>REGN</t>
+          <t>DELL</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>MS-PF</t>
+          <t>APO</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>MS-PE</t>
+          <t>CI</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>CTAS</t>
+          <t>SE</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>SNOW</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>APO</t>
+          <t>RELX</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>MRVL</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>WBD</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>WPM</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SNOW</t>
+          <t>TEL</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>RELX</t>
+          <t>NET</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>AJG</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>NSC</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>WPM</t>
+          <t>CNI</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>DUK-PA</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>RACE</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>LHX</t>
+          <t>RKT</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>AJG</t>
+          <t>CTA-PB</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>NSC</t>
+          <t>URI</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CNI</t>
+          <t>ADSK</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>AMX</t>
+          <t>COIN</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>DUK-PA</t>
+          <t>VLO</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>RACE</t>
+          <t>NDAQ</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>RKT</t>
+          <t>SRE</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>CTA-PB</t>
+          <t>IDXX</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>URI</t>
+          <t>TRI</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>NXPI</t>
+          <t>ZTS</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ADSK</t>
+          <t>AU</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>COIN</t>
+          <t>BIDU</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>PYPL</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>NDAQ</t>
+          <t>VST</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>CMG</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>IDXX</t>
+          <t>RBLX</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>TRI</t>
+          <t>EA</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ZTS</t>
+          <t>SCHW-PD</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>WDAY</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BIDU</t>
+          <t>FNV</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>EW</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>GFI</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>CMG</t>
+          <t>ARES</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>RBLX</t>
+          <t>CRWV</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>PSA</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SCHW-PD</t>
+          <t>AXON</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>WDAY</t>
+          <t>DDOG</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>FNV</t>
+          <t>ALNY</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>EW</t>
+          <t>CTA-PA</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>GFI</t>
+          <t>HEI</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ARES</t>
+          <t>MSTR</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>CRWV</t>
+          <t>KGC</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>PSA</t>
+          <t>TTWO</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>OKE</t>
+          <t>SPG-PJ</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>AXON</t>
+          <t>EXC</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>XEL</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ALNY</t>
+          <t>WCN</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>CTA-PA</t>
+          <t>ROP</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>HEI</t>
+          <t>JD</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>DHI</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>KGC</t>
+          <t>RKLB</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>TTWO</t>
+          <t>KR</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SPG-PJ</t>
+          <t>MET-PA</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>CTSH</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>XEL</t>
+          <t>TCOM</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>LVS</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ROP</t>
+          <t>AIG</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>JD</t>
+          <t>IQV</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>DHI</t>
+          <t>RDDT</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>RKLB</t>
+          <t>CPRT</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>XYZ</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>MET-PA</t>
+          <t>HEI-A</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>ALC</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>TCOM</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>LVS</t>
+          <t>PAYX</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>AIG</t>
+          <t>CCI</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>IQV</t>
+          <t>KDP</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>RDDT</t>
+          <t>MDLN</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>CPRT</t>
+          <t>RMD</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>XYZ</t>
+          <t>FICO</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>HEI-A</t>
+          <t>VEEV</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ALC</t>
+          <t>GEHC</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>GRMN</t>
+          <t>FISV</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TEAM</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>CPNG</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>CCI</t>
+          <t>OTIS</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>KDP</t>
+          <t>CLS</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>MDLN</t>
+          <t>SYM</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>RMD</t>
+          <t>APO-PA</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>FICO</t>
+          <t>UAL</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>VEEV</t>
+          <t>ZS</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>GEHC</t>
+          <t>INSM</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>FISV</t>
+          <t>NTRA</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>TEAM</t>
+          <t>KMB</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>CPNG</t>
+          <t>RJF</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>OTIS</t>
+          <t>MDB</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>CLS</t>
+          <t>PCG</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>SYM</t>
+          <t>EXPE</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>APO-PA</t>
+          <t>CHT</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>XYL</t>
+          <t>UI</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>UAL</t>
+          <t>DG</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>PSA-PK</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>INSM</t>
+          <t>SOFI</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>NTRA</t>
+          <t>ALL-PB</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>FOXA</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>RJF</t>
+          <t>HUM</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>MDB</t>
+          <t>WTW</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>PCG</t>
+          <t>EXR</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>EXPE</t>
+          <t>FIS</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>CHT</t>
+          <t>FOX</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>UI</t>
+          <t>VRSK</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>DG</t>
+          <t>QSR</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>PSA-PK</t>
+          <t>FLUT</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>SOFI</t>
+          <t>VICI</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ALL-PB</t>
+          <t>AMRZ</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>HUM</t>
+          <t>MTD</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>WTW</t>
+          <t>TSCO</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>EXR</t>
+          <t>NRG</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>FIS</t>
+          <t>SYF</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>HPE</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>QSR</t>
+          <t>TME</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>FLUT</t>
+          <t>CBOE</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>VICI</t>
+          <t>DTE</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>AMRZ</t>
+          <t>STLA</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>MTD</t>
+          <t>KHC</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>TSCO</t>
+          <t>CSGP</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>PHG</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>SYF</t>
+          <t>IRM</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>HPE</t>
+          <t>ALAB</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>TME</t>
+          <t>PAAS</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>WIT</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>DTE</t>
+          <t>LEN</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>STLA</t>
+          <t>ATO</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>KHC</t>
+          <t>BRO</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>CSGP</t>
+          <t>EXE</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>PHG</t>
+          <t>NMR</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>ALAB</t>
+          <t>LEN-B</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>PAAS</t>
+          <t>EFX</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>WIT</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>LEN</t>
+          <t>TPR</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ATO</t>
+          <t>FSLR</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>BRO</t>
+          <t>MKL</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>PPL</t>
+          <t>DLTR</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>EXE</t>
+          <t>AWK</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>NMR</t>
+          <t>OMC</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>LEN-B</t>
+          <t>WRB</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>EFX</t>
+          <t>AVB</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>DLR-PK</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>TPR</t>
+          <t>RGLD</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>BR</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>MKL</t>
+          <t>LDOS</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>PSTG</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>AWK</t>
+          <t>SQM</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>OMC</t>
+          <t>AXIA-PC</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>WRB</t>
+          <t>ILMN</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>AVB</t>
+          <t>TPG</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>VLTO</t>
+          <t>WAT</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>DLR-PK</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>PHM</t>
+          <t>CRDO</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>RGLD</t>
+          <t>NBIS</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CPAY</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>LDOS</t>
+          <t>LULU</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>PSTG</t>
+          <t>DRI</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>SQM</t>
+          <t>OWL</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>AXIA-PC</t>
+          <t>CNC</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ILMN</t>
+          <t>IP</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>VRSN</t>
+          <t>FUTU</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>TPG</t>
+          <t>AFRM</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>TROW</t>
+          <t>DLR-PJ</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>TLK</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>CYBR</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>CRDO</t>
+          <t>FWONK</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>NBIS</t>
+          <t>ALB</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>CPAY</t>
+          <t>PSLV</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>FWONA</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>DRI</t>
+          <t>CG</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>OWL</t>
+          <t>RL</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>CNC</t>
+          <t>CMS</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>UTHR</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>FUTU</t>
+          <t>GPN</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>AFRM</t>
+          <t>AS</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>DLR-PJ</t>
+          <t>SSNC</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>TLK</t>
+          <t>TWLO</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>CYBR</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>FWONK</t>
+          <t>INCY</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ALB</t>
+          <t>HL</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>PSLV</t>
+          <t>SBAC</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>FWONA</t>
+          <t>WWD</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>CHKP</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>RL</t>
+          <t>PTC</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>CMS</t>
+          <t>NTAP</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>UTHR</t>
+          <t>TOST</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>GPN</t>
+          <t>SGI</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>GIB</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>SSNC</t>
+          <t>RIVN</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>GMAB</t>
+          <t>WY</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>TWLO</t>
+          <t>PODD</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>TYL</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>INCY</t>
+          <t>IFF</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>RVMD</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>SBAC</t>
+          <t>KTOS</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>WWD</t>
+          <t>HIG-PG</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>CHKP</t>
+          <t>GRAB</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>IOT</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>NTAP</t>
+          <t>FTV</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>TOST</t>
+          <t>PHYS</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>SGI</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>GIB</t>
+          <t>SMCI</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>RIVN</t>
+          <t>DKS</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>PODD</t>
+          <t>HPQ</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>TYL</t>
+          <t>CRCL</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>IFF</t>
+          <t>LII</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>RVMD</t>
+          <t>FITBI</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>KTOS</t>
+          <t>XPEV</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>HIG-PG</t>
+          <t>IT</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>GRAB</t>
+          <t>PSNYW</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>AGI</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>FTV</t>
+          <t>ALLY</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>PHYS</t>
+          <t>PINS</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>ESS</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>SMCI</t>
+          <t>SN</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>DKS</t>
+          <t>CRS</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>HPQ</t>
+          <t>WST</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>CRCL</t>
+          <t>HUBS</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>LII</t>
+          <t>ZBH</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>FITBI</t>
+          <t>LNT</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>XPEV</t>
+          <t>LI</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ZG</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>PSNYW</t>
+          <t>ATI</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>AGI</t>
+          <t>TRMB</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>ALLY</t>
+          <t>MEDP</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>QXO</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>PINS</t>
+          <t>TXT</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>ESS</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>HOLX</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>CRS</t>
+          <t>THC</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>APTV</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>HUBS</t>
+          <t>TKO</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>ZBH</t>
+          <t>CDW</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>LNT</t>
+          <t>WES</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>IREN</t>
+          <t>TRU</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>LI</t>
+          <t>TTD</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>INVH</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ATI</t>
+          <t>MKC</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>CDE</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>MEDP</t>
+          <t>NLY</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>QXO</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MKC-V</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>MAA</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>HOLX</t>
+          <t>OKTA</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>THC</t>
+          <t>COO</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>APTV</t>
+          <t>TLN</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>TKO</t>
+          <t>GFL</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>WMG</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>RTO</t>
+          <t>KSPI</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>WES</t>
+          <t>ROKU</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>ROIV</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>GEN</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>INVH</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>MKC</t>
+          <t>HTHT</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>CDE</t>
+          <t>IONQ</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>NLY</t>
+          <t>ONON</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>DKNG</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>MKC-V</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>MAA</t>
+          <t>AVAV</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>OKTA</t>
+          <t>MGA</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>COO</t>
+          <t>KEY-PI</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>TLN</t>
+          <t>EMA</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>GFL</t>
+          <t>CSL</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>WMG</t>
+          <t>HMY</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>KSPI</t>
+          <t>ULS</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>ROKU</t>
+          <t>GDDY</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>ROIV</t>
+          <t>ARCC</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>GEN</t>
+          <t>ICLR</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>FIG</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>HTHT</t>
+          <t>RGC</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>KRMN</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>ONON</t>
+          <t>MAS</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>DKNG</t>
+          <t>RF-PC</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>AVAV</t>
+          <t>CACI</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>MGA</t>
+          <t>JHX</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>KEY-PI</t>
+          <t>EVR</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>EMA</t>
+          <t>CELH</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>CSL</t>
+          <t>DPZ</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>HMY</t>
+          <t>BBY</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>ULS</t>
+          <t>SBSW</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>GDDY</t>
+          <t>LOGI</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>ARCC</t>
+          <t>GWRE</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>ICLR</t>
+          <t>SOLV</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>FIG</t>
+          <t>RBRK</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>RGC</t>
+          <t>FIGR</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>KRMN</t>
+          <t>NLY-PG</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>MAS</t>
+          <t>BLD</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>RF-PC</t>
+          <t>NLY-PF</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>AMH</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>CACI</t>
+          <t>OHI</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>JHX</t>
+          <t>RVTY</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>EVR</t>
+          <t>JKHY</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>CELH</t>
+          <t>RYAN</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>DPZ</t>
+          <t>BLDR</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>BBY</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>SBSW</t>
+          <t>PSKY</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>LOGI</t>
+          <t>UHS</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>GWRE</t>
+          <t>CHWY</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>SOLV</t>
+          <t>UNM</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>RBRK</t>
+          <t>SNAP</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>FIGR</t>
+          <t>JEF</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>NLY-PG</t>
+          <t>BNT</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>BJ</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>NLY-PF</t>
+          <t>OKLO</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>AMH</t>
+          <t>HLI</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>NBIX</t>
+          <t>GLPI</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>OHI</t>
+          <t>EQX</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>RVTY</t>
+          <t>IVZ</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>JKHY</t>
+          <t>ACM</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>RYAN</t>
+          <t>BF-B</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>SWK</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>AGNC</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>PSKY</t>
+          <t>BMNR</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>UHS</t>
+          <t>GLXY</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>CHWY</t>
+          <t>AG</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>UNM</t>
+          <t>GMED</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>SNAP</t>
+          <t>AMKR</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>JEF</t>
+          <t>IAG</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>BNT</t>
+          <t>DT</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>BJ</t>
+          <t>ZBRA</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>OKLO</t>
+          <t>TXRH</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>HLI</t>
+          <t>DOC</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>GLPI</t>
+          <t>SMMT</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>EQX</t>
+          <t>EPAM</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>IVZ</t>
+          <t>ALGN</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>JOBY</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>BF-B</t>
+          <t>SUZ</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>SWK</t>
+          <t>CR</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>AGNC</t>
+          <t>CMA</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>BMNR</t>
+          <t>TEM</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>GLXY</t>
+          <t>WYNN</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>AG</t>
+          <t>EXEL</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>GMED</t>
+          <t>NTNX</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>AMKR</t>
+          <t>BSY</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>IAG</t>
+          <t>NIO</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>RDY</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>ZBRA</t>
+          <t>DOCU</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>TXRH</t>
+          <t>BXP</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>CEF</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>SMMT</t>
+          <t>MDGL</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>BAH</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>ALGN</t>
+          <t>SCI</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>JOBY</t>
+          <t>MICC</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>SUZ</t>
+          <t>CNM</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>MP</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>CMA</t>
+          <t>WTRG</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>TEM</t>
+          <t>DAY</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>WYNN</t>
+          <t>SARO</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>EXEL</t>
+          <t>CRL</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>NTNX</t>
+          <t>AR</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>BSY</t>
+          <t>MOH</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>NIO</t>
+          <t>MANH</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>RDY</t>
+          <t>FDS</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>DOCU</t>
+          <t>AFG</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>BXP</t>
+          <t>CART</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>CEF</t>
+          <t>AIT</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>MDGL</t>
+          <t>PAG</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>TECH</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>SCI</t>
+          <t>CAE</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>MICC</t>
+          <t>YMM</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>CNM</t>
+          <t>ENSG</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>MP</t>
+          <t>PCOR</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>WTRG</t>
+          <t>KLAR</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>DAY</t>
+          <t>ARMK</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>SARO</t>
+          <t>JAZZ</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>CHYM</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>SAIL</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>MOH</t>
+          <t>SANM</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>SPXC</t>
+          <t>BVN</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>MANH</t>
+          <t>NGD</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>FDS</t>
+          <t>POOL</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>BIO-B</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>CART</t>
+          <t>EHC</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>AIT</t>
+          <t>ALV</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>PAG</t>
+          <t>SOLS</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>TECH</t>
+          <t>ARE</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>CAE</t>
+          <t>EGO</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>YMM</t>
+          <t>TAP</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>ENSG</t>
+          <t>DDS</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>PCOR</t>
+          <t>BROS</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>KLAR</t>
+          <t>AAL</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>ARMK</t>
+          <t>ORI</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>APLD</t>
+          <t>AYI</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>JAZZ</t>
+          <t>ABVX</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>CHYM</t>
+          <t>ACI</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>HSIC</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>SANM</t>
+          <t>KNSL</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>BVN</t>
+          <t>IESC</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>NGD</t>
+          <t>MGM</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>POOL</t>
+          <t>UWMC</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>VNO-PM</t>
+          <t>GS-PC</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>EHC</t>
+          <t>RGEN</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>ALV</t>
+          <t>DOX</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>SOLS</t>
+          <t>STEP</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>LINE</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>EGO</t>
+          <t>SWKS</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>TAP</t>
+          <t>MORN</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>DDS</t>
+          <t>UEC</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>BROS</t>
+          <t>QBTS</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>AAL</t>
+          <t>TTAN</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>ORI</t>
+          <t>RZB</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>AYI</t>
+          <t>AGNCM</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>ABVX</t>
+          <t>AGNCN</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>ACI</t>
+          <t>LKQ</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>HSIC</t>
+          <t>PEGA</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>KNSL</t>
+          <t>CUBE</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>IESC</t>
+          <t>VIPS</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>UWMC</t>
+          <t>AUR</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>RGEN</t>
+          <t>PL</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>DOX</t>
+          <t>LEVI</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="inlineStr">
-        <is>
-          <t>LINE</t>
-        </is>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" t="inlineStr">
-        <is>
-          <t>SWKS</t>
-        </is>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" t="inlineStr">
-        <is>
-          <t>MORN</t>
-        </is>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" t="inlineStr">
-        <is>
-          <t>UEC</t>
-        </is>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" t="inlineStr">
-        <is>
-          <t>QBTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" t="inlineStr">
-        <is>
-          <t>TTAN</t>
-        </is>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" t="inlineStr">
-        <is>
-          <t>RZB</t>
-        </is>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" t="inlineStr">
-        <is>
-          <t>FRT</t>
-        </is>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" t="inlineStr">
-        <is>
-          <t>AGNCM</t>
-        </is>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" t="inlineStr">
-        <is>
-          <t>AGNCN</t>
-        </is>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" t="inlineStr">
-        <is>
-          <t>LKQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>PEGA</t>
-        </is>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>CUBE</t>
-        </is>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>AHR</t>
-        </is>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="inlineStr">
-        <is>
-          <t>VIPS</t>
-        </is>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>OR</t>
-        </is>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>AUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>LEVI</t>
-        </is>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="inlineStr">
         <is>
           <t>ADC</t>
         </is>

--- a/scan_skipped.xlsx
+++ b/scan_skipped.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A501"/>
+  <dimension ref="A1:A514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,3456 +473,3547 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>LLY</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>V</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>ORCL</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>PLTR</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>JPM-PD</t>
+          <t>NFLX</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>JPM-PC</t>
+          <t>JPM-PD</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>JPM-PC</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BAC-PK</t>
+          <t>UNH</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>BAC-PK</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BAC-PL</t>
+          <t>GE</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>BAC-PL</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BAC-PE</t>
+          <t>SAP</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BAC-PB</t>
+          <t>BAC-PE</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>BML-PL</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RY</t>
+          <t>BAC-PB</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>AXP</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CRM</t>
+          <t>RY</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>KLAC</t>
+          <t>TMO</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>WFC-PY</t>
+          <t>CRM</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>KLAC</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>WFC-PY</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>WFC-PL</t>
+          <t>DIS</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>BA</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ISRG</t>
+          <t>WFC-PL</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>APH</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BX</t>
+          <t>ISRG</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>ABT</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SHOP</t>
+          <t>BX</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>APP</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>SHOP</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>DHR</t>
+          <t>ACN</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TJX</t>
+          <t>UBER</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>DHR</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>TJX</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SPGI</t>
+          <t>BKNG</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>QCOM</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PDD</t>
+          <t>SPGI</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>INTU</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>COF</t>
+          <t>PDD</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BSX</t>
+          <t>NOW</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>NEM</t>
+          <t>COF</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SONY</t>
+          <t>BSX</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>NEM</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>SONY</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PGR</t>
+          <t>PANW</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>ADBE</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>PGR</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>ARM</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SBUX</t>
+          <t>CRWD</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>AEM</t>
+          <t>KKR</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>SBUX</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BN</t>
+          <t>AEM</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SPOT</t>
+          <t>CVS</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>BN</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>SPOT</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CVNA</t>
+          <t>ADP</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>CEG</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SNPS</t>
+          <t>CVNA</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>GD</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>SO</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>SNPS</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>WM</t>
+          <t>HOOD</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>NKE</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>MCO</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WM</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>HWM</t>
+          <t>DASH</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>NTES</t>
+          <t>CDNS</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ELV</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>HWM</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>MS-PK</t>
+          <t>NTES</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>AMT</t>
+          <t>ELV</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BAM</t>
+          <t>MMM</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MS-PI</t>
+          <t>MS-PK</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ABNB</t>
+          <t>AMT</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>REGN</t>
+          <t>BAM</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MS-PF</t>
+          <t>MS-PI</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MS-PE</t>
+          <t>ABNB</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CTAS</t>
+          <t>REGN</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>MS-PF</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>APO</t>
+          <t>MS-PE</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>CTAS</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>DELL</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SNOW</t>
+          <t>APO</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>RELX</t>
+          <t>CI</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>SE</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>SNOW</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>WPM</t>
+          <t>RELX</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>MRVL</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>WBD</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>AJG</t>
+          <t>WPM</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>NSC</t>
+          <t>TEL</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CNI</t>
+          <t>NET</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>DUK-PA</t>
+          <t>AJG</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>RACE</t>
+          <t>NSC</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>RKT</t>
+          <t>CNI</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>CTA-PB</t>
+          <t>AMX</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>URI</t>
+          <t>DUK-PA</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ADSK</t>
+          <t>RACE</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>COIN</t>
+          <t>RKT</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>CTA-PB</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>NDAQ</t>
+          <t>URI</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>BDX</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>IDXX</t>
+          <t>ADSK</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>TRI</t>
+          <t>COIN</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ZTS</t>
+          <t>VLO</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>NDAQ</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BIDU</t>
+          <t>SRE</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>IDXX</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>TRI</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>CMG</t>
+          <t>ZTS</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>RBLX</t>
+          <t>AU</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BIDU</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SCHW-PD</t>
+          <t>PYPL</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>WDAY</t>
+          <t>VST</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>FNV</t>
+          <t>CMG</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>EW</t>
+          <t>RBLX</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>GFI</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ARES</t>
+          <t>EA</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>CRWV</t>
+          <t>SCHW-PD</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>PSA</t>
+          <t>WDAY</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>AXON</t>
+          <t>FNV</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>EW</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ALNY</t>
+          <t>GFI</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>CTA-PA</t>
+          <t>ARES</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>HEI</t>
+          <t>CRWV</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>PSA</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>KGC</t>
+          <t>AXON</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>TTWO</t>
+          <t>DDOG</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>SPG-PJ</t>
+          <t>ALNY</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>CTA-PA</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>XEL</t>
+          <t>HEI</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>MSTR</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ROP</t>
+          <t>KGC</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>JD</t>
+          <t>TTWO</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>DHI</t>
+          <t>SPG-PJ</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>RKLB</t>
+          <t>EXC</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>XEL</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>MET-PA</t>
+          <t>WCN</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>ROP</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>TCOM</t>
+          <t>JD</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>LVS</t>
+          <t>DHI</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>AIG</t>
+          <t>RKLB</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>IQV</t>
+          <t>MET-PA</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>RDDT</t>
+          <t>CTSH</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>CPRT</t>
+          <t>TCOM</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>XYZ</t>
+          <t>LVS</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>HEI-A</t>
+          <t>AIG</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ALC</t>
+          <t>IQV</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>RDDT</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>CPRT</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>CCI</t>
+          <t>XYZ</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>KDP</t>
+          <t>HEI-A</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>MDLN</t>
+          <t>ALC</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>RMD</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>FICO</t>
+          <t>PAYX</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>VEEV</t>
+          <t>CCI</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>GEHC</t>
+          <t>KDP</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>FISV</t>
+          <t>MDLN</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>TEAM</t>
+          <t>RMD</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>CPNG</t>
+          <t>FICO</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>OTIS</t>
+          <t>FMX</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>CLS</t>
+          <t>VEEV</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>SYM</t>
+          <t>GEHC</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>APO-PA</t>
+          <t>FISV</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>UAL</t>
+          <t>TEAM</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>CPNG</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>INSM</t>
+          <t>OTIS</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>NTRA</t>
+          <t>CLS</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>SYM</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>RJF</t>
+          <t>APO-PA</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>MDB</t>
+          <t>UAL</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>PCG</t>
+          <t>ZS</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>EXPE</t>
+          <t>INSM</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>CHT</t>
+          <t>KVUE</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>UI</t>
+          <t>NTRA</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>DG</t>
+          <t>KMB</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>PSA-PK</t>
+          <t>MDB</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>SOFI</t>
+          <t>PCG</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ALL-PB</t>
+          <t>CHT</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>FOXA</t>
+          <t>UI</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>HUM</t>
+          <t>DG</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>WTW</t>
+          <t>PSA-PK</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>EXR</t>
+          <t>SOFI</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>FIS</t>
+          <t>ALL-PB</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>FOX</t>
+          <t>FOXA</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>HUM</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>QSR</t>
+          <t>WTW</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>FLUT</t>
+          <t>EXR</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>VICI</t>
+          <t>FIS</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>AMRZ</t>
+          <t>FOX</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>MTD</t>
+          <t>VRSK</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>TSCO</t>
+          <t>QSR</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>FLUT</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>SYF</t>
+          <t>VICI</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>HPE</t>
+          <t>AMRZ</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>TME</t>
+          <t>MTD</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>TSCO</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>DTE</t>
+          <t>NRG</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>STLA</t>
+          <t>SYF</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>KHC</t>
+          <t>HPE</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>CSGP</t>
+          <t>TME</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>PHG</t>
+          <t>CBOE</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>IRM</t>
+          <t>DTE</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ALAB</t>
+          <t>STLA</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>PAAS</t>
+          <t>KHC</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>WIT</t>
+          <t>CSGP</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>LEN</t>
+          <t>PHG</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ATO</t>
+          <t>IRM</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>BRO</t>
+          <t>ALAB</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>EXE</t>
+          <t>PAAS</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>NMR</t>
+          <t>WIT</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>LEN-B</t>
+          <t>LEN</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>EFX</t>
+          <t>ATO</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BRO</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>TPR</t>
+          <t>PPL</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>EXE</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>MKL</t>
+          <t>NMR</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>LEN-B</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>AWK</t>
+          <t>EFX</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>OMC</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>WRB</t>
+          <t>TPR</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>AVB</t>
+          <t>FSLR</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>DLR-PK</t>
+          <t>MKL</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>RGLD</t>
+          <t>DLTR</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AWK</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>LDOS</t>
+          <t>OMC</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>PSTG</t>
+          <t>WRB</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>SQM</t>
+          <t>AVB</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>AXIA-PC</t>
+          <t>DLR-PK</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ILMN</t>
+          <t>RGLD</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>TPG</t>
+          <t>BR</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>LDOS</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>PSTG</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>CRDO</t>
+          <t>SQM</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>NBIS</t>
+          <t>EIX</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>CPAY</t>
+          <t>AXIA-PC</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>ILMN</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>DRI</t>
+          <t>TPG</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>OWL</t>
+          <t>WAT</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>CNC</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>CRDO</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>FUTU</t>
+          <t>NBIS</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>AFRM</t>
+          <t>CPAY</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>DLR-PJ</t>
+          <t>LULU</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>TLK</t>
+          <t>DRI</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>CYBR</t>
+          <t>OWL</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>FWONK</t>
+          <t>CNC</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ALB</t>
+          <t>IP</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>PSLV</t>
+          <t>FUTU</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>FWONA</t>
+          <t>AFRM</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>DLR-PJ</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>RL</t>
+          <t>TLK</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>CMS</t>
+          <t>CYBR</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>UTHR</t>
+          <t>FWONK</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>GPN</t>
+          <t>ALB</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>PSLV</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>SSNC</t>
+          <t>FWONA</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>TWLO</t>
+          <t>CG</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>RL</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>INCY</t>
+          <t>CMS</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>UTHR</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>SBAC</t>
+          <t>GPN</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>WWD</t>
+          <t>AS</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>CHKP</t>
+          <t>SSNC</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>TWLO</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>NTAP</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>TOST</t>
+          <t>INCY</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>SGI</t>
+          <t>HL</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>GIB</t>
+          <t>SBAC</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>RIVN</t>
+          <t>WWD</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>WY</t>
+          <t>RCI</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>PODD</t>
+          <t>CHKP</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>TYL</t>
+          <t>PTC</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>IFF</t>
+          <t>NTAP</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>RVMD</t>
+          <t>TOST</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>KTOS</t>
+          <t>SGI</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>HIG-PG</t>
+          <t>GIB</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>GRAB</t>
+          <t>RIVN</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>WY</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>FTV</t>
+          <t>PODD</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>PHYS</t>
+          <t>TYL</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>IFF</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>SMCI</t>
+          <t>RVMD</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>DKS</t>
+          <t>KTOS</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>HPQ</t>
+          <t>HIG-PG</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>CRCL</t>
+          <t>GRAB</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>LII</t>
+          <t>IOT</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>FITBI</t>
+          <t>FTV</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>XPEV</t>
+          <t>PHYS</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>PSNYW</t>
+          <t>DKS</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>AGI</t>
+          <t>HPQ</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>ALLY</t>
+          <t>CRCL</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>PINS</t>
+          <t>LII</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>ESS</t>
+          <t>FITBI</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>XPEV</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>CRS</t>
+          <t>IT</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>PSNYW</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>HUBS</t>
+          <t>AGI</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ZBH</t>
+          <t>ALLY</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>LNT</t>
+          <t>PINS</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>LI</t>
+          <t>ESS</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>SN</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ATI</t>
+          <t>CRS</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>WST</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>MEDP</t>
+          <t>HUBS</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>QXO</t>
+          <t>ZBH</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>LNT</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>LI</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>HOLX</t>
+          <t>ZG</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>THC</t>
+          <t>ATI</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>APTV</t>
+          <t>TRMB</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>TKO</t>
+          <t>MEDP</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>QXO</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>WES</t>
+          <t>TXT</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>HOLX</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>INVH</t>
+          <t>THC</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>MKC</t>
+          <t>APTV</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>CDE</t>
+          <t>TKO</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>NLY</t>
+          <t>CDW</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>WES</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>MKC-V</t>
+          <t>TRU</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>MAA</t>
+          <t>TTD</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>OKTA</t>
+          <t>INVH</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>COO</t>
+          <t>MKC</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>TLN</t>
+          <t>CDE</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>GFL</t>
+          <t>NLY</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>WMG</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>KSPI</t>
+          <t>MKC-V</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>ROKU</t>
+          <t>MAA</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>ROIV</t>
+          <t>OKTA</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>GEN</t>
+          <t>COO</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>TLN</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>HTHT</t>
+          <t>GFL</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>WMG</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>ONON</t>
+          <t>KSPI</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>DKNG</t>
+          <t>ROKU</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>ROIV</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>AVAV</t>
+          <t>GEN</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>MGA</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>KEY-PI</t>
+          <t>HTHT</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>EMA</t>
+          <t>IONQ</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>CSL</t>
+          <t>ONON</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>HMY</t>
+          <t>DKNG</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ULS</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>GDDY</t>
+          <t>AVAV</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>ARCC</t>
+          <t>MGA</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ICLR</t>
+          <t>KEY-PI</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>FIG</t>
+          <t>EMA</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>RGC</t>
+          <t>CSL</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>KRMN</t>
+          <t>HMY</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>MAS</t>
+          <t>ULS</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>RF-PC</t>
+          <t>GDDY</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>ERIE</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>CACI</t>
+          <t>ARCC</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>JHX</t>
+          <t>ICLR</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>EVR</t>
+          <t>FIG</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>CELH</t>
+          <t>RGC</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>DPZ</t>
+          <t>MAS</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>BBY</t>
+          <t>RF-PC</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>SBSW</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>LOGI</t>
+          <t>CACI</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>GWRE</t>
+          <t>JHX</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>SOLV</t>
+          <t>EVR</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>RBRK</t>
+          <t>CELH</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>FIGR</t>
+          <t>DPZ</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>NLY-PG</t>
+          <t>BBY</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>UDR</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>NLY-PF</t>
+          <t>SBSW</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>AMH</t>
+          <t>LOGI</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>OHI</t>
+          <t>EQH</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>RVTY</t>
+          <t>GWRE</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>JKHY</t>
+          <t>SOLV</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>RYAN</t>
+          <t>RBRK</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>FIGR</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>NLY-PG</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>PSKY</t>
+          <t>BLD</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>UHS</t>
+          <t>NLY-PF</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>CHWY</t>
+          <t>AMH</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>UNM</t>
+          <t>OHI</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>SNAP</t>
+          <t>RVTY</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>JEF</t>
+          <t>JKHY</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>BNT</t>
+          <t>RYAN</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>BJ</t>
+          <t>BLDR</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>OKLO</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>HLI</t>
+          <t>PSKY</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>GLPI</t>
+          <t>UHS</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>EQX</t>
+          <t>CHWY</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>IVZ</t>
+          <t>LAMR</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>UNM</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>BF-B</t>
+          <t>SNAP</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>SWK</t>
+          <t>JEF</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>AGNC</t>
+          <t>BNT</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>BMNR</t>
+          <t>BJ</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>GLXY</t>
+          <t>OKLO</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>AG</t>
+          <t>HLI</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>GMED</t>
+          <t>GLPI</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>AMKR</t>
+          <t>EQX</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>IAG</t>
+          <t>IVZ</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>ACM</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>ZBRA</t>
+          <t>BF-B</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>TXRH</t>
+          <t>SWK</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>AGNC</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>SMMT</t>
+          <t>BMNR</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>GLXY</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>ALGN</t>
+          <t>AG</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>JOBY</t>
+          <t>GMED</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>SUZ</t>
+          <t>IAG</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>DT</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>CMA</t>
+          <t>ZBRA</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>TEM</t>
+          <t>TXRH</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>WYNN</t>
+          <t>DOC</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>EXEL</t>
+          <t>SMMT</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>NTNX</t>
+          <t>EPAM</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>BSY</t>
+          <t>ALGN</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>NIO</t>
+          <t>JOBY</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>RDY</t>
+          <t>SUZ</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>DOCU</t>
+          <t>CR</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>BXP</t>
+          <t>CMA</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>CEF</t>
+          <t>TEM</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>MDGL</t>
+          <t>WYNN</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>EXEL</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>SCI</t>
+          <t>NTNX</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>MICC</t>
+          <t>BSY</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>CNM</t>
+          <t>NIO</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>MP</t>
+          <t>RDY</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>WTRG</t>
+          <t>DOCU</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>DAY</t>
+          <t>CPT</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>SARO</t>
+          <t>BXP</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>CEF</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>MDGL</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>MOH</t>
+          <t>BAH</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>MANH</t>
+          <t>SCI</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>FDS</t>
+          <t>MICC</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>CNM</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>CART</t>
+          <t>MP</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>AIT</t>
+          <t>WTRG</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>PAG</t>
+          <t>PNW</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>TECH</t>
+          <t>DAY</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>CAE</t>
+          <t>SARO</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>YMM</t>
+          <t>CRL</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>ENSG</t>
+          <t>AR</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>PCOR</t>
+          <t>MOH</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>KLAR</t>
+          <t>MANH</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>ARMK</t>
+          <t>FDS</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>JAZZ</t>
+          <t>AFG</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>CHYM</t>
+          <t>CART</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>AIT</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>SANM</t>
+          <t>PAG</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>BVN</t>
+          <t>TECH</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>NGD</t>
+          <t>CAE</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>POOL</t>
+          <t>YMM</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>BIO-B</t>
+          <t>ENSG</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>EHC</t>
+          <t>PCOR</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>ALV</t>
+          <t>KLAR</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>SOLS</t>
+          <t>ARMK</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>JAZZ</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>EGO</t>
+          <t>CHYM</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>TAP</t>
+          <t>SAIL</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>DDS</t>
+          <t>SANM</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>BROS</t>
+          <t>BVN</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>AAL</t>
+          <t>NGD</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>ORI</t>
+          <t>POOL</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>AYI</t>
+          <t>BIO-B</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>ABVX</t>
+          <t>EHC</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>ACI</t>
+          <t>ALV</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>HSIC</t>
+          <t>SOLS</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>KNSL</t>
+          <t>ARE</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>IESC</t>
+          <t>EGO</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>DDS</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>UWMC</t>
+          <t>BROS</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>GS-PC</t>
+          <t>AAL</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>RGEN</t>
+          <t>ORI</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>DOX</t>
+          <t>AYI</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>STEP</t>
+          <t>ABVX</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>EGP</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>SWKS</t>
+          <t>ACI</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>MORN</t>
+          <t>HSIC</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>UEC</t>
+          <t>KNSL</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>QBTS</t>
+          <t>IESC</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>TTAN</t>
+          <t>MGM</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>RZB</t>
+          <t>UWMC</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>AGNCM</t>
+          <t>RGEN</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>AGNCN</t>
+          <t>DOX</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>LKQ</t>
+          <t>STEP</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>PEGA</t>
+          <t>LINE</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>CUBE</t>
+          <t>SWKS</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>VIPS</t>
+          <t>OGE</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>MORN</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>AUR</t>
+          <t>UEC</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>QBTS</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>LEVI</t>
+          <t>TTAN</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
+        <is>
+          <t>RZB</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>FRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>AGNCM</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>AGNCN</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>RRC</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>LKQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>PEGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>CUBE</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>VIPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>AUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>LEVI</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
         <is>
           <t>ADC</t>
         </is>

--- a/scan_skipped.xlsx
+++ b/scan_skipped.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A514"/>
+  <dimension ref="A1:A501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,35 +431,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>NVDA</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AVGO</t>
+          <t>MSFT</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>AVGO</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BRK-A</t>
+          <t>TSLA</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BRK-B</t>
+          <t>BRK-A</t>
         </is>
       </c>
     </row>
@@ -480,3540 +480,3449 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>ORCL</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>PLTR</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>NFLX</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>JPM-PD</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>JPM-PD</t>
+          <t>JPM-PC</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>JPM-PC</t>
+          <t>UNH</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>BAC-PK</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BAC-PK</t>
+          <t>BAC-PL</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>SAP</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BAC-PL</t>
+          <t>BAC-PB</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>AXP</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BAC-PE</t>
+          <t>TMO</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BML-PL</t>
+          <t>CRM</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BAC-PB</t>
+          <t>KLAC</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>WFC-PY</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>RY</t>
+          <t>DIS</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>BA</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CRM</t>
+          <t>WFC-PL</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>KLAC</t>
+          <t>APH</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>WFC-PY</t>
+          <t>ISRG</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>ABT</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>BX</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>WFC-PL</t>
+          <t>APP</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>SHOP</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ISRG</t>
+          <t>ACN</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>UBER</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BX</t>
+          <t>DHR</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>TJX</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SHOP</t>
+          <t>BKNG</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>QCOM</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>SPGI</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>DHR</t>
+          <t>INTU</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TJX</t>
+          <t>PDD</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>NOW</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>COF</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SPGI</t>
+          <t>BSX</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>NEM</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PDD</t>
+          <t>SONY</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>PANW</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>COF</t>
+          <t>ADBE</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BSX</t>
+          <t>PGR</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>NEM</t>
+          <t>ARM</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SONY</t>
+          <t>CRWD</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>KKR</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>SBUX</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PGR</t>
+          <t>AEM</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>CVS</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>BN</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>SPOT</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SBUX</t>
+          <t>ADP</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>AEM</t>
+          <t>CEG</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>CVNA</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BN</t>
+          <t>GD</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SPOT</t>
+          <t>SNPS</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>HOOD</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>NKE</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CVNA</t>
+          <t>MCO</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>WM</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>DASH</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SNPS</t>
+          <t>CDNS</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>HWM</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>NTES</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>WM</t>
+          <t>ELV</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>MMM</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>MS-PK</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>AMT</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>HWM</t>
+          <t>BAM</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>NTES</t>
+          <t>MS-PI</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ELV</t>
+          <t>ABNB</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>REGN</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MS-PK</t>
+          <t>MS-PF</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>AMT</t>
+          <t>MS-PE</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BAM</t>
+          <t>CTAS</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MS-PI</t>
+          <t>APO</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ABNB</t>
+          <t>CI</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>REGN</t>
+          <t>SE</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MS-PF</t>
+          <t>SNOW</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>MS-PE</t>
+          <t>RELX</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>CTAS</t>
+          <t>MRVL</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>WBD</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>APO</t>
+          <t>WPM</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>TEL</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>NET</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SNOW</t>
+          <t>AJG</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>RELX</t>
+          <t>CNI</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>AMX</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>DUK-PA</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>WPM</t>
+          <t>RACE</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>RKT</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>CTA-PB</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>AJG</t>
+          <t>URI</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>NSC</t>
+          <t>NXPI</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CNI</t>
+          <t>BDX</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>AMX</t>
+          <t>ADSK</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>DUK-PA</t>
+          <t>COIN</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>RACE</t>
+          <t>VLO</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>RKT</t>
+          <t>NDAQ</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CTA-PB</t>
+          <t>SRE</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>URI</t>
+          <t>IDXX</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BDX</t>
+          <t>TRI</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ADSK</t>
+          <t>AU</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>COIN</t>
+          <t>BIDU</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>PYPL</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>NDAQ</t>
+          <t>VST</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>CMG</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>IDXX</t>
+          <t>RBLX</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>TRI</t>
+          <t>EA</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ZTS</t>
+          <t>SCHW-PD</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>WDAY</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BIDU</t>
+          <t>FNV</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>EW</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>GFI</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>CMG</t>
+          <t>ARES</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>RBLX</t>
+          <t>CRWV</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>PSA</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>OKE</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SCHW-PD</t>
+          <t>AXON</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>WDAY</t>
+          <t>DDOG</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>FNV</t>
+          <t>ALNY</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>EW</t>
+          <t>CTA-PA</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>GFI</t>
+          <t>HEI</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ARES</t>
+          <t>MSTR</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>CRWV</t>
+          <t>KGC</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>PSA</t>
+          <t>TTWO</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>AXON</t>
+          <t>SPG-PJ</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>EXC</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ALNY</t>
+          <t>XEL</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>CTA-PA</t>
+          <t>WCN</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>HEI</t>
+          <t>ROP</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>JD</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>KGC</t>
+          <t>DHI</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>TTWO</t>
+          <t>RKLB</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SPG-PJ</t>
+          <t>MET-PA</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>CTSH</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>XEL</t>
+          <t>TCOM</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>LVS</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ROP</t>
+          <t>AIG</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>JD</t>
+          <t>IQV</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>DHI</t>
+          <t>RDDT</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>RKLB</t>
+          <t>CPRT</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>MET-PA</t>
+          <t>XYZ</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>HEI-A</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>TCOM</t>
+          <t>ALC</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>LVS</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>AIG</t>
+          <t>PAYX</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>IQV</t>
+          <t>CCI</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>RDDT</t>
+          <t>KDP</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>CPRT</t>
+          <t>MDLN</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>XYZ</t>
+          <t>FICO</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>HEI-A</t>
+          <t>VEEV</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ALC</t>
+          <t>GEHC</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>FISV</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>TEAM</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>CCI</t>
+          <t>CPNG</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>KDP</t>
+          <t>OTIS</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>MDLN</t>
+          <t>CLS</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>RMD</t>
+          <t>SYM</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>FICO</t>
+          <t>APO-PA</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>FMX</t>
+          <t>XYL</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>VEEV</t>
+          <t>UAL</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>GEHC</t>
+          <t>SATS</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>FISV</t>
+          <t>LYV</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>TEAM</t>
+          <t>ZS</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>CPNG</t>
+          <t>INSM</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>OTIS</t>
+          <t>NTRA</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>CLS</t>
+          <t>KMB</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>SYM</t>
+          <t>RJF</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>APO-PA</t>
+          <t>MDB</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>UAL</t>
+          <t>PCG</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>EXPE</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>INSM</t>
+          <t>CHT</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>KVUE</t>
+          <t>UI</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>NTRA</t>
+          <t>DG</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>PSA-PK</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>MDB</t>
+          <t>SOFI</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>PCG</t>
+          <t>ALL-PB</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>CHT</t>
+          <t>FOXA</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>UI</t>
+          <t>HUM</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>DG</t>
+          <t>WTW</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>PSA-PK</t>
+          <t>EXR</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>SOFI</t>
+          <t>FIS</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ALL-PB</t>
+          <t>VRSK</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>FOXA</t>
+          <t>QSR</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>HUM</t>
+          <t>FLUT</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>WTW</t>
+          <t>VICI</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>EXR</t>
+          <t>AMRZ</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>FIS</t>
+          <t>BNTX</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>FOX</t>
+          <t>MTD</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>NRG</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>QSR</t>
+          <t>SYF</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>FLUT</t>
+          <t>HPE</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>VICI</t>
+          <t>TME</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>AMRZ</t>
+          <t>CBOE</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>MTD</t>
+          <t>DTE</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>TSCO</t>
+          <t>STLA</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>AEE</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>SYF</t>
+          <t>KHC</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>HPE</t>
+          <t>CSGP</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>TME</t>
+          <t>PHG</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>IRM</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>DTE</t>
+          <t>ALAB</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>STLA</t>
+          <t>PAAS</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>KHC</t>
+          <t>WIT</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>CSGP</t>
+          <t>LEN</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>PHG</t>
+          <t>ATO</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>IRM</t>
+          <t>BRO</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ALAB</t>
+          <t>PPL</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>PAAS</t>
+          <t>EXE</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>WIT</t>
+          <t>NMR</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>LEN</t>
+          <t>LEN-B</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ATO</t>
+          <t>EFX</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>BRO</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>PPL</t>
+          <t>FSLR</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>EXE</t>
+          <t>MKL</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>NMR</t>
+          <t>DLTR</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>LEN-B</t>
+          <t>AWK</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>EFX</t>
+          <t>OMC</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>WRB</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>TPR</t>
+          <t>AVB</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>DLR-PK</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>MKL</t>
+          <t>GFS</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>RGLD</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>AWK</t>
+          <t>EQR</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>OMC</t>
+          <t>BR</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>WRB</t>
+          <t>LDOS</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>AVB</t>
+          <t>PSTG</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>DLR-PK</t>
+          <t>SQM</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>RGLD</t>
+          <t>EIX</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AXIA-PC</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>LDOS</t>
+          <t>ILMN</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>PSTG</t>
+          <t>TPG</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>SQM</t>
+          <t>WAT</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>EIX</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>AXIA-PC</t>
+          <t>CRDO</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ILMN</t>
+          <t>NBIS</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>TPG</t>
+          <t>CPAY</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>LULU</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>OWL</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>CRDO</t>
+          <t>CNC</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>NBIS</t>
+          <t>IP</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>CPAY</t>
+          <t>FUTU</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>AFRM</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>DRI</t>
+          <t>DLR-PJ</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>OWL</t>
+          <t>TLK</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>CNC</t>
+          <t>CYBR</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>FWONK</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>FUTU</t>
+          <t>ALB</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>AFRM</t>
+          <t>PSLV</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>DLR-PJ</t>
+          <t>FWONA</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>TLK</t>
+          <t>CG</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>CYBR</t>
+          <t>RL</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>FWONK</t>
+          <t>CMS</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ALB</t>
+          <t>UTHR</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>PSLV</t>
+          <t>GPN</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>FWONA</t>
+          <t>SSNC</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>TWLO</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>RL</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>CMS</t>
+          <t>INCY</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>UTHR</t>
+          <t>HL</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>GPN</t>
+          <t>SBAC</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>RCI</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>SSNC</t>
+          <t>CHKP</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>TWLO</t>
+          <t>PTC</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>NTAP</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>INCY</t>
+          <t>TOST</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>GIB</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>SBAC</t>
+          <t>RIVN</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>WWD</t>
+          <t>PODD</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>RCI</t>
+          <t>TYL</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>CHKP</t>
+          <t>IFF</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>RVMD</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>NTAP</t>
+          <t>KTOS</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>TOST</t>
+          <t>HIG-PG</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>SGI</t>
+          <t>GRAB</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>GIB</t>
+          <t>IOT</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>RIVN</t>
+          <t>FTV</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>WY</t>
+          <t>PHYS</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>PODD</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>TYL</t>
+          <t>SMCI</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>IFF</t>
+          <t>DKS</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>RVMD</t>
+          <t>HPQ</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>KTOS</t>
+          <t>CRCL</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>HIG-PG</t>
+          <t>LII</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>GRAB</t>
+          <t>FITBI</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>XPEV</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>FTV</t>
+          <t>IT</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>PHYS</t>
+          <t>PSNYW</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>AGI</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>DKS</t>
+          <t>ALLY</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>HPQ</t>
+          <t>PNR</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>CRCL</t>
+          <t>PINS</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>LII</t>
+          <t>ESS</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>FITBI</t>
+          <t>SN</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>XPEV</t>
+          <t>CRS</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>WST</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>PSNYW</t>
+          <t>HUBS</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>AGI</t>
+          <t>ZBH</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ALLY</t>
+          <t>LNT</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>PINS</t>
+          <t>LI</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ESS</t>
+          <t>ZG</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>TRMB</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>CRS</t>
+          <t>MEDP</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>QXO</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>HUBS</t>
+          <t>TXT</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ZBH</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>LNT</t>
+          <t>HOLX</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>LI</t>
+          <t>THC</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>APTV</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>ATI</t>
+          <t>TKO</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>CDW</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>MEDP</t>
+          <t>WES</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>QXO</t>
+          <t>TRU</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>TTD</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>INVH</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>HOLX</t>
+          <t>MKC</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>THC</t>
+          <t>CDE</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>APTV</t>
+          <t>NLY</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>TKO</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>MKC-V</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>WES</t>
+          <t>MAA</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>OKTA</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>COO</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>INVH</t>
+          <t>TLN</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>MKC</t>
+          <t>GFL</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>CDE</t>
+          <t>KSPI</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>NLY</t>
+          <t>ROKU</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>ROIV</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>MKC-V</t>
+          <t>GEN</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>MAA</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>OKTA</t>
+          <t>HTHT</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>COO</t>
+          <t>IONQ</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>TLN</t>
+          <t>ONON</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>GFL</t>
+          <t>DKNG</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>WMG</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>KSPI</t>
+          <t>AVAV</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>ROKU</t>
+          <t>MGA</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>ROIV</t>
+          <t>KEY-PI</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>GEN</t>
+          <t>EMA</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>CSL</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>HTHT</t>
+          <t>HMY</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>ULS</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ONON</t>
+          <t>GDDY</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>DKNG</t>
+          <t>ARCC</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>ICLR</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>AVAV</t>
+          <t>FIG</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>MGA</t>
+          <t>RGC</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>KEY-PI</t>
+          <t>MAS</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>EMA</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>CSL</t>
+          <t>CACI</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>HMY</t>
+          <t>JHX</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>ULS</t>
+          <t>EVR</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>GDDY</t>
+          <t>CELH</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>ERIE</t>
+          <t>DPZ</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>ARCC</t>
+          <t>BBY</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>ICLR</t>
+          <t>UDR</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>FIG</t>
+          <t>SBSW</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>RGC</t>
+          <t>LOGI</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>MAS</t>
+          <t>RPM</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>RF-PC</t>
+          <t>GWRE</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>SOLV</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>CACI</t>
+          <t>RBRK</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>JHX</t>
+          <t>FIGR</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>EVR</t>
+          <t>NLY-PG</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>CELH</t>
+          <t>BLD</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>DPZ</t>
+          <t>NLY-PF</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>BBY</t>
+          <t>AMH</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>OHI</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>SBSW</t>
+          <t>RVTY</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>LOGI</t>
+          <t>JKHY</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>EQH</t>
+          <t>RYAN</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>GWRE</t>
+          <t>BLDR</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>SOLV</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>RBRK</t>
+          <t>PSKY</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>FIGR</t>
+          <t>UHS</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>NLY-PG</t>
+          <t>CHWY</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>LAMR</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>NLY-PF</t>
+          <t>UNM</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>AMH</t>
+          <t>SNAP</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>OHI</t>
+          <t>JEF</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>RVTY</t>
+          <t>BNT</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>JKHY</t>
+          <t>BJ</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>RYAN</t>
+          <t>OKLO</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>HLI</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>GLPI</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>PSKY</t>
+          <t>EQX</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>UHS</t>
+          <t>IVZ</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>CHWY</t>
+          <t>ACM</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>LAMR</t>
+          <t>SWK</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>UNM</t>
+          <t>AGNC</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>SNAP</t>
+          <t>BMNR</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>JEF</t>
+          <t>GLXY</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>BNT</t>
+          <t>AG</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>BJ</t>
+          <t>GMED</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>OKLO</t>
+          <t>AMKR</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>HLI</t>
+          <t>IAG</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>GLPI</t>
+          <t>DT</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>EQX</t>
+          <t>ZBRA</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>IVZ</t>
+          <t>TXRH</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>DOC</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>BF-B</t>
+          <t>SMMT</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>SWK</t>
+          <t>EPAM</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>AGNC</t>
+          <t>ALGN</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>BMNR</t>
+          <t>JOBY</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>GLXY</t>
+          <t>SUZ</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>AG</t>
+          <t>CR</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>GMED</t>
+          <t>CMA</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>IAG</t>
+          <t>TEM</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>WYNN</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>ZBRA</t>
+          <t>EXEL</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>TXRH</t>
+          <t>NTNX</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>BSY</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>SMMT</t>
+          <t>NIO</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>DOCU</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>ALGN</t>
+          <t>CPT</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>JOBY</t>
+          <t>BXP</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>SUZ</t>
+          <t>CEF</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>MDGL</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>CMA</t>
+          <t>BAH</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>TEM</t>
+          <t>MICC</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>WYNN</t>
+          <t>CNM</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>EXEL</t>
+          <t>MP</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>NTNX</t>
+          <t>WTRG</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>BSY</t>
+          <t>PNW</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>NIO</t>
+          <t>DAY</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>RDY</t>
+          <t>SARO</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>DOCU</t>
+          <t>CRL</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>CPT</t>
+          <t>AR</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>BXP</t>
+          <t>MOH</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>CEF</t>
+          <t>MANH</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>MDGL</t>
+          <t>FDS</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>AFG</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>SCI</t>
+          <t>CART</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>MICC</t>
+          <t>PAG</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>CNM</t>
+          <t>TECH</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>MP</t>
+          <t>CAE</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>WTRG</t>
+          <t>YMM</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>PNW</t>
+          <t>ENSG</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>DAY</t>
+          <t>PCOR</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>SARO</t>
+          <t>KLAR</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>ARMK</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>APLD</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>MOH</t>
+          <t>CHYM</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>MANH</t>
+          <t>SAIL</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>FDS</t>
+          <t>SANM</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>BVN</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>CART</t>
+          <t>NGD</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>AIT</t>
+          <t>POOL</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>PAG</t>
+          <t>COMP</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>TECH</t>
+          <t>BIO-B</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>CAE</t>
+          <t>EHC</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>YMM</t>
+          <t>ALV</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>ENSG</t>
+          <t>SOLS</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>PCOR</t>
+          <t>ARE</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>KLAR</t>
+          <t>EGO</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>ARMK</t>
+          <t>DDS</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>JAZZ</t>
+          <t>BROS</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>CHYM</t>
+          <t>AAL</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>ORI</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>SANM</t>
+          <t>AYI</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>BVN</t>
+          <t>ABVX</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>NGD</t>
+          <t>EGP</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>POOL</t>
+          <t>ACI</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>BIO-B</t>
+          <t>HSIC</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>EHC</t>
+          <t>KNSL</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>ALV</t>
+          <t>IESC</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>SOLS</t>
+          <t>MGM</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>UWMC</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>EGO</t>
+          <t>RGEN</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>DDS</t>
+          <t>DOX</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>BROS</t>
+          <t>STEP</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>AAL</t>
+          <t>LINE</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>ORI</t>
+          <t>SWKS</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>AYI</t>
+          <t>OGE</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>ABVX</t>
+          <t>MORN</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>EGP</t>
+          <t>UEC</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>ACI</t>
+          <t>GGAL</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>HSIC</t>
+          <t>QBTS</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>KNSL</t>
+          <t>TTAN</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>IESC</t>
+          <t>RZB</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>FRT</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>UWMC</t>
+          <t>AGNCM</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>RGEN</t>
+          <t>AGNCN</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>DOX</t>
+          <t>RRC</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>STEP</t>
+          <t>LKQ</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>PEGA</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>SWKS</t>
+          <t>CUBE</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>OGE</t>
+          <t>VIPS</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>MORN</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>UEC</t>
+          <t>AUR</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>QBTS</t>
+          <t>PL</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>TTAN</t>
+          <t>LEVI</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
-        <is>
-          <t>RZB</t>
-        </is>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="inlineStr">
-        <is>
-          <t>FRT</t>
-        </is>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" t="inlineStr">
-        <is>
-          <t>AGNCM</t>
-        </is>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" t="inlineStr">
-        <is>
-          <t>AGNCN</t>
-        </is>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" t="inlineStr">
-        <is>
-          <t>RRC</t>
-        </is>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" t="inlineStr">
-        <is>
-          <t>LKQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" t="inlineStr">
-        <is>
-          <t>PEGA</t>
-        </is>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" t="inlineStr">
-        <is>
-          <t>CUBE</t>
-        </is>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" t="inlineStr">
-        <is>
-          <t>VIPS</t>
-        </is>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" t="inlineStr">
-        <is>
-          <t>OR</t>
-        </is>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" t="inlineStr">
-        <is>
-          <t>AUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>LEVI</t>
-        </is>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="inlineStr">
         <is>
           <t>ADC</t>
         </is>

--- a/scan_skipped.xlsx
+++ b/scan_skipped.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A501"/>
+  <dimension ref="A1:A453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,70 +459,70 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BRK-A</t>
+          <t>LLY</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>ORCL</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LLY</t>
+          <t>BABA</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>PLTR</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>NFLX</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>JPM-PD</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>JPM-PD</t>
+          <t>JPM-PC</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>JPM-PC</t>
+          <t>UNH</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>BAC-PK</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BAC-PK</t>
+          <t>GE</t>
         </is>
       </c>
     </row>
@@ -536,735 +536,735 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>NVO</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BAC-PB</t>
+          <t>SAP</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>IBM</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>BAC-PE</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CRM</t>
+          <t>BAC-PB</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>KLAC</t>
+          <t>AXP</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>WFC-PY</t>
+          <t>TMO</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>CRM</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>KLAC</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>WFC-PL</t>
+          <t>WFC-PY</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>DIS</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ISRG</t>
+          <t>BA</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>WFC-PL</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BX</t>
+          <t>APH</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>ISRG</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SHOP</t>
+          <t>ABT</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>BX</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>APP</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DHR</t>
+          <t>SHOP</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>TJX</t>
+          <t>ACN</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>BLK</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>UBER</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SPGI</t>
+          <t>DHR</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>TJX</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PDD</t>
+          <t>BKNG</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>QCOM</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>COF</t>
+          <t>SPGI</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BSX</t>
+          <t>INTU</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>NEM</t>
+          <t>PDD</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SONY</t>
+          <t>PFE</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>NOW</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>COF</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PGR</t>
+          <t>BSX</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>SONY</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>PANW</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>ADBE</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SBUX</t>
+          <t>WELL</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>AEM</t>
+          <t>PGR</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>ARM</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BN</t>
+          <t>CRWD</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SPOT</t>
+          <t>MELI</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>KKR</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>AEM</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CVNA</t>
+          <t>CVS</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>BN</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SNPS</t>
+          <t>SPOT</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>ADP</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>CEG</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>CVNA</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>WM</t>
+          <t>ICE</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>GD</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>SNPS</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>HOOD</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>HWM</t>
+          <t>NKE</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>NTES</t>
+          <t>MCO</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ELV</t>
+          <t>DASH</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>CDNS</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MS-PK</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>AMT</t>
+          <t>HWM</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BAM</t>
+          <t>NTES</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>MS-PI</t>
+          <t>ELV</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ABNB</t>
+          <t>MMM</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>REGN</t>
+          <t>MS-PK</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MS-PF</t>
+          <t>AMT</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MS-PE</t>
+          <t>BAM</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>CTAS</t>
+          <t>MS-PI</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>APO</t>
+          <t>ABNB</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>TDG</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>MS-PF</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SNOW</t>
+          <t>MS-PE</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>RELX</t>
+          <t>CTAS</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>APO</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>INFY</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>WPM</t>
+          <t>SE</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>SNOW</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>RELX</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>AJG</t>
+          <t>MRVL</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CNI</t>
+          <t>WBD</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>AMX</t>
+          <t>TEL</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>DUK-PA</t>
+          <t>NET</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>RACE</t>
+          <t>AJG</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>RKT</t>
+          <t>FTNT</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CTA-PB</t>
+          <t>CNI</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>URI</t>
+          <t>DUK-PA</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>NXPI</t>
+          <t>RACE</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BDX</t>
+          <t>CTA-PB</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ADSK</t>
+          <t>URI</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>COIN</t>
+          <t>NXPI</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>ADSK</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>NDAQ</t>
+          <t>COIN</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>NDAQ</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>IDXX</t>
+          <t>SRE</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>TRI</t>
+          <t>IDXX</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>MPLX</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BIDU</t>
+          <t>TRI</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>BIDU</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>PYPL</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>CMG</t>
+          <t>VST</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>RBLX</t>
+          <t>CMG</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>RBLX</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SCHW-PD</t>
+          <t>EA</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>WDAY</t>
+          <t>SCHW-PD</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>FNV</t>
+          <t>WDAY</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>EW</t>
+          <t>FNV</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>GFI</t>
+          <t>EW</t>
         </is>
       </c>
     </row>
@@ -1285,2644 +1285,2308 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>PSA</t>
+          <t>AXON</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>OKE</t>
+          <t>DDOG</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>AXON</t>
+          <t>ALNY</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>CTA-PA</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ALNY</t>
+          <t>HEI</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>CTA-PA</t>
+          <t>MSTR</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>HEI</t>
+          <t>KGC</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>MSCI</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>KGC</t>
+          <t>TTWO</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>TTWO</t>
+          <t>SPG-PJ</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SPG-PJ</t>
+          <t>WCN</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>ROP</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>XEL</t>
+          <t>JD</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>RKLB</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ROP</t>
+          <t>MET-PA</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>JD</t>
+          <t>CTSH</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>DHI</t>
+          <t>TCOM</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>RKLB</t>
+          <t>LVS</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>MET-PA</t>
+          <t>AIG</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>IQV</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>TCOM</t>
+          <t>RDDT</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>LVS</t>
+          <t>CPRT</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>AIG</t>
+          <t>XYZ</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>IQV</t>
+          <t>HEI-A</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>RDDT</t>
+          <t>ALC</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>CPRT</t>
+          <t>GRMN</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>XYZ</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>HEI-A</t>
+          <t>PRU</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ALC</t>
+          <t>PAYX</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CCI</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>MDLN</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>CCI</t>
+          <t>FICO</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>KDP</t>
+          <t>VEEV</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>MDLN</t>
+          <t>GEHC</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>FICO</t>
+          <t>FISV</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>VEEV</t>
+          <t>TEAM</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>GEHC</t>
+          <t>VTR</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>FISV</t>
+          <t>CPNG</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>TEAM</t>
+          <t>OTIS</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>CPNG</t>
+          <t>CLS</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>OTIS</t>
+          <t>SYM</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>CLS</t>
+          <t>APO-PA</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>SYM</t>
+          <t>SATS</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>APO-PA</t>
+          <t>LYV</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>XYL</t>
+          <t>ZS</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>UAL</t>
+          <t>INSM</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>SATS</t>
+          <t>NTRA</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>LYV</t>
+          <t>MDB</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>PCG</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>INSM</t>
+          <t>EXPE</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>NTRA</t>
+          <t>CHT</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>PSA-PK</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>RJF</t>
+          <t>SOFI</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>MDB</t>
+          <t>ALL-PB</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>PCG</t>
+          <t>FOXA</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>EXPE</t>
+          <t>HUM</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>CHT</t>
+          <t>EXR</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>UI</t>
+          <t>FIS</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>DG</t>
+          <t>FOX</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>PSA-PK</t>
+          <t>VRSK</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>SOFI</t>
+          <t>QSR</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ALL-PB</t>
+          <t>FLUT</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>FOXA</t>
+          <t>VICI</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>HUM</t>
+          <t>AMRZ</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>WTW</t>
+          <t>BNTX</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>EXR</t>
+          <t>MTD</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>FIS</t>
+          <t>SYF</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>UMC</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>QSR</t>
+          <t>HPE</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>FLUT</t>
+          <t>TME</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>VICI</t>
+          <t>STLA</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>AMRZ</t>
+          <t>CSGP</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>BNTX</t>
+          <t>IRM</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>MTD</t>
+          <t>ALAB</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>PAAS</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>SYF</t>
+          <t>WIT</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>HPE</t>
+          <t>BRO</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>TME</t>
+          <t>EXE</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>NMR</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>DTE</t>
+          <t>EFX</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>STLA</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>AEE</t>
+          <t>FSLR</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>KHC</t>
+          <t>MKL</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>CSGP</t>
+          <t>DLTR</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>PHG</t>
+          <t>AWK</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>IRM</t>
+          <t>OMC</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>ALAB</t>
+          <t>STM</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>PAAS</t>
+          <t>AVB</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>WIT</t>
+          <t>VLTO</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>LEN</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>ATO</t>
+          <t>DLR-PK</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>BRO</t>
+          <t>GFS</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>PPL</t>
+          <t>EQR</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>EXE</t>
+          <t>BR</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>NMR</t>
+          <t>LDOS</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>LEN-B</t>
+          <t>PSTG</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>EFX</t>
+          <t>AXIA-PC</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>ILMN</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>TPG</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>MKL</t>
+          <t>TROW</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>WAT</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>AWK</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>OMC</t>
+          <t>CRDO</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>WRB</t>
+          <t>NBIS</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>AVB</t>
+          <t>CPAY</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>DLR-PK</t>
+          <t>LULU</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>GFS</t>
+          <t>OWL</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>RGLD</t>
+          <t>CNC</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>EQR</t>
+          <t>FUTU</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AFRM</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>LDOS</t>
+          <t>DLR-PJ</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>PSTG</t>
+          <t>TLK</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>SQM</t>
+          <t>CYBR</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>EIX</t>
+          <t>FWONK</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>AXIA-PC</t>
+          <t>PSLV</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ILMN</t>
+          <t>FWONA</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>TPG</t>
+          <t>CG</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>RL</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>UTHR</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>CRDO</t>
+          <t>GPN</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>NBIS</t>
+          <t>AS</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>CPAY</t>
+          <t>SSNC</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>TWLO</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>OWL</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>CNC</t>
+          <t>HL</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>SBAC</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>FUTU</t>
+          <t>CHKP</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>AFRM</t>
+          <t>PTC</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>DLR-PJ</t>
+          <t>NTAP</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>TLK</t>
+          <t>TOST</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>CYBR</t>
+          <t>GIB</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>FWONK</t>
+          <t>RIVN</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ALB</t>
+          <t>PODD</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>PSLV</t>
+          <t>TYL</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>FWONA</t>
+          <t>RVMD</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>KTOS</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>RL</t>
+          <t>HIG-PG</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>CMS</t>
+          <t>GRAB</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>UTHR</t>
+          <t>IOT</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>GPN</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>SSNC</t>
+          <t>SMCI</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>TWLO</t>
+          <t>HPQ</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>CRCL</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>INCY</t>
+          <t>FITBI</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>XPEV</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>SBAC</t>
+          <t>IT</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>RCI</t>
+          <t>PSNYW</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>CHKP</t>
+          <t>AGI</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>ALLY</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>NTAP</t>
+          <t>PNR</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>TOST</t>
+          <t>PINS</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>GIB</t>
+          <t>ESS</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>RIVN</t>
+          <t>WST</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>PODD</t>
+          <t>HUBS</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>TYL</t>
+          <t>ZBH</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>IFF</t>
+          <t>NWS</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>RVMD</t>
+          <t>LNT</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>KTOS</t>
+          <t>LI</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>HIG-PG</t>
+          <t>ZG</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>GRAB</t>
+          <t>FN</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>TRMB</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>FTV</t>
+          <t>MEDP</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>PHYS</t>
+          <t>JLL</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>TXT</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>SMCI</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>DKS</t>
+          <t>HOLX</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>HPQ</t>
+          <t>TKO</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>CRCL</t>
+          <t>CDW</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>LII</t>
+          <t>WES</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>FITBI</t>
+          <t>TRU</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>XPEV</t>
+          <t>TTD</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>INVH</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>PSNYW</t>
+          <t>MKC</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>AGI</t>
+          <t>CDE</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>ALLY</t>
+          <t>NLY</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>PINS</t>
+          <t>MKC-V</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>ESS</t>
+          <t>MAA</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>OKTA</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>CRS</t>
+          <t>COO</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>TLN</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>HUBS</t>
+          <t>GFL</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>ZBH</t>
+          <t>WMG</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>LNT</t>
+          <t>KSPI</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>LI</t>
+          <t>ROKU</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>ROIV</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>GEN</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>MEDP</t>
+          <t>NWSA</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>QXO</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>HTHT</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>IONQ</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>HOLX</t>
+          <t>ONON</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>THC</t>
+          <t>DKNG</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>APTV</t>
+          <t>AVAV</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>TKO</t>
+          <t>MGA</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>KEY-PI</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>WES</t>
+          <t>MLI</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>HMY</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>ULS</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>INVH</t>
+          <t>GDDY</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>MKC</t>
+          <t>ERIE</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>CDE</t>
+          <t>ARCC</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>NLY</t>
+          <t>ICLR</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>FIG</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>MKC-V</t>
+          <t>RGC</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>MAA</t>
+          <t>RF-PC</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>OKTA</t>
+          <t>AKAM</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>COO</t>
+          <t>EVR</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>TLN</t>
+          <t>CELH</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>GFL</t>
+          <t>DPZ</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>KSPI</t>
+          <t>BBY</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>ROKU</t>
+          <t>UDR</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>ROIV</t>
+          <t>SBSW</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>GEN</t>
+          <t>LOGI</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>EQH</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>HTHT</t>
+          <t>GWRE</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>SOLV</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>ONON</t>
+          <t>RBRK</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>DKNG</t>
+          <t>FIGR</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>NLY-PG</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>AVAV</t>
+          <t>NLY-PF</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>MGA</t>
+          <t>AMH</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>KEY-PI</t>
+          <t>OHI</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>EMA</t>
+          <t>RVTY</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>CSL</t>
+          <t>JKHY</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>HMY</t>
+          <t>RYAN</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ULS</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>GDDY</t>
+          <t>PSKY</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ARCC</t>
+          <t>CHWY</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ICLR</t>
+          <t>LAMR</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>FIG</t>
+          <t>UNM</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>RGC</t>
+          <t>SNAP</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>MAS</t>
+          <t>JEF</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>BNT</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>CACI</t>
+          <t>OKLO</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>JHX</t>
+          <t>HLI</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>EVR</t>
+          <t>GLPI</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>CELH</t>
+          <t>EQX</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>DPZ</t>
+          <t>IVZ</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>BBY</t>
+          <t>ACM</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>AGNC</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>SBSW</t>
+          <t>BMNR</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>LOGI</t>
+          <t>GLXY</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>RPM</t>
+          <t>GMED</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>GWRE</t>
+          <t>AMKR</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>SOLV</t>
+          <t>DT</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>RBRK</t>
+          <t>ZBRA</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>FIGR</t>
+          <t>TXRH</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>NLY-PG</t>
+          <t>DOC</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>SMMT</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>NLY-PF</t>
+          <t>RMBS</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>AMH</t>
+          <t>EPAM</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>OHI</t>
+          <t>ALGN</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>RVTY</t>
+          <t>JOBY</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>JKHY</t>
+          <t>SUZ</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>RYAN</t>
+          <t>CR</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>CMA</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>TEM</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>PSKY</t>
+          <t>WYNN</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>UHS</t>
+          <t>EXEL</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>CHWY</t>
+          <t>NTNX</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>LAMR</t>
+          <t>BSY</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>UNM</t>
+          <t>NIO</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>SNAP</t>
+          <t>DOCU</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>JEF</t>
+          <t>CPT</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>BNT</t>
+          <t>BXP</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>BJ</t>
+          <t>CEF</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>OKLO</t>
+          <t>MDGL</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>HLI</t>
+          <t>BAH</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>GLPI</t>
+          <t>MICC</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>EQX</t>
+          <t>WTRG</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>IVZ</t>
+          <t>SARO</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>CRL</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>SWK</t>
+          <t>MOH</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>AGNC</t>
+          <t>MANH</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>BMNR</t>
+          <t>FDS</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>GLXY</t>
+          <t>AFG</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>AG</t>
+          <t>CART</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>GMED</t>
+          <t>PAG</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>AMKR</t>
+          <t>TECH</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>IAG</t>
+          <t>CAE</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>YMM</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>ZBRA</t>
+          <t>ENSG</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>TXRH</t>
+          <t>PCOR</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>KLAR</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>SMMT</t>
+          <t>ARMK</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>CHYM</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>ALGN</t>
+          <t>SAIL</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>JOBY</t>
+          <t>SANM</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>SUZ</t>
+          <t>NGD</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>VNO-PM</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>CMA</t>
+          <t>COMP</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>TEM</t>
+          <t>BIO-B</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>WYNN</t>
+          <t>EHC</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>EXEL</t>
+          <t>ALV</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>NTNX</t>
+          <t>SOLS</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>BSY</t>
+          <t>ARE</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>NIO</t>
+          <t>EGO</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>DOCU</t>
+          <t>BROS</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>CPT</t>
+          <t>AAL</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>BXP</t>
+          <t>ORI</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>CEF</t>
+          <t>AYI</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>MDGL</t>
+          <t>ABVX</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>HSIC</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>MICC</t>
+          <t>KNSL</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>CNM</t>
+          <t>IESC</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>MP</t>
+          <t>UWMC</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>WTRG</t>
+          <t>GS-PC</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>PNW</t>
+          <t>RGEN</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>DAY</t>
+          <t>DOX</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>SARO</t>
+          <t>STEP</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>LINE</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>SWKS</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>MOH</t>
+          <t>MORN</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>MANH</t>
+          <t>GGAL</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>FDS</t>
+          <t>QBTS</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>TTAN</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>CART</t>
+          <t>RZB</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>PAG</t>
+          <t>FRT</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>TECH</t>
+          <t>AGNCM</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>CAE</t>
+          <t>AGNCN</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>YMM</t>
+          <t>PEGA</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>ENSG</t>
+          <t>AHR</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>PCOR</t>
+          <t>VIPS</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>KLAR</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>ARMK</t>
+          <t>AUR</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>APLD</t>
+          <t>IDCC</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>CHYM</t>
+          <t>PL</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>LEVI</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
-        <is>
-          <t>SANM</t>
-        </is>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>BVN</t>
-        </is>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>NGD</t>
-        </is>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>POOL</t>
-        </is>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>COMP</t>
-        </is>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>BIO-B</t>
-        </is>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>EHC</t>
-        </is>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>ALV</t>
-        </is>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="inlineStr">
-        <is>
-          <t>SOLS</t>
-        </is>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>ARE</t>
-        </is>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>EGO</t>
-        </is>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>DDS</t>
-        </is>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="inlineStr">
-        <is>
-          <t>BROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="inlineStr">
-        <is>
-          <t>AAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>ORI</t>
-        </is>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>AYI</t>
-        </is>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>ABVX</t>
-        </is>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>ACI</t>
-        </is>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>HSIC</t>
-        </is>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>KNSL</t>
-        </is>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>IESC</t>
-        </is>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>MGM</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>UWMC</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>RGEN</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>DOX</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>LINE</t>
-        </is>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>SWKS</t>
-        </is>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>OGE</t>
-        </is>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>MORN</t>
-        </is>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>UEC</t>
-        </is>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>GGAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>QBTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>TTAN</t>
-        </is>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>RZB</t>
-        </is>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="inlineStr">
-        <is>
-          <t>FRT</t>
-        </is>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>AGNCM</t>
-        </is>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="inlineStr">
-        <is>
-          <t>AGNCN</t>
-        </is>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>RRC</t>
-        </is>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="inlineStr">
-        <is>
-          <t>LKQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="inlineStr">
-        <is>
-          <t>PEGA</t>
-        </is>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" t="inlineStr">
-        <is>
-          <t>CUBE</t>
-        </is>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="inlineStr">
-        <is>
-          <t>VIPS</t>
-        </is>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" t="inlineStr">
-        <is>
-          <t>OR</t>
-        </is>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="inlineStr">
-        <is>
-          <t>AUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" t="inlineStr">
-        <is>
-          <t>LEVI</t>
-        </is>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" t="inlineStr">
         <is>
           <t>ADC</t>
         </is>

--- a/scan_skipped.xlsx
+++ b/scan_skipped.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A453"/>
+  <dimension ref="A1:A473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,301 +445,301 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AVGO</t>
+          <t>AMZN</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>AVGO</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LLY</t>
+          <t>TSLA</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>LLY</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BABA</t>
+          <t>ORCL</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>BABA</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>PLTR</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>JPM-PD</t>
+          <t>NFLX</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>JPM-PC</t>
+          <t>JPM-PD</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>JPM-PC</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BAC-PK</t>
+          <t>UNH</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BAC-PL</t>
+          <t>BAC-PK</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NVO</t>
+          <t>BAC-PL</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>NVO</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>SAP</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BAC-PE</t>
+          <t>IBM</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BAC-PB</t>
+          <t>BML-PL</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>BAC-PB</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>AXP</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CRM</t>
+          <t>TMO</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>KLAC</t>
+          <t>CRM</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>WFC-PY</t>
+          <t>KLAC</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>WFC-PY</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>DIS</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>WFC-PL</t>
+          <t>BA</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>WFC-PL</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ISRG</t>
+          <t>APH</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>ISRG</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BX</t>
+          <t>ABT</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>BX</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SHOP</t>
+          <t>APP</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>SHOP</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BLK</t>
+          <t>ACN</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>BLK</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>DHR</t>
+          <t>UBER</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TJX</t>
+          <t>DHR</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>TJX</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>BKNG</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SPGI</t>
+          <t>QCOM</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>SPGI</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PDD</t>
+          <t>INTU</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>PDD</t>
         </is>
       </c>
     </row>
@@ -1054,2539 +1054,2679 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SNOW</t>
+          <t>USB-PP</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>RELX</t>
+          <t>SNOW</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>RELX</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>MRVL</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>WBD</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>TEL</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>AJG</t>
+          <t>NET</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>FTNT</t>
+          <t>AJG</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CNI</t>
+          <t>FTNT</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>DUK-PA</t>
+          <t>CNI</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>RACE</t>
+          <t>DUK-PA</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CTA-PB</t>
+          <t>RACE</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>URI</t>
+          <t>RKT</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>NXPI</t>
+          <t>CTA-PB</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ADSK</t>
+          <t>URI</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>COIN</t>
+          <t>NXPI</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>NDAQ</t>
+          <t>ADSK</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>COIN</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>IDXX</t>
+          <t>NDAQ</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>MPLX</t>
+          <t>SRE</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>TRI</t>
+          <t>IDXX</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BIDU</t>
+          <t>MPLX</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>TRI</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>ZTS</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>CMG</t>
+          <t>BIDU</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>RBLX</t>
+          <t>PYPL</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>VST</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SCHW-PD</t>
+          <t>CMG</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>WDAY</t>
+          <t>RBLX</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>FNV</t>
+          <t>EA</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>EW</t>
+          <t>SCHW-PD</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ARES</t>
+          <t>WDAY</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>CRWV</t>
+          <t>CBRE</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>AXON</t>
+          <t>FNV</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>EW</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ALNY</t>
+          <t>ARES</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>CTA-PA</t>
+          <t>CRWV</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>HEI</t>
+          <t>AXON</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>DDOG</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>KGC</t>
+          <t>ALNY</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>MSCI</t>
+          <t>CTA-PA</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>TTWO</t>
+          <t>HEI</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SPG-PJ</t>
+          <t>MSTR</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>KGC</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ROP</t>
+          <t>MSCI</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>JD</t>
+          <t>TTWO</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>RKLB</t>
+          <t>SPG-PJ</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>MET-PA</t>
+          <t>WCN</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>ROP</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>TCOM</t>
+          <t>JD</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>LVS</t>
+          <t>MET-PE</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>AIG</t>
+          <t>RKLB</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>IQV</t>
+          <t>MET-PA</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>RDDT</t>
+          <t>CTSH</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>CPRT</t>
+          <t>TCOM</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>XYZ</t>
+          <t>LVS</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>HEI-A</t>
+          <t>AIG</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ALC</t>
+          <t>IQV</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>GRMN</t>
+          <t>RDDT</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CPRT</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>PRU</t>
+          <t>XYZ</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>HEI-A</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>CCI</t>
+          <t>ALC</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>MDLN</t>
+          <t>GRMN</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>FICO</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>VEEV</t>
+          <t>PRU</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>GEHC</t>
+          <t>PAYX</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>FISV</t>
+          <t>CCI</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>TEAM</t>
+          <t>MDLN</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>VTR</t>
+          <t>FICO</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>CPNG</t>
+          <t>VEEV</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>OTIS</t>
+          <t>GEHC</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>CLS</t>
+          <t>FISV</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>SYM</t>
+          <t>TEAM</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>APO-PA</t>
+          <t>VTR</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>SATS</t>
+          <t>CPNG</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>LYV</t>
+          <t>OTIS</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>CLS</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>INSM</t>
+          <t>SYM</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>NTRA</t>
+          <t>APO-PA</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>MDB</t>
+          <t>XYL</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>PCG</t>
+          <t>SATS</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>EXPE</t>
+          <t>LYV</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>CHT</t>
+          <t>ZS</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>PSA-PK</t>
+          <t>INSM</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>SOFI</t>
+          <t>NTRA</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ALL-PB</t>
+          <t>RJF</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>FOXA</t>
+          <t>MDB</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>HUM</t>
+          <t>PCG</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>EXR</t>
+          <t>EXPE</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>FIS</t>
+          <t>CHT</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>FOX</t>
+          <t>PSA-PK</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>ALL-PH</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>QSR</t>
+          <t>SOFI</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>FLUT</t>
+          <t>ALL-PB</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>VICI</t>
+          <t>FOXA</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>AMRZ</t>
+          <t>HUM</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>BNTX</t>
+          <t>EXR</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>MTD</t>
+          <t>FIS</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>SYF</t>
+          <t>FOX</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>VRSK</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>HPE</t>
+          <t>QSR</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>TME</t>
+          <t>FLUT</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>STLA</t>
+          <t>VICI</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>CSGP</t>
+          <t>AMRZ</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>IRM</t>
+          <t>BNTX</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ALAB</t>
+          <t>MTD</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>PAAS</t>
+          <t>SYF</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>WIT</t>
+          <t>UMC</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>BRO</t>
+          <t>HPE</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>EXE</t>
+          <t>TME</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>NMR</t>
+          <t>STLA</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>EFX</t>
+          <t>CSGP</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IRM</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>ALAB</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>MKL</t>
+          <t>PAAS</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>WIT</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>AWK</t>
+          <t>BRO</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>OMC</t>
+          <t>EXE</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>STM</t>
+          <t>NMR</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>AVB</t>
+          <t>LEN-B</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>VLTO</t>
+          <t>EFX</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>DLR-PK</t>
+          <t>FSLR</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>GFS</t>
+          <t>MKL</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>EQR</t>
+          <t>DLTR</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AWK</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>LDOS</t>
+          <t>OMC</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>PSTG</t>
+          <t>STM</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>AXIA-PC</t>
+          <t>AVB</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ILMN</t>
+          <t>VLTO</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>TPG</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>TROW</t>
+          <t>DLR-PK</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>FCNCA</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>GFS</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>CRDO</t>
+          <t>EQR</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>NBIS</t>
+          <t>BR</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>CPAY</t>
+          <t>LDOS</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>PSTG</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>OWL</t>
+          <t>AXIA-PC</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>CNC</t>
+          <t>ILMN</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>FUTU</t>
+          <t>VRSN</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>AFRM</t>
+          <t>TPG</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>DLR-PJ</t>
+          <t>TROW</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>TLK</t>
+          <t>WAT</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>CYBR</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>FWONK</t>
+          <t>CRDO</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>PSLV</t>
+          <t>NBIS</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>FWONA</t>
+          <t>CPAY</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>LULU</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>RL</t>
+          <t>OWL</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>UTHR</t>
+          <t>CNC</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>GPN</t>
+          <t>FUTU</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>AFRM</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>SSNC</t>
+          <t>DLR-PJ</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>TWLO</t>
+          <t>TLK</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>CYBR</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>FWONK</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>SBAC</t>
+          <t>PSLV</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>CHKP</t>
+          <t>FWONA</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>CG</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>NTAP</t>
+          <t>RL</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>TOST</t>
+          <t>UTHR</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>GIB</t>
+          <t>GPN</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>RIVN</t>
+          <t>AS</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>PODD</t>
+          <t>SSNC</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>TYL</t>
+          <t>TWLO</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>RVMD</t>
+          <t>IHG</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>KTOS</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>HIG-PG</t>
+          <t>INCY</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>GRAB</t>
+          <t>HL</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>SBAC</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>CHKP</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>SMCI</t>
+          <t>PTC</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>HPQ</t>
+          <t>NTAP</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>CRCL</t>
+          <t>TOST</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>FITBI</t>
+          <t>GIB</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>XPEV</t>
+          <t>RIVN</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>PODD</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>PSNYW</t>
+          <t>TYL</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>AGI</t>
+          <t>RVMD</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>ALLY</t>
+          <t>KTOS</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>HIG-PG</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>PINS</t>
+          <t>GRAB</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>ESS</t>
+          <t>IOT</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>HUBS</t>
+          <t>SMCI</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ZBH</t>
+          <t>DKS</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>NWS</t>
+          <t>HPQ</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>LNT</t>
+          <t>CRCL</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>LI</t>
+          <t>FITBI</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>XPEV</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>IT</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>PSNYW</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>MEDP</t>
+          <t>AGI</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>JLL</t>
+          <t>ALLY</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>PNR</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>PINS</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>HOLX</t>
+          <t>ESS</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>TKO</t>
+          <t>WST</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>HUBS</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>WES</t>
+          <t>ZBH</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>NWS</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>LI</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>INVH</t>
+          <t>ZG</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>MKC</t>
+          <t>FN</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>CDE</t>
+          <t>TRMB</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>NLY</t>
+          <t>MEDP</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>JLL</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>MKC-V</t>
+          <t>QXO</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>MAA</t>
+          <t>TXT</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>OKTA</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>COO</t>
+          <t>HOLX</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>TLN</t>
+          <t>CDW</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>GFL</t>
+          <t>WES</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>WMG</t>
+          <t>TRU</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>KSPI</t>
+          <t>TTD</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ROKU</t>
+          <t>INVH</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ROIV</t>
+          <t>MKC</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>GEN</t>
+          <t>CDE</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>NWSA</t>
+          <t>NLY</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>HTHT</t>
+          <t>MKC-V</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>MAA</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>ONON</t>
+          <t>OKTA</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>DKNG</t>
+          <t>COO</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>AVAV</t>
+          <t>TLN</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>MGA</t>
+          <t>GFL</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>KEY-PI</t>
+          <t>WMG</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>KSPI</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>HMY</t>
+          <t>ROKU</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>ULS</t>
+          <t>ROIV</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>GDDY</t>
+          <t>GEN</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>ERIE</t>
+          <t>NWSA</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>ARCC</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ICLR</t>
+          <t>HTHT</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>FIG</t>
+          <t>IONQ</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>RGC</t>
+          <t>ONON</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>RF-PC</t>
+          <t>CRBG</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>AKAM</t>
+          <t>DKNG</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>EVR</t>
+          <t>AVAV</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>CELH</t>
+          <t>MGA</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>DPZ</t>
+          <t>KEY-PI</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>BBY</t>
+          <t>MLI</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>HMY</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>SBSW</t>
+          <t>ULS</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>LOGI</t>
+          <t>GDDY</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>EQH</t>
+          <t>ERIE</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>GWRE</t>
+          <t>ARCC</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>SOLV</t>
+          <t>ICLR</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>RBRK</t>
+          <t>FIG</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>FIGR</t>
+          <t>RGC</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>NLY-PG</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>NLY-PF</t>
+          <t>AKAM</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>AMH</t>
+          <t>EVR</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>OHI</t>
+          <t>CELH</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>RVTY</t>
+          <t>DPZ</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>JKHY</t>
+          <t>BBY</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>RYAN</t>
+          <t>EMBJ</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>UDR</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>PSKY</t>
+          <t>SBSW</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>CHWY</t>
+          <t>LOGI</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>LAMR</t>
+          <t>EQH</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>UNM</t>
+          <t>GWRE</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>SNAP</t>
+          <t>SOLV</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>JEF</t>
+          <t>BILI</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>BNT</t>
+          <t>RBRK</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>OKLO</t>
+          <t>FIGR</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>HLI</t>
+          <t>NLY-PG</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>GLPI</t>
+          <t>NLY-PF</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>EQX</t>
+          <t>AMH</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>IVZ</t>
+          <t>OHI</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>RVTY</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>AGNC</t>
+          <t>JKHY</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>BMNR</t>
+          <t>RYAN</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>GLXY</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>GMED</t>
+          <t>PSKY</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>AMKR</t>
+          <t>CHWY</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>LAMR</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>ZBRA</t>
+          <t>UNM</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>TXRH</t>
+          <t>SNAP</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>JEF</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>SMMT</t>
+          <t>BNT</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>RMBS</t>
+          <t>OKLO</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>HLI</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>ALGN</t>
+          <t>GLPI</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>JOBY</t>
+          <t>EQX</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>SUZ</t>
+          <t>IVZ</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>ACM</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>CMA</t>
+          <t>AGNC</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>TEM</t>
+          <t>BMNR</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>WYNN</t>
+          <t>GLXY</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>EXEL</t>
+          <t>GMED</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>NTNX</t>
+          <t>AMKR</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>BSY</t>
+          <t>DT</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>NIO</t>
+          <t>ZBRA</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>DOCU</t>
+          <t>TXRH</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>CPT</t>
+          <t>DOC</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>BXP</t>
+          <t>SMMT</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>CEF</t>
+          <t>RMBS</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>MDGL</t>
+          <t>EPAM</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>ALGN</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>MICC</t>
+          <t>JOBY</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>WTRG</t>
+          <t>SUZ</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>SARO</t>
+          <t>CR</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>CMA</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>MOH</t>
+          <t>TEM</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>MANH</t>
+          <t>WYNN</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>FDS</t>
+          <t>EXEL</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>NTNX</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>CART</t>
+          <t>BSY</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>PAG</t>
+          <t>NIO</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>TECH</t>
+          <t>DOCU</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>CAE</t>
+          <t>CPT</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>YMM</t>
+          <t>BXP</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>ENSG</t>
+          <t>LSCC</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>PCOR</t>
+          <t>CEF</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>KLAR</t>
+          <t>MDGL</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>ARMK</t>
+          <t>BAH</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>CHYM</t>
+          <t>MICC</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>CNM</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>SANM</t>
+          <t>WTRG</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>NGD</t>
+          <t>SARO</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>VNO-PM</t>
+          <t>CRL</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>COMP</t>
+          <t>AR</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>BIO-B</t>
+          <t>MOH</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>EHC</t>
+          <t>MANH</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>ALV</t>
+          <t>FDS</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>SOLS</t>
+          <t>AFG</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>CART</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>EGO</t>
+          <t>PAG</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>BROS</t>
+          <t>SEIC</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>AAL</t>
+          <t>TECH</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>ORI</t>
+          <t>CAE</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>AYI</t>
+          <t>YMM</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>ABVX</t>
+          <t>ENSG</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>HSIC</t>
+          <t>PCOR</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>KNSL</t>
+          <t>KLAR</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>IESC</t>
+          <t>ARMK</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>UWMC</t>
+          <t>CHYM</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>GS-PC</t>
+          <t>SAIL</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>RGEN</t>
+          <t>SANM</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>DOX</t>
+          <t>NGD</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>STEP</t>
+          <t>COMP</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>BIO-B</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>SWKS</t>
+          <t>EHC</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>MORN</t>
+          <t>ALV</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>GGAL</t>
+          <t>SOLS</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>QBTS</t>
+          <t>ARE</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>TTAN</t>
+          <t>EGO</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>RZB</t>
+          <t>BROS</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>FRT</t>
+          <t>AAL</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>AGNCM</t>
+          <t>ORI</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>AGNCN</t>
+          <t>AYI</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>PEGA</t>
+          <t>ABVX</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>AHR</t>
+          <t>HSIC</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>VIPS</t>
+          <t>KNSL</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>IESC</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>AUR</t>
+          <t>UWMC</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>IDCC</t>
+          <t>GS-PC</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>RGEN</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>LEVI</t>
+          <t>DOX</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>SWKS</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>MORN</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>AMG</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>GGAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>QBTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>TTAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>RZB</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>FRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>AGNCM</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>AGNCN</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>PEGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>AHR</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>VIPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>AUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>IDCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>LEVI</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
         <is>
           <t>ADC</t>
         </is>

--- a/scan_skipped.xlsx
+++ b/scan_skipped.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A473"/>
+  <dimension ref="A1:A503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,3232 +501,3442 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>JPM-PD</t>
+          <t>GS</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>JPM-PC</t>
+          <t>JPM-PD</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>JPM-PC</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>UNH</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BAC-PK</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BAC-PL</t>
+          <t>BAC-PK</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NVO</t>
+          <t>BAC-PL</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>NVO</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>SAP</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BML-PL</t>
+          <t>IBM</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BAC-PB</t>
+          <t>BML-PL</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>BAC-PB</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>AXP</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CRM</t>
+          <t>TMO</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>KLAC</t>
+          <t>CRM</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>WFC-PY</t>
+          <t>KLAC</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>WFC-PY</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>DIS</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>WFC-PL</t>
+          <t>BA</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>WFC-PL</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ISRG</t>
+          <t>APH</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>ISRG</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BX</t>
+          <t>ABT</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>BX</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SHOP</t>
+          <t>APP</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>SHOP</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BLK</t>
+          <t>ACN</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>BLK</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>DHR</t>
+          <t>UBER</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TJX</t>
+          <t>DHR</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>TJX</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>BKNG</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SPGI</t>
+          <t>QCOM</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>SPGI</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PDD</t>
+          <t>INTU</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>PDD</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>COF</t>
+          <t>PFE</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BSX</t>
+          <t>NOW</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SONY</t>
+          <t>COF</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>BSX</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>SONY</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>WELL</t>
+          <t>PANW</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PGR</t>
+          <t>ADBE</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>WELL</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>WFC-PC</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MELI</t>
+          <t>VRTX</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>PGR</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>AEM</t>
+          <t>ARM</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>CRWD</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BN</t>
+          <t>MELI</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SPOT</t>
+          <t>KKR</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>AEM</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>CVS</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CVNA</t>
+          <t>BN</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ICE</t>
+          <t>SPOT</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>ADP</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SNPS</t>
+          <t>CEG</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>CVNA</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>ICE</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>GD</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>SNPS</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>HOOD</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>NKE</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>HWM</t>
+          <t>MCO</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>NTES</t>
+          <t>DASH</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ELV</t>
+          <t>CDNS</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MS-PK</t>
+          <t>HWM</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>AMT</t>
+          <t>NTES</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BAM</t>
+          <t>ELV</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MS-PI</t>
+          <t>MMM</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ABNB</t>
+          <t>MS-PK</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>AMT</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>MS-PF</t>
+          <t>BK</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MS-PE</t>
+          <t>BAM</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CTAS</t>
+          <t>MS-PI</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>APO</t>
+          <t>CRH</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>ABNB</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>TDG</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>USB-PP</t>
+          <t>REGN</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SNOW</t>
+          <t>MS-PF</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>RELX</t>
+          <t>MS-PE</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>CTAS</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>DELL</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>APO</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>INFY</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>AJG</t>
+          <t>SE</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>FTNT</t>
+          <t>USB-PP</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CNI</t>
+          <t>SNOW</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>DUK-PA</t>
+          <t>RELX</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>RACE</t>
+          <t>MRVL</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>RKT</t>
+          <t>WBD</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CTA-PB</t>
+          <t>RSG</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>URI</t>
+          <t>WPM</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>NXPI</t>
+          <t>TEL</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ADSK</t>
+          <t>NET</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>COIN</t>
+          <t>AJG</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>NDAQ</t>
+          <t>FTNT</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>CNI</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>IDXX</t>
+          <t>DUK-PA</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>MPLX</t>
+          <t>RACE</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>TRI</t>
+          <t>RKT</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ZTS</t>
+          <t>CTA-PB</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BIDU</t>
+          <t>URI</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>NXPI</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>ADSK</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>CMG</t>
+          <t>COIN</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>RBLX</t>
+          <t>NDAQ</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SRE</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>SCHW-PD</t>
+          <t>IDXX</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>WDAY</t>
+          <t>MPLX</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>CBRE</t>
+          <t>TRI</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>FNV</t>
+          <t>ZTS</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>EW</t>
+          <t>AU</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ARES</t>
+          <t>BIDU</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>CRWV</t>
+          <t>PYPL</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>AXON</t>
+          <t>VST</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>CMG</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ALNY</t>
+          <t>RBLX</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>CTA-PA</t>
+          <t>MET</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>HEI</t>
+          <t>EA</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>SCHW-PD</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>KGC</t>
+          <t>WDAY</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>MSCI</t>
+          <t>CBRE</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>TTWO</t>
+          <t>FNV</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>SPG-PJ</t>
+          <t>EW</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>ARES</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ROP</t>
+          <t>CRWV</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>JD</t>
+          <t>AXON</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>MET-PE</t>
+          <t>DDOG</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>RKLB</t>
+          <t>ALNY</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>MET-PA</t>
+          <t>CTA-PA</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>HEI</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>TCOM</t>
+          <t>MSTR</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>LVS</t>
+          <t>KGC</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>AIG</t>
+          <t>MSCI</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>IQV</t>
+          <t>TTWO</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>RDDT</t>
+          <t>SPG-PJ</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>CPRT</t>
+          <t>WCN</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>XYZ</t>
+          <t>ROP</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>HEI-A</t>
+          <t>JD</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ALC</t>
+          <t>MET-PE</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>GRMN</t>
+          <t>RKLB</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>MET-PA</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>PRU</t>
+          <t>CTSH</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>TCOM</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>CCI</t>
+          <t>LVS</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>MDLN</t>
+          <t>AIG</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>FICO</t>
+          <t>IQV</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>VEEV</t>
+          <t>RDDT</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>GEHC</t>
+          <t>CPRT</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>FISV</t>
+          <t>XYZ</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>TEAM</t>
+          <t>HEI-A</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>VTR</t>
+          <t>ALC</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>CPNG</t>
+          <t>GRMN</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>OTIS</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>CLS</t>
+          <t>PRU</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>SYM</t>
+          <t>PAYX</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>APO-PA</t>
+          <t>CCI</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>XYL</t>
+          <t>MDLN</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>SATS</t>
+          <t>RMD</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>LYV</t>
+          <t>FICO</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>VEEV</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>INSM</t>
+          <t>GEHC</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>NTRA</t>
+          <t>FISV</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>RJF</t>
+          <t>TEAM</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>MDB</t>
+          <t>VTR</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>PCG</t>
+          <t>CPNG</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>EXPE</t>
+          <t>STT</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>CHT</t>
+          <t>OTIS</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>PSA-PK</t>
+          <t>CLS</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ALL-PH</t>
+          <t>SYM</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>SOFI</t>
+          <t>APO-PA</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ALL-PB</t>
+          <t>XYL</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>FOXA</t>
+          <t>SATS</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>HUM</t>
+          <t>LYV</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>EXR</t>
+          <t>ZS</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>FIS</t>
+          <t>INSM</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>FOX</t>
+          <t>NTRA</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>RJF</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>QSR</t>
+          <t>MDB</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>FLUT</t>
+          <t>PCG</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>VICI</t>
+          <t>EXPE</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>AMRZ</t>
+          <t>CHT</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>BNTX</t>
+          <t>PSA-PK</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>MTD</t>
+          <t>ALL-PH</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>SYF</t>
+          <t>SOFI</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>ALL-PB</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>HPE</t>
+          <t>FOXA</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>TME</t>
+          <t>HUM</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>STLA</t>
+          <t>EXR</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>CSGP</t>
+          <t>FIS</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>IRM</t>
+          <t>FOX</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ALAB</t>
+          <t>VRSK</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>PAAS</t>
+          <t>QSR</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>WIT</t>
+          <t>FLUT</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>BRO</t>
+          <t>VICI</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>EXE</t>
+          <t>AMRZ</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>NMR</t>
+          <t>BNTX</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>LEN-B</t>
+          <t>MTD</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>EFX</t>
+          <t>NRG</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>SYF</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>UMC</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>MKL</t>
+          <t>HPE</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>TME</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>AWK</t>
+          <t>STLA</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>OMC</t>
+          <t>CSGP</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>STM</t>
+          <t>IRM</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>AVB</t>
+          <t>ALAB</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>VLTO</t>
+          <t>PAAS</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>WIT</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>DLR-PK</t>
+          <t>BRO</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>FCNCA</t>
+          <t>EXE</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>GFS</t>
+          <t>NMR</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>EQR</t>
+          <t>LEN-B</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>EFX</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>LDOS</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>PSTG</t>
+          <t>TPR</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>AXIA-PC</t>
+          <t>FSLR</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ILMN</t>
+          <t>MKL</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>VRSN</t>
+          <t>AER</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>TPG</t>
+          <t>DLTR</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>TROW</t>
+          <t>AWK</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>OMC</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>STM</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>CRDO</t>
+          <t>AVB</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>NBIS</t>
+          <t>VLTO</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>CPAY</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>DLR-PK</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>OWL</t>
+          <t>FCNCA</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>CNC</t>
+          <t>GFS</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>FUTU</t>
+          <t>RGLD</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>AFRM</t>
+          <t>BR</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>DLR-PJ</t>
+          <t>LDOS</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>TLK</t>
+          <t>PSTG</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>CYBR</t>
+          <t>SQM</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>FWONK</t>
+          <t>AXIA-PC</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>PSLV</t>
+          <t>ILMN</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>FWONA</t>
+          <t>VRSN</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>TPG</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>RL</t>
+          <t>TROW</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>UTHR</t>
+          <t>WAT</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>GPN</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>CRDO</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>SSNC</t>
+          <t>NBIS</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>TWLO</t>
+          <t>CPAY</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>IHG</t>
+          <t>LULU</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>OWL</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>INCY</t>
+          <t>CNC</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>FUTU</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>SBAC</t>
+          <t>AFRM</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>CHKP</t>
+          <t>SW</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>DLR-PJ</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>NTAP</t>
+          <t>TLK</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>TOST</t>
+          <t>CYBR</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>GIB</t>
+          <t>FWONK</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>RIVN</t>
+          <t>ALB</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>PODD</t>
+          <t>PSLV</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>TYL</t>
+          <t>FWONA</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>RVMD</t>
+          <t>CG</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>KTOS</t>
+          <t>RL</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>HIG-PG</t>
+          <t>UTHR</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>GRAB</t>
+          <t>GPN</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>AS</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>SSNC</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>SMCI</t>
+          <t>TWLO</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>DKS</t>
+          <t>IHG</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>HPQ</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>CRCL</t>
+          <t>INCY</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>FITBI</t>
+          <t>HL</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>XPEV</t>
+          <t>SBAC</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>CHKP</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>PSNYW</t>
+          <t>PTC</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>AGI</t>
+          <t>NTAP</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ALLY</t>
+          <t>TOST</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>GIB</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>PINS</t>
+          <t>RIVN</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>ESS</t>
+          <t>PODD</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>TYL</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>HUBS</t>
+          <t>RVMD</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>ZBH</t>
+          <t>KTOS</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>NWS</t>
+          <t>HIG-PG</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>LI</t>
+          <t>GRAB</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>IOT</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>FTV</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>MEDP</t>
+          <t>SMCI</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>JLL</t>
+          <t>DKS</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>QXO</t>
+          <t>HPQ</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CRCL</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>FITBI</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>HOLX</t>
+          <t>XPEV</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>IT</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>WES</t>
+          <t>PSNYW</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>AGI</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>ALLY</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>INVH</t>
+          <t>PNR</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>MKC</t>
+          <t>PINS</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>CDE</t>
+          <t>ESS</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>NLY</t>
+          <t>SN</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>WST</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>MKC-V</t>
+          <t>HUBS</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>MAA</t>
+          <t>ZBH</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>OKTA</t>
+          <t>NWS</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>COO</t>
+          <t>LI</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>TLN</t>
+          <t>ZG</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>GFL</t>
+          <t>FN</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>WMG</t>
+          <t>TRMB</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>KSPI</t>
+          <t>MEDP</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>ROKU</t>
+          <t>JLL</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>ROIV</t>
+          <t>QXO</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>GEN</t>
+          <t>TXT</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>NWSA</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>HOLX</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>HTHT</t>
+          <t>TKO</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>CDW</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>ONON</t>
+          <t>WES</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>CRBG</t>
+          <t>TRU</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>DKNG</t>
+          <t>TTD</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>AVAV</t>
+          <t>INVH</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>MGA</t>
+          <t>MKC</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>KEY-PI</t>
+          <t>CDE</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>NLY</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>HMY</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>ULS</t>
+          <t>MKC-V</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>GDDY</t>
+          <t>MAA</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>ERIE</t>
+          <t>OKTA</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>ARCC</t>
+          <t>COO</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>ICLR</t>
+          <t>TLN</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>FIG</t>
+          <t>GFL</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>RGC</t>
+          <t>WMG</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>KSPI</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>AKAM</t>
+          <t>ROKU</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>EVR</t>
+          <t>ROIV</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>CELH</t>
+          <t>GEN</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>DPZ</t>
+          <t>NWSA</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>BBY</t>
+          <t>EWBC</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>EMBJ</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>HTHT</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>SBSW</t>
+          <t>IONQ</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>LOGI</t>
+          <t>ONON</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>EQH</t>
+          <t>CRBG</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>GWRE</t>
+          <t>DKNG</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>SOLV</t>
+          <t>AVAV</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>BILI</t>
+          <t>MGA</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>RBRK</t>
+          <t>KEY-PI</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>FIGR</t>
+          <t>MLI</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>NLY-PG</t>
+          <t>HMY</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>NLY-PF</t>
+          <t>ULS</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>AMH</t>
+          <t>GDDY</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>OHI</t>
+          <t>ARCC</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>RVTY</t>
+          <t>ICLR</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>JKHY</t>
+          <t>FIG</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>RYAN</t>
+          <t>RGC</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>RF-PC</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>PSKY</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>CHWY</t>
+          <t>AKAM</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>LAMR</t>
+          <t>EVR</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>UNM</t>
+          <t>CELH</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>SNAP</t>
+          <t>DPZ</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>JEF</t>
+          <t>BBY</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>BNT</t>
+          <t>EMBJ</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>OKLO</t>
+          <t>UDR</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>HLI</t>
+          <t>SBSW</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>GLPI</t>
+          <t>LOGI</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>EQX</t>
+          <t>EQH</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>IVZ</t>
+          <t>GWRE</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>SOLV</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>AGNC</t>
+          <t>BILI</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>BMNR</t>
+          <t>RBRK</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>GLXY</t>
+          <t>FIGR</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>GMED</t>
+          <t>NLY-PF</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>AMKR</t>
+          <t>AMH</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>OHI</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>ZBRA</t>
+          <t>RVTY</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>TXRH</t>
+          <t>JKHY</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>RYAN</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>SMMT</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>RMBS</t>
+          <t>PSKY</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>CHWY</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>ALGN</t>
+          <t>LAMR</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>JOBY</t>
+          <t>UNM</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>SUZ</t>
+          <t>SNAP</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>JEF</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>CMA</t>
+          <t>BNT</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>TEM</t>
+          <t>OKLO</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>WYNN</t>
+          <t>HLI</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>EXEL</t>
+          <t>GLPI</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>NTNX</t>
+          <t>EQX</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>BSY</t>
+          <t>IVZ</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>NIO</t>
+          <t>ACM</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>DOCU</t>
+          <t>AGNC</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>CPT</t>
+          <t>BMNR</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>BXP</t>
+          <t>GLXY</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>LSCC</t>
+          <t>AG</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>CEF</t>
+          <t>GMED</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>MDGL</t>
+          <t>AMKR</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>DT</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>MICC</t>
+          <t>ZBRA</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>CNM</t>
+          <t>TXRH</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>WTRG</t>
+          <t>DOC</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>SARO</t>
+          <t>SMMT</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>RMBS</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>EPAM</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>MOH</t>
+          <t>ALGN</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>MANH</t>
+          <t>JOBY</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>FDS</t>
+          <t>SUZ</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>CR</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>CART</t>
+          <t>CMA</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>PAG</t>
+          <t>TEM</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>SEIC</t>
+          <t>WYNN</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>TECH</t>
+          <t>EXEL</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>CAE</t>
+          <t>NTNX</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>YMM</t>
+          <t>BSY</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>ENSG</t>
+          <t>NIO</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>PCOR</t>
+          <t>DOCU</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>KLAR</t>
+          <t>CPT</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>ARMK</t>
+          <t>BXP</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>CHYM</t>
+          <t>LSCC</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>STN</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>SANM</t>
+          <t>CEF</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>NGD</t>
+          <t>MDGL</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>COMP</t>
+          <t>BAH</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>BIO-B</t>
+          <t>MICC</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>EHC</t>
+          <t>CNM</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>ALV</t>
+          <t>MP</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>SOLS</t>
+          <t>SARO</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>CRL</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>EGO</t>
+          <t>AR</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>BROS</t>
+          <t>MOH</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>AAL</t>
+          <t>MANH</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>ORI</t>
+          <t>FDS</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>AYI</t>
+          <t>CART</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>ABVX</t>
+          <t>PAG</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>HSIC</t>
+          <t>SEIC</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>KNSL</t>
+          <t>TECH</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>IESC</t>
+          <t>CAE</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>UWMC</t>
+          <t>YMM</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>GS-PC</t>
+          <t>ENSG</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>RGEN</t>
+          <t>ONTO</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>DOX</t>
+          <t>PCOR</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>STEP</t>
+          <t>KLAR</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARMK</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>SWKS</t>
+          <t>JAZZ</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>MORN</t>
+          <t>CHYM</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>AMG</t>
+          <t>SAIL</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>GGAL</t>
+          <t>SANM</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>QBTS</t>
+          <t>NGD</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>TTAN</t>
+          <t>COMP</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>RZB</t>
+          <t>BIO-B</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>FRT</t>
+          <t>EHC</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>AGNCM</t>
+          <t>ALV</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>AGNCN</t>
+          <t>SOLS</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>PEGA</t>
+          <t>WAL</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>AHR</t>
+          <t>ARE</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>VIPS</t>
+          <t>EGO</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>BROS</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>AUR</t>
+          <t>AAL</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>IDCC</t>
+          <t>ORI</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>AYI</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>LEVI</t>
+          <t>ABVX</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
+        <is>
+          <t>HSIC</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>KNSL</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>IESC</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>MGM</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>UWMC</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>GS-PC</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>RGEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>DOX</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>SWKS</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>MORN</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>AMG</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>LUMN</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>GGAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>QBTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>TTAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>RZB</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>FRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>AGNCM</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>AGNCN</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>RRC</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>PEGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>AHR</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>VIPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>AUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>IDCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>LEVI</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
         <is>
           <t>ADC</t>
         </is>

--- a/scan_skipped.xlsx
+++ b/scan_skipped.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A503"/>
+  <dimension ref="A1:A536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,3470 +473,3701 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>V</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BABA</t>
+          <t>ORCL</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>BABA</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>PLTR</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>NFLX</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>JPM-PD</t>
+          <t>GS</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>JPM-PC</t>
+          <t>JPM-PD</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>JPM-PC</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>UNH</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BAC-PK</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BAC-PL</t>
+          <t>BAC-PK</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NVO</t>
+          <t>GE</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>BAC-PL</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>NVO</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BML-PL</t>
+          <t>SAP</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BAC-PB</t>
+          <t>IBM</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>BAC-PE</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>BML-PL</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CRM</t>
+          <t>AMAT</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>KLAC</t>
+          <t>BAC-PB</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>WFC-PY</t>
+          <t>AXP</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>TMO</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>CRM</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>WFC-PL</t>
+          <t>KLAC</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>WFC-PY</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ISRG</t>
+          <t>DIS</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>BA</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BX</t>
+          <t>WFC-PL</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>APH</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SHOP</t>
+          <t>ISRG</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>ABT</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BLK</t>
+          <t>SAN</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>BX</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>DHR</t>
+          <t>APP</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>TJX</t>
+          <t>ANET</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>SHOP</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>ACN</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SPGI</t>
+          <t>BLK</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>UBER</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PDD</t>
+          <t>DHR</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>TJX</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>BKNG</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>COF</t>
+          <t>QCOM</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BSX</t>
+          <t>SPGI</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SONY</t>
+          <t>INTU</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>PDD</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>PFE</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>WELL</t>
+          <t>NOW</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>WFC-PC</t>
+          <t>COF</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>VRTX</t>
+          <t>BSX</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PGR</t>
+          <t>NEM</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>SONY</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>SYK</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MELI</t>
+          <t>PANW</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>ADBE</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>AEM</t>
+          <t>WELL</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>WFC-PC</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BN</t>
+          <t>PGR</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SPOT</t>
+          <t>ARM</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>CRWD</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>MELI</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CVNA</t>
+          <t>KKR</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ICE</t>
+          <t>AEM</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>CVS</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SNPS</t>
+          <t>BN</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>SPOT</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>ADP</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>CEG</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>CVNA</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>ICE</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>GD</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>HWM</t>
+          <t>SNPS</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>NTES</t>
+          <t>HOOD</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ELV</t>
+          <t>NKE</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>MCO</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MS-PK</t>
+          <t>DASH</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>AMT</t>
+          <t>CDNS</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BK</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BAM</t>
+          <t>HWM</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>MS-PI</t>
+          <t>NTES</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>CRH</t>
+          <t>ELV</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ABNB</t>
+          <t>MMM</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>MS-PK</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>REGN</t>
+          <t>AMT</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>MS-PF</t>
+          <t>BK</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>MS-PE</t>
+          <t>BAM</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CTAS</t>
+          <t>MS-PI</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>CRH</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>APO</t>
+          <t>ABNB</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>TDG</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>MS-PF</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>USB-PP</t>
+          <t>MS-PE</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SNOW</t>
+          <t>EQIX</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>RELX</t>
+          <t>CTAS</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>DELL</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>APO</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>RSG</t>
+          <t>INFY</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>WPM</t>
+          <t>CI</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>SE</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>USB-PP</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>AJG</t>
+          <t>SNOW</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>FTNT</t>
+          <t>GS-PD</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>CNI</t>
+          <t>RELX</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>DUK-PA</t>
+          <t>MRVL</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>RACE</t>
+          <t>WBD</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>RKT</t>
+          <t>WPM</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>CTA-PB</t>
+          <t>TEL</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>URI</t>
+          <t>NET</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>NXPI</t>
+          <t>AJG</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ADSK</t>
+          <t>FTNT</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>COIN</t>
+          <t>CNI</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>NDAQ</t>
+          <t>DUK-PA</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>RACE</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>IDXX</t>
+          <t>RKT</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>MPLX</t>
+          <t>CTA-PB</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>TRI</t>
+          <t>URI</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ZTS</t>
+          <t>NXPI</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ADSK</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BIDU</t>
+          <t>COIN</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>NDAQ</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>SRE</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>CMG</t>
+          <t>IDXX</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>RBLX</t>
+          <t>MPLX</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>MET</t>
+          <t>TRI</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZTS</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SCHW-PD</t>
+          <t>AU</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>WDAY</t>
+          <t>BIDU</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>CBRE</t>
+          <t>PYPL</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>FNV</t>
+          <t>VST</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>EW</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ARES</t>
+          <t>CMG</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>CRWV</t>
+          <t>RBLX</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>AXON</t>
+          <t>MET</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>EA</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ALNY</t>
+          <t>SCHW-PD</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>CTA-PA</t>
+          <t>WDAY</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>HEI</t>
+          <t>CBRE</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>FNV</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>KGC</t>
+          <t>EW</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>MSCI</t>
+          <t>ARES</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>TTWO</t>
+          <t>CRWV</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SPG-PJ</t>
+          <t>AXON</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>DDOG</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ROP</t>
+          <t>ALNY</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>JD</t>
+          <t>CTA-PA</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>MET-PE</t>
+          <t>HEI</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>RKLB</t>
+          <t>MSTR</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>MET-PA</t>
+          <t>KGC</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>MSCI</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>TCOM</t>
+          <t>TTWO</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>LVS</t>
+          <t>SPG-PJ</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>AIG</t>
+          <t>WCN</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>IQV</t>
+          <t>ROP</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>RDDT</t>
+          <t>JD</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>CPRT</t>
+          <t>EBAY</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>XYZ</t>
+          <t>MET-PE</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>HEI-A</t>
+          <t>RKLB</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ALC</t>
+          <t>MET-PA</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>GRMN</t>
+          <t>CTSH</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TCOM</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>PRU</t>
+          <t>LVS</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>AIG</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>CCI</t>
+          <t>IQV</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>MDLN</t>
+          <t>RDDT</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>RMD</t>
+          <t>CPRT</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>FICO</t>
+          <t>XYZ</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>VEEV</t>
+          <t>HEI-A</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>GEHC</t>
+          <t>ALC</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>FISV</t>
+          <t>GRMN</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>TEAM</t>
+          <t>HMC</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>VTR</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>CPNG</t>
+          <t>PRU</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>STT</t>
+          <t>PAYX</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>OTIS</t>
+          <t>CCI</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>CLS</t>
+          <t>MDLN</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>SYM</t>
+          <t>RMD</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>APO-PA</t>
+          <t>FICO</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>XYL</t>
+          <t>VEEV</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>SATS</t>
+          <t>GEHC</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>LYV</t>
+          <t>FISV</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>TEAM</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>INSM</t>
+          <t>CPNG</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>NTRA</t>
+          <t>STT</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>RJF</t>
+          <t>OTIS</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>MDB</t>
+          <t>CLS</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>PCG</t>
+          <t>SYM</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>EXPE</t>
+          <t>APO-PA</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>CHT</t>
+          <t>XYL</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>PSA-PK</t>
+          <t>SATS</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ALL-PH</t>
+          <t>LYV</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>SOFI</t>
+          <t>ZS</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ALL-PB</t>
+          <t>INSM</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>FOXA</t>
+          <t>NTRA</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>HUM</t>
+          <t>KMB</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>EXR</t>
+          <t>RJF</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>FIS</t>
+          <t>MDB</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>FOX</t>
+          <t>PCG</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>EXPE</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>QSR</t>
+          <t>CHT</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>FLUT</t>
+          <t>UI</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>VICI</t>
+          <t>PSA-PK</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>AMRZ</t>
+          <t>ALL-PH</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>BNTX</t>
+          <t>SOFI</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>MTD</t>
+          <t>ALL-PB</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>FOXA</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>SYF</t>
+          <t>HUM</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>EXR</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>HPE</t>
+          <t>FIS</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>TME</t>
+          <t>FOX</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>STLA</t>
+          <t>VRSK</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>CSGP</t>
+          <t>QSR</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>IRM</t>
+          <t>FLUT</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ALAB</t>
+          <t>VICI</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>PAAS</t>
+          <t>AMRZ</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>WIT</t>
+          <t>BNTX</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>BRO</t>
+          <t>MTD</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>EXE</t>
+          <t>NRG</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>NMR</t>
+          <t>SYF</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>LEN-B</t>
+          <t>DXCM</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>EFX</t>
+          <t>ZM</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>UMC</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>TPR</t>
+          <t>HPE</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>TME</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>MKL</t>
+          <t>STLA</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>AER</t>
+          <t>CSGP</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>PHG</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>AWK</t>
+          <t>IRM</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>OMC</t>
+          <t>ALAB</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>STM</t>
+          <t>PAAS</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>AVB</t>
+          <t>WIT</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>VLTO</t>
+          <t>LEN</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>BRO</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>DLR-PK</t>
+          <t>EXE</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>FCNCA</t>
+          <t>NMR</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>GFS</t>
+          <t>EFX</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>RGLD</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TPR</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>LDOS</t>
+          <t>FSLR</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>PSTG</t>
+          <t>MKL</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>SQM</t>
+          <t>AER</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>AXIA-PC</t>
+          <t>DLTR</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ILMN</t>
+          <t>AWK</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>VRSN</t>
+          <t>OMC</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>TPG</t>
+          <t>STM</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>TROW</t>
+          <t>AVB</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>VLTO</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>CRDO</t>
+          <t>DLR-PK</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>NBIS</t>
+          <t>FCNCA</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>CPAY</t>
+          <t>GFS</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>RGLD</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>OWL</t>
+          <t>EQR</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>CNC</t>
+          <t>BR</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>FUTU</t>
+          <t>LDOS</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>AFRM</t>
+          <t>PSTG</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>SQM</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>DLR-PJ</t>
+          <t>FLEX</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>TLK</t>
+          <t>TPL</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>CYBR</t>
+          <t>AXIA-PC</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>FWONK</t>
+          <t>ILMN</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ALB</t>
+          <t>VRSN</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>PSLV</t>
+          <t>TPG</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>FWONA</t>
+          <t>TROW</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>WAT</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>RL</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>UTHR</t>
+          <t>CRDO</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>GPN</t>
+          <t>NBIS</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>CPAY</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>SSNC</t>
+          <t>LULU</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>TWLO</t>
+          <t>OWL</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>IHG</t>
+          <t>CNC</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>FUTU</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>INCY</t>
+          <t>AFRM</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>SW</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>SBAC</t>
+          <t>DLR-PJ</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>CHKP</t>
+          <t>TLK</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>CYBR</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>NTAP</t>
+          <t>FWONK</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>TOST</t>
+          <t>ALB</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>GIB</t>
+          <t>PSLV</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>RIVN</t>
+          <t>FWONA</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>PODD</t>
+          <t>CG</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>TYL</t>
+          <t>RL</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>RVMD</t>
+          <t>UTHR</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>KTOS</t>
+          <t>GPN</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>HIG-PG</t>
+          <t>AS</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>GRAB</t>
+          <t>BEKE</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>SSNC</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>FTV</t>
+          <t>GMAB</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>TWLO</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>SMCI</t>
+          <t>IHG</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>DKS</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>HPQ</t>
+          <t>INCY</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>CRCL</t>
+          <t>HL</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>FITBI</t>
+          <t>SBAC</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>XPEV</t>
+          <t>CHKP</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>PTC</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>PSNYW</t>
+          <t>NTAP</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>AGI</t>
+          <t>TOST</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ALLY</t>
+          <t>GIB</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>RIVN</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>PINS</t>
+          <t>PODD</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ESS</t>
+          <t>TYL</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>RVMD</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>KTOS</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>HUBS</t>
+          <t>MRNA</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ZBH</t>
+          <t>HIG-PG</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>NWS</t>
+          <t>GRAB</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>LI</t>
+          <t>IOT</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>FTV</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>PHYS</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>MEDP</t>
+          <t>SMCI</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>JLL</t>
+          <t>DKS</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>QXO</t>
+          <t>HPQ</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CRCL</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>LII</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>HOLX</t>
+          <t>FITBI</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>TKO</t>
+          <t>XPEV</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>IT</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>WES</t>
+          <t>PSNYW</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>AGI</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>ALLY</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>INVH</t>
+          <t>PNR</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>MKC</t>
+          <t>PINS</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>CDE</t>
+          <t>ESS</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>NLY</t>
+          <t>SN</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>WST</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>MKC-V</t>
+          <t>HUBS</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>MAA</t>
+          <t>ZBH</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>OKTA</t>
+          <t>NWS</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>COO</t>
+          <t>IREN</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>TLN</t>
+          <t>LI</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>GFL</t>
+          <t>ZG</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>WMG</t>
+          <t>FN</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>KSPI</t>
+          <t>TRMB</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>ROKU</t>
+          <t>MEDP</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>ROIV</t>
+          <t>JLL</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>GEN</t>
+          <t>QXO</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>NWSA</t>
+          <t>TXT</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>EWBC</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>HOLX</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>HTHT</t>
+          <t>THC</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>APTV</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ONON</t>
+          <t>TKO</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>CRBG</t>
+          <t>CDW</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>DKNG</t>
+          <t>WES</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>AVAV</t>
+          <t>TRU</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>MGA</t>
+          <t>TTD</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>KEY-PI</t>
+          <t>INVH</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>MKC</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>HMY</t>
+          <t>CDE</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>ULS</t>
+          <t>NLY</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>GDDY</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>ARCC</t>
+          <t>MKC-V</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>ICLR</t>
+          <t>MAA</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>FIG</t>
+          <t>OKTA</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>RGC</t>
+          <t>COO</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>RF-PC</t>
+          <t>TLN</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>GFL</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>AKAM</t>
+          <t>WMG</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>EVR</t>
+          <t>KSPI</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>CELH</t>
+          <t>ROKU</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>DPZ</t>
+          <t>ROIV</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>BBY</t>
+          <t>GEN</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>EMBJ</t>
+          <t>NWSA</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>SBSW</t>
+          <t>HTHT</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>LOGI</t>
+          <t>IONQ</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>EQH</t>
+          <t>ONON</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>GWRE</t>
+          <t>CRBG</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>SOLV</t>
+          <t>DKNG</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>BILI</t>
+          <t>AVAV</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>RBRK</t>
+          <t>MGA</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>FIGR</t>
+          <t>KEY-PI</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>NLY-PF</t>
+          <t>BBIO</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>AMH</t>
+          <t>MLI</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>OHI</t>
+          <t>HMY</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>RVTY</t>
+          <t>ULS</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>JKHY</t>
+          <t>GDDY</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>RYAN</t>
+          <t>ERIE</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>ARCC</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>PSKY</t>
+          <t>ICLR</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>CHWY</t>
+          <t>FIG</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>LAMR</t>
+          <t>RGC</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>UNM</t>
+          <t>RF-PC</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>SNAP</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>JEF</t>
+          <t>CACI</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>BNT</t>
+          <t>AKAM</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>OKLO</t>
+          <t>EVR</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>HLI</t>
+          <t>CELH</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>GLPI</t>
+          <t>DPZ</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>EQX</t>
+          <t>BBY</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>IVZ</t>
+          <t>EMBJ</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>UDR</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>AGNC</t>
+          <t>SBSW</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>BMNR</t>
+          <t>LOGI</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>GLXY</t>
+          <t>EQH</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>AG</t>
+          <t>GWRE</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>GMED</t>
+          <t>SOLV</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>AMKR</t>
+          <t>BILI</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>RBRK</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>ZBRA</t>
+          <t>FIGR</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>TXRH</t>
+          <t>BLD</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>NLY-PF</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>SMMT</t>
+          <t>AMH</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>RMBS</t>
+          <t>OHI</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>RVTY</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>ALGN</t>
+          <t>JKHY</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>JOBY</t>
+          <t>RYAN</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>SUZ</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>PSKY</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>CMA</t>
+          <t>CHWY</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>TEM</t>
+          <t>LAMR</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>WYNN</t>
+          <t>UNM</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>EXEL</t>
+          <t>SNAP</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>NTNX</t>
+          <t>JEF</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>BSY</t>
+          <t>BNT</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>NIO</t>
+          <t>OKLO</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>DOCU</t>
+          <t>HLI</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>CPT</t>
+          <t>GLPI</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>BXP</t>
+          <t>EQX</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>LSCC</t>
+          <t>IVZ</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>STN</t>
+          <t>ACM</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>CEF</t>
+          <t>AGNC</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>MDGL</t>
+          <t>BMNR</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>GLXY</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>MICC</t>
+          <t>AG</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>CNM</t>
+          <t>GMED</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>MP</t>
+          <t>AMKR</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>SARO</t>
+          <t>DT</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>ZBRA</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>TXRH</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>MOH</t>
+          <t>DOC</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>MANH</t>
+          <t>SMMT</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>FDS</t>
+          <t>RMBS</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>CART</t>
+          <t>EPAM</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>PAG</t>
+          <t>ALGN</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>SEIC</t>
+          <t>JOBY</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>TECH</t>
+          <t>SUZ</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>CAE</t>
+          <t>CR</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>YMM</t>
+          <t>CMA</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>ENSG</t>
+          <t>TEM</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>ONTO</t>
+          <t>WYNN</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>PCOR</t>
+          <t>EXEL</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>KLAR</t>
+          <t>NTNX</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>ARMK</t>
+          <t>BSY</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>JAZZ</t>
+          <t>NIO</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>CHYM</t>
+          <t>DOCU</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>CPT</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>SANM</t>
+          <t>BXP</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>NGD</t>
+          <t>LSCC</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>COMP</t>
+          <t>STN</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>BIO-B</t>
+          <t>CEF</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>EHC</t>
+          <t>MDGL</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>ALV</t>
+          <t>BAH</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>SOLS</t>
+          <t>MICC</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>WAL</t>
+          <t>CNM</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>MP</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>EGO</t>
+          <t>SARO</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>BROS</t>
+          <t>CRL</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>AAL</t>
+          <t>AR</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>ORI</t>
+          <t>MOH</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>AYI</t>
+          <t>MANH</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>ABVX</t>
+          <t>FDS</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>HSIC</t>
+          <t>CART</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>KNSL</t>
+          <t>PAG</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>IESC</t>
+          <t>SEIC</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>TECH</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>UWMC</t>
+          <t>CAE</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>GS-PC</t>
+          <t>YMM</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>RGEN</t>
+          <t>ENSG</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>DOX</t>
+          <t>ONTO</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>STEP</t>
+          <t>PCOR</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>KLAR</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>SWKS</t>
+          <t>ARMK</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>MORN</t>
+          <t>APLD</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>AMG</t>
+          <t>JAZZ</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>LUMN</t>
+          <t>CHYM</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>GGAL</t>
+          <t>VNO-PL</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>QBTS</t>
+          <t>SAIL</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>TTAN</t>
+          <t>SANM</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>RZB</t>
+          <t>NGD</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>FRT</t>
+          <t>POOL</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>AGNCM</t>
+          <t>COMP</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>AGNCN</t>
+          <t>BIO-B</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>RRC</t>
+          <t>EHC</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>PEGA</t>
+          <t>ALV</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>AHR</t>
+          <t>SOLS</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>VIPS</t>
+          <t>ARE</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>EGO</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>AUR</t>
+          <t>BROS</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>IDCC</t>
+          <t>AAL</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>ORI</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>LEVI</t>
+          <t>AYI</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
+        <is>
+          <t>ABVX</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>HSIC</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>KNSL</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>IESC</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>MGM</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>UWMC</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>GS-PC</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>RGEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>DOX</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>SITM</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>SWKS</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>MORN</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>AMG</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>LUMN</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>GGAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>QBTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>TTAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>RZB</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>FRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>AGNCM</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>AGNCN</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>RRC</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>LKQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>PEGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>VIPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>AUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>IDCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>LEVI</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
         <is>
           <t>ADC</t>
         </is>

--- a/scan_skipped.xlsx
+++ b/scan_skipped.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A536"/>
+  <dimension ref="A1:A523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,3624 +550,3533 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>BAC-PL</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BAC-PL</t>
+          <t>NVO</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NVO</t>
+          <t>SAP</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>IBM</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>BAC-PE</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BAC-PE</t>
+          <t>BML-PL</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BML-PL</t>
+          <t>AMAT</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>AMAT</t>
+          <t>BAC-PB</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BAC-PB</t>
+          <t>AXP</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>TMO</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>CRM</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CRM</t>
+          <t>KLAC</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>KLAC</t>
+          <t>WFC-PY</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>WFC-PY</t>
+          <t>DIS</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>BA</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>WFC-PL</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>WFC-PL</t>
+          <t>APH</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>ISRG</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ISRG</t>
+          <t>ABT</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>SAN</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SAN</t>
+          <t>BX</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BX</t>
+          <t>APP</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>SHOP</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ANET</t>
+          <t>ACN</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SHOP</t>
+          <t>BLK</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>UBER</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BLK</t>
+          <t>DHR</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>BKNG</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>DHR</t>
+          <t>QCOM</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>TJX</t>
+          <t>SPGI</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>INTU</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>PDD</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SPGI</t>
+          <t>PFE</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>NOW</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PDD</t>
+          <t>COF</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>BSX</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>SONY</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>COF</t>
+          <t>PANW</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BSX</t>
+          <t>ADBE</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>NEM</t>
+          <t>WFC-PC</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SONY</t>
+          <t>PGR</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SYK</t>
+          <t>ARM</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>CRWD</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>MELI</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>WELL</t>
+          <t>KKR</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>WFC-PC</t>
+          <t>AEM</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PGR</t>
+          <t>CVS</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>BN</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>SPOT</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MELI</t>
+          <t>ADP</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>CEG</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>AEM</t>
+          <t>CVNA</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>ICE</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BN</t>
+          <t>GD</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SPOT</t>
+          <t>SNPS</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>HOOD</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>NKE</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>CVNA</t>
+          <t>MCO</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ICE</t>
+          <t>DASH</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>CDNS</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SNPS</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>HWM</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>MAR</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>NTES</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>ELV</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>MMM</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>MS-PK</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>HWM</t>
+          <t>AMT</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>NTES</t>
+          <t>BK</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ELV</t>
+          <t>BAM</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>MS-PI</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>MS-PK</t>
+          <t>CRH</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>AMT</t>
+          <t>ABNB</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BK</t>
+          <t>TDG</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BAM</t>
+          <t>MS-PF</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MS-PI</t>
+          <t>MS-PE</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CRH</t>
+          <t>EQIX</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ABNB</t>
+          <t>CTAS</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>DELL</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>MS-PF</t>
+          <t>APO</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>MS-PE</t>
+          <t>GS-PA</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>EQIX</t>
+          <t>INFY</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CTAS</t>
+          <t>CI</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>SE</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>APO</t>
+          <t>USB-PP</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>SNOW</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>GS-PD</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>RELX</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>USB-PP</t>
+          <t>MRVL</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SNOW</t>
+          <t>WBD</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>GS-PD</t>
+          <t>RSG</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>RELX</t>
+          <t>WPM</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>TEL</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>NET</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>WPM</t>
+          <t>AJG</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>FTNT</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>CNI</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>AJG</t>
+          <t>DUK-PA</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>FTNT</t>
+          <t>RACE</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>CNI</t>
+          <t>RKT</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>DUK-PA</t>
+          <t>CTA-PB</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>RACE</t>
+          <t>URI</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>RKT</t>
+          <t>NXPI</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>CTA-PB</t>
+          <t>ADSK</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>URI</t>
+          <t>COIN</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>NXPI</t>
+          <t>NDAQ</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ADSK</t>
+          <t>SRE</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>COIN</t>
+          <t>IDXX</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>NDAQ</t>
+          <t>MPLX</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>TRI</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>IDXX</t>
+          <t>ZTS</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>MPLX</t>
+          <t>AU</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>TRI</t>
+          <t>BIDU</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ZTS</t>
+          <t>PYPL</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>VST</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BIDU</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>CMG</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>RBLX</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>MET</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>CMG</t>
+          <t>EA</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>RBLX</t>
+          <t>SCHW-PD</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>MET</t>
+          <t>WDAY</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CBRE</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SCHW-PD</t>
+          <t>FNV</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>WDAY</t>
+          <t>EW</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>CBRE</t>
+          <t>ARES</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>FNV</t>
+          <t>CRWV</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>EW</t>
+          <t>AXON</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ARES</t>
+          <t>DDOG</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>CRWV</t>
+          <t>ALNY</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>AXON</t>
+          <t>CTA-PA</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>HEI</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ALNY</t>
+          <t>MSTR</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>CTA-PA</t>
+          <t>KGC</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>HEI</t>
+          <t>MSCI</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>TTWO</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>KGC</t>
+          <t>SPG-PJ</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>MSCI</t>
+          <t>WCN</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>TTWO</t>
+          <t>ROP</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>SPG-PJ</t>
+          <t>JD</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>EBAY</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ROP</t>
+          <t>MET-PE</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>JD</t>
+          <t>RKLB</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>EBAY</t>
+          <t>MET-PA</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>MET-PE</t>
+          <t>CTSH</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>RKLB</t>
+          <t>TCOM</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>MET-PA</t>
+          <t>LVS</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>AIG</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>TCOM</t>
+          <t>IQV</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>LVS</t>
+          <t>RDDT</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>AIG</t>
+          <t>CPRT</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>IQV</t>
+          <t>XYZ</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>RDDT</t>
+          <t>HEI-A</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>CPRT</t>
+          <t>ALC</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>XYZ</t>
+          <t>GRMN</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>HEI-A</t>
+          <t>HMC</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ALC</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>GRMN</t>
+          <t>PRU</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>HMC</t>
+          <t>PAYX</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CCI</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>PRU</t>
+          <t>MDLN</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>RMD</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>CCI</t>
+          <t>FICO</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>MDLN</t>
+          <t>VEEV</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>RMD</t>
+          <t>GEHC</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>FICO</t>
+          <t>FISV</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>VEEV</t>
+          <t>TEAM</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>GEHC</t>
+          <t>CPNG</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>FISV</t>
+          <t>STT</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>TEAM</t>
+          <t>OTIS</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>CPNG</t>
+          <t>CLS</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>STT</t>
+          <t>SYM</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>OTIS</t>
+          <t>APO-PA</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>CLS</t>
+          <t>XYL</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>SYM</t>
+          <t>SATS</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>APO-PA</t>
+          <t>LYV</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>XYL</t>
+          <t>ZS</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>SATS</t>
+          <t>INSM</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>LYV</t>
+          <t>NTRA</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>KMB</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>INSM</t>
+          <t>RJF</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>NTRA</t>
+          <t>MDB</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>PCG</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>RJF</t>
+          <t>EXPE</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>MDB</t>
+          <t>CHT</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>PCG</t>
+          <t>PSA-PK</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>EXPE</t>
+          <t>ALL-PH</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>CHT</t>
+          <t>SOFI</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>UI</t>
+          <t>ALL-PB</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>PSA-PK</t>
+          <t>FOXA</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ALL-PH</t>
+          <t>HUM</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>SOFI</t>
+          <t>EXR</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ALL-PB</t>
+          <t>FIS</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>FOXA</t>
+          <t>FOX</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>HUM</t>
+          <t>VRSK</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>EXR</t>
+          <t>QSR</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>FIS</t>
+          <t>FLUT</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>FOX</t>
+          <t>VICI</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>AMRZ</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>QSR</t>
+          <t>BNTX</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>FLUT</t>
+          <t>MTD</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>VICI</t>
+          <t>NRG</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>AMRZ</t>
+          <t>SYF</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>BNTX</t>
+          <t>ZM</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>MTD</t>
+          <t>UMC</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>HPE</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>SYF</t>
+          <t>TME</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>DXCM</t>
+          <t>STLA</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ZM</t>
+          <t>CSGP</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>PHG</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>HPE</t>
+          <t>IRM</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>TME</t>
+          <t>ALAB</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>STLA</t>
+          <t>PAAS</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>CSGP</t>
+          <t>WIT</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>PHG</t>
+          <t>BRO</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>IRM</t>
+          <t>EXE</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>ALAB</t>
+          <t>NMR</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>PAAS</t>
+          <t>LEN-B</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>WIT</t>
+          <t>EFX</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>LEN</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>BRO</t>
+          <t>TPR</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>EXE</t>
+          <t>FSLR</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>NMR</t>
+          <t>MKL</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>EFX</t>
+          <t>AER</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>DLTR</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>TPR</t>
+          <t>AWK</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>OMC</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>MKL</t>
+          <t>STM</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>AER</t>
+          <t>AVB</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>VLTO</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>AWK</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>OMC</t>
+          <t>DLR-PK</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>STM</t>
+          <t>FCNCA</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>AVB</t>
+          <t>GFS</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>VLTO</t>
+          <t>RGLD</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>BR</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>DLR-PK</t>
+          <t>LDOS</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>FCNCA</t>
+          <t>PSTG</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>GFS</t>
+          <t>SQM</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>RGLD</t>
+          <t>TPL</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>EQR</t>
+          <t>AXIA-PC</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>ILMN</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>LDOS</t>
+          <t>VRSN</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>PSTG</t>
+          <t>TPG</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>SQM</t>
+          <t>TROW</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>FLEX</t>
+          <t>WAT</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>TPL</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>AXIA-PC</t>
+          <t>CRDO</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ILMN</t>
+          <t>NBIS</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>VRSN</t>
+          <t>CPAY</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>TPG</t>
+          <t>LULU</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>TROW</t>
+          <t>OWL</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>CNC</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>FUTU</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>CRDO</t>
+          <t>AFRM</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>NBIS</t>
+          <t>SW</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>CPAY</t>
+          <t>DLR-PJ</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>TLK</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>OWL</t>
+          <t>CYBR</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>CNC</t>
+          <t>FWONK</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>FUTU</t>
+          <t>ALB</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>AFRM</t>
+          <t>PSLV</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>FWONA</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>DLR-PJ</t>
+          <t>CG</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>TLK</t>
+          <t>RL</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>CYBR</t>
+          <t>GPN</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>FWONK</t>
+          <t>AS</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ALB</t>
+          <t>BEKE</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>PSLV</t>
+          <t>SSNC</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>FWONA</t>
+          <t>GMAB</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>TWLO</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>RL</t>
+          <t>IHG</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>UTHR</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>GPN</t>
+          <t>INCY</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>HL</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>BEKE</t>
+          <t>SBAC</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>SSNC</t>
+          <t>CHKP</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>GMAB</t>
+          <t>PTC</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>TWLO</t>
+          <t>NTAP</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>IHG</t>
+          <t>TOST</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>GIB</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>INCY</t>
+          <t>RIVN</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>PODD</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>SBAC</t>
+          <t>TYL</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>CHKP</t>
+          <t>RVMD</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>KTOS</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>NTAP</t>
+          <t>HIG-PG</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>TOST</t>
+          <t>GRAB</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>GIB</t>
+          <t>IOT</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>RIVN</t>
+          <t>FTV</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>PODD</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>TYL</t>
+          <t>SMCI</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>RVMD</t>
+          <t>DKS</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>KTOS</t>
+          <t>HPQ</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>MRNA</t>
+          <t>CRCL</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>HIG-PG</t>
+          <t>FITBI</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>GRAB</t>
+          <t>XPEV</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>IT</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>FTV</t>
+          <t>PSNYW</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>PHYS</t>
+          <t>AGI</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>ALLY</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>SMCI</t>
+          <t>KEY-PK</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>DKS</t>
+          <t>PNR</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>HPQ</t>
+          <t>PINS</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>CRCL</t>
+          <t>ESS</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>LII</t>
+          <t>SN</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>FITBI</t>
+          <t>WST</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>XPEV</t>
+          <t>HUBS</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ZBH</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>PSNYW</t>
+          <t>NWS</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>AGI</t>
+          <t>IREN</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>ALLY</t>
+          <t>ZG</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>FN</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>PINS</t>
+          <t>TRMB</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>ESS</t>
+          <t>MEDP</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>JLL</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>QXO</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>HUBS</t>
+          <t>TXT</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>ZBH</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>NWS</t>
+          <t>HOLX</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>IREN</t>
+          <t>APTV</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>LI</t>
+          <t>TKO</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>CDW</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>WES</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>TRU</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>MEDP</t>
+          <t>TTD</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>JLL</t>
+          <t>INVH</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>QXO</t>
+          <t>MKC</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CDE</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>NLY</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>HOLX</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>THC</t>
+          <t>MKC-V</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>APTV</t>
+          <t>MAA</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>TKO</t>
+          <t>OKTA</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>COO</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>WES</t>
+          <t>TLN</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>GFL</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>WMG</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>INVH</t>
+          <t>KSPI</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>MKC</t>
+          <t>ROKU</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>CDE</t>
+          <t>ROIV</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>NLY</t>
+          <t>GEN</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>NWSA</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>MKC-V</t>
+          <t>EWBC</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>MAA</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>OKTA</t>
+          <t>HTHT</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>COO</t>
+          <t>IONQ</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>TLN</t>
+          <t>ONON</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>GFL</t>
+          <t>CRBG</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>WMG</t>
+          <t>DKNG</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>KSPI</t>
+          <t>AVAV</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>ROKU</t>
+          <t>MGA</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>ROIV</t>
+          <t>KEY-PI</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>GEN</t>
+          <t>MLI</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>NWSA</t>
+          <t>HMY</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>ULS</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>HTHT</t>
+          <t>GDDY</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>ERIE</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>ONON</t>
+          <t>ARCC</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>CRBG</t>
+          <t>ICLR</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>DKNG</t>
+          <t>AVY</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>AVAV</t>
+          <t>FIG</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>MGA</t>
+          <t>RGC</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>KEY-PI</t>
+          <t>RF-PC</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>BBIO</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>AKAM</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>HMY</t>
+          <t>EVR</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>ULS</t>
+          <t>CELH</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>GDDY</t>
+          <t>DPZ</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>ERIE</t>
+          <t>BBY</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>ARCC</t>
+          <t>EMBJ</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>ICLR</t>
+          <t>UDR</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>FIG</t>
+          <t>SBSW</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>RGC</t>
+          <t>LOGI</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>RF-PC</t>
+          <t>EQH</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>GWRE</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>CACI</t>
+          <t>SOLV</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>AKAM</t>
+          <t>BILI</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>EVR</t>
+          <t>RBRK</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>CELH</t>
+          <t>FIGR</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>DPZ</t>
+          <t>NLY-PF</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>BBY</t>
+          <t>AMH</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>EMBJ</t>
+          <t>OHI</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>RVTY</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>SBSW</t>
+          <t>JKHY</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>LOGI</t>
+          <t>RYAN</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>EQH</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>GWRE</t>
+          <t>PSKY</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>SOLV</t>
+          <t>CHWY</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>BILI</t>
+          <t>LAMR</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>RBRK</t>
+          <t>UNM</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>FIGR</t>
+          <t>SNAP</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>JEF</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>NLY-PF</t>
+          <t>BNT</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>AMH</t>
+          <t>OKLO</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>OHI</t>
+          <t>HLI</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>RVTY</t>
+          <t>GLPI</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>JKHY</t>
+          <t>EQX</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>RYAN</t>
+          <t>IVZ</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>ACM</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>PSKY</t>
+          <t>AGNC</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>CHWY</t>
+          <t>BMNR</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>LAMR</t>
+          <t>GLXY</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>UNM</t>
+          <t>AG</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>SNAP</t>
+          <t>GMED</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>JEF</t>
+          <t>AMKR</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>BNT</t>
+          <t>DT</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>OKLO</t>
+          <t>ZBRA</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>HLI</t>
+          <t>TXRH</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>GLPI</t>
+          <t>DOC</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>EQX</t>
+          <t>SMMT</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>IVZ</t>
+          <t>RMBS</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>EPAM</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>AGNC</t>
+          <t>ALGN</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>BMNR</t>
+          <t>JOBY</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>GLXY</t>
+          <t>SUZ</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>AG</t>
+          <t>CR</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>GMED</t>
+          <t>CMA</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>AMKR</t>
+          <t>TEM</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>WYNN</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>ZBRA</t>
+          <t>EXEL</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>TXRH</t>
+          <t>NTNX</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>BSY</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>SMMT</t>
+          <t>NIO</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>RMBS</t>
+          <t>DOCU</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>CPT</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>ALGN</t>
+          <t>BXP</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>JOBY</t>
+          <t>LSCC</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>SUZ</t>
+          <t>STN</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>CEF</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>CMA</t>
+          <t>MDGL</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>TEM</t>
+          <t>BAH</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>WYNN</t>
+          <t>MICC</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>EXEL</t>
+          <t>CNM</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>NTNX</t>
+          <t>WTRG</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>BSY</t>
+          <t>SARO</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>NIO</t>
+          <t>CRL</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>DOCU</t>
+          <t>AR</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>CPT</t>
+          <t>MOH</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>BXP</t>
+          <t>MANH</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>LSCC</t>
+          <t>FDS</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>STN</t>
+          <t>AFG</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>CEF</t>
+          <t>CART</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>MDGL</t>
+          <t>PAG</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>SEIC</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>MICC</t>
+          <t>TECH</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>CNM</t>
+          <t>CAE</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>MP</t>
+          <t>YMM</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>SARO</t>
+          <t>ENSG</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>ONTO</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>PCOR</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>MOH</t>
+          <t>KLAR</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>MANH</t>
+          <t>ARMK</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>FDS</t>
+          <t>JAZZ</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>CART</t>
+          <t>CHYM</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>PAG</t>
+          <t>VNO-PL</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>SEIC</t>
+          <t>SAIL</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>TECH</t>
+          <t>SANM</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>CAE</t>
+          <t>NGD</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>YMM</t>
+          <t>POOL</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>ENSG</t>
+          <t>VNO-PM</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>ONTO</t>
+          <t>COMP</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>PCOR</t>
+          <t>BIO-B</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>KLAR</t>
+          <t>EHC</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>ARMK</t>
+          <t>ALV</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>APLD</t>
+          <t>SOLS</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>JAZZ</t>
+          <t>ARE</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>CHYM</t>
+          <t>EGO</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>VNO-PL</t>
+          <t>BROS</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>AAL</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>SANM</t>
+          <t>ORI</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>NGD</t>
+          <t>AYI</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>POOL</t>
+          <t>ABVX</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>COMP</t>
+          <t>EGP</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>BIO-B</t>
+          <t>HSIC</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>EHC</t>
+          <t>KNSL</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>ALV</t>
+          <t>IESC</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>SOLS</t>
+          <t>MGM</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>UWMC</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>EGO</t>
+          <t>RGEN</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>BROS</t>
+          <t>DOX</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>AAL</t>
+          <t>STEP</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>ORI</t>
+          <t>LINE</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>AYI</t>
+          <t>SITM</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>ABVX</t>
+          <t>SWKS</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>EGP</t>
+          <t>OGE</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>HSIC</t>
+          <t>MORN</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>KNSL</t>
+          <t>AMG</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>IESC</t>
+          <t>LUMN</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>GGAL</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>UWMC</t>
+          <t>QBTS</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>GS-PC</t>
+          <t>TTAN</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>RGEN</t>
+          <t>RZB</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>DOX</t>
+          <t>FRT</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>STEP</t>
+          <t>AGNCM</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>AGNCN</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>SITM</t>
+          <t>LKQ</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>SWKS</t>
+          <t>PEGA</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>MORN</t>
+          <t>VIPS</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>AMG</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>LUMN</t>
+          <t>AUR</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>GGAL</t>
+          <t>IDCC</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>QBTS</t>
+          <t>PL</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>TTAN</t>
+          <t>LEVI</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
-        <is>
-          <t>RZB</t>
-        </is>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>FRT</t>
-        </is>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>AGNCM</t>
-        </is>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>AGNCN</t>
-        </is>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>RRC</t>
-        </is>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>LKQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="inlineStr">
-        <is>
-          <t>PEGA</t>
-        </is>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="inlineStr">
-        <is>
-          <t>VIPS</t>
-        </is>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>OR</t>
-        </is>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="inlineStr">
-        <is>
-          <t>AUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>IDCC</t>
-        </is>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>LEVI</t>
-        </is>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="inlineStr">
         <is>
           <t>ADC</t>
         </is>

--- a/scan_skipped.xlsx
+++ b/scan_skipped.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A523"/>
+  <dimension ref="A1:A506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,301 +508,301 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>JPM-PD</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>JPM-PD</t>
+          <t>JPM-PC</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>JPM-PC</t>
+          <t>UNH</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>BAC-PK</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BAC-PK</t>
+          <t>BAC-PL</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BAC-PL</t>
+          <t>NVO</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NVO</t>
+          <t>SAP</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>IBM</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>BAC-PE</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BAC-PE</t>
+          <t>BML-PL</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BML-PL</t>
+          <t>BAC-PB</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AMAT</t>
+          <t>AXP</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BAC-PB</t>
+          <t>TMO</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>CRM</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>KLAC</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CRM</t>
+          <t>WFC-PY</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>KLAC</t>
+          <t>DIS</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>WFC-PY</t>
+          <t>BA</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>WFC-PL</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>APH</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>WFC-PL</t>
+          <t>ISRG</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>ABT</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ISRG</t>
+          <t>SAN</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>BX</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SAN</t>
+          <t>APP</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BX</t>
+          <t>SHOP</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>ACN</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SHOP</t>
+          <t>BLK</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>UBER</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BLK</t>
+          <t>DHR</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>TJX</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>DHR</t>
+          <t>BKNG</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>QCOM</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>SPGI</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SPGI</t>
+          <t>INTU</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>PDD</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PDD</t>
+          <t>PFE</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>NOW</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>COF</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>COF</t>
+          <t>BSX</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BSX</t>
+          <t>SONY</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SONY</t>
+          <t>SYK</t>
         </is>
       </c>
     </row>
@@ -984,21 +984,21 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>NTES</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>NTES</t>
+          <t>ELV</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ELV</t>
+          <t>ORLY</t>
         </is>
       </c>
     </row>
@@ -1124,2959 +1124,2840 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>SE</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>SNOW</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>USB-PP</t>
+          <t>GS-PD</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SNOW</t>
+          <t>RELX</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>GS-PD</t>
+          <t>MRVL</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>RELX</t>
+          <t>WBD</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>RSG</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>TEL</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>RSG</t>
+          <t>NET</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>WPM</t>
+          <t>AJG</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>FTNT</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>CNI</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>AJG</t>
+          <t>DUK-PA</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>FTNT</t>
+          <t>RACE</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>CNI</t>
+          <t>RKT</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>DUK-PA</t>
+          <t>CTA-PB</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>RACE</t>
+          <t>URI</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>RKT</t>
+          <t>NXPI</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>CTA-PB</t>
+          <t>ADSK</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>URI</t>
+          <t>COIN</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>NXPI</t>
+          <t>NDAQ</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ADSK</t>
+          <t>SRE</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>COIN</t>
+          <t>IDXX</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>NDAQ</t>
+          <t>MPLX</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>TRI</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>IDXX</t>
+          <t>ZTS</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>MPLX</t>
+          <t>BIDU</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>TRI</t>
+          <t>PYPL</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ZTS</t>
+          <t>VST</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>CMG</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BIDU</t>
+          <t>RBLX</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>MET</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>EA</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>SCHW-PD</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>CMG</t>
+          <t>WDAY</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>RBLX</t>
+          <t>CBRE</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>MET</t>
+          <t>FNV</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>EW</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>SCHW-PD</t>
+          <t>ARES</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>WDAY</t>
+          <t>CRWV</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>CBRE</t>
+          <t>AXON</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>FNV</t>
+          <t>DDOG</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>EW</t>
+          <t>ALNY</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ARES</t>
+          <t>CTA-PA</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>CRWV</t>
+          <t>HEI</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>AXON</t>
+          <t>MSTR</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>KGC</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ALNY</t>
+          <t>MSCI</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>CTA-PA</t>
+          <t>TTWO</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>HEI</t>
+          <t>SPG-PJ</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>EXC</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>KGC</t>
+          <t>WCN</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>MSCI</t>
+          <t>ROP</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>TTWO</t>
+          <t>JD</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>SPG-PJ</t>
+          <t>EBAY</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>MET-PE</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ROP</t>
+          <t>RKLB</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>JD</t>
+          <t>MET-PA</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>EBAY</t>
+          <t>CTSH</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>MET-PE</t>
+          <t>TCOM</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>RKLB</t>
+          <t>LVS</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>MET-PA</t>
+          <t>AIG</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>IQV</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>TCOM</t>
+          <t>RDDT</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>LVS</t>
+          <t>CPRT</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>AIG</t>
+          <t>XYZ</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>IQV</t>
+          <t>HEI-A</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>RDDT</t>
+          <t>ALC</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>CPRT</t>
+          <t>GRMN</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>XYZ</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>HEI-A</t>
+          <t>PRU</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ALC</t>
+          <t>PAYX</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>GRMN</t>
+          <t>CCI</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>HMC</t>
+          <t>MDLN</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>RMD</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>PRU</t>
+          <t>FICO</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>VEEV</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>CCI</t>
+          <t>GEHC</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>MDLN</t>
+          <t>FISV</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>RMD</t>
+          <t>TEAM</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>FICO</t>
+          <t>CPNG</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>VEEV</t>
+          <t>OTIS</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>GEHC</t>
+          <t>CLS</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>FISV</t>
+          <t>SYM</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>TEAM</t>
+          <t>APO-PA</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>CPNG</t>
+          <t>XYL</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>STT</t>
+          <t>SATS</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>OTIS</t>
+          <t>LYV</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>CLS</t>
+          <t>ZS</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>SYM</t>
+          <t>INSM</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>APO-PA</t>
+          <t>NTRA</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>XYL</t>
+          <t>RJF</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>SATS</t>
+          <t>MDB</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>LYV</t>
+          <t>PCG</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>EXPE</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>INSM</t>
+          <t>CHT</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>NTRA</t>
+          <t>PSA-PK</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>ALL-PH</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>RJF</t>
+          <t>SOFI</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>MDB</t>
+          <t>ALL-PB</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>PCG</t>
+          <t>FOXA</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>EXPE</t>
+          <t>HUM</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>CHT</t>
+          <t>EXR</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>PSA-PK</t>
+          <t>FIS</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ALL-PH</t>
+          <t>FOX</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>SOFI</t>
+          <t>VRSK</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ALL-PB</t>
+          <t>QSR</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>FOXA</t>
+          <t>FLUT</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>HUM</t>
+          <t>VICI</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>EXR</t>
+          <t>AMRZ</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>FIS</t>
+          <t>BNTX</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>FOX</t>
+          <t>MTD</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>NRG</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>QSR</t>
+          <t>SYF</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>FLUT</t>
+          <t>UMC</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>VICI</t>
+          <t>HPE</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>AMRZ</t>
+          <t>TME</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>BNTX</t>
+          <t>STLA</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>MTD</t>
+          <t>CSGP</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>IRM</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>SYF</t>
+          <t>ALAB</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ZM</t>
+          <t>PAAS</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>WIT</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>HPE</t>
+          <t>LEN</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>TME</t>
+          <t>BRO</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>STLA</t>
+          <t>PPL</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>CSGP</t>
+          <t>EXE</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>PHG</t>
+          <t>NMR</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>IRM</t>
+          <t>LEN-B</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ALAB</t>
+          <t>EFX</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>PAAS</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>WIT</t>
+          <t>TPR</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>BRO</t>
+          <t>FSLR</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>EXE</t>
+          <t>MKL</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>NMR</t>
+          <t>AER</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>LEN-B</t>
+          <t>DLTR</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>EFX</t>
+          <t>AWK</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>OMC</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>TPR</t>
+          <t>STM</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>AVB</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>MKL</t>
+          <t>VLTO</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>AER</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>DLR-PK</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>AWK</t>
+          <t>FCNCA</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>OMC</t>
+          <t>GFS</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>STM</t>
+          <t>RGLD</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>AVB</t>
+          <t>BR</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>VLTO</t>
+          <t>PSTG</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>AXIA-PC</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>DLR-PK</t>
+          <t>ILMN</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>FCNCA</t>
+          <t>VRSN</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>GFS</t>
+          <t>TPG</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>RGLD</t>
+          <t>TROW</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>WAT</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>LDOS</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>PSTG</t>
+          <t>CRDO</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>SQM</t>
+          <t>NBIS</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>TPL</t>
+          <t>CPAY</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>AXIA-PC</t>
+          <t>LULU</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ILMN</t>
+          <t>OWL</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>VRSN</t>
+          <t>CNC</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>TPG</t>
+          <t>FUTU</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>TROW</t>
+          <t>AFRM</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>SW</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>DLR-PJ</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>CRDO</t>
+          <t>TLK</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>NBIS</t>
+          <t>CYBR</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>CPAY</t>
+          <t>FWONK</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>ALB</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>OWL</t>
+          <t>PSLV</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>CNC</t>
+          <t>FWONA</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>FUTU</t>
+          <t>CG</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>AFRM</t>
+          <t>RL</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>GPN</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>DLR-PJ</t>
+          <t>AS</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>TLK</t>
+          <t>SSNC</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>CYBR</t>
+          <t>GMAB</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>FWONK</t>
+          <t>TWLO</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>ALB</t>
+          <t>IHG</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>PSLV</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>FWONA</t>
+          <t>INCY</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>HL</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>RL</t>
+          <t>SBAC</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>GPN</t>
+          <t>CHKP</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>PTC</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>BEKE</t>
+          <t>NTAP</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>SSNC</t>
+          <t>TOST</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>GMAB</t>
+          <t>GIB</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>TWLO</t>
+          <t>RIVN</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>IHG</t>
+          <t>PODD</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>TYL</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>INCY</t>
+          <t>RVMD</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>KTOS</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>SBAC</t>
+          <t>MRNA</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>CHKP</t>
+          <t>HIG-PG</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>GRAB</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>NTAP</t>
+          <t>IOT</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>TOST</t>
+          <t>FTV</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>GIB</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>RIVN</t>
+          <t>SMCI</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>PODD</t>
+          <t>DKS</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>TYL</t>
+          <t>HPQ</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>RVMD</t>
+          <t>CRCL</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>KTOS</t>
+          <t>FITBI</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>HIG-PG</t>
+          <t>XPEV</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>GRAB</t>
+          <t>IT</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>PSNYW</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>FTV</t>
+          <t>AGI</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>ALLY</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>SMCI</t>
+          <t>KEY-PK</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>DKS</t>
+          <t>PNR</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>HPQ</t>
+          <t>PINS</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>CRCL</t>
+          <t>ESS</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>FITBI</t>
+          <t>SN</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>XPEV</t>
+          <t>WST</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>HUBS</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>PSNYW</t>
+          <t>ZBH</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>AGI</t>
+          <t>NWS</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>ALLY</t>
+          <t>ZG</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>KEY-PK</t>
+          <t>FN</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>TRMB</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>PINS</t>
+          <t>MEDP</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>ESS</t>
+          <t>JLL</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>QXO</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>TXT</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>HUBS</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>ZBH</t>
+          <t>HOLX</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>NWS</t>
+          <t>THC</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>IREN</t>
+          <t>APTV</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>TKO</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>CDW</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>WES</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>MEDP</t>
+          <t>TRU</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>JLL</t>
+          <t>TTD</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>QXO</t>
+          <t>INVH</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MKC</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>CDE</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>HOLX</t>
+          <t>NLY</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>APTV</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>TKO</t>
+          <t>MKC-V</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>MAA</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>WES</t>
+          <t>OKTA</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>COO</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>TLN</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>INVH</t>
+          <t>GFL</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>MKC</t>
+          <t>WMG</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>CDE</t>
+          <t>KSPI</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>NLY</t>
+          <t>ROKU</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>ROIV</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>MKC-V</t>
+          <t>GEN</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>MAA</t>
+          <t>NWSA</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>OKTA</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>COO</t>
+          <t>HTHT</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>TLN</t>
+          <t>IONQ</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>GFL</t>
+          <t>ONON</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>WMG</t>
+          <t>CRBG</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>KSPI</t>
+          <t>DKNG</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>ROKU</t>
+          <t>AVAV</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>ROIV</t>
+          <t>MGA</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>GEN</t>
+          <t>KEY-PI</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>NWSA</t>
+          <t>MLI</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>EWBC</t>
+          <t>HMY</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>ULS</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>HTHT</t>
+          <t>GDDY</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>ERIE</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>ONON</t>
+          <t>ARCC</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>CRBG</t>
+          <t>ICLR</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>DKNG</t>
+          <t>FIG</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>AVAV</t>
+          <t>RGC</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>MGA</t>
+          <t>RF-PC</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>KEY-PI</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>AKAM</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>HMY</t>
+          <t>EVR</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>ULS</t>
+          <t>CELH</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>GDDY</t>
+          <t>DPZ</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>ERIE</t>
+          <t>BBY</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>ARCC</t>
+          <t>EMBJ</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>ICLR</t>
+          <t>UDR</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>AVY</t>
+          <t>SBSW</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>FIG</t>
+          <t>LOGI</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>RGC</t>
+          <t>EQH</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>RF-PC</t>
+          <t>GWRE</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>SOLV</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>AKAM</t>
+          <t>BILI</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>EVR</t>
+          <t>RBRK</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>CELH</t>
+          <t>FIGR</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>DPZ</t>
+          <t>NLY-PF</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>BBY</t>
+          <t>AMH</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>EMBJ</t>
+          <t>OHI</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>RVTY</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>SBSW</t>
+          <t>JKHY</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>LOGI</t>
+          <t>RYAN</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>EQH</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>GWRE</t>
+          <t>PSKY</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>SOLV</t>
+          <t>CHWY</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>BILI</t>
+          <t>LAMR</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>RBRK</t>
+          <t>UNM</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>FIGR</t>
+          <t>SNAP</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>NLY-PF</t>
+          <t>JEF</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>AMH</t>
+          <t>BNT</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>OHI</t>
+          <t>OKLO</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>RVTY</t>
+          <t>HLI</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>JKHY</t>
+          <t>GLPI</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>RYAN</t>
+          <t>EQX</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>IVZ</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>PSKY</t>
+          <t>ACM</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>CHWY</t>
+          <t>AGNC</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>LAMR</t>
+          <t>BMNR</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>UNM</t>
+          <t>GLXY</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>SNAP</t>
+          <t>GMED</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>JEF</t>
+          <t>AMKR</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>BNT</t>
+          <t>DT</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>OKLO</t>
+          <t>ZBRA</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>HLI</t>
+          <t>DOC</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>GLPI</t>
+          <t>SMMT</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>EQX</t>
+          <t>RMBS</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>IVZ</t>
+          <t>EPAM</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>ALGN</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>AGNC</t>
+          <t>JOBY</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>BMNR</t>
+          <t>SUZ</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>GLXY</t>
+          <t>CR</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>AG</t>
+          <t>CMA</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>GMED</t>
+          <t>TEM</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>AMKR</t>
+          <t>WYNN</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>EXEL</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>ZBRA</t>
+          <t>NTNX</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>TXRH</t>
+          <t>BSY</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>NIO</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>SMMT</t>
+          <t>DOCU</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>RMBS</t>
+          <t>CPT</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>BXP</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>ALGN</t>
+          <t>LSCC</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>JOBY</t>
+          <t>STN</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>SUZ</t>
+          <t>CEF</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>MDGL</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>CMA</t>
+          <t>BAH</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>TEM</t>
+          <t>MICC</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>WYNN</t>
+          <t>CNM</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>EXEL</t>
+          <t>WTRG</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>NTNX</t>
+          <t>SARO</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>BSY</t>
+          <t>CRL</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>NIO</t>
+          <t>AR</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>DOCU</t>
+          <t>MOH</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>CPT</t>
+          <t>MANH</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>BXP</t>
+          <t>FDS</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>LSCC</t>
+          <t>AFG</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>STN</t>
+          <t>CART</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>CEF</t>
+          <t>PAG</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>MDGL</t>
+          <t>SEIC</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>TECH</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>MICC</t>
+          <t>CAE</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>CNM</t>
+          <t>YMM</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>WTRG</t>
+          <t>ENSG</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>SARO</t>
+          <t>ONTO</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>PCOR</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>KLAR</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>MOH</t>
+          <t>ARMK</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>MANH</t>
+          <t>CHYM</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>FDS</t>
+          <t>SAIL</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>SANM</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>CART</t>
+          <t>NGD</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>PAG</t>
+          <t>POOL</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>SEIC</t>
+          <t>VNO-PM</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>TECH</t>
+          <t>COMP</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>CAE</t>
+          <t>BIO-B</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>YMM</t>
+          <t>EHC</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>ENSG</t>
+          <t>ALV</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>ONTO</t>
+          <t>SOLS</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>PCOR</t>
+          <t>ARE</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>KLAR</t>
+          <t>EGO</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>ARMK</t>
+          <t>BROS</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>JAZZ</t>
+          <t>AAL</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>CHYM</t>
+          <t>ORI</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>VNO-PL</t>
+          <t>AYI</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>ABVX</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>SANM</t>
+          <t>EGP</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>NGD</t>
+          <t>HSIC</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>POOL</t>
+          <t>KNSL</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>VNO-PM</t>
+          <t>IESC</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>COMP</t>
+          <t>MGM</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>BIO-B</t>
+          <t>UWMC</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>EHC</t>
+          <t>RGEN</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>ALV</t>
+          <t>DOX</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>SOLS</t>
+          <t>STEP</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>LINE</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>EGO</t>
+          <t>SITM</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>BROS</t>
+          <t>SWKS</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>AAL</t>
+          <t>OGE</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>ORI</t>
+          <t>MORN</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>AYI</t>
+          <t>AMG</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>ABVX</t>
+          <t>LUMN</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>EGP</t>
+          <t>GGAL</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>HSIC</t>
+          <t>QBTS</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>KNSL</t>
+          <t>TTAN</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>IESC</t>
+          <t>RZB</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>FRT</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>UWMC</t>
+          <t>AGNCM</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>RGEN</t>
+          <t>AGNCN</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>DOX</t>
+          <t>PEGA</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>STEP</t>
+          <t>VIPS</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>SITM</t>
+          <t>AUR</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>SWKS</t>
+          <t>IDCC</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>OGE</t>
+          <t>PL</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>MORN</t>
+          <t>LEVI</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
-        <is>
-          <t>AMG</t>
-        </is>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" t="inlineStr">
-        <is>
-          <t>LUMN</t>
-        </is>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" t="inlineStr">
-        <is>
-          <t>GGAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" t="inlineStr">
-        <is>
-          <t>QBTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" t="inlineStr">
-        <is>
-          <t>TTAN</t>
-        </is>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" t="inlineStr">
-        <is>
-          <t>RZB</t>
-        </is>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" t="inlineStr">
-        <is>
-          <t>FRT</t>
-        </is>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>AGNCM</t>
-        </is>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>AGNCN</t>
-        </is>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>LKQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="inlineStr">
-        <is>
-          <t>PEGA</t>
-        </is>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>VIPS</t>
-        </is>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>OR</t>
-        </is>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="inlineStr">
-        <is>
-          <t>AUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>IDCC</t>
-        </is>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>LEVI</t>
-        </is>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="inlineStr">
         <is>
           <t>ADC</t>
         </is>

--- a/scan_skipped.xlsx
+++ b/scan_skipped.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A506"/>
+  <dimension ref="A1:A491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,3519 +445,3414 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>AVGO</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AVGO</t>
+          <t>TSLA</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>LLY</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LLY</t>
+          <t>V</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>ORCL</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>BABA</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BABA</t>
+          <t>PLTR</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>NFLX</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>JPM-PD</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>JPM-PD</t>
+          <t>JPM-PC</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>JPM-PC</t>
+          <t>UNH</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>BAC-PK</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>BAC-PL</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BAC-PK</t>
+          <t>AZN</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BAC-PL</t>
+          <t>NVO</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NVO</t>
+          <t>SAP</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>IBM</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>BAC-PE</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BAC-PE</t>
+          <t>BML-PL</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BML-PL</t>
+          <t>BAC-PB</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BAC-PB</t>
+          <t>AXP</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>TMO</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>CRM</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CRM</t>
+          <t>KLAC</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>KLAC</t>
+          <t>WFC-PY</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>WFC-PY</t>
+          <t>DIS</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>BA</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>WFC-PL</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>WFC-PL</t>
+          <t>APH</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>ISRG</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ISRG</t>
+          <t>ABT</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>SAN</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SAN</t>
+          <t>BX</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BX</t>
+          <t>APP</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>SHOP</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SHOP</t>
+          <t>ACN</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>BLK</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BLK</t>
+          <t>UBER</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>DHR</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>DHR</t>
+          <t>TJX</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>TJX</t>
+          <t>BKNG</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>QCOM</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>SPGI</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SPGI</t>
+          <t>INTU</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>PDD</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PDD</t>
+          <t>PFE</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>NOW</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>COF</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>COF</t>
+          <t>BSX</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BSX</t>
+          <t>SONY</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SONY</t>
+          <t>PANW</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SYK</t>
+          <t>ADBE</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>WFC-PC</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>PGR</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>WFC-PC</t>
+          <t>ARM</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PGR</t>
+          <t>CRWD</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>MELI</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>KKR</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MELI</t>
+          <t>AEM</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>CVS</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>AEM</t>
+          <t>BN</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>SPOT</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BN</t>
+          <t>ADP</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SPOT</t>
+          <t>CEG</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>CVNA</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>ICE</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CVNA</t>
+          <t>GD</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ICE</t>
+          <t>SNPS</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>HOOD</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SNPS</t>
+          <t>NKE</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>MCO</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>DASH</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>CDNS</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>NTES</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>ELV</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>HWM</t>
+          <t>MMM</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>NTES</t>
+          <t>MS-PK</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ELV</t>
+          <t>AMT</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ORLY</t>
+          <t>BK</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>BAM</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>MS-PK</t>
+          <t>MS-PI</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>AMT</t>
+          <t>CRH</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BK</t>
+          <t>ABNB</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BAM</t>
+          <t>TDG</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>MS-PI</t>
+          <t>MS-PF</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>CRH</t>
+          <t>MS-PE</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ABNB</t>
+          <t>CTAS</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>DELL</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>MS-PF</t>
+          <t>APO</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MS-PE</t>
+          <t>INFY</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>EQIX</t>
+          <t>SE</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CTAS</t>
+          <t>SNOW</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>RELX</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>APO</t>
+          <t>MRVL</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>GS-PA</t>
+          <t>WBD</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>RSG</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>TEL</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SNOW</t>
+          <t>NET</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>GS-PD</t>
+          <t>AJG</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>RELX</t>
+          <t>FTNT</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>CNI</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>DUK-PA</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>RSG</t>
+          <t>RACE</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>RKT</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>CTA-PB</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>AJG</t>
+          <t>URI</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>FTNT</t>
+          <t>NXPI</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>CNI</t>
+          <t>ADSK</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>DUK-PA</t>
+          <t>COIN</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>RACE</t>
+          <t>NDAQ</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>RKT</t>
+          <t>SRE</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>CTA-PB</t>
+          <t>IDXX</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>URI</t>
+          <t>TRI</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>NXPI</t>
+          <t>ZTS</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ADSK</t>
+          <t>BIDU</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>COIN</t>
+          <t>PYPL</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>NDAQ</t>
+          <t>VST</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>RBLX</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>IDXX</t>
+          <t>MET</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>MPLX</t>
+          <t>EA</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>TRI</t>
+          <t>SCHW-PD</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ZTS</t>
+          <t>WDAY</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BIDU</t>
+          <t>CBRE</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>FNV</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>EW</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>CMG</t>
+          <t>ARES</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>RBLX</t>
+          <t>CRWV</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>MET</t>
+          <t>AXON</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DDOG</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SCHW-PD</t>
+          <t>ALNY</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>WDAY</t>
+          <t>CTA-PA</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>CBRE</t>
+          <t>HEI</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>FNV</t>
+          <t>MSTR</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>EW</t>
+          <t>KGC</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ARES</t>
+          <t>MSCI</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>CRWV</t>
+          <t>TTWO</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>AXON</t>
+          <t>SPG-PJ</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>EXC</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ALNY</t>
+          <t>WCN</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>CTA-PA</t>
+          <t>ROP</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>HEI</t>
+          <t>JD</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>MET-PE</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>KGC</t>
+          <t>RKLB</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>MSCI</t>
+          <t>MET-PA</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>TTWO</t>
+          <t>CTSH</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SPG-PJ</t>
+          <t>TCOM</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>LVS</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>AIG</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ROP</t>
+          <t>IQV</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>JD</t>
+          <t>RDDT</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>EBAY</t>
+          <t>CPRT</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>MET-PE</t>
+          <t>XYZ</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>RKLB</t>
+          <t>HEI-A</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>MET-PA</t>
+          <t>ALC</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>GRMN</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>TCOM</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>LVS</t>
+          <t>PRU</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>AIG</t>
+          <t>PAYX</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>IQV</t>
+          <t>CCI</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>RDDT</t>
+          <t>MDLN</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>CPRT</t>
+          <t>RMD</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>XYZ</t>
+          <t>FICO</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>HEI-A</t>
+          <t>VEEV</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ALC</t>
+          <t>GEHC</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>GRMN</t>
+          <t>FISV</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TEAM</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>PRU</t>
+          <t>CPNG</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>OTIS</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>CCI</t>
+          <t>CLS</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>MDLN</t>
+          <t>SYM</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>RMD</t>
+          <t>APO-PA</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>FICO</t>
+          <t>XYL</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>VEEV</t>
+          <t>SATS</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>GEHC</t>
+          <t>LYV</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>FISV</t>
+          <t>ZS</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>TEAM</t>
+          <t>INSM</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>CPNG</t>
+          <t>NTRA</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>OTIS</t>
+          <t>RJF</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>CLS</t>
+          <t>MDB</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>SYM</t>
+          <t>PCG</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>APO-PA</t>
+          <t>EXPE</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>XYL</t>
+          <t>CHT</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>SATS</t>
+          <t>PSA-PK</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>LYV</t>
+          <t>ALL-PH</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>SOFI</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>INSM</t>
+          <t>ALL-PB</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>NTRA</t>
+          <t>FOXA</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>RJF</t>
+          <t>HUM</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>MDB</t>
+          <t>EXR</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>PCG</t>
+          <t>FIS</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>EXPE</t>
+          <t>FOX</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>CHT</t>
+          <t>VRSK</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>PSA-PK</t>
+          <t>QSR</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ALL-PH</t>
+          <t>FLUT</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>SOFI</t>
+          <t>VICI</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ALL-PB</t>
+          <t>AMRZ</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>FOXA</t>
+          <t>BNTX</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>HUM</t>
+          <t>MTD</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>EXR</t>
+          <t>NRG</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>FIS</t>
+          <t>SYF</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>FOX</t>
+          <t>UMC</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>HPE</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>QSR</t>
+          <t>TME</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>FLUT</t>
+          <t>STLA</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>VICI</t>
+          <t>CSGP</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>AMRZ</t>
+          <t>IRM</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>BNTX</t>
+          <t>ALAB</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>MTD</t>
+          <t>PAAS</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>WIT</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>SYF</t>
+          <t>LEN</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>BRO</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>HPE</t>
+          <t>PPL</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>TME</t>
+          <t>NMR</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>STLA</t>
+          <t>LEN-B</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>CSGP</t>
+          <t>EFX</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>IRM</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ALAB</t>
+          <t>TPR</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>PAAS</t>
+          <t>FSLR</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>WIT</t>
+          <t>MKL</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>LEN</t>
+          <t>AER</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>BRO</t>
+          <t>DLTR</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>PPL</t>
+          <t>AWK</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>EXE</t>
+          <t>OMC</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>NMR</t>
+          <t>STM</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>LEN-B</t>
+          <t>AVB</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>EFX</t>
+          <t>VLTO</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>TPR</t>
+          <t>DLR-PK</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>FCNCA</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>MKL</t>
+          <t>GFS</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>AER</t>
+          <t>RGLD</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>BR</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>AWK</t>
+          <t>LDOS</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>OMC</t>
+          <t>PSTG</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>STM</t>
+          <t>AXIA-PC</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>AVB</t>
+          <t>ILMN</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>VLTO</t>
+          <t>VRSN</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>TPG</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>DLR-PK</t>
+          <t>TROW</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>FCNCA</t>
+          <t>WAT</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>GFS</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>RGLD</t>
+          <t>CRDO</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>NBIS</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>PSTG</t>
+          <t>CPAY</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>AXIA-PC</t>
+          <t>LULU</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ILMN</t>
+          <t>OWL</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>VRSN</t>
+          <t>CNC</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>TPG</t>
+          <t>FUTU</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>TROW</t>
+          <t>AFRM</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>SW</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>DLR-PJ</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>CRDO</t>
+          <t>TLK</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>NBIS</t>
+          <t>CYBR</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>CPAY</t>
+          <t>FWONK</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>ALB</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>OWL</t>
+          <t>PSLV</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>CNC</t>
+          <t>FWONA</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>FUTU</t>
+          <t>CG</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>AFRM</t>
+          <t>RL</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>GPN</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>DLR-PJ</t>
+          <t>AS</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>TLK</t>
+          <t>SSNC</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>CYBR</t>
+          <t>GMAB</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>FWONK</t>
+          <t>TWLO</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ALB</t>
+          <t>IHG</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>PSLV</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>FWONA</t>
+          <t>INCY</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>HL</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>RL</t>
+          <t>SBAC</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>GPN</t>
+          <t>CHKP</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>PTC</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>SSNC</t>
+          <t>NTAP</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>GMAB</t>
+          <t>TOST</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>TWLO</t>
+          <t>GIB</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>IHG</t>
+          <t>RIVN</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>PODD</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>INCY</t>
+          <t>TYL</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>RVMD</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>SBAC</t>
+          <t>KTOS</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>CHKP</t>
+          <t>HIG-PG</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>GRAB</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>NTAP</t>
+          <t>IOT</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>TOST</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>GIB</t>
+          <t>SMCI</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>RIVN</t>
+          <t>DKS</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>PODD</t>
+          <t>HPQ</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>TYL</t>
+          <t>CRCL</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>RVMD</t>
+          <t>FITBI</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>KTOS</t>
+          <t>XPEV</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>MRNA</t>
+          <t>IT</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>HIG-PG</t>
+          <t>PSNYW</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>GRAB</t>
+          <t>AGI</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>ALLY</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>FTV</t>
+          <t>PNR</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>PINS</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>SMCI</t>
+          <t>ESS</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>DKS</t>
+          <t>SN</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>HPQ</t>
+          <t>WST</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>CRCL</t>
+          <t>HUBS</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>FITBI</t>
+          <t>ZBH</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>XPEV</t>
+          <t>NWS</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ZG</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>PSNYW</t>
+          <t>FN</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>AGI</t>
+          <t>TRMB</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ALLY</t>
+          <t>MEDP</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>KEY-PK</t>
+          <t>JLL</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>QXO</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>PINS</t>
+          <t>TXT</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>ESS</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>HOLX</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>THC</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>HUBS</t>
+          <t>APTV</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>ZBH</t>
+          <t>CDW</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>NWS</t>
+          <t>WES</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>TRU</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TTD</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>INVH</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>MEDP</t>
+          <t>MKC</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>JLL</t>
+          <t>CDE</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>QXO</t>
+          <t>NLY</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>MKC-V</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>HOLX</t>
+          <t>MAA</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>THC</t>
+          <t>OKTA</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>APTV</t>
+          <t>COO</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>TKO</t>
+          <t>TLN</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>GFL</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>WES</t>
+          <t>WMG</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>KSPI</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>ROKU</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>INVH</t>
+          <t>ROIV</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>MKC</t>
+          <t>GEN</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>CDE</t>
+          <t>NWSA</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>NLY</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>HTHT</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>MKC-V</t>
+          <t>IONQ</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>MAA</t>
+          <t>ONON</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>OKTA</t>
+          <t>CRBG</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>COO</t>
+          <t>DKNG</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>TLN</t>
+          <t>AVAV</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>GFL</t>
+          <t>MGA</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>WMG</t>
+          <t>KEY-PI</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>KSPI</t>
+          <t>MLI</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ROKU</t>
+          <t>HMY</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ROIV</t>
+          <t>ULS</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>GEN</t>
+          <t>GDDY</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>NWSA</t>
+          <t>ERIE</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>ARCC</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>HTHT</t>
+          <t>ICLR</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>FIG</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>ONON</t>
+          <t>RGC</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>CRBG</t>
+          <t>RF-PC</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>DKNG</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>AVAV</t>
+          <t>AKAM</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>MGA</t>
+          <t>EVR</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>KEY-PI</t>
+          <t>CELH</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>DPZ</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>HMY</t>
+          <t>BBY</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>ULS</t>
+          <t>EMBJ</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>GDDY</t>
+          <t>UDR</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>ERIE</t>
+          <t>SBSW</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>ARCC</t>
+          <t>LOGI</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>ICLR</t>
+          <t>EQH</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>FIG</t>
+          <t>GWRE</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>RGC</t>
+          <t>SOLV</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>RF-PC</t>
+          <t>BILI</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>RBRK</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>AKAM</t>
+          <t>FIGR</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>EVR</t>
+          <t>NLY-PF</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>CELH</t>
+          <t>AMH</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>DPZ</t>
+          <t>OHI</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>BBY</t>
+          <t>RVTY</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>EMBJ</t>
+          <t>JKHY</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>RYAN</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>SBSW</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>LOGI</t>
+          <t>PSKY</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>EQH</t>
+          <t>CHWY</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>GWRE</t>
+          <t>LAMR</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>SOLV</t>
+          <t>UNM</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>BILI</t>
+          <t>SNAP</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>RBRK</t>
+          <t>JEF</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>FIGR</t>
+          <t>BNT</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>NLY-PF</t>
+          <t>OKLO</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>AMH</t>
+          <t>HLI</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>OHI</t>
+          <t>GLPI</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>RVTY</t>
+          <t>EQX</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>JKHY</t>
+          <t>IVZ</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>RYAN</t>
+          <t>ACM</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>AGNC</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>PSKY</t>
+          <t>BMNR</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>CHWY</t>
+          <t>GLXY</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>LAMR</t>
+          <t>GMED</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>UNM</t>
+          <t>AMKR</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>SNAP</t>
+          <t>DT</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>JEF</t>
+          <t>ZBRA</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>BNT</t>
+          <t>DOC</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>OKLO</t>
+          <t>SMMT</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>HLI</t>
+          <t>RMBS</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>GLPI</t>
+          <t>EPAM</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>EQX</t>
+          <t>ALGN</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>IVZ</t>
+          <t>JOBY</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>SUZ</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>AGNC</t>
+          <t>CR</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>BMNR</t>
+          <t>CMA</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>GLXY</t>
+          <t>TEM</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>GMED</t>
+          <t>WYNN</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>AMKR</t>
+          <t>EXEL</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>NTNX</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>ZBRA</t>
+          <t>BSY</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>NIO</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>SMMT</t>
+          <t>DOCU</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>RMBS</t>
+          <t>CPT</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>BXP</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>ALGN</t>
+          <t>LSCC</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>JOBY</t>
+          <t>CEF</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>SUZ</t>
+          <t>MDGL</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>BAH</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>CMA</t>
+          <t>MICC</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>TEM</t>
+          <t>CNM</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>WYNN</t>
+          <t>WTRG</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>EXEL</t>
+          <t>SARO</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>NTNX</t>
+          <t>CRL</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>BSY</t>
+          <t>AR</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>NIO</t>
+          <t>MOH</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>DOCU</t>
+          <t>MANH</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>CPT</t>
+          <t>FDS</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>BXP</t>
+          <t>AFG</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>LSCC</t>
+          <t>CART</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>STN</t>
+          <t>PAG</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>CEF</t>
+          <t>SEIC</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>MDGL</t>
+          <t>TECH</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>CAE</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>MICC</t>
+          <t>YMM</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>CNM</t>
+          <t>ENSG</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>WTRG</t>
+          <t>PCOR</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>SARO</t>
+          <t>KLAR</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>ARMK</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>JAZZ</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>MOH</t>
+          <t>CHYM</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>MANH</t>
+          <t>VNO-PL</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>FDS</t>
+          <t>SAIL</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>SANM</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>CART</t>
+          <t>NGD</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>PAG</t>
+          <t>POOL</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>SEIC</t>
+          <t>COMP</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>TECH</t>
+          <t>BIO-B</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>CAE</t>
+          <t>EHC</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>YMM</t>
+          <t>ALV</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>ENSG</t>
+          <t>SOLS</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>ONTO</t>
+          <t>ARE</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>PCOR</t>
+          <t>EGO</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>KLAR</t>
+          <t>BROS</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>ARMK</t>
+          <t>AAL</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>CHYM</t>
+          <t>ORI</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>AYI</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>SANM</t>
+          <t>ABVX</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>NGD</t>
+          <t>EGP</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>POOL</t>
+          <t>HSIC</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>VNO-PM</t>
+          <t>KNSL</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>COMP</t>
+          <t>IESC</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>BIO-B</t>
+          <t>MGM</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>EHC</t>
+          <t>UWMC</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>ALV</t>
+          <t>RGEN</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>SOLS</t>
+          <t>DOX</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>STEP</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>EGO</t>
+          <t>LINE</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>BROS</t>
+          <t>SITM</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>AAL</t>
+          <t>SWKS</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>ORI</t>
+          <t>OGE</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>AYI</t>
+          <t>MORN</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>ABVX</t>
+          <t>AMG</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>EGP</t>
+          <t>LUMN</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>HSIC</t>
+          <t>GGAL</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>KNSL</t>
+          <t>QBTS</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>IESC</t>
+          <t>TTAN</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>RZB</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>UWMC</t>
+          <t>FRT</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>RGEN</t>
+          <t>AGNCM</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>DOX</t>
+          <t>AGNCN</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>STEP</t>
+          <t>PEGA</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>VIPS</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>SITM</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>SWKS</t>
+          <t>AUR</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>OGE</t>
+          <t>IDCC</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>MORN</t>
+          <t>PL</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>AMG</t>
+          <t>LEVI</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
-        <is>
-          <t>LUMN</t>
-        </is>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>GGAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="inlineStr">
-        <is>
-          <t>QBTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="inlineStr">
-        <is>
-          <t>TTAN</t>
-        </is>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" t="inlineStr">
-        <is>
-          <t>RZB</t>
-        </is>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="inlineStr">
-        <is>
-          <t>FRT</t>
-        </is>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" t="inlineStr">
-        <is>
-          <t>AGNCM</t>
-        </is>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="inlineStr">
-        <is>
-          <t>AGNCN</t>
-        </is>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" t="inlineStr">
-        <is>
-          <t>PEGA</t>
-        </is>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" t="inlineStr">
-        <is>
-          <t>VIPS</t>
-        </is>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" t="inlineStr">
-        <is>
-          <t>OR</t>
-        </is>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="inlineStr">
-        <is>
-          <t>AUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" t="inlineStr">
-        <is>
-          <t>IDCC</t>
-        </is>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" t="inlineStr">
-        <is>
-          <t>LEVI</t>
-        </is>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" t="inlineStr">
         <is>
           <t>ADC</t>
         </is>

--- a/scan_skipped.xlsx
+++ b/scan_skipped.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A491"/>
+  <dimension ref="A1:A455"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,21 +445,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AVGO</t>
+          <t>AMZN</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>AVGO</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LLY</t>
+          <t>TSLA</t>
         </is>
       </c>
     </row>
@@ -487,1225 +487,1225 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>AMD</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>PLTR</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>JPM-PD</t>
+          <t>ABBV</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>JPM-PC</t>
+          <t>NFLX</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>GS</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BAC-PK</t>
+          <t>JPM-PD</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BAC-PL</t>
+          <t>JPM-PC</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AZN</t>
+          <t>UNH</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NVO</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>BAC-PK</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>GE</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BAC-PE</t>
+          <t>BAC-PL</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BML-PL</t>
+          <t>NVO</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BAC-PB</t>
+          <t>LRCX</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>SAP</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>IBM</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CRM</t>
+          <t>BAC-PE</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>KLAC</t>
+          <t>BML-PL</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>WFC-PY</t>
+          <t>AMAT</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>BAC-PB</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>AXP</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>WFC-PL</t>
+          <t>TMO</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>CRM</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ISRG</t>
+          <t>KLAC</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>WFC-PY</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SAN</t>
+          <t>DIS</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BX</t>
+          <t>BA</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>WFC-PL</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SHOP</t>
+          <t>APH</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>ISRG</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BLK</t>
+          <t>ABT</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>BX</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>DHR</t>
+          <t>APP</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TJX</t>
+          <t>ANET</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>SHOP</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>ACN</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SPGI</t>
+          <t>BLK</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>UBER</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PDD</t>
+          <t>DHR</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>BKNG</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>QCOM</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>COF</t>
+          <t>SPGI</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BSX</t>
+          <t>INTU</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SONY</t>
+          <t>UBS</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>PDD</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>NOW</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>WFC-PC</t>
+          <t>COF</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PGR</t>
+          <t>BSX</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>SONY</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>PANW</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MELI</t>
+          <t>ADBE</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>WELL</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>AEM</t>
+          <t>WFC-PC</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>PGR</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BN</t>
+          <t>ARM</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SPOT</t>
+          <t>CRWD</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>MELI</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>KKR</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CVNA</t>
+          <t>AEM</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ICE</t>
+          <t>CVS</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>BN</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SNPS</t>
+          <t>SPOT</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>ADP</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>CEG</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>MCK</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>CVNA</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>ICE</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>GD</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>NTES</t>
+          <t>SNPS</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ELV</t>
+          <t>HOOD</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>MCO</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MS-PK</t>
+          <t>DASH</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>AMT</t>
+          <t>NU</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BK</t>
+          <t>CDNS</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BAM</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>MS-PI</t>
+          <t>HWM</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>CRH</t>
+          <t>NTES</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ABNB</t>
+          <t>ELV</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>MS-PK</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>MS-PF</t>
+          <t>AMT</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>MS-PE</t>
+          <t>BAM</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CTAS</t>
+          <t>MS-PI</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>CRH</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>APO</t>
+          <t>ABNB</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>TDG</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>DB</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SNOW</t>
+          <t>MS-PF</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>RELX</t>
+          <t>MS-PE</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>APO</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>INFY</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>RSG</t>
+          <t>SE</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>USB-PP</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>SNOW</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>AJG</t>
+          <t>RELX</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>FTNT</t>
+          <t>MRVL</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CNI</t>
+          <t>WBD</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>DUK-PA</t>
+          <t>COR</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>RACE</t>
+          <t>TEL</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>RKT</t>
+          <t>NET</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>CTA-PB</t>
+          <t>AJG</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>URI</t>
+          <t>DUK-PA</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>NXPI</t>
+          <t>RACE</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ADSK</t>
+          <t>RKT</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>COIN</t>
+          <t>CTA-PB</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>NDAQ</t>
+          <t>URI</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>NXPI</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>IDXX</t>
+          <t>ADSK</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>TRI</t>
+          <t>COIN</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ZTS</t>
+          <t>NDAQ</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BIDU</t>
+          <t>SRE</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>IDXX</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>TRI</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>RBLX</t>
+          <t>BIDU</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>MET</t>
+          <t>PYPL</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>VST</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SCHW-PD</t>
+          <t>CCJ</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>WDAY</t>
+          <t>RBLX</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>CBRE</t>
+          <t>EA</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>FNV</t>
+          <t>SCHW-PD</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>EW</t>
+          <t>WDAY</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ARES</t>
+          <t>CBRE</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>CRWV</t>
+          <t>FNV</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>AXON</t>
+          <t>CAH</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>EW</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ALNY</t>
+          <t>ARES</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>CTA-PA</t>
+          <t>CRWV</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>HEI</t>
+          <t>AXON</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>DDOG</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>KGC</t>
+          <t>ALNY</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>MSCI</t>
+          <t>CTA-PA</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>TTWO</t>
+          <t>HEI</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SPG-PJ</t>
+          <t>MSTR</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>KGC</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>MSCI</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ROP</t>
+          <t>TTWO</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>JD</t>
+          <t>SPG-PJ</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>MET-PE</t>
+          <t>EXC</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>RKLB</t>
+          <t>WCN</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>MET-PA</t>
+          <t>ROP</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>JD</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>TCOM</t>
+          <t>EBAY</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>LVS</t>
+          <t>MET-PE</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>AIG</t>
+          <t>RKLB</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>IQV</t>
+          <t>MET-PA</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>RDDT</t>
+          <t>CTSH</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>CPRT</t>
+          <t>TCOM</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>XYZ</t>
+          <t>LVS</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>HEI-A</t>
+          <t>IQV</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ALC</t>
+          <t>RDDT</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>GRMN</t>
+          <t>CPRT</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>XYZ</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>PRU</t>
+          <t>HEI-A</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>ALC</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>CCI</t>
+          <t>GRMN</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>MDLN</t>
+          <t>PEG</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>RMD</t>
+          <t>ASTS</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>FICO</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>VEEV</t>
+          <t>PRU</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>GEHC</t>
+          <t>PAYX</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>FISV</t>
+          <t>CCI</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>TEAM</t>
+          <t>MDLN</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>CPNG</t>
+          <t>FICO</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>OTIS</t>
+          <t>VEEV</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>CLS</t>
+          <t>FISV</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>SYM</t>
+          <t>TEAM</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>APO-PA</t>
+          <t>CPNG</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>XYL</t>
+          <t>CLS</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>SATS</t>
+          <t>SYM</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>LYV</t>
+          <t>APO-PA</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>SATS</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>INSM</t>
+          <t>LYV</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>NTRA</t>
+          <t>ZS</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>RJF</t>
+          <t>INSM</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>MDB</t>
+          <t>NTRA</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>PCG</t>
+          <t>MDB</t>
         </is>
       </c>
     </row>
@@ -1768,2093 +1768,1841 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>EXR</t>
+          <t>FIS</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>FIS</t>
+          <t>FOX</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>FOX</t>
+          <t>VRSK</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>FLUT</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>QSR</t>
+          <t>BNTX</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>FLUT</t>
+          <t>MTD</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>VICI</t>
+          <t>NRG</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>AMRZ</t>
+          <t>SYF</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>BNTX</t>
+          <t>UMC</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>MTD</t>
+          <t>TME</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>CSGP</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>SYF</t>
+          <t>ALAB</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>PAAS</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>HPE</t>
+          <t>WIT</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>TME</t>
+          <t>BRO</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>STLA</t>
+          <t>FE</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>CSGP</t>
+          <t>PPL</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>IRM</t>
+          <t>EXE</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ALAB</t>
+          <t>NMR</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>PAAS</t>
+          <t>EFX</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>WIT</t>
+          <t>TPR</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>LEN</t>
+          <t>FSLR</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>BRO</t>
+          <t>JBL</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>PPL</t>
+          <t>DLTR</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>NMR</t>
+          <t>AWK</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>LEN-B</t>
+          <t>OMC</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>EFX</t>
+          <t>VLTO</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>TPR</t>
+          <t>DLR-PK</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>GFS</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>MKL</t>
+          <t>RGLD</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>AER</t>
+          <t>CW</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>BR</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>AWK</t>
+          <t>LDOS</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>OMC</t>
+          <t>PSTG</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>STM</t>
+          <t>SQM</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>AVB</t>
+          <t>FLEX</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>VLTO</t>
+          <t>AXIA-PC</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>ILMN</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>DLR-PK</t>
+          <t>VRSN</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>FCNCA</t>
+          <t>TPG</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>GFS</t>
+          <t>TROW</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>RGLD</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CRDO</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>LDOS</t>
+          <t>NBIS</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>PSTG</t>
+          <t>CPAY</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>AXIA-PC</t>
+          <t>LULU</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ILMN</t>
+          <t>OWL</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>VRSN</t>
+          <t>CNC</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>TPG</t>
+          <t>FUTU</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>TROW</t>
+          <t>AFRM</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>DLR-PJ</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>TLK</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>CRDO</t>
+          <t>CYBR</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>NBIS</t>
+          <t>FWONK</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>CPAY</t>
+          <t>ALB</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>PSLV</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>OWL</t>
+          <t>FWONA</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>CNC</t>
+          <t>CG</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>FUTU</t>
+          <t>RL</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>AFRM</t>
+          <t>UTHR</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>GPN</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>DLR-PJ</t>
+          <t>AS</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>TLK</t>
+          <t>SSNC</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>CYBR</t>
+          <t>GMAB</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>FWONK</t>
+          <t>TWLO</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ALB</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>PSLV</t>
+          <t>HL</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>FWONA</t>
+          <t>SBAC</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>CHKP</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>RL</t>
+          <t>PTC</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>GPN</t>
+          <t>NTAP</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>TOST</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>SSNC</t>
+          <t>GIB</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>GMAB</t>
+          <t>RIVN</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>TWLO</t>
+          <t>PODD</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>IHG</t>
+          <t>TYL</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>RVMD</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>INCY</t>
+          <t>BWXT</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>KTOS</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>SBAC</t>
+          <t>HIG-PG</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>CHKP</t>
+          <t>GRAB</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>IOT</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>NTAP</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>TOST</t>
+          <t>CRCL</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>GIB</t>
+          <t>FITBI</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>RIVN</t>
+          <t>XPEV</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>PODD</t>
+          <t>IT</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>TYL</t>
+          <t>PSNYW</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>RVMD</t>
+          <t>AGI</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>KTOS</t>
+          <t>PNR</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>HIG-PG</t>
+          <t>PINS</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>GRAB</t>
+          <t>ESS</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>WST</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>HUBS</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>SMCI</t>
+          <t>NWS</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>DKS</t>
+          <t>IREN</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>HPQ</t>
+          <t>ZG</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>CRCL</t>
+          <t>FN</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>FITBI</t>
+          <t>TRMB</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>XPEV</t>
+          <t>MEDP</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JLL</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>PSNYW</t>
+          <t>TXT</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>AGI</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>ALLY</t>
+          <t>HOLX</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>WES</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>PINS</t>
+          <t>TRU</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>ESS</t>
+          <t>TTD</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>INVH</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>CDE</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>HUBS</t>
+          <t>NLY</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ZBH</t>
+          <t>MKC-V</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>NWS</t>
+          <t>OKTA</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>TLN</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>GFL</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>WMG</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>MEDP</t>
+          <t>KSPI</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>JLL</t>
+          <t>ROKU</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>QXO</t>
+          <t>ROIV</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>GEN</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>NWSA</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>HOLX</t>
+          <t>HTHT</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>THC</t>
+          <t>IONQ</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>APTV</t>
+          <t>ONON</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>DKNG</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>WES</t>
+          <t>AVAV</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>KEY-PI</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>BBIO</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>INVH</t>
+          <t>GH</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>MKC</t>
+          <t>MLI</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>CDE</t>
+          <t>HMY</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>NLY</t>
+          <t>PFGC</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>ULS</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>MKC-V</t>
+          <t>GDDY</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>MAA</t>
+          <t>ARCC</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>OKTA</t>
+          <t>ICLR</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>COO</t>
+          <t>FIG</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>TLN</t>
+          <t>RGC</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>GFL</t>
+          <t>RF-PC</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>WMG</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>KSPI</t>
+          <t>TSEM</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>ROKU</t>
+          <t>CACI</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>ROIV</t>
+          <t>AKAM</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>GEN</t>
+          <t>PEN</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>NWSA</t>
+          <t>EVR</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>CELH</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>HTHT</t>
+          <t>DPZ</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>EMBJ</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>ONON</t>
+          <t>SBSW</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>CRBG</t>
+          <t>LOGI</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>DKNG</t>
+          <t>EQH</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>AVAV</t>
+          <t>GWRE</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>MGA</t>
+          <t>SOLV</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>KEY-PI</t>
+          <t>NVMI</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>BILI</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>HMY</t>
+          <t>RBRK</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ULS</t>
+          <t>FIGR</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>GDDY</t>
+          <t>NLY-PF</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ERIE</t>
+          <t>AMH</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ARCC</t>
+          <t>OHI</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ICLR</t>
+          <t>RVTY</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>FIG</t>
+          <t>JKHY</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>RGC</t>
+          <t>RYAN</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>RF-PC</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>PSKY</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>AKAM</t>
+          <t>CHWY</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>EVR</t>
+          <t>LAMR</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>CELH</t>
+          <t>SNAP</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>DPZ</t>
+          <t>JEF</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>BBY</t>
+          <t>BNT</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>EMBJ</t>
+          <t>OKLO</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>HLI</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>SBSW</t>
+          <t>EQX</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>LOGI</t>
+          <t>IVZ</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>EQH</t>
+          <t>ACM</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>GWRE</t>
+          <t>AGNC</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>SOLV</t>
+          <t>BMNR</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>BILI</t>
+          <t>GLXY</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>RBRK</t>
+          <t>GMED</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>FIGR</t>
+          <t>AMKR</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>NLY-PF</t>
+          <t>DT</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>AMH</t>
+          <t>DOC</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>OHI</t>
+          <t>SMMT</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>RVTY</t>
+          <t>RMBS</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>JKHY</t>
+          <t>EPAM</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>RYAN</t>
+          <t>ALGN</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>JOBY</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>PSKY</t>
+          <t>SUZ</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>CHWY</t>
+          <t>CR</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>LAMR</t>
+          <t>CMA</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>UNM</t>
+          <t>TEM</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>SNAP</t>
+          <t>NYT</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>JEF</t>
+          <t>EXEL</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>BNT</t>
+          <t>NTNX</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>OKLO</t>
+          <t>BSY</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>HLI</t>
+          <t>NIO</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>GLPI</t>
+          <t>DOCU</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>EQX</t>
+          <t>BXP</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>IVZ</t>
+          <t>CEF</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>MDGL</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>AGNC</t>
+          <t>BAH</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>BMNR</t>
+          <t>MICC</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>GLXY</t>
+          <t>MP</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>GMED</t>
+          <t>QGEN</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>AMKR</t>
+          <t>WTRG</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>SARO</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>ZBRA</t>
+          <t>CRL</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>AR</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>SMMT</t>
+          <t>MOH</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>RMBS</t>
+          <t>DRS</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>MANH</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>ALGN</t>
+          <t>FDS</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>JOBY</t>
+          <t>CART</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>SUZ</t>
+          <t>SEIC</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>CAE</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>CMA</t>
+          <t>YMM</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>TEM</t>
+          <t>ENSG</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>WYNN</t>
+          <t>ONTO</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>EXEL</t>
+          <t>PCOR</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>NTNX</t>
+          <t>KLAR</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>BSY</t>
+          <t>ARMK</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>NIO</t>
+          <t>APLD</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>DOCU</t>
+          <t>JAZZ</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>CPT</t>
+          <t>CHYM</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>BXP</t>
+          <t>SAIL</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>LSCC</t>
+          <t>SANM</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>CEF</t>
+          <t>COKE</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>MDGL</t>
+          <t>NGD</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>VNO-PM</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>MICC</t>
+          <t>COMP</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>CNM</t>
+          <t>BIO-B</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>WTRG</t>
+          <t>EHC</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>SARO</t>
+          <t>SOLS</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>EGO</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>BROS</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>MOH</t>
+          <t>ORI</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>MANH</t>
+          <t>AYI</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>FDS</t>
+          <t>ABVX</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>HSIC</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>CART</t>
+          <t>IESC</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>PAG</t>
+          <t>UWMC</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>SEIC</t>
+          <t>RGEN</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>TECH</t>
+          <t>DOX</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>CAE</t>
+          <t>STEP</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>YMM</t>
+          <t>SWKS</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>ENSG</t>
+          <t>MORN</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>PCOR</t>
+          <t>GDS</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>KLAR</t>
+          <t>UEC</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>ARMK</t>
+          <t>LUMN</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>JAZZ</t>
+          <t>GGAL</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>CHYM</t>
+          <t>QBTS</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>VNO-PL</t>
+          <t>TTAN</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>RZB</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>SANM</t>
+          <t>AGNCM</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>NGD</t>
+          <t>AGNCN</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>POOL</t>
+          <t>PEGA</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>COMP</t>
+          <t>AHR</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>BIO-B</t>
+          <t>VIPS</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>EHC</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>ALV</t>
+          <t>AUR</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>SOLS</t>
+          <t>IDCC</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>PL</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>EGO</t>
-        </is>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>BROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>AAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>ORI</t>
-        </is>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>AYI</t>
-        </is>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>ABVX</t>
-        </is>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>HSIC</t>
-        </is>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>KNSL</t>
-        </is>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>IESC</t>
-        </is>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="inlineStr">
-        <is>
-          <t>MGM</t>
-        </is>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="inlineStr">
-        <is>
-          <t>UWMC</t>
-        </is>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>RGEN</t>
-        </is>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>DOX</t>
-        </is>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>LINE</t>
-        </is>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>SITM</t>
-        </is>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>SWKS</t>
-        </is>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>OGE</t>
-        </is>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>MORN</t>
-        </is>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>AMG</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>LUMN</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>GGAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>QBTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>TTAN</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>RZB</t>
-        </is>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>FRT</t>
-        </is>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>AGNCM</t>
-        </is>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>AGNCN</t>
-        </is>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>PEGA</t>
-        </is>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>VIPS</t>
-        </is>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>OR</t>
-        </is>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>AUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>IDCC</t>
-        </is>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
           <t>LEVI</t>
-        </is>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="inlineStr">
-        <is>
-          <t>ADC</t>
         </is>
       </c>
     </row>

--- a/scan_skipped.xlsx
+++ b/scan_skipped.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A455"/>
+  <dimension ref="A1:A499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,3155 +452,3463 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AVGO</t>
+          <t>TSM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>AVGO</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>TSLA</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>V</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BABA</t>
+          <t>ASML</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>ORCL</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>MU</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ABBV</t>
+          <t>BABA</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>AMD</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>PLTR</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>JPM-PD</t>
+          <t>ABBV</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>JPM-PC</t>
+          <t>NFLX</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>GS</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>JPM-PD</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BAC-PK</t>
+          <t>JPM-PC</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>UNH</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BAC-PL</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NVO</t>
+          <t>BAC-PK</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LRCX</t>
+          <t>GE</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>BAC-PL</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>NVO</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BAC-PE</t>
+          <t>LRCX</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BML-PL</t>
+          <t>SAP</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AMAT</t>
+          <t>IBM</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BAC-PB</t>
+          <t>BAC-PE</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>BML-PL</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>RTX</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CRM</t>
+          <t>AMAT</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>KLAC</t>
+          <t>BAC-PB</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>WFC-PY</t>
+          <t>AXP</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>TMO</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>CRM</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>WFC-PL</t>
+          <t>KLAC</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>WFC-PY</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ISRG</t>
+          <t>DIS</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>BA</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BX</t>
+          <t>WFC-PL</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>APH</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ANET</t>
+          <t>ISRG</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SHOP</t>
+          <t>ABT</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>BX</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BLK</t>
+          <t>APP</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>ANET</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>DHR</t>
+          <t>SHOP</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>ACN</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>BLK</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SPGI</t>
+          <t>UBER</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>DHR</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>UBS</t>
+          <t>BKNG</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PDD</t>
+          <t>QCOM</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>SPGI</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>COF</t>
+          <t>INTU</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BSX</t>
+          <t>UBS</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SONY</t>
+          <t>PDD</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>NOW</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>COF</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>WELL</t>
+          <t>BSX</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>WFC-PC</t>
+          <t>NEM</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PGR</t>
+          <t>SONY</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>PANW</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>ADBE</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MELI</t>
+          <t>WELL</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>WFC-PC</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>AEM</t>
+          <t>PGR</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>ARM</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BN</t>
+          <t>CRWD</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SPOT</t>
+          <t>MELI</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>KKR</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>AEM</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MCK</t>
+          <t>CVS</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CVNA</t>
+          <t>BN</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ICE</t>
+          <t>SPOT</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>ADP</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SNPS</t>
+          <t>CEG</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>MCK</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>CVNA</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>ICE</t>
    